--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72441BD2-F33A-42AB-BF67-3050EF7FAA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA616A21-C2A7-475D-975D-0564E04E3226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA616A21-C2A7-475D-975D-0564E04E3226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="metaData" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="drug info" sheetId="5" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$226</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,14 +40,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dauphine, David (CDPH-CHSI-PHPRB)</author>
     <author>Matt</author>
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C58" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R127" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="R127" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1448">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4120,18 +4122,6 @@
     <t>I50</t>
   </si>
   <si>
-    <t>6.a. Congestive heart failure</t>
-  </si>
-  <si>
-    <t>6.b. Other OR UNSPECIFIED cardiovascular diseases</t>
-  </si>
-  <si>
-    <t>I00, I260-I270, I272-I280, I34-I37, I44-I49, I51, I700-I849, I851-I858, I86-I99</t>
-  </si>
-  <si>
-    <t>I00|I26|I27[0,2-9]|I28|I3[4-7]|I4[4-9]|I51|I7|I8[0-4,6-9]|I85[1-8]|I9</t>
-  </si>
-  <si>
     <t>Other or unspecified cardiovascular diseases</t>
   </si>
   <si>
@@ -4567,15 +4557,87 @@
   <si>
     <t>topLevCode</t>
   </si>
+  <si>
+    <t>Accidental poisoning by and exposure to narcotics and psychodysleptics [hallucinogens], not elsewhere classified</t>
+  </si>
+  <si>
+    <t>Accidental poisoning by and exposure to other drugs acting on the autonomic nervous system</t>
+  </si>
+  <si>
+    <t>Accidental poisoning by and exposure to other and unspecified drugs, medicaments and biological substances</t>
+  </si>
+  <si>
+    <t>X42</t>
+  </si>
+  <si>
+    <t>X43</t>
+  </si>
+  <si>
+    <t>X44</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>...D.05. - Substance use disorders</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>....D.05.a. - Alcohol use disorders</t>
+  </si>
+  <si>
+    <t>D05a</t>
+  </si>
+  <si>
+    <t>....D.05.b. - Opioid use disorders</t>
+  </si>
+  <si>
+    <t>D05b</t>
+  </si>
+  <si>
+    <t>....D.05.c. - Cocaine use disorders</t>
+  </si>
+  <si>
+    <t>D05c</t>
+  </si>
+  <si>
+    <t>....D.05.d. - Amphetamine use disorders</t>
+  </si>
+  <si>
+    <t>D05d</t>
+  </si>
+  <si>
+    <t>cE02</t>
+  </si>
+  <si>
+    <t>cE03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Alcohol use disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Opioid use disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Cocaine use disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Amphetamine use disorders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4728,12 +4790,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4747,7 +4803,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4816,18 +4872,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4847,30 +4897,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4906,7 +4932,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5096,18 +5122,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5132,25 +5146,25 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5168,6 +5182,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5198,7 +5213,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5211,6 +5226,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Substance use disorders</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>D</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>05</v>
+          </cell>
+          <cell r="F1"/>
+          <cell r="H1" t="str">
+            <v>D05</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Alcohol use disorders</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>D</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>05</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>a</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>D05a</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Drug use disorders</v>
+          </cell>
+          <cell r="D3"/>
+          <cell r="E3"/>
+          <cell r="F3"/>
+          <cell r="H3"/>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Opioid use disorders</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>D</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>05</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>b</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>D05b</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Cocaine use disorders</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>D</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>05</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>D05c</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Amphetamine use disorders</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>D</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>05</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>d</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>D05d</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Cannabis use disorders</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>D</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>05</v>
+          </cell>
+          <cell r="F7"/>
+          <cell r="H7"/>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Other drug use disorders</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>D</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>05</v>
+          </cell>
+          <cell r="F8"/>
+          <cell r="H8"/>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5289,23 +5436,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5341,23 +5471,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5533,14 +5646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="A212" sqref="A212:K213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5563,8 +5676,8 @@
     <col min="16" max="16" width="71.28515625" style="16" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" style="64" customWidth="1"/>
     <col min="18" max="18" width="35.140625" style="64" customWidth="1"/>
-    <col min="19" max="19" width="62.140625" style="82" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" style="82" customWidth="1"/>
+    <col min="19" max="19" width="62.140625" style="78" customWidth="1"/>
+    <col min="20" max="20" width="40.7109375" style="78" customWidth="1"/>
     <col min="21" max="21" width="50.85546875" style="46" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="50.85546875" style="46" customWidth="1"/>
     <col min="23" max="23" width="50.42578125" style="46" customWidth="1"/>
@@ -5582,13 +5695,13 @@
         <v>762</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>1119</v>
@@ -5600,7 +5713,7 @@
         <v>1121</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>1301</v>
@@ -5615,10 +5728,10 @@
         <v>759</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>1155</v>
@@ -5626,10 +5739,10 @@
       <c r="R1" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="S1" s="80" t="s">
         <v>509</v>
       </c>
-      <c r="T1" s="84" t="s">
+      <c r="T1" s="80" t="s">
         <v>760</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -5675,8 +5788,8 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
       <c r="U2" s="1" t="s">
         <v>949</v>
       </c>
@@ -5699,7 +5812,7 @@
       <c r="D3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="85"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="25" t="s">
         <v>1132</v>
       </c>
@@ -5722,10 +5835,10 @@
       <c r="R3" s="58" t="s">
         <v>945</v>
       </c>
-      <c r="S3" s="78" t="s">
+      <c r="S3" s="74" t="s">
         <v>510</v>
       </c>
-      <c r="T3" s="78" t="s">
+      <c r="T3" s="74" t="s">
         <v>670</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -5748,7 +5861,7 @@
       <c r="D4" s="20" t="s">
         <v>1125</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="6" t="s">
         <v>1132</v>
       </c>
@@ -5769,8 +5882,8 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="58"/>
       <c r="R4" s="58"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
       <c r="U4" s="3" t="s">
         <v>1125</v>
       </c>
@@ -5791,7 +5904,7 @@
       <c r="D5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="86"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="6" t="s">
         <v>950</v>
       </c>
@@ -5811,10 +5924,10 @@
       <c r="R5" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="S5" s="78" t="s">
+      <c r="S5" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="T5" s="79" t="s">
+      <c r="T5" s="75" t="s">
         <v>672</v>
       </c>
       <c r="U5" s="2" t="s">
@@ -5839,7 +5952,7 @@
       <c r="D6" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="6" t="s">
         <v>1132</v>
       </c>
@@ -5869,10 +5982,10 @@
       <c r="R6" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="S6" s="78" t="s">
+      <c r="S6" s="74" t="s">
         <v>511</v>
       </c>
-      <c r="T6" s="78" t="s">
+      <c r="T6" s="74" t="s">
         <v>1109</v>
       </c>
       <c r="U6" s="5" t="s">
@@ -5895,8 +6008,8 @@
       <c r="D7" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="E7" s="85" t="s">
-        <v>1422</v>
+      <c r="E7" s="81" t="s">
+        <v>1418</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1132</v>
@@ -5918,8 +6031,8 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="58"/>
       <c r="R7" s="58"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
       <c r="U7" s="2" t="s">
         <v>1149</v>
       </c>
@@ -5940,7 +6053,7 @@
       <c r="D8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="6" t="s">
         <v>1132</v>
       </c>
@@ -5973,10 +6086,10 @@
       <c r="R8" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="S8" s="78" t="s">
+      <c r="S8" s="74" t="s">
         <v>512</v>
       </c>
-      <c r="T8" s="78" t="s">
+      <c r="T8" s="74" t="s">
         <v>1046</v>
       </c>
       <c r="U8" s="2" t="s">
@@ -6001,7 +6114,7 @@
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6030,10 +6143,10 @@
       <c r="R9" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="S9" s="78" t="s">
+      <c r="S9" s="74" t="s">
         <v>513</v>
       </c>
-      <c r="T9" s="78" t="s">
+      <c r="T9" s="74" t="s">
         <v>1047</v>
       </c>
       <c r="U9" s="5" t="s">
@@ -6058,7 +6171,7 @@
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6087,10 +6200,10 @@
       <c r="R10" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="S10" s="78" t="s">
+      <c r="S10" s="74" t="s">
         <v>514</v>
       </c>
-      <c r="T10" s="79" t="s">
+      <c r="T10" s="75" t="s">
         <v>1056</v>
       </c>
       <c r="U10" s="5" t="s">
@@ -6113,9 +6226,9 @@
         <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E11" s="85"/>
+        <v>1387</v>
+      </c>
+      <c r="E11" s="81"/>
       <c r="F11" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6144,10 +6257,10 @@
       <c r="R11" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="S11" s="78" t="s">
+      <c r="S11" s="74" t="s">
         <v>515</v>
       </c>
-      <c r="T11" s="78" t="s">
+      <c r="T11" s="74" t="s">
         <v>1045</v>
       </c>
       <c r="U11" s="5" t="s">
@@ -6172,7 +6285,7 @@
       <c r="D12" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6201,8 +6314,8 @@
       <c r="R12" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
       <c r="U12" s="5" t="s">
         <v>150</v>
       </c>
@@ -6227,7 +6340,7 @@
       <c r="D13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="85"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6256,10 +6369,10 @@
       <c r="R13" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="S13" s="78" t="s">
+      <c r="S13" s="74" t="s">
         <v>517</v>
       </c>
-      <c r="T13" s="78" t="s">
+      <c r="T13" s="74" t="s">
         <v>1044</v>
       </c>
       <c r="U13" s="5" t="s">
@@ -6284,7 +6397,7 @@
       <c r="D14" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="85"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6315,10 +6428,10 @@
       <c r="R14" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="S14" s="78" t="s">
+      <c r="S14" s="74" t="s">
         <v>518</v>
       </c>
-      <c r="T14" s="78" t="s">
+      <c r="T14" s="74" t="s">
         <v>1011</v>
       </c>
       <c r="U14" s="5" t="s">
@@ -6343,7 +6456,7 @@
       <c r="D15" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6372,8 +6485,8 @@
       <c r="R15" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
       <c r="U15" s="5" t="s">
         <v>153</v>
       </c>
@@ -6396,7 +6509,7 @@
       <c r="D16" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="85"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6425,10 +6538,10 @@
       <c r="R16" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="S16" s="78" t="s">
+      <c r="S16" s="74" t="s">
         <v>519</v>
       </c>
-      <c r="T16" s="78" t="s">
+      <c r="T16" s="74" t="s">
         <v>1011</v>
       </c>
       <c r="U16" s="5" t="s">
@@ -6451,9 +6564,9 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E17" s="85"/>
+        <v>1388</v>
+      </c>
+      <c r="E17" s="81"/>
       <c r="F17" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6480,10 +6593,10 @@
       <c r="R17" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="S17" s="78" t="s">
+      <c r="S17" s="74" t="s">
         <v>520</v>
       </c>
-      <c r="T17" s="78" t="s">
+      <c r="T17" s="74" t="s">
         <v>1057</v>
       </c>
       <c r="U17" s="5" t="s">
@@ -6508,7 +6621,7 @@
       <c r="D18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="6" t="s">
         <v>950</v>
       </c>
@@ -6534,8 +6647,8 @@
       <c r="R18" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
       <c r="U18" s="2" t="s">
         <v>156</v>
       </c>
@@ -6557,7 +6670,7 @@
       <c r="D19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="85"/>
+      <c r="E19" s="81"/>
       <c r="F19" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6584,10 +6697,10 @@
       <c r="R19" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="S19" s="78" t="s">
+      <c r="S19" s="74" t="s">
         <v>521</v>
       </c>
-      <c r="T19" s="78" t="s">
+      <c r="T19" s="74" t="s">
         <v>1058</v>
       </c>
       <c r="U19" s="5" t="s">
@@ -6612,7 +6725,7 @@
       <c r="D20" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6639,10 +6752,10 @@
       <c r="R20" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="S20" s="78" t="s">
+      <c r="S20" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="T20" s="78" t="s">
+      <c r="T20" s="74" t="s">
         <v>1042</v>
       </c>
       <c r="U20" s="5" t="s">
@@ -6667,7 +6780,7 @@
       <c r="D21" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6694,10 +6807,10 @@
       <c r="R21" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="S21" s="78" t="s">
+      <c r="S21" s="74" t="s">
         <v>523</v>
       </c>
-      <c r="T21" s="78" t="s">
+      <c r="T21" s="74" t="s">
         <v>1043</v>
       </c>
       <c r="U21" s="5" t="s">
@@ -6722,7 +6835,7 @@
       <c r="D22" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6749,10 +6862,10 @@
       <c r="R22" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="S22" s="78" t="s">
+      <c r="S22" s="74" t="s">
         <v>524</v>
       </c>
-      <c r="T22" s="78" t="s">
+      <c r="T22" s="74" t="s">
         <v>1041</v>
       </c>
       <c r="U22" s="5" t="s">
@@ -6777,7 +6890,7 @@
       <c r="D23" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6807,10 +6920,10 @@
       <c r="R23" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="S23" s="78" t="s">
+      <c r="S23" s="74" t="s">
         <v>525</v>
       </c>
-      <c r="T23" s="78" t="s">
+      <c r="T23" s="74" t="s">
         <v>1110</v>
       </c>
       <c r="U23" s="5" t="s">
@@ -6835,7 +6948,7 @@
       <c r="D24" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="85"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6865,10 +6978,10 @@
       <c r="R24" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="S24" s="78" t="s">
+      <c r="S24" s="74" t="s">
         <v>526</v>
       </c>
-      <c r="T24" s="78" t="s">
+      <c r="T24" s="74" t="s">
         <v>1059</v>
       </c>
       <c r="U24" s="5" t="s">
@@ -6893,7 +7006,7 @@
       <c r="D25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="85"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6915,8 +7028,8 @@
       <c r="R25" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
       <c r="U25" s="5" t="s">
         <v>163</v>
       </c>
@@ -6939,7 +7052,7 @@
       <c r="D26" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="6" t="s">
         <v>1132</v>
       </c>
@@ -6966,8 +7079,8 @@
       <c r="R26" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
       <c r="U26" s="5" t="s">
         <v>164</v>
       </c>
@@ -6990,7 +7103,7 @@
       <c r="D27" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="27" t="s">
         <v>1132</v>
       </c>
@@ -7011,10 +7124,10 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="Q27" s="58" t="s">
         <v>960</v>
@@ -7022,8 +7135,8 @@
       <c r="R27" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
       <c r="U27" s="5" t="s">
         <v>165</v>
       </c>
@@ -7042,7 +7155,7 @@
         <v>1131</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="85"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="27"/>
       <c r="G28" s="26"/>
       <c r="H28" s="6"/>
@@ -7053,8 +7166,8 @@
       <c r="M28" s="5"/>
       <c r="Q28" s="58"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
       <c r="U28" s="5"/>
       <c r="V28" s="45"/>
       <c r="W28" s="2"/>
@@ -7073,7 +7186,7 @@
       <c r="D29" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="27" t="s">
         <v>1132</v>
       </c>
@@ -7105,8 +7218,8 @@
       <c r="R29" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
       <c r="U29" s="5" t="s">
         <v>166</v>
       </c>
@@ -7129,7 +7242,7 @@
       <c r="D30" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="85"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7156,8 +7269,8 @@
       <c r="R30" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
       <c r="U30" s="5" t="s">
         <v>167</v>
       </c>
@@ -7180,7 +7293,7 @@
       <c r="D31" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="85"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="6" t="s">
         <v>950</v>
       </c>
@@ -7204,8 +7317,8 @@
       <c r="R31" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
       <c r="U31" s="2" t="s">
         <v>168</v>
       </c>
@@ -7228,7 +7341,7 @@
       <c r="D32" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="85"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7255,10 +7368,10 @@
       <c r="R32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="S32" s="78" t="s">
+      <c r="S32" s="74" t="s">
         <v>527</v>
       </c>
-      <c r="T32" s="78" t="s">
+      <c r="T32" s="74" t="s">
         <v>1040</v>
       </c>
       <c r="U32" s="5" t="s">
@@ -7283,7 +7396,7 @@
       <c r="D33" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7310,10 +7423,10 @@
       <c r="R33" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="S33" s="78" t="s">
+      <c r="S33" s="74" t="s">
         <v>528</v>
       </c>
-      <c r="T33" s="78" t="s">
+      <c r="T33" s="74" t="s">
         <v>1039</v>
       </c>
       <c r="U33" s="5" t="s">
@@ -7338,7 +7451,7 @@
       <c r="D34" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="85"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7365,10 +7478,10 @@
       <c r="R34" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S34" s="78" t="s">
+      <c r="S34" s="74" t="s">
         <v>529</v>
       </c>
-      <c r="T34" s="78" t="s">
+      <c r="T34" s="74" t="s">
         <v>1038</v>
       </c>
       <c r="U34" s="5" t="s">
@@ -7393,7 +7506,7 @@
       <c r="D35" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="85"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7420,10 +7533,10 @@
       <c r="R35" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="S35" s="78" t="s">
+      <c r="S35" s="74" t="s">
         <v>530</v>
       </c>
-      <c r="T35" s="78" t="s">
+      <c r="T35" s="74" t="s">
         <v>1048</v>
       </c>
       <c r="U35" s="5" t="s">
@@ -7448,7 +7561,7 @@
       <c r="D36" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="85"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7475,10 +7588,10 @@
       <c r="R36" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="S36" s="80" t="s">
+      <c r="S36" s="76" t="s">
         <v>1037</v>
       </c>
-      <c r="T36" s="80" t="s">
+      <c r="T36" s="76" t="s">
         <v>1037</v>
       </c>
       <c r="U36" s="5" t="s">
@@ -7503,7 +7616,7 @@
       <c r="D37" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="85"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7530,8 +7643,8 @@
       <c r="R37" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
       <c r="U37" s="5" t="s">
         <v>174</v>
       </c>
@@ -7554,7 +7667,7 @@
       <c r="D38" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="85"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7581,8 +7694,8 @@
       <c r="R38" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="74"/>
       <c r="U38" s="5" t="s">
         <v>175</v>
       </c>
@@ -7605,7 +7718,7 @@
       <c r="D39" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E39" s="85"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7632,10 +7745,10 @@
       <c r="R39" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="S39" s="80">
+      <c r="S39" s="76">
         <v>123.1</v>
       </c>
-      <c r="T39" s="80">
+      <c r="T39" s="76">
         <v>1231</v>
       </c>
       <c r="U39" s="5" t="s">
@@ -7660,7 +7773,7 @@
       <c r="D40" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="85"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7687,10 +7800,10 @@
       <c r="R40" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="S40" s="78" t="s">
+      <c r="S40" s="74" t="s">
         <v>531</v>
       </c>
-      <c r="T40" s="78" t="s">
+      <c r="T40" s="74" t="s">
         <v>1033</v>
       </c>
       <c r="U40" s="5" t="s">
@@ -7715,7 +7828,7 @@
       <c r="D41" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="E41" s="85"/>
+      <c r="E41" s="81"/>
       <c r="F41" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7742,8 +7855,8 @@
       <c r="R41" s="59" t="s">
         <v>757</v>
       </c>
-      <c r="S41" s="78"/>
-      <c r="T41" s="78"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
       <c r="U41" s="5" t="s">
         <v>758</v>
       </c>
@@ -7766,7 +7879,7 @@
       <c r="D42" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="85"/>
+      <c r="E42" s="81"/>
       <c r="F42" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7793,10 +7906,10 @@
       <c r="R42" s="59" t="s">
         <v>354</v>
       </c>
-      <c r="S42" s="78" t="s">
+      <c r="S42" s="74" t="s">
         <v>532</v>
       </c>
-      <c r="T42" s="78" t="s">
+      <c r="T42" s="74" t="s">
         <v>1036</v>
       </c>
       <c r="U42" s="5" t="s">
@@ -7821,7 +7934,7 @@
       <c r="D43" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="85"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7848,8 +7961,8 @@
       <c r="R43" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
       <c r="U43" s="5" t="s">
         <v>179</v>
       </c>
@@ -7872,7 +7985,7 @@
       <c r="D44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="85"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7899,10 +8012,10 @@
       <c r="R44" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="S44" s="78" t="s">
+      <c r="S44" s="74" t="s">
         <v>533</v>
       </c>
-      <c r="T44" s="78" t="s">
+      <c r="T44" s="74" t="s">
         <v>1035</v>
       </c>
       <c r="U44" s="5" t="s">
@@ -7927,7 +8040,7 @@
       <c r="D45" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="85"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="6" t="s">
         <v>1132</v>
       </c>
@@ -7954,10 +8067,10 @@
       <c r="R45" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="S45" s="78" t="s">
+      <c r="S45" s="74" t="s">
         <v>534</v>
       </c>
-      <c r="T45" s="78" t="s">
+      <c r="T45" s="74" t="s">
         <v>1034</v>
       </c>
       <c r="U45" s="5" t="s">
@@ -7982,7 +8095,7 @@
       <c r="D46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="85"/>
+      <c r="E46" s="81"/>
       <c r="F46" s="6" t="s">
         <v>950</v>
       </c>
@@ -8006,10 +8119,10 @@
       <c r="R46" s="58" t="s">
         <v>1118</v>
       </c>
-      <c r="S46" s="80">
+      <c r="S46" s="76">
         <v>127</v>
       </c>
-      <c r="T46" s="80">
+      <c r="T46" s="76">
         <v>127</v>
       </c>
       <c r="U46" s="2" t="s">
@@ -8034,7 +8147,7 @@
       <c r="D47" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E47" s="85"/>
+      <c r="E47" s="81"/>
       <c r="F47" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8061,10 +8174,10 @@
       <c r="R47" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="S47" s="80">
+      <c r="S47" s="76">
         <v>127</v>
       </c>
-      <c r="T47" s="80">
+      <c r="T47" s="76">
         <v>127</v>
       </c>
       <c r="U47" s="5" t="s">
@@ -8089,7 +8202,7 @@
       <c r="D48" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E48" s="85"/>
+      <c r="E48" s="81"/>
       <c r="F48" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8116,8 +8229,8 @@
       <c r="R48" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="S48" s="78"/>
-      <c r="T48" s="78"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74"/>
       <c r="U48" s="5" t="s">
         <v>184</v>
       </c>
@@ -8140,7 +8253,7 @@
       <c r="D49" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="85"/>
+      <c r="E49" s="81"/>
       <c r="F49" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8167,8 +8280,8 @@
       <c r="R49" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
+      <c r="S49" s="74"/>
+      <c r="T49" s="74"/>
       <c r="U49" s="5" t="s">
         <v>185</v>
       </c>
@@ -8191,7 +8304,7 @@
       <c r="D50" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E50" s="85"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8218,8 +8331,8 @@
       <c r="R50" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
       <c r="U50" s="5" t="s">
         <v>186</v>
       </c>
@@ -8242,7 +8355,7 @@
       <c r="D51" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E51" s="85"/>
+      <c r="E51" s="81"/>
       <c r="F51" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8265,7 +8378,7 @@
         <v>1223</v>
       </c>
       <c r="N51" s="19" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
@@ -8275,10 +8388,10 @@
       <c r="R51" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="S51" s="78" t="s">
+      <c r="S51" s="74" t="s">
         <v>535</v>
       </c>
-      <c r="T51" s="78" t="s">
+      <c r="T51" s="74" t="s">
         <v>1108</v>
       </c>
       <c r="U51" s="5" t="s">
@@ -8305,7 +8418,7 @@
       <c r="D52" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E52" s="85"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8334,10 +8447,10 @@
       <c r="R52" s="58" t="s">
         <v>363</v>
       </c>
-      <c r="S52" s="78" t="s">
+      <c r="S52" s="74" t="s">
         <v>536</v>
       </c>
-      <c r="T52" s="79" t="s">
+      <c r="T52" s="75" t="s">
         <v>673</v>
       </c>
       <c r="U52" s="2" t="s">
@@ -8362,7 +8475,7 @@
       <c r="D53" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E53" s="85"/>
+      <c r="E53" s="81"/>
       <c r="F53" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8385,14 +8498,14 @@
       <c r="M53" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="N53" s="70" t="s">
-        <v>1318</v>
-      </c>
-      <c r="O53" s="70" t="s">
-        <v>1342</v>
-      </c>
-      <c r="P53" s="70" t="s">
-        <v>1343</v>
+      <c r="N53" s="66" t="s">
+        <v>1314</v>
+      </c>
+      <c r="O53" s="66" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P53" s="66" t="s">
+        <v>1339</v>
       </c>
       <c r="Q53" s="58" t="s">
         <v>404</v>
@@ -8400,10 +8513,10 @@
       <c r="R53" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="S53" s="78" t="s">
+      <c r="S53" s="74" t="s">
         <v>537</v>
       </c>
-      <c r="T53" s="78" t="s">
+      <c r="T53" s="74" t="s">
         <v>1107</v>
       </c>
       <c r="U53" s="5" t="s">
@@ -8428,7 +8541,7 @@
       <c r="D54" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E54" s="85"/>
+      <c r="E54" s="81"/>
       <c r="F54" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8466,10 +8579,10 @@
       <c r="R54" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="S54" s="78" t="s">
+      <c r="S54" s="74" t="s">
         <v>538</v>
       </c>
-      <c r="T54" s="78" t="s">
+      <c r="T54" s="74" t="s">
         <v>1106</v>
       </c>
       <c r="U54" s="5" t="s">
@@ -8487,12 +8600,12 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="31" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E55" s="85"/>
+        <v>1404</v>
+      </c>
+      <c r="E55" s="81"/>
       <c r="F55" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8511,15 +8624,15 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="Q55" s="58"/>
       <c r="R55" s="59"/>
-      <c r="S55" s="78"/>
-      <c r="T55" s="78"/>
+      <c r="S55" s="74"/>
+      <c r="T55" s="74"/>
       <c r="U55" s="5"/>
       <c r="V55" s="45"/>
       <c r="W55" s="2"/>
@@ -8538,7 +8651,7 @@
       <c r="D56" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E56" s="85"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8571,10 +8684,10 @@
       <c r="R56" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="S56" s="78" t="s">
+      <c r="S56" s="74" t="s">
         <v>539</v>
       </c>
-      <c r="T56" s="78" t="s">
+      <c r="T56" s="74" t="s">
         <v>1060</v>
       </c>
       <c r="U56" s="5" t="s">
@@ -8599,7 +8712,7 @@
       <c r="D57" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E57" s="85"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8630,10 +8743,10 @@
       <c r="R57" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="S57" s="78" t="s">
+      <c r="S57" s="74" t="s">
         <v>540</v>
       </c>
-      <c r="T57" s="78" t="s">
+      <c r="T57" s="74" t="s">
         <v>674</v>
       </c>
       <c r="U57" s="2" t="s">
@@ -8656,9 +8769,9 @@
         <v>33</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E58" s="85"/>
+        <v>1389</v>
+      </c>
+      <c r="E58" s="81"/>
       <c r="F58" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8674,16 +8787,16 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="Q58" s="58" t="s">
         <v>408</v>
@@ -8691,10 +8804,10 @@
       <c r="R58" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="S58" s="78" t="s">
+      <c r="S58" s="74" t="s">
         <v>541</v>
       </c>
-      <c r="T58" s="78" t="s">
+      <c r="T58" s="74" t="s">
         <v>1064</v>
       </c>
       <c r="U58" s="5" t="s">
@@ -8704,7 +8817,7 @@
         <v>33</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -8721,7 +8834,7 @@
       <c r="D59" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E59" s="85"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8754,10 +8867,10 @@
       <c r="R59" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="S59" s="78" t="s">
+      <c r="S59" s="74" t="s">
         <v>542</v>
       </c>
-      <c r="T59" s="78" t="s">
+      <c r="T59" s="74" t="s">
         <v>1062</v>
       </c>
       <c r="U59" s="5" t="s">
@@ -8782,7 +8895,7 @@
       <c r="D60" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E60" s="85"/>
+      <c r="E60" s="81"/>
       <c r="F60" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8804,7 +8917,7 @@
         <v>370</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="P60" s="16" t="s">
         <v>370</v>
@@ -8815,10 +8928,10 @@
       <c r="R60" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="S60" s="78" t="s">
+      <c r="S60" s="74" t="s">
         <v>543</v>
       </c>
-      <c r="T60" s="80">
+      <c r="T60" s="76">
         <v>642</v>
       </c>
       <c r="U60" s="5" t="s">
@@ -8828,7 +8941,7 @@
         <v>35</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -8843,9 +8956,9 @@
         <v>36</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E61" s="85"/>
+        <v>1398</v>
+      </c>
+      <c r="E61" s="81"/>
       <c r="F61" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8878,10 +8991,10 @@
       <c r="R61" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="S61" s="78" t="s">
+      <c r="S61" s="74" t="s">
         <v>544</v>
       </c>
-      <c r="T61" s="78" t="s">
+      <c r="T61" s="74" t="s">
         <v>1063</v>
       </c>
       <c r="U61" s="5" t="s">
@@ -8906,7 +9019,7 @@
       <c r="D62" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="85"/>
+      <c r="E62" s="81"/>
       <c r="F62" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8928,10 +9041,10 @@
         <v>372</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="Q62" s="58" t="s">
         <v>412</v>
@@ -8939,10 +9052,10 @@
       <c r="R62" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="S62" s="78" t="s">
+      <c r="S62" s="74" t="s">
         <v>545</v>
       </c>
-      <c r="T62" s="78" t="s">
+      <c r="T62" s="74" t="s">
         <v>1061</v>
       </c>
       <c r="U62" s="5" t="s">
@@ -8967,7 +9080,7 @@
       <c r="D63" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="85"/>
+      <c r="E63" s="81"/>
       <c r="F63" s="6" t="s">
         <v>1132</v>
       </c>
@@ -8989,10 +9102,10 @@
         <v>373</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="Q63" s="58" t="s">
         <v>413</v>
@@ -9000,10 +9113,10 @@
       <c r="R63" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="S63" s="78" t="s">
+      <c r="S63" s="74" t="s">
         <v>546</v>
       </c>
-      <c r="T63" s="78" t="s">
+      <c r="T63" s="74" t="s">
         <v>1105</v>
       </c>
       <c r="U63" s="5" t="s">
@@ -9028,7 +9141,7 @@
       <c r="D64" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E64" s="85"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9059,10 +9172,10 @@
       <c r="R64" s="58" t="s">
         <v>1116</v>
       </c>
-      <c r="S64" s="78" t="s">
+      <c r="S64" s="74" t="s">
         <v>548</v>
       </c>
-      <c r="T64" s="78" t="s">
+      <c r="T64" s="74" t="s">
         <v>547</v>
       </c>
       <c r="U64" s="2" t="s">
@@ -9087,7 +9200,7 @@
       <c r="D65" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E65" s="85"/>
+      <c r="E65" s="81"/>
       <c r="F65" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9114,10 +9227,10 @@
       <c r="R65" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="S65" s="78" t="s">
+      <c r="S65" s="74" t="s">
         <v>549</v>
       </c>
-      <c r="T65" s="78" t="s">
+      <c r="T65" s="74" t="s">
         <v>1092</v>
       </c>
       <c r="U65" s="5" t="s">
@@ -9142,7 +9255,7 @@
       <c r="D66" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="85"/>
+      <c r="E66" s="81"/>
       <c r="F66" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9169,10 +9282,10 @@
       <c r="R66" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="S66" s="78" t="s">
+      <c r="S66" s="74" t="s">
         <v>550</v>
       </c>
-      <c r="T66" s="78" t="s">
+      <c r="T66" s="74" t="s">
         <v>1091</v>
       </c>
       <c r="U66" s="5" t="s">
@@ -9197,7 +9310,7 @@
       <c r="D67" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E67" s="85"/>
+      <c r="E67" s="81"/>
       <c r="F67" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9224,10 +9337,10 @@
       <c r="R67" s="59" t="s">
         <v>1117</v>
       </c>
-      <c r="S67" s="78" t="s">
+      <c r="S67" s="74" t="s">
         <v>551</v>
       </c>
-      <c r="T67" s="78" t="s">
+      <c r="T67" s="74" t="s">
         <v>1032</v>
       </c>
       <c r="U67" s="5" t="s">
@@ -9252,7 +9365,7 @@
       <c r="D68" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="85"/>
+      <c r="E68" s="81"/>
       <c r="F68" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9285,10 +9398,10 @@
       <c r="R68" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="S68" s="78" t="s">
+      <c r="S68" s="74" t="s">
         <v>552</v>
       </c>
-      <c r="T68" s="78" t="s">
+      <c r="T68" s="74" t="s">
         <v>1090</v>
       </c>
       <c r="U68" s="5" t="s">
@@ -9313,7 +9426,7 @@
       <c r="D69" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="85"/>
+      <c r="E69" s="81"/>
       <c r="F69" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9337,10 +9450,10 @@
       <c r="R69" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="S69" s="78" t="s">
+      <c r="S69" s="74" t="s">
         <v>553</v>
       </c>
-      <c r="T69" s="78" t="s">
+      <c r="T69" s="74" t="s">
         <v>675</v>
       </c>
       <c r="U69" s="2" t="s">
@@ -9365,7 +9478,7 @@
       <c r="D70" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E70" s="85"/>
+      <c r="E70" s="81"/>
       <c r="F70" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9392,10 +9505,10 @@
       <c r="R70" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="S70" s="78" t="s">
+      <c r="S70" s="74" t="s">
         <v>554</v>
       </c>
-      <c r="T70" s="78" t="s">
+      <c r="T70" s="74" t="s">
         <v>1065</v>
       </c>
       <c r="U70" s="5" t="s">
@@ -9420,7 +9533,7 @@
       <c r="D71" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E71" s="85"/>
+      <c r="E71" s="81"/>
       <c r="F71" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9447,10 +9560,10 @@
       <c r="R71" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="S71" s="80">
+      <c r="S71" s="76">
         <v>244.2</v>
       </c>
-      <c r="T71" s="80">
+      <c r="T71" s="76">
         <v>2442</v>
       </c>
       <c r="U71" s="5" t="s">
@@ -9475,7 +9588,7 @@
       <c r="D72" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E72" s="85"/>
+      <c r="E72" s="81"/>
       <c r="F72" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9502,8 +9615,8 @@
       <c r="R72" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="S72" s="78"/>
-      <c r="T72" s="78"/>
+      <c r="S72" s="74"/>
+      <c r="T72" s="74"/>
       <c r="U72" s="5" t="s">
         <v>207</v>
       </c>
@@ -9524,9 +9637,9 @@
         <v>48</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E73" s="85"/>
+        <v>1399</v>
+      </c>
+      <c r="E73" s="81"/>
       <c r="F73" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9553,10 +9666,10 @@
       <c r="R73" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="S73" s="78" t="s">
+      <c r="S73" s="74" t="s">
         <v>555</v>
       </c>
-      <c r="T73" s="78" t="s">
+      <c r="T73" s="74" t="s">
         <v>1031</v>
       </c>
       <c r="U73" s="5" t="s">
@@ -9581,7 +9694,7 @@
       <c r="D74" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E74" s="85"/>
+      <c r="E74" s="81"/>
       <c r="F74" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9608,10 +9721,10 @@
       <c r="R74" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="S74" s="78" t="s">
+      <c r="S74" s="74" t="s">
         <v>556</v>
       </c>
-      <c r="T74" s="78" t="s">
+      <c r="T74" s="74" t="s">
         <v>1066</v>
       </c>
       <c r="U74" s="5" t="s">
@@ -9636,7 +9749,7 @@
       <c r="D75" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="87"/>
+      <c r="E75" s="83"/>
       <c r="F75" s="6"/>
       <c r="G75" s="26"/>
       <c r="H75" s="6"/>
@@ -9658,10 +9771,10 @@
       <c r="R75" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="S75" s="81" t="s">
-        <v>1377</v>
-      </c>
-      <c r="T75" s="78" t="s">
+      <c r="S75" s="77" t="s">
+        <v>1373</v>
+      </c>
+      <c r="T75" s="74" t="s">
         <v>557</v>
       </c>
       <c r="U75" s="2" t="s">
@@ -9684,7 +9797,7 @@
       <c r="D76" s="20" t="s">
         <v>1150</v>
       </c>
-      <c r="E76" s="85"/>
+      <c r="E76" s="81"/>
       <c r="F76" s="25" t="s">
         <v>1135</v>
       </c>
@@ -9703,8 +9816,8 @@
       <c r="P76" s="19"/>
       <c r="Q76" s="58"/>
       <c r="R76" s="61"/>
-      <c r="S76" s="78"/>
-      <c r="T76" s="78"/>
+      <c r="S76" s="74"/>
+      <c r="T76" s="74"/>
       <c r="U76" s="45" t="s">
         <v>1150</v>
       </c>
@@ -9724,7 +9837,7 @@
       <c r="D77" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="E77" s="85"/>
+      <c r="E77" s="81"/>
       <c r="F77" s="25" t="s">
         <v>1133</v>
       </c>
@@ -9751,10 +9864,10 @@
       <c r="R77" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="S77" s="78" t="s">
+      <c r="S77" s="74" t="s">
         <v>559</v>
       </c>
-      <c r="T77" s="78" t="s">
+      <c r="T77" s="74" t="s">
         <v>558</v>
       </c>
       <c r="U77" s="2" t="s">
@@ -9779,7 +9892,7 @@
       <c r="D78" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E78" s="88"/>
+      <c r="E78" s="84"/>
       <c r="F78" s="6" t="s">
         <v>1133</v>
       </c>
@@ -9811,8 +9924,8 @@
       <c r="R78" s="62" t="s">
         <v>765</v>
       </c>
-      <c r="S78" s="78"/>
-      <c r="T78" s="78"/>
+      <c r="S78" s="74"/>
+      <c r="T78" s="74"/>
       <c r="U78" s="5" t="s">
         <v>212</v>
       </c>
@@ -9835,7 +9948,7 @@
       <c r="D79" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E79" s="85"/>
+      <c r="E79" s="81"/>
       <c r="F79" s="6" t="s">
         <v>1133</v>
       </c>
@@ -9868,10 +9981,10 @@
       <c r="R79" s="62" t="s">
         <v>766</v>
       </c>
-      <c r="S79" s="78" t="s">
+      <c r="S79" s="74" t="s">
         <v>560</v>
       </c>
-      <c r="T79" s="78" t="s">
+      <c r="T79" s="74" t="s">
         <v>1084</v>
       </c>
       <c r="U79" s="5" t="s">
@@ -9894,9 +10007,9 @@
         <v>699</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E80" s="85"/>
+        <v>1400</v>
+      </c>
+      <c r="E80" s="81"/>
       <c r="F80" s="6" t="s">
         <v>1133</v>
       </c>
@@ -9929,10 +10042,10 @@
       <c r="R80" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="S80" s="78" t="s">
+      <c r="S80" s="74" t="s">
         <v>561</v>
       </c>
-      <c r="T80" s="78" t="s">
+      <c r="T80" s="74" t="s">
         <v>1085</v>
       </c>
       <c r="U80" s="5" t="s">
@@ -9957,7 +10070,7 @@
       <c r="D81" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E81" s="85"/>
+      <c r="E81" s="81"/>
       <c r="F81" s="6" t="s">
         <v>1133</v>
       </c>
@@ -9986,10 +10099,10 @@
       <c r="R81" s="62" t="s">
         <v>768</v>
       </c>
-      <c r="S81" s="78" t="s">
+      <c r="S81" s="74" t="s">
         <v>562</v>
       </c>
-      <c r="T81" s="78" t="s">
+      <c r="T81" s="74" t="s">
         <v>1086</v>
       </c>
       <c r="U81" s="5" t="s">
@@ -10012,9 +10125,9 @@
         <v>53</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E82" s="88"/>
+        <v>1390</v>
+      </c>
+      <c r="E82" s="84"/>
       <c r="F82" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10050,10 +10163,10 @@
       <c r="R82" s="62" t="s">
         <v>426</v>
       </c>
-      <c r="S82" s="78" t="s">
+      <c r="S82" s="74" t="s">
         <v>563</v>
       </c>
-      <c r="T82" s="78" t="s">
+      <c r="T82" s="74" t="s">
         <v>1087</v>
       </c>
       <c r="U82" s="5" t="s">
@@ -10078,7 +10191,7 @@
       <c r="D83" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E83" s="88"/>
+      <c r="E83" s="84"/>
       <c r="F83" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10114,10 +10227,10 @@
       <c r="R83" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="S83" s="78" t="s">
+      <c r="S83" s="74" t="s">
         <v>564</v>
       </c>
-      <c r="T83" s="78" t="s">
+      <c r="T83" s="74" t="s">
         <v>1088</v>
       </c>
       <c r="U83" s="5" t="s">
@@ -10144,7 +10257,7 @@
       <c r="D84" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E84" s="88"/>
+      <c r="E84" s="84"/>
       <c r="F84" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10180,10 +10293,10 @@
       <c r="R84" s="62" t="s">
         <v>769</v>
       </c>
-      <c r="S84" s="78" t="s">
+      <c r="S84" s="74" t="s">
         <v>565</v>
       </c>
-      <c r="T84" s="78" t="s">
+      <c r="T84" s="74" t="s">
         <v>1089</v>
       </c>
       <c r="U84" s="5" t="s">
@@ -10208,7 +10321,7 @@
       <c r="D85" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="88"/>
+      <c r="E85" s="84"/>
       <c r="F85" s="27" t="s">
         <v>1133</v>
       </c>
@@ -10244,10 +10357,10 @@
       <c r="R85" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="S85" s="78" t="s">
+      <c r="S85" s="74" t="s">
         <v>566</v>
       </c>
-      <c r="T85" s="78" t="s">
+      <c r="T85" s="74" t="s">
         <v>1080</v>
       </c>
       <c r="U85" s="5" t="s">
@@ -10272,7 +10385,7 @@
       <c r="D86" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E86" s="88"/>
+      <c r="E86" s="84"/>
       <c r="F86" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10308,10 +10421,10 @@
       <c r="R86" s="62" t="s">
         <v>430</v>
       </c>
-      <c r="S86" s="78" t="s">
+      <c r="S86" s="74" t="s">
         <v>567</v>
       </c>
-      <c r="T86" s="78" t="s">
+      <c r="T86" s="74" t="s">
         <v>1081</v>
       </c>
       <c r="U86" s="5" t="s">
@@ -10336,8 +10449,8 @@
       <c r="D87" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E87" s="88" t="s">
-        <v>1423</v>
+      <c r="E87" s="84" t="s">
+        <v>1419</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>1133</v>
@@ -10374,10 +10487,10 @@
       <c r="R87" s="62" t="s">
         <v>770</v>
       </c>
-      <c r="S87" s="78" t="s">
+      <c r="S87" s="74" t="s">
         <v>568</v>
       </c>
-      <c r="T87" s="78" t="s">
+      <c r="T87" s="74" t="s">
         <v>1083</v>
       </c>
       <c r="U87" s="5" t="s">
@@ -10402,7 +10515,7 @@
       <c r="D88" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E88" s="88"/>
+      <c r="E88" s="84"/>
       <c r="F88" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10434,8 +10547,8 @@
       <c r="R88" s="62" t="s">
         <v>771</v>
       </c>
-      <c r="S88" s="78"/>
-      <c r="T88" s="78"/>
+      <c r="S88" s="74"/>
+      <c r="T88" s="74"/>
       <c r="U88" s="5" t="s">
         <v>222</v>
       </c>
@@ -10458,7 +10571,7 @@
       <c r="D89" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E89" s="85"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10491,10 +10604,10 @@
       <c r="R89" s="62" t="s">
         <v>772</v>
       </c>
-      <c r="S89" s="78" t="s">
+      <c r="S89" s="74" t="s">
         <v>569</v>
       </c>
-      <c r="T89" s="80">
+      <c r="T89" s="76">
         <v>172</v>
       </c>
       <c r="U89" s="5" t="s">
@@ -10519,7 +10632,7 @@
       <c r="D90" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E90" s="85"/>
+      <c r="E90" s="81"/>
       <c r="F90" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10552,10 +10665,10 @@
       <c r="R90" s="62" t="s">
         <v>773</v>
       </c>
-      <c r="S90" s="78" t="s">
+      <c r="S90" s="74" t="s">
         <v>570</v>
       </c>
-      <c r="T90" s="78" t="s">
+      <c r="T90" s="74" t="s">
         <v>1077</v>
       </c>
       <c r="U90" s="5" t="s">
@@ -10580,7 +10693,7 @@
       <c r="D91" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E91" s="85"/>
+      <c r="E91" s="81"/>
       <c r="F91" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10616,10 +10729,10 @@
       <c r="R91" s="62" t="s">
         <v>433</v>
       </c>
-      <c r="S91" s="78" t="s">
+      <c r="S91" s="74" t="s">
         <v>571</v>
       </c>
-      <c r="T91" s="78" t="s">
+      <c r="T91" s="74" t="s">
         <v>1078</v>
       </c>
       <c r="U91" s="5" t="s">
@@ -10642,7 +10755,7 @@
       <c r="D92" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="E92" s="85"/>
+      <c r="E92" s="81"/>
       <c r="F92" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10664,8 +10777,8 @@
       <c r="P92" s="49"/>
       <c r="Q92" s="58"/>
       <c r="R92" s="62"/>
-      <c r="S92" s="78"/>
-      <c r="T92" s="78"/>
+      <c r="S92" s="74"/>
+      <c r="T92" s="74"/>
       <c r="U92" s="5" t="s">
         <v>1258</v>
       </c>
@@ -10686,7 +10799,7 @@
       <c r="D93" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E93" s="85"/>
+      <c r="E93" s="81"/>
       <c r="F93" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10719,10 +10832,10 @@
       <c r="R93" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="S93" s="78" t="s">
+      <c r="S93" s="74" t="s">
         <v>572</v>
       </c>
-      <c r="T93" s="78" t="s">
+      <c r="T93" s="74" t="s">
         <v>1072</v>
       </c>
       <c r="U93" s="5" t="s">
@@ -10747,7 +10860,7 @@
       <c r="D94" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E94" s="85"/>
+      <c r="E94" s="81"/>
       <c r="F94" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10780,10 +10893,10 @@
       <c r="R94" s="62" t="s">
         <v>774</v>
       </c>
-      <c r="S94" s="78" t="s">
+      <c r="S94" s="74" t="s">
         <v>573</v>
       </c>
-      <c r="T94" s="78" t="s">
+      <c r="T94" s="74" t="s">
         <v>1071</v>
       </c>
       <c r="U94" s="5" t="s">
@@ -10808,7 +10921,7 @@
       <c r="D95" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E95" s="85"/>
+      <c r="E95" s="81"/>
       <c r="F95" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10844,10 +10957,10 @@
       <c r="R95" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="S95" s="78" t="s">
+      <c r="S95" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="T95" s="78" t="s">
+      <c r="T95" s="74" t="s">
         <v>1076</v>
       </c>
       <c r="U95" s="5" t="s">
@@ -10872,7 +10985,7 @@
       <c r="D96" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E96" s="85"/>
+      <c r="E96" s="81"/>
       <c r="F96" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10908,10 +11021,10 @@
       <c r="R96" s="62" t="s">
         <v>437</v>
       </c>
-      <c r="S96" s="78" t="s">
+      <c r="S96" s="74" t="s">
         <v>575</v>
       </c>
-      <c r="T96" s="78" t="s">
+      <c r="T96" s="74" t="s">
         <v>1075</v>
       </c>
       <c r="U96" s="5" t="s">
@@ -10936,7 +11049,7 @@
       <c r="D97" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E97" s="85"/>
+      <c r="E97" s="81"/>
       <c r="F97" s="6" t="s">
         <v>1133</v>
       </c>
@@ -10969,10 +11082,10 @@
       <c r="R97" s="62" t="s">
         <v>775</v>
       </c>
-      <c r="S97" s="78" t="s">
+      <c r="S97" s="74" t="s">
         <v>576</v>
       </c>
-      <c r="T97" s="78" t="s">
+      <c r="T97" s="74" t="s">
         <v>1079</v>
       </c>
       <c r="U97" s="5" t="s">
@@ -10997,7 +11110,7 @@
       <c r="D98" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E98" s="85"/>
+      <c r="E98" s="81"/>
       <c r="F98" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11033,10 +11146,10 @@
       <c r="R98" s="62" t="s">
         <v>776</v>
       </c>
-      <c r="S98" s="78" t="s">
+      <c r="S98" s="74" t="s">
         <v>577</v>
       </c>
-      <c r="T98" s="78" t="s">
+      <c r="T98" s="74" t="s">
         <v>1082</v>
       </c>
       <c r="U98" s="5" t="s">
@@ -11061,7 +11174,7 @@
       <c r="D99" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E99" s="85"/>
+      <c r="E99" s="81"/>
       <c r="F99" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11097,10 +11210,10 @@
       <c r="R99" s="62" t="s">
         <v>438</v>
       </c>
-      <c r="S99" s="78" t="s">
+      <c r="S99" s="74" t="s">
         <v>578</v>
       </c>
-      <c r="T99" s="78" t="s">
+      <c r="T99" s="74" t="s">
         <v>1074</v>
       </c>
       <c r="U99" s="5" t="s">
@@ -11125,7 +11238,7 @@
       <c r="D100" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E100" s="85"/>
+      <c r="E100" s="81"/>
       <c r="F100" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11161,10 +11274,10 @@
       <c r="R100" s="62" t="s">
         <v>777</v>
       </c>
-      <c r="S100" s="78" t="s">
+      <c r="S100" s="74" t="s">
         <v>579</v>
       </c>
-      <c r="T100" s="78" t="s">
+      <c r="T100" s="74" t="s">
         <v>1070</v>
       </c>
       <c r="U100" s="5" t="s">
@@ -11187,9 +11300,9 @@
         <v>707</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E101" s="85"/>
+        <v>1401</v>
+      </c>
+      <c r="E101" s="81"/>
       <c r="F101" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11222,10 +11335,10 @@
       <c r="R101" s="62" t="s">
         <v>778</v>
       </c>
-      <c r="S101" s="78" t="s">
+      <c r="S101" s="74" t="s">
         <v>580</v>
       </c>
-      <c r="T101" s="78" t="s">
+      <c r="T101" s="74" t="s">
         <v>1073</v>
       </c>
       <c r="U101" s="5" t="s">
@@ -11250,7 +11363,7 @@
       <c r="D102" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="E102" s="85"/>
+      <c r="E102" s="81"/>
       <c r="F102" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11283,10 +11396,10 @@
       <c r="R102" s="62" t="s">
         <v>779</v>
       </c>
-      <c r="S102" s="78" t="s">
+      <c r="S102" s="74" t="s">
         <v>581</v>
       </c>
-      <c r="T102" s="78" t="s">
+      <c r="T102" s="74" t="s">
         <v>1069</v>
       </c>
       <c r="U102" s="5" t="s">
@@ -11311,7 +11424,7 @@
       <c r="D103" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="E103" s="85"/>
+      <c r="E103" s="81"/>
       <c r="F103" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11344,10 +11457,10 @@
       <c r="R103" s="62" t="s">
         <v>780</v>
       </c>
-      <c r="S103" s="78" t="s">
+      <c r="S103" s="74" t="s">
         <v>582</v>
       </c>
-      <c r="T103" s="78" t="s">
+      <c r="T103" s="74" t="s">
         <v>1068</v>
       </c>
       <c r="U103" s="5" t="s">
@@ -11372,7 +11485,7 @@
       <c r="D104" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="E104" s="85"/>
+      <c r="E104" s="81"/>
       <c r="F104" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11401,10 +11514,10 @@
       <c r="R104" s="62" t="s">
         <v>781</v>
       </c>
-      <c r="S104" s="78" t="s">
+      <c r="S104" s="74" t="s">
         <v>583</v>
       </c>
-      <c r="T104" s="78" t="s">
+      <c r="T104" s="74" t="s">
         <v>1067</v>
       </c>
       <c r="U104" s="5" t="s">
@@ -11429,7 +11542,7 @@
       <c r="D105" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E105" s="85"/>
+      <c r="E105" s="81"/>
       <c r="F105" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11458,10 +11571,10 @@
       <c r="R105" s="62" t="s">
         <v>782</v>
       </c>
-      <c r="S105" s="78" t="s">
+      <c r="S105" s="74" t="s">
         <v>584</v>
       </c>
-      <c r="T105" s="78" t="s">
+      <c r="T105" s="74" t="s">
         <v>1030</v>
       </c>
       <c r="U105" s="5" t="s">
@@ -11486,7 +11599,7 @@
       <c r="D106" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="E106" s="85"/>
+      <c r="E106" s="81"/>
       <c r="F106" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11520,10 +11633,10 @@
       <c r="R106" s="62" t="s">
         <v>783</v>
       </c>
-      <c r="S106" s="78" t="s">
+      <c r="S106" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="T106" s="80">
+      <c r="T106" s="76">
         <v>201</v>
       </c>
       <c r="U106" s="5" t="s">
@@ -11548,7 +11661,7 @@
       <c r="D107" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="E107" s="85"/>
+      <c r="E107" s="81"/>
       <c r="F107" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11582,10 +11695,10 @@
       <c r="R107" s="62" t="s">
         <v>784</v>
       </c>
-      <c r="S107" s="78" t="s">
+      <c r="S107" s="74" t="s">
         <v>586</v>
       </c>
-      <c r="T107" s="78" t="s">
+      <c r="T107" s="74" t="s">
         <v>1029</v>
       </c>
       <c r="U107" s="5" t="s">
@@ -11610,7 +11723,7 @@
       <c r="D108" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="E108" s="85"/>
+      <c r="E108" s="81"/>
       <c r="F108" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11644,10 +11757,10 @@
       <c r="R108" s="62" t="s">
         <v>785</v>
       </c>
-      <c r="S108" s="78" t="s">
+      <c r="S108" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="T108" s="80">
+      <c r="T108" s="76">
         <v>203</v>
       </c>
       <c r="U108" s="5" t="s">
@@ -11670,9 +11783,9 @@
         <v>715</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="E109" s="85"/>
+        <v>1391</v>
+      </c>
+      <c r="E109" s="81"/>
       <c r="F109" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11704,10 +11817,10 @@
       <c r="R109" s="62" t="s">
         <v>786</v>
       </c>
-      <c r="S109" s="78" t="s">
+      <c r="S109" s="74" t="s">
         <v>588</v>
       </c>
-      <c r="T109" s="78" t="s">
+      <c r="T109" s="74" t="s">
         <v>1028</v>
       </c>
       <c r="U109" s="5" t="s">
@@ -11732,7 +11845,7 @@
       <c r="D110" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E110" s="85"/>
+      <c r="E110" s="81"/>
       <c r="F110" s="6" t="s">
         <v>1133</v>
       </c>
@@ -11768,8 +11881,8 @@
       <c r="R110" s="62" t="s">
         <v>787</v>
       </c>
-      <c r="S110" s="78"/>
-      <c r="T110" s="78"/>
+      <c r="S110" s="74"/>
+      <c r="T110" s="74"/>
       <c r="U110" s="5" t="s">
         <v>236</v>
       </c>
@@ -11792,7 +11905,7 @@
       <c r="D111" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E111" s="85"/>
+      <c r="E111" s="81"/>
       <c r="F111" s="6" t="s">
         <v>1135</v>
       </c>
@@ -11819,10 +11932,10 @@
       <c r="R111" s="62" t="s">
         <v>788</v>
       </c>
-      <c r="S111" s="78" t="s">
+      <c r="S111" s="74" t="s">
         <v>590</v>
       </c>
-      <c r="T111" s="81" t="s">
+      <c r="T111" s="77" t="s">
         <v>589</v>
       </c>
       <c r="U111" s="5" t="s">
@@ -11847,7 +11960,7 @@
       <c r="D112" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E112" s="85"/>
+      <c r="E112" s="81"/>
       <c r="F112" s="6" t="s">
         <v>1135</v>
       </c>
@@ -11873,13 +11986,13 @@
         <v>1242</v>
       </c>
       <c r="N112" s="49" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="O112" s="49" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="P112" s="49" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="Q112" s="58" t="s">
         <v>973</v>
@@ -11887,10 +12000,10 @@
       <c r="R112" s="62" t="s">
         <v>789</v>
       </c>
-      <c r="S112" s="78" t="s">
+      <c r="S112" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="T112" s="79" t="s">
+      <c r="T112" s="75" t="s">
         <v>591</v>
       </c>
       <c r="U112" s="5" t="s">
@@ -11900,7 +12013,7 @@
         <v>66</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
@@ -11917,7 +12030,7 @@
       <c r="D113" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E113" s="85"/>
+      <c r="E113" s="81"/>
       <c r="F113" s="6" t="s">
         <v>1135</v>
       </c>
@@ -11948,10 +12061,10 @@
       <c r="R113" s="61" t="s">
         <v>1297</v>
       </c>
-      <c r="S113" s="78" t="s">
+      <c r="S113" s="74" t="s">
         <v>684</v>
       </c>
-      <c r="T113" s="79" t="s">
+      <c r="T113" s="75" t="s">
         <v>685</v>
       </c>
       <c r="U113" s="5" t="s">
@@ -11976,7 +12089,7 @@
       <c r="D114" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E114" s="85"/>
+      <c r="E114" s="81"/>
       <c r="F114" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12005,10 +12118,10 @@
       <c r="R114" s="62" t="s">
         <v>790</v>
       </c>
-      <c r="S114" s="78" t="s">
+      <c r="S114" s="74" t="s">
         <v>593</v>
       </c>
-      <c r="T114" s="80">
+      <c r="T114" s="76">
         <v>2824</v>
       </c>
       <c r="U114" s="5" t="s">
@@ -12033,7 +12146,7 @@
       <c r="D115" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E115" s="85"/>
+      <c r="E115" s="81"/>
       <c r="F115" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12065,10 +12178,10 @@
       <c r="R115" s="62" t="s">
         <v>791</v>
       </c>
-      <c r="S115" s="78" t="s">
+      <c r="S115" s="74" t="s">
         <v>594</v>
       </c>
-      <c r="T115" s="80">
+      <c r="T115" s="76">
         <v>2826</v>
       </c>
       <c r="U115" s="5" t="s">
@@ -12091,9 +12204,9 @@
         <v>719</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E116" s="85"/>
+        <v>1402</v>
+      </c>
+      <c r="E116" s="81"/>
       <c r="F116" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12122,10 +12235,10 @@
       <c r="R116" s="62" t="s">
         <v>792</v>
       </c>
-      <c r="S116" s="78" t="s">
+      <c r="S116" s="74" t="s">
         <v>595</v>
       </c>
-      <c r="T116" s="78" t="s">
+      <c r="T116" s="74" t="s">
         <v>1103</v>
       </c>
       <c r="U116" s="5" t="s">
@@ -12150,7 +12263,7 @@
       <c r="D117" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E117" s="85"/>
+      <c r="E117" s="81"/>
       <c r="F117" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12179,10 +12292,10 @@
       <c r="R117" s="62" t="s">
         <v>793</v>
       </c>
-      <c r="S117" s="78" t="s">
+      <c r="S117" s="74" t="s">
         <v>596</v>
       </c>
-      <c r="T117" s="79" t="s">
+      <c r="T117" s="75" t="s">
         <v>1104</v>
       </c>
       <c r="U117" s="5" t="s">
@@ -12207,7 +12320,7 @@
       <c r="D118" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="E118" s="86"/>
+      <c r="E118" s="82"/>
       <c r="F118" s="6" t="s">
         <v>950</v>
       </c>
@@ -12235,10 +12348,10 @@
       <c r="R118" s="61" t="s">
         <v>794</v>
       </c>
-      <c r="S118" s="78" t="s">
+      <c r="S118" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="T118" s="78" t="s">
+      <c r="T118" s="74" t="s">
         <v>597</v>
       </c>
       <c r="U118" s="2" t="s">
@@ -12256,12 +12369,12 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="32" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E119" s="85"/>
+        <v>1333</v>
+      </c>
+      <c r="E119" s="81"/>
       <c r="F119" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12284,10 +12397,10 @@
       <c r="P119" s="19"/>
       <c r="Q119" s="58"/>
       <c r="R119" s="61"/>
-      <c r="S119" s="78"/>
-      <c r="T119" s="78"/>
+      <c r="S119" s="74"/>
+      <c r="T119" s="74"/>
       <c r="U119" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="V119" s="45"/>
       <c r="W119" s="2"/>
@@ -12299,12 +12412,12 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="32" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E120" s="85"/>
+        <v>1372</v>
+      </c>
+      <c r="E120" s="81"/>
       <c r="F120" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12325,8 +12438,8 @@
       <c r="P120" s="19"/>
       <c r="Q120" s="58"/>
       <c r="R120" s="61"/>
-      <c r="S120" s="78"/>
-      <c r="T120" s="78"/>
+      <c r="S120" s="74"/>
+      <c r="T120" s="74"/>
       <c r="U120" s="2" t="s">
         <v>1151</v>
       </c>
@@ -12343,7 +12456,7 @@
         <v>1127</v>
       </c>
       <c r="D121" s="2"/>
-      <c r="E121" s="85"/>
+      <c r="E121" s="81"/>
       <c r="F121" s="6"/>
       <c r="G121" s="26"/>
       <c r="H121" s="6"/>
@@ -12357,8 +12470,8 @@
       <c r="P121" s="19"/>
       <c r="Q121" s="58"/>
       <c r="R121" s="61"/>
-      <c r="S121" s="78"/>
-      <c r="T121" s="78"/>
+      <c r="S121" s="74"/>
+      <c r="T121" s="74"/>
       <c r="U121" s="2"/>
       <c r="V121" s="45"/>
       <c r="W121" s="2"/>
@@ -12377,7 +12490,7 @@
       <c r="D122" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E122" s="88"/>
+      <c r="E122" s="84"/>
       <c r="F122" s="6"/>
       <c r="G122" s="26"/>
       <c r="H122" s="6"/>
@@ -12399,8 +12512,8 @@
       <c r="R122" s="62" t="s">
         <v>795</v>
       </c>
-      <c r="S122" s="78"/>
-      <c r="T122" s="78"/>
+      <c r="S122" s="74"/>
+      <c r="T122" s="74"/>
       <c r="U122" s="2" t="s">
         <v>244</v>
       </c>
@@ -12423,7 +12536,7 @@
       <c r="D123" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E123" s="85"/>
+      <c r="E123" s="81"/>
       <c r="F123" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12456,8 +12569,8 @@
       <c r="R123" s="63" t="s">
         <v>796</v>
       </c>
-      <c r="S123" s="78"/>
-      <c r="T123" s="78"/>
+      <c r="S123" s="74"/>
+      <c r="T123" s="74"/>
       <c r="U123" s="2" t="s">
         <v>245</v>
       </c>
@@ -12480,7 +12593,7 @@
       <c r="D124" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E124" s="85"/>
+      <c r="E124" s="81"/>
       <c r="F124" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12513,8 +12626,8 @@
       <c r="R124" s="61" t="s">
         <v>797</v>
       </c>
-      <c r="S124" s="78"/>
-      <c r="T124" s="78"/>
+      <c r="S124" s="74"/>
+      <c r="T124" s="74"/>
       <c r="U124" s="2" t="s">
         <v>246</v>
       </c>
@@ -12537,7 +12650,7 @@
       <c r="D125" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="E125" s="88"/>
+      <c r="E125" s="84"/>
       <c r="F125" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12570,8 +12683,8 @@
       <c r="R125" s="62" t="s">
         <v>798</v>
       </c>
-      <c r="S125" s="78"/>
-      <c r="T125" s="78"/>
+      <c r="S125" s="74"/>
+      <c r="T125" s="74"/>
       <c r="U125" s="5" t="s">
         <v>906</v>
       </c>
@@ -12594,7 +12707,7 @@
       <c r="D126" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E126" s="88"/>
+      <c r="E126" s="84"/>
       <c r="F126" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12613,13 +12726,13 @@
         <v>443</v>
       </c>
       <c r="N126" s="49" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="O126" s="49" t="s">
         <v>443</v>
       </c>
       <c r="P126" s="49" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="Q126" s="58" t="s">
         <v>443</v>
@@ -12627,10 +12740,10 @@
       <c r="R126" s="62" t="s">
         <v>754</v>
       </c>
-      <c r="S126" s="78" t="s">
+      <c r="S126" s="74" t="s">
         <v>599</v>
       </c>
-      <c r="T126" s="80">
+      <c r="T126" s="76">
         <v>295</v>
       </c>
       <c r="U126" s="5" t="s">
@@ -12655,7 +12768,7 @@
       <c r="D127" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E127" s="88"/>
+      <c r="E127" s="84"/>
       <c r="F127" s="27" t="s">
         <v>1135</v>
       </c>
@@ -12693,10 +12806,10 @@
       <c r="R127" s="61" t="s">
         <v>1251</v>
       </c>
-      <c r="S127" s="78" t="s">
+      <c r="S127" s="74" t="s">
         <v>600</v>
       </c>
-      <c r="T127" s="78" t="s">
+      <c r="T127" s="74" t="s">
         <v>1094</v>
       </c>
       <c r="U127" s="5" t="s">
@@ -12721,7 +12834,7 @@
       <c r="D128" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E128" s="88"/>
+      <c r="E128" s="84"/>
       <c r="F128" s="6"/>
       <c r="G128" s="26"/>
       <c r="H128" s="6"/>
@@ -12743,10 +12856,10 @@
       <c r="R128" s="62" t="s">
         <v>799</v>
       </c>
-      <c r="S128" s="78" t="s">
+      <c r="S128" s="74" t="s">
         <v>601</v>
       </c>
-      <c r="T128" s="78" t="s">
+      <c r="T128" s="74" t="s">
         <v>1102</v>
       </c>
       <c r="U128" s="5" t="s">
@@ -12771,7 +12884,7 @@
       <c r="D129" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="E129" s="85"/>
+      <c r="E129" s="81"/>
       <c r="F129" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12789,15 +12902,15 @@
         <f>CONCATENATE(F129,G129,H129)</f>
         <v>D05b</v>
       </c>
-      <c r="K129" s="74" t="s">
-        <v>1372</v>
+      <c r="K129" s="70" t="s">
+        <v>1368</v>
       </c>
       <c r="L129" s="5"/>
       <c r="M129" s="5" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="N129" s="49" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="O129" s="49"/>
       <c r="P129" s="49"/>
@@ -12807,10 +12920,10 @@
       <c r="R129" s="62" t="s">
         <v>800</v>
       </c>
-      <c r="S129" s="78" t="s">
+      <c r="S129" s="74" t="s">
         <v>602</v>
       </c>
-      <c r="T129" s="78" t="s">
+      <c r="T129" s="74" t="s">
         <v>1097</v>
       </c>
       <c r="U129" s="5" t="s">
@@ -12835,7 +12948,7 @@
       <c r="D130" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="E130" s="85"/>
+      <c r="E130" s="81"/>
       <c r="F130" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12869,10 +12982,10 @@
       <c r="R130" s="62" t="s">
         <v>801</v>
       </c>
-      <c r="S130" s="78" t="s">
+      <c r="S130" s="74" t="s">
         <v>603</v>
       </c>
-      <c r="T130" s="78" t="s">
+      <c r="T130" s="74" t="s">
         <v>1096</v>
       </c>
       <c r="U130" s="5" t="s">
@@ -12897,7 +13010,7 @@
       <c r="D131" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="E131" s="85"/>
+      <c r="E131" s="81"/>
       <c r="F131" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12931,10 +13044,10 @@
       <c r="R131" s="62" t="s">
         <v>802</v>
       </c>
-      <c r="S131" s="78" t="s">
+      <c r="S131" s="74" t="s">
         <v>604</v>
       </c>
-      <c r="T131" s="78" t="s">
+      <c r="T131" s="74" t="s">
         <v>1095</v>
       </c>
       <c r="U131" s="5" t="s">
@@ -12959,7 +13072,7 @@
       <c r="D132" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="E132" s="85"/>
+      <c r="E132" s="81"/>
       <c r="F132" s="6" t="s">
         <v>1135</v>
       </c>
@@ -12987,8 +13100,8 @@
       <c r="R132" s="62" t="s">
         <v>803</v>
       </c>
-      <c r="S132" s="78"/>
-      <c r="T132" s="78"/>
+      <c r="S132" s="74"/>
+      <c r="T132" s="74"/>
       <c r="U132" s="5" t="s">
         <v>910</v>
       </c>
@@ -13011,7 +13124,7 @@
       <c r="D133" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="E133" s="85"/>
+      <c r="E133" s="81"/>
       <c r="F133" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13024,17 +13137,17 @@
         <v>cD05</v>
       </c>
       <c r="J133" s="40"/>
-      <c r="K133" s="74" t="s">
-        <v>1383</v>
+      <c r="K133" s="70" t="s">
+        <v>1379</v>
       </c>
       <c r="L133" s="5" t="s">
         <v>1154</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="N133" s="19" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="O133" s="19"/>
       <c r="P133" s="19"/>
@@ -13044,10 +13157,10 @@
       <c r="R133" s="62" t="s">
         <v>804</v>
       </c>
-      <c r="S133" s="78" t="s">
+      <c r="S133" s="74" t="s">
         <v>605</v>
       </c>
-      <c r="T133" s="78" t="s">
+      <c r="T133" s="74" t="s">
         <v>1098</v>
       </c>
       <c r="U133" s="5" t="s">
@@ -13074,7 +13187,7 @@
       <c r="D134" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E134" s="88"/>
+      <c r="E134" s="84"/>
       <c r="F134" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13103,8 +13216,8 @@
       <c r="R134" s="62" t="s">
         <v>805</v>
       </c>
-      <c r="S134" s="78"/>
-      <c r="T134" s="78"/>
+      <c r="S134" s="74"/>
+      <c r="T134" s="74"/>
       <c r="U134" s="5" t="s">
         <v>250</v>
       </c>
@@ -13127,7 +13240,7 @@
       <c r="D135" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E135" s="88"/>
+      <c r="E135" s="84"/>
       <c r="F135" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13156,10 +13269,10 @@
       <c r="R135" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="S135" s="78" t="s">
+      <c r="S135" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="T135" s="78" t="s">
+      <c r="T135" s="74" t="s">
         <v>1049</v>
       </c>
       <c r="U135" s="5" t="s">
@@ -13182,9 +13295,9 @@
         <v>729</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E136" s="88"/>
+        <v>1392</v>
+      </c>
+      <c r="E136" s="84"/>
       <c r="F136" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13213,8 +13326,8 @@
       <c r="R136" s="62" t="s">
         <v>806</v>
       </c>
-      <c r="S136" s="78"/>
-      <c r="T136" s="78"/>
+      <c r="S136" s="74"/>
+      <c r="T136" s="74"/>
       <c r="U136" s="5" t="s">
         <v>912</v>
       </c>
@@ -13235,9 +13348,9 @@
         <v>74</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E137" s="88"/>
+        <v>1393</v>
+      </c>
+      <c r="E137" s="84"/>
       <c r="F137" s="6"/>
       <c r="G137" s="26" t="s">
         <v>950</v>
@@ -13261,8 +13374,8 @@
       <c r="R137" s="62" t="s">
         <v>807</v>
       </c>
-      <c r="S137" s="78"/>
-      <c r="T137" s="78"/>
+      <c r="S137" s="74"/>
+      <c r="T137" s="74"/>
       <c r="U137" s="5" t="s">
         <v>913</v>
       </c>
@@ -13285,7 +13398,7 @@
       <c r="D138" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="E138" s="85"/>
+      <c r="E138" s="81"/>
       <c r="F138" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13314,8 +13427,8 @@
       <c r="R138" s="62" t="s">
         <v>808</v>
       </c>
-      <c r="S138" s="78"/>
-      <c r="T138" s="78"/>
+      <c r="S138" s="74"/>
+      <c r="T138" s="74"/>
       <c r="U138" s="5" t="s">
         <v>914</v>
       </c>
@@ -13338,7 +13451,7 @@
       <c r="D139" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="E139" s="85"/>
+      <c r="E139" s="81"/>
       <c r="F139" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13367,8 +13480,8 @@
       <c r="R139" s="62" t="s">
         <v>809</v>
       </c>
-      <c r="S139" s="78"/>
-      <c r="T139" s="78"/>
+      <c r="S139" s="74"/>
+      <c r="T139" s="74"/>
       <c r="U139" s="5" t="s">
         <v>915</v>
       </c>
@@ -13391,7 +13504,7 @@
       <c r="D140" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E140" s="88"/>
+      <c r="E140" s="84"/>
       <c r="F140" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13420,8 +13533,8 @@
       <c r="R140" s="62" t="s">
         <v>810</v>
       </c>
-      <c r="S140" s="78"/>
-      <c r="T140" s="78"/>
+      <c r="S140" s="74"/>
+      <c r="T140" s="74"/>
       <c r="U140" s="5" t="s">
         <v>252</v>
       </c>
@@ -13442,9 +13555,9 @@
         <v>76</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E141" s="85"/>
+        <v>1394</v>
+      </c>
+      <c r="E141" s="81"/>
       <c r="F141" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13473,8 +13586,8 @@
       <c r="R141" s="62" t="s">
         <v>811</v>
       </c>
-      <c r="S141" s="78"/>
-      <c r="T141" s="78"/>
+      <c r="S141" s="74"/>
+      <c r="T141" s="74"/>
       <c r="U141" s="5" t="s">
         <v>253</v>
       </c>
@@ -13497,7 +13610,7 @@
       <c r="D142" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E142" s="85"/>
+      <c r="E142" s="81"/>
       <c r="F142" s="6" t="s">
         <v>950</v>
       </c>
@@ -13523,10 +13636,10 @@
       <c r="R142" s="61" t="s">
         <v>812</v>
       </c>
-      <c r="S142" s="78" t="s">
+      <c r="S142" s="74" t="s">
         <v>608</v>
       </c>
-      <c r="T142" s="78" t="s">
+      <c r="T142" s="74" t="s">
         <v>683</v>
       </c>
       <c r="U142" s="2" t="s">
@@ -13553,8 +13666,8 @@
       <c r="D143" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E143" s="85" t="s">
-        <v>1425</v>
+      <c r="E143" s="81" t="s">
+        <v>1421</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>1135</v>
@@ -13587,10 +13700,10 @@
       <c r="R143" s="62" t="s">
         <v>813</v>
       </c>
-      <c r="S143" s="78" t="s">
+      <c r="S143" s="74" t="s">
         <v>609</v>
       </c>
-      <c r="T143" s="78" t="s">
+      <c r="T143" s="74" t="s">
         <v>1093</v>
       </c>
       <c r="U143" s="5" t="s">
@@ -13615,7 +13728,7 @@
       <c r="D144" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E144" s="88"/>
+      <c r="E144" s="84"/>
       <c r="F144" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13644,10 +13757,10 @@
       <c r="R144" s="62" t="s">
         <v>814</v>
       </c>
-      <c r="S144" s="78" t="s">
+      <c r="S144" s="74" t="s">
         <v>610</v>
       </c>
-      <c r="T144" s="80">
+      <c r="T144" s="76">
         <v>332</v>
       </c>
       <c r="U144" s="5" t="s">
@@ -13672,7 +13785,7 @@
       <c r="D145" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E145" s="88"/>
+      <c r="E145" s="84"/>
       <c r="F145" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13701,10 +13814,10 @@
       <c r="R145" s="62" t="s">
         <v>815</v>
       </c>
-      <c r="S145" s="78" t="s">
+      <c r="S145" s="74" t="s">
         <v>611</v>
       </c>
-      <c r="T145" s="80">
+      <c r="T145" s="76">
         <v>345</v>
       </c>
       <c r="U145" s="5" t="s">
@@ -13729,7 +13842,7 @@
       <c r="D146" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E146" s="88"/>
+      <c r="E146" s="84"/>
       <c r="F146" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13758,10 +13871,10 @@
       <c r="R146" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="S146" s="78" t="s">
+      <c r="S146" s="74" t="s">
         <v>612</v>
       </c>
-      <c r="T146" s="80">
+      <c r="T146" s="76">
         <v>340</v>
       </c>
       <c r="U146" s="5" t="s">
@@ -13786,7 +13899,7 @@
       <c r="D147" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E147" s="88"/>
+      <c r="E147" s="84"/>
       <c r="F147" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13815,8 +13928,8 @@
       <c r="R147" s="62" t="s">
         <v>452</v>
       </c>
-      <c r="S147" s="78"/>
-      <c r="T147" s="78"/>
+      <c r="S147" s="74"/>
+      <c r="T147" s="74"/>
       <c r="U147" s="5" t="s">
         <v>259</v>
       </c>
@@ -13839,7 +13952,7 @@
       <c r="D148" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E148" s="88"/>
+      <c r="E148" s="84"/>
       <c r="F148" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13868,8 +13981,8 @@
       <c r="R148" s="62" t="s">
         <v>453</v>
       </c>
-      <c r="S148" s="78"/>
-      <c r="T148" s="78"/>
+      <c r="S148" s="74"/>
+      <c r="T148" s="74"/>
       <c r="U148" s="5" t="s">
         <v>260</v>
       </c>
@@ -13892,7 +14005,7 @@
       <c r="D149" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E149" s="88"/>
+      <c r="E149" s="84"/>
       <c r="F149" s="6" t="s">
         <v>1135</v>
       </c>
@@ -13928,10 +14041,10 @@
       <c r="R149" s="62" t="s">
         <v>816</v>
       </c>
-      <c r="S149" s="78" t="s">
+      <c r="S149" s="74" t="s">
         <v>613</v>
       </c>
-      <c r="T149" s="78" t="s">
+      <c r="T149" s="74" t="s">
         <v>1101</v>
       </c>
       <c r="U149" s="5" t="s">
@@ -13956,7 +14069,7 @@
       <c r="D150" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E150" s="85"/>
+      <c r="E150" s="81"/>
       <c r="F150" s="6" t="s">
         <v>950</v>
       </c>
@@ -13982,8 +14095,8 @@
       <c r="R150" s="61" t="s">
         <v>817</v>
       </c>
-      <c r="S150" s="78"/>
-      <c r="T150" s="79"/>
+      <c r="S150" s="74"/>
+      <c r="T150" s="75"/>
       <c r="U150" s="2" t="s">
         <v>262</v>
       </c>
@@ -14008,7 +14121,7 @@
       <c r="D151" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E151" s="85"/>
+      <c r="E151" s="81"/>
       <c r="F151" s="6" t="s">
         <v>1135</v>
       </c>
@@ -14037,8 +14150,8 @@
       <c r="R151" s="62" t="s">
         <v>456</v>
       </c>
-      <c r="S151" s="78"/>
-      <c r="T151" s="78"/>
+      <c r="S151" s="74"/>
+      <c r="T151" s="74"/>
       <c r="U151" s="5" t="s">
         <v>263</v>
       </c>
@@ -14061,7 +14174,7 @@
       <c r="D152" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E152" s="85"/>
+      <c r="E152" s="81"/>
       <c r="F152" s="6" t="s">
         <v>1135</v>
       </c>
@@ -14090,8 +14203,8 @@
       <c r="R152" s="62" t="s">
         <v>818</v>
       </c>
-      <c r="S152" s="78"/>
-      <c r="T152" s="78"/>
+      <c r="S152" s="74"/>
+      <c r="T152" s="74"/>
       <c r="U152" s="5" t="s">
         <v>264</v>
       </c>
@@ -14114,7 +14227,7 @@
       <c r="D153" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E153" s="85"/>
+      <c r="E153" s="81"/>
       <c r="F153" s="6" t="s">
         <v>1135</v>
       </c>
@@ -14143,8 +14256,8 @@
       <c r="R153" s="62" t="s">
         <v>819</v>
       </c>
-      <c r="S153" s="78"/>
-      <c r="T153" s="78"/>
+      <c r="S153" s="74"/>
+      <c r="T153" s="74"/>
       <c r="U153" s="5" t="s">
         <v>265</v>
       </c>
@@ -14167,7 +14280,7 @@
       <c r="D154" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E154" s="85"/>
+      <c r="E154" s="81"/>
       <c r="F154" s="6" t="s">
         <v>1135</v>
       </c>
@@ -14196,8 +14309,8 @@
       <c r="R154" s="62" t="s">
         <v>820</v>
       </c>
-      <c r="S154" s="78"/>
-      <c r="T154" s="78"/>
+      <c r="S154" s="74"/>
+      <c r="T154" s="74"/>
       <c r="U154" s="5" t="s">
         <v>266</v>
       </c>
@@ -14220,7 +14333,7 @@
       <c r="D155" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E155" s="85"/>
+      <c r="E155" s="81"/>
       <c r="F155" s="6" t="s">
         <v>1135</v>
       </c>
@@ -14239,7 +14352,7 @@
         <v>460</v>
       </c>
       <c r="N155" s="49" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="O155" s="49"/>
       <c r="P155" s="49"/>
@@ -14249,8 +14362,8 @@
       <c r="R155" s="62" t="s">
         <v>821</v>
       </c>
-      <c r="S155" s="78"/>
-      <c r="T155" s="78"/>
+      <c r="S155" s="74"/>
+      <c r="T155" s="74"/>
       <c r="U155" s="5" t="s">
         <v>267</v>
       </c>
@@ -14273,7 +14386,7 @@
       <c r="D156" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E156" s="85"/>
+      <c r="E156" s="81"/>
       <c r="F156" s="6" t="s">
         <v>1135</v>
       </c>
@@ -14302,8 +14415,8 @@
       <c r="R156" s="62" t="s">
         <v>822</v>
       </c>
-      <c r="S156" s="78"/>
-      <c r="T156" s="78"/>
+      <c r="S156" s="74"/>
+      <c r="T156" s="74"/>
       <c r="U156" s="5" t="s">
         <v>268</v>
       </c>
@@ -14326,7 +14439,7 @@
       <c r="D157" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E157" s="85"/>
+      <c r="E157" s="81"/>
       <c r="F157" s="6" t="s">
         <v>1135</v>
       </c>
@@ -14355,8 +14468,8 @@
       <c r="R157" s="62" t="s">
         <v>823</v>
       </c>
-      <c r="S157" s="78"/>
-      <c r="T157" s="78"/>
+      <c r="S157" s="74"/>
+      <c r="T157" s="74"/>
       <c r="U157" s="5" t="s">
         <v>269</v>
       </c>
@@ -14381,7 +14494,7 @@
       <c r="D158" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E158" s="85"/>
+      <c r="E158" s="81"/>
       <c r="F158" s="25" t="s">
         <v>1134</v>
       </c>
@@ -14408,10 +14521,10 @@
       <c r="R158" s="61" t="s">
         <v>824</v>
       </c>
-      <c r="S158" s="78" t="s">
+      <c r="S158" s="74" t="s">
         <v>616</v>
       </c>
-      <c r="T158" s="78" t="s">
+      <c r="T158" s="74" t="s">
         <v>681</v>
       </c>
       <c r="U158" s="2" t="s">
@@ -14436,7 +14549,7 @@
       <c r="D159" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E159" s="88"/>
+      <c r="E159" s="84"/>
       <c r="F159" s="6" t="s">
         <v>1134</v>
       </c>
@@ -14455,13 +14568,13 @@
         <v>464</v>
       </c>
       <c r="N159" s="49" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="O159" s="49" t="s">
         <v>464</v>
       </c>
       <c r="P159" s="49" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="Q159" s="58" t="s">
         <v>464</v>
@@ -14469,10 +14582,10 @@
       <c r="R159" s="62" t="s">
         <v>825</v>
       </c>
-      <c r="S159" s="78" t="s">
+      <c r="S159" s="74" t="s">
         <v>617</v>
       </c>
-      <c r="T159" s="78" t="s">
+      <c r="T159" s="74" t="s">
         <v>1050</v>
       </c>
       <c r="U159" s="5" t="s">
@@ -14497,7 +14610,7 @@
       <c r="D160" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E160" s="88"/>
+      <c r="E160" s="84"/>
       <c r="F160" s="6" t="s">
         <v>1134</v>
       </c>
@@ -14533,10 +14646,10 @@
       <c r="R160" s="62" t="s">
         <v>826</v>
       </c>
-      <c r="S160" s="78" t="s">
+      <c r="S160" s="74" t="s">
         <v>618</v>
       </c>
-      <c r="T160" s="80">
+      <c r="T160" s="76">
         <v>402</v>
       </c>
       <c r="U160" s="5" t="s">
@@ -14559,9 +14672,9 @@
         <v>96</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E161" s="88"/>
+        <v>1395</v>
+      </c>
+      <c r="E161" s="84"/>
       <c r="F161" s="6" t="s">
         <v>1134</v>
       </c>
@@ -14597,10 +14710,10 @@
       <c r="R161" s="62" t="s">
         <v>827</v>
       </c>
-      <c r="S161" s="78" t="s">
+      <c r="S161" s="74" t="s">
         <v>619</v>
       </c>
-      <c r="T161" s="78" t="s">
+      <c r="T161" s="74" t="s">
         <v>1027</v>
       </c>
       <c r="U161" s="5" t="s">
@@ -14625,7 +14738,7 @@
       <c r="D162" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E162" s="88"/>
+      <c r="E162" s="84"/>
       <c r="F162" s="6" t="s">
         <v>1134</v>
       </c>
@@ -14657,7 +14770,7 @@
         <v>1219</v>
       </c>
       <c r="P162" s="49" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="Q162" s="58" t="s">
         <v>467</v>
@@ -14665,10 +14778,10 @@
       <c r="R162" s="62" t="s">
         <v>828</v>
       </c>
-      <c r="S162" s="78" t="s">
+      <c r="S162" s="74" t="s">
         <v>620</v>
       </c>
-      <c r="T162" s="78" t="s">
+      <c r="T162" s="74" t="s">
         <v>1054</v>
       </c>
       <c r="U162" s="5" t="s">
@@ -14693,7 +14806,7 @@
       <c r="D163" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E163" s="88"/>
+      <c r="E163" s="84"/>
       <c r="F163" s="6" t="s">
         <v>1134</v>
       </c>
@@ -14718,10 +14831,10 @@
         <v>829</v>
       </c>
       <c r="O163" s="49" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="P163" s="49" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="Q163" s="58" t="s">
         <v>468</v>
@@ -14729,10 +14842,10 @@
       <c r="R163" s="62" t="s">
         <v>829</v>
       </c>
-      <c r="S163" s="78" t="s">
+      <c r="S163" s="74" t="s">
         <v>621</v>
       </c>
-      <c r="T163" s="78" t="s">
+      <c r="T163" s="74" t="s">
         <v>1055</v>
       </c>
       <c r="U163" s="5" t="s">
@@ -14741,8 +14854,8 @@
       <c r="V163" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="W163" s="71" t="s">
-        <v>1334</v>
+      <c r="W163" s="67" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
@@ -14753,9 +14866,9 @@
       <c r="B164" s="2"/>
       <c r="C164" s="36"/>
       <c r="D164" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E164" s="88"/>
+        <v>1312</v>
+      </c>
+      <c r="E164" s="84"/>
       <c r="F164" s="6" t="s">
         <v>1134</v>
       </c>
@@ -14772,7 +14885,7 @@
         <v>C05</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="L164" s="5" t="s">
         <v>1205</v>
@@ -14791,8 +14904,8 @@
       </c>
       <c r="Q164" s="58"/>
       <c r="R164" s="62"/>
-      <c r="S164" s="78"/>
-      <c r="T164" s="78"/>
+      <c r="S164" s="74"/>
+      <c r="T164" s="74"/>
       <c r="U164" s="5"/>
       <c r="V164" s="51"/>
       <c r="W164" s="2"/>
@@ -14808,11 +14921,11 @@
       <c r="C165" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D165" s="69" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E165" s="85" t="s">
-        <v>1426</v>
+      <c r="D165" s="65" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E165" s="81" t="s">
+        <v>1422</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>1134</v>
@@ -14830,22 +14943,22 @@
         <v>C99</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="N165" s="19" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="O165" s="19" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="P165" s="19" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="Q165" s="58" t="s">
         <v>469</v>
@@ -14853,10 +14966,10 @@
       <c r="R165" s="62" t="s">
         <v>830</v>
       </c>
-      <c r="S165" s="78" t="s">
+      <c r="S165" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="T165" s="78" t="s">
+      <c r="T165" s="74" t="s">
         <v>1100</v>
       </c>
       <c r="U165" s="5" t="s">
@@ -14865,8 +14978,8 @@
       <c r="V165" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="W165" s="71" t="s">
-        <v>1331</v>
+      <c r="W165" s="67" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
@@ -14883,7 +14996,7 @@
       <c r="D166" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E166" s="85"/>
+      <c r="E166" s="81"/>
       <c r="F166" s="6" t="s">
         <v>950</v>
       </c>
@@ -14909,10 +15022,10 @@
       <c r="R166" s="61" t="s">
         <v>831</v>
       </c>
-      <c r="S166" s="78" t="s">
+      <c r="S166" s="74" t="s">
         <v>623</v>
       </c>
-      <c r="T166" s="78" t="s">
+      <c r="T166" s="74" t="s">
         <v>680</v>
       </c>
       <c r="U166" s="2" t="s">
@@ -14937,14 +15050,14 @@
       <c r="D167" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E167" s="85" t="s">
-        <v>1421</v>
+      <c r="E167" s="81" t="s">
+        <v>1417</v>
       </c>
       <c r="F167" s="27" t="s">
         <v>1135</v>
       </c>
-      <c r="G167" s="73" t="s">
-        <v>1339</v>
+      <c r="G167" s="69" t="s">
+        <v>1335</v>
       </c>
       <c r="H167" s="6"/>
       <c r="I167" s="40" t="str">
@@ -14971,10 +15084,10 @@
       <c r="R167" s="62" t="s">
         <v>832</v>
       </c>
-      <c r="S167" s="78" t="s">
+      <c r="S167" s="74" t="s">
         <v>624</v>
       </c>
-      <c r="T167" s="78" t="s">
+      <c r="T167" s="74" t="s">
         <v>1026</v>
       </c>
       <c r="U167" s="5" t="s">
@@ -14999,12 +15112,12 @@
       <c r="D168" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E168" s="85"/>
+      <c r="E168" s="81"/>
       <c r="F168" s="27" t="s">
         <v>1135</v>
       </c>
-      <c r="G168" s="73" t="s">
-        <v>1340</v>
+      <c r="G168" s="69" t="s">
+        <v>1336</v>
       </c>
       <c r="H168" s="6"/>
       <c r="I168" s="40" t="str">
@@ -15031,10 +15144,10 @@
       <c r="R168" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="S168" s="78" t="s">
+      <c r="S168" s="74" t="s">
         <v>625</v>
       </c>
-      <c r="T168" s="80">
+      <c r="T168" s="76">
         <v>493</v>
       </c>
       <c r="U168" s="5" t="s">
@@ -15054,17 +15167,17 @@
         <v>157</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E169" s="85"/>
+      <c r="E169" s="81"/>
       <c r="F169" s="27" t="s">
         <v>1135</v>
       </c>
-      <c r="G169" s="73" t="s">
-        <v>1341</v>
+      <c r="G169" s="69" t="s">
+        <v>1337</v>
       </c>
       <c r="H169" s="6"/>
       <c r="I169" s="40" t="str">
@@ -15091,10 +15204,10 @@
       <c r="R169" s="62" t="s">
         <v>834</v>
       </c>
-      <c r="S169" s="78" t="s">
+      <c r="S169" s="74" t="s">
         <v>626</v>
       </c>
-      <c r="T169" s="78" t="s">
+      <c r="T169" s="74" t="s">
         <v>1053</v>
       </c>
       <c r="U169" s="5" t="s">
@@ -15116,10 +15229,10 @@
       <c r="C170" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D170" s="71" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E170" s="85" t="s">
+      <c r="D170" s="67" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E170" s="81" t="s">
         <v>281</v>
       </c>
       <c r="F170" s="6" t="s">
@@ -15152,10 +15265,10 @@
       <c r="R170" s="61" t="s">
         <v>835</v>
       </c>
-      <c r="S170" s="78" t="s">
+      <c r="S170" s="74" t="s">
         <v>627</v>
       </c>
-      <c r="T170" s="78" t="s">
+      <c r="T170" s="74" t="s">
         <v>682</v>
       </c>
       <c r="U170" s="2" t="s">
@@ -15180,7 +15293,7 @@
       <c r="D171" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E171" s="85"/>
+      <c r="E171" s="81"/>
       <c r="F171" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15209,10 +15322,10 @@
       <c r="R171" s="62" t="s">
         <v>836</v>
       </c>
-      <c r="S171" s="78" t="s">
+      <c r="S171" s="74" t="s">
         <v>628</v>
       </c>
-      <c r="T171" s="78" t="s">
+      <c r="T171" s="74" t="s">
         <v>1025</v>
       </c>
       <c r="U171" s="5" t="s">
@@ -15237,7 +15350,7 @@
       <c r="D172" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E172" s="88"/>
+      <c r="E172" s="84"/>
       <c r="F172" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15263,7 +15376,7 @@
         <v>1195</v>
       </c>
       <c r="N172" s="49" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="O172" s="49"/>
       <c r="P172" s="49"/>
@@ -15273,10 +15386,10 @@
       <c r="R172" s="62" t="s">
         <v>837</v>
       </c>
-      <c r="S172" s="78" t="s">
+      <c r="S172" s="74" t="s">
         <v>629</v>
       </c>
-      <c r="T172" s="78" t="s">
+      <c r="T172" s="74" t="s">
         <v>1099</v>
       </c>
       <c r="U172" s="5" t="s">
@@ -15301,7 +15414,7 @@
       <c r="D173" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E173" s="88"/>
+      <c r="E173" s="84"/>
       <c r="F173" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15330,10 +15443,10 @@
       <c r="R173" s="62" t="s">
         <v>838</v>
       </c>
-      <c r="S173" s="78" t="s">
+      <c r="S173" s="74" t="s">
         <v>630</v>
       </c>
-      <c r="T173" s="78" t="s">
+      <c r="T173" s="74" t="s">
         <v>1020</v>
       </c>
       <c r="U173" s="5" t="s">
@@ -15358,7 +15471,7 @@
       <c r="D174" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="E174" s="88"/>
+      <c r="E174" s="84"/>
       <c r="F174" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15387,10 +15500,10 @@
       <c r="R174" s="62" t="s">
         <v>839</v>
       </c>
-      <c r="S174" s="78" t="s">
+      <c r="S174" s="74" t="s">
         <v>631</v>
       </c>
-      <c r="T174" s="80">
+      <c r="T174" s="76">
         <v>535</v>
       </c>
       <c r="U174" s="5" t="s">
@@ -15415,7 +15528,7 @@
       <c r="D175" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="E175" s="88"/>
+      <c r="E175" s="84"/>
       <c r="F175" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15444,10 +15557,10 @@
       <c r="R175" s="62" t="s">
         <v>840</v>
       </c>
-      <c r="S175" s="78" t="s">
+      <c r="S175" s="74" t="s">
         <v>632</v>
       </c>
-      <c r="T175" s="78" t="s">
+      <c r="T175" s="74" t="s">
         <v>1021</v>
       </c>
       <c r="U175" s="5" t="s">
@@ -15472,7 +15585,7 @@
       <c r="D176" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="E176" s="88"/>
+      <c r="E176" s="84"/>
       <c r="F176" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15501,10 +15614,10 @@
       <c r="R176" s="62" t="s">
         <v>841</v>
       </c>
-      <c r="S176" s="78" t="s">
+      <c r="S176" s="74" t="s">
         <v>633</v>
       </c>
-      <c r="T176" s="78" t="s">
+      <c r="T176" s="74" t="s">
         <v>1024</v>
       </c>
       <c r="U176" s="5" t="s">
@@ -15529,7 +15642,7 @@
       <c r="D177" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="E177" s="88"/>
+      <c r="E177" s="84"/>
       <c r="F177" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15558,10 +15671,10 @@
       <c r="R177" s="62" t="s">
         <v>842</v>
       </c>
-      <c r="S177" s="78" t="s">
+      <c r="S177" s="74" t="s">
         <v>634</v>
       </c>
-      <c r="T177" s="78" t="s">
+      <c r="T177" s="74" t="s">
         <v>1023</v>
       </c>
       <c r="U177" s="5" t="s">
@@ -15586,7 +15699,7 @@
       <c r="D178" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="E178" s="88"/>
+      <c r="E178" s="84"/>
       <c r="F178" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15615,10 +15728,10 @@
       <c r="R178" s="62" t="s">
         <v>843</v>
       </c>
-      <c r="S178" s="78" t="s">
+      <c r="S178" s="74" t="s">
         <v>635</v>
       </c>
-      <c r="T178" s="78" t="s">
+      <c r="T178" s="74" t="s">
         <v>1022</v>
       </c>
       <c r="U178" s="5" t="s">
@@ -15643,7 +15756,7 @@
       <c r="D179" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E179" s="88"/>
+      <c r="E179" s="84"/>
       <c r="F179" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15676,10 +15789,10 @@
       <c r="R179" s="62" t="s">
         <v>844</v>
       </c>
-      <c r="S179" s="78" t="s">
+      <c r="S179" s="74" t="s">
         <v>636</v>
       </c>
-      <c r="T179" s="78" t="s">
+      <c r="T179" s="74" t="s">
         <v>1052</v>
       </c>
       <c r="U179" s="5" t="s">
@@ -15704,7 +15817,7 @@
       <c r="D180" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E180" s="85"/>
+      <c r="E180" s="81"/>
       <c r="F180" s="6" t="s">
         <v>950</v>
       </c>
@@ -15728,10 +15841,10 @@
       <c r="R180" s="61" t="s">
         <v>956</v>
       </c>
-      <c r="S180" s="78" t="s">
+      <c r="S180" s="74" t="s">
         <v>678</v>
       </c>
-      <c r="T180" s="79" t="s">
+      <c r="T180" s="75" t="s">
         <v>679</v>
       </c>
       <c r="U180" s="2" t="s">
@@ -15756,7 +15869,7 @@
       <c r="D181" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E181" s="88"/>
+      <c r="E181" s="84"/>
       <c r="F181" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15789,10 +15902,10 @@
       <c r="R181" s="62" t="s">
         <v>845</v>
       </c>
-      <c r="S181" s="78" t="s">
+      <c r="S181" s="74" t="s">
         <v>637</v>
       </c>
-      <c r="T181" s="78" t="s">
+      <c r="T181" s="74" t="s">
         <v>1019</v>
       </c>
       <c r="U181" s="5" t="s">
@@ -15817,7 +15930,7 @@
       <c r="D182" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="E182" s="85"/>
+      <c r="E182" s="81"/>
       <c r="F182" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15853,10 +15966,10 @@
       <c r="R182" s="62" t="s">
         <v>846</v>
       </c>
-      <c r="S182" s="78" t="s">
+      <c r="S182" s="74" t="s">
         <v>638</v>
       </c>
-      <c r="T182" s="80">
+      <c r="T182" s="76">
         <v>580</v>
       </c>
       <c r="U182" s="5" t="s">
@@ -15879,9 +15992,9 @@
         <v>740</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E183" s="85"/>
+        <v>1396</v>
+      </c>
+      <c r="E183" s="81"/>
       <c r="F183" s="27" t="s">
         <v>1135</v>
       </c>
@@ -15917,10 +16030,10 @@
       <c r="R183" s="62" t="s">
         <v>847</v>
       </c>
-      <c r="S183" s="78" t="s">
+      <c r="S183" s="74" t="s">
         <v>639</v>
       </c>
-      <c r="T183" s="80">
+      <c r="T183" s="76">
         <v>2504</v>
       </c>
       <c r="U183" s="5" t="s">
@@ -15945,7 +16058,7 @@
       <c r="D184" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="E184" s="85"/>
+      <c r="E184" s="81"/>
       <c r="F184" s="6" t="s">
         <v>1135</v>
       </c>
@@ -15981,10 +16094,10 @@
       <c r="R184" s="62" t="s">
         <v>957</v>
       </c>
-      <c r="S184" s="78" t="s">
+      <c r="S184" s="74" t="s">
         <v>640</v>
       </c>
-      <c r="T184" s="80">
+      <c r="T184" s="76">
         <v>589</v>
       </c>
       <c r="U184" s="5" t="s">
@@ -16009,7 +16122,7 @@
       <c r="D185" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="E185" s="88"/>
+      <c r="E185" s="84"/>
       <c r="F185" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16038,8 +16151,8 @@
       <c r="R185" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="S185" s="78"/>
-      <c r="T185" s="78"/>
+      <c r="S185" s="74"/>
+      <c r="T185" s="74"/>
       <c r="U185" s="5" t="s">
         <v>882</v>
       </c>
@@ -16062,7 +16175,7 @@
       <c r="D186" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E186" s="88"/>
+      <c r="E186" s="84"/>
       <c r="F186" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16091,10 +16204,10 @@
       <c r="R186" s="62" t="s">
         <v>848</v>
       </c>
-      <c r="S186" s="78" t="s">
+      <c r="S186" s="74" t="s">
         <v>641</v>
       </c>
-      <c r="T186" s="78" t="s">
+      <c r="T186" s="74" t="s">
         <v>1015</v>
       </c>
       <c r="U186" s="5" t="s">
@@ -16119,7 +16232,7 @@
       <c r="D187" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="E187" s="88"/>
+      <c r="E187" s="84"/>
       <c r="F187" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16148,10 +16261,10 @@
       <c r="R187" s="62" t="s">
         <v>849</v>
       </c>
-      <c r="S187" s="78" t="s">
+      <c r="S187" s="74" t="s">
         <v>1016</v>
       </c>
-      <c r="T187" s="78" t="s">
+      <c r="T187" s="74" t="s">
         <v>1051</v>
       </c>
       <c r="U187" s="5" t="s">
@@ -16176,7 +16289,7 @@
       <c r="D188" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E188" s="88"/>
+      <c r="E188" s="84"/>
       <c r="F188" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16205,10 +16318,10 @@
       <c r="R188" s="62" t="s">
         <v>850</v>
       </c>
-      <c r="S188" s="78" t="s">
+      <c r="S188" s="74" t="s">
         <v>1017</v>
       </c>
-      <c r="T188" s="78" t="s">
+      <c r="T188" s="74" t="s">
         <v>1018</v>
       </c>
       <c r="U188" s="5" t="s">
@@ -16233,7 +16346,7 @@
       <c r="D189" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E189" s="88"/>
+      <c r="E189" s="84"/>
       <c r="F189" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16262,10 +16375,10 @@
       <c r="R189" s="62" t="s">
         <v>851</v>
       </c>
-      <c r="S189" s="78" t="s">
+      <c r="S189" s="74" t="s">
         <v>642</v>
       </c>
-      <c r="T189" s="78" t="s">
+      <c r="T189" s="74" t="s">
         <v>1014</v>
       </c>
       <c r="U189" s="5" t="s">
@@ -16290,7 +16403,7 @@
       <c r="D190" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E190" s="85"/>
+      <c r="E190" s="81"/>
       <c r="F190" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16307,7 +16420,7 @@
         <v>483</v>
       </c>
       <c r="N190" s="49" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="O190" s="49"/>
       <c r="P190" s="49"/>
@@ -16317,10 +16430,10 @@
       <c r="R190" s="62" t="s">
         <v>852</v>
       </c>
-      <c r="S190" s="78" t="s">
+      <c r="S190" s="74" t="s">
         <v>644</v>
       </c>
-      <c r="T190" s="78" t="s">
+      <c r="T190" s="74" t="s">
         <v>643</v>
       </c>
       <c r="U190" s="5" t="s">
@@ -16345,7 +16458,7 @@
       <c r="D191" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E191" s="85"/>
+      <c r="E191" s="81"/>
       <c r="F191" s="6" t="s">
         <v>950</v>
       </c>
@@ -16373,10 +16486,10 @@
       <c r="R191" s="61" t="s">
         <v>853</v>
       </c>
-      <c r="S191" s="78" t="s">
+      <c r="S191" s="74" t="s">
         <v>645</v>
       </c>
-      <c r="T191" s="78" t="s">
+      <c r="T191" s="74" t="s">
         <v>677</v>
       </c>
       <c r="U191" s="2" t="s">
@@ -16401,7 +16514,7 @@
       <c r="D192" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E192" s="88"/>
+      <c r="E192" s="84"/>
       <c r="F192" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16430,10 +16543,10 @@
       <c r="R192" s="62" t="s">
         <v>854</v>
       </c>
-      <c r="S192" s="78" t="s">
+      <c r="S192" s="74" t="s">
         <v>646</v>
       </c>
-      <c r="T192" s="78" t="s">
+      <c r="T192" s="74" t="s">
         <v>1012</v>
       </c>
       <c r="U192" s="5" t="s">
@@ -16458,7 +16571,7 @@
       <c r="D193" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E193" s="88"/>
+      <c r="E193" s="84"/>
       <c r="F193" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16487,8 +16600,8 @@
       <c r="R193" s="62" t="s">
         <v>855</v>
       </c>
-      <c r="S193" s="78"/>
-      <c r="T193" s="78"/>
+      <c r="S193" s="74"/>
+      <c r="T193" s="74"/>
       <c r="U193" s="5" t="s">
         <v>294</v>
       </c>
@@ -16511,7 +16624,7 @@
       <c r="D194" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E194" s="88"/>
+      <c r="E194" s="84"/>
       <c r="F194" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16540,8 +16653,8 @@
       <c r="R194" s="62" t="s">
         <v>487</v>
       </c>
-      <c r="S194" s="78"/>
-      <c r="T194" s="78"/>
+      <c r="S194" s="74"/>
+      <c r="T194" s="74"/>
       <c r="U194" s="5" t="s">
         <v>295</v>
       </c>
@@ -16564,7 +16677,7 @@
       <c r="D195" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E195" s="88"/>
+      <c r="E195" s="84"/>
       <c r="F195" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16593,8 +16706,8 @@
       <c r="R195" s="62" t="s">
         <v>856</v>
       </c>
-      <c r="S195" s="78"/>
-      <c r="T195" s="78"/>
+      <c r="S195" s="74"/>
+      <c r="T195" s="74"/>
       <c r="U195" s="5" t="s">
         <v>296</v>
       </c>
@@ -16617,7 +16730,7 @@
       <c r="D196" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E196" s="88"/>
+      <c r="E196" s="84"/>
       <c r="F196" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16650,10 +16763,10 @@
       <c r="R196" s="62" t="s">
         <v>857</v>
       </c>
-      <c r="S196" s="78" t="s">
+      <c r="S196" s="74" t="s">
         <v>647</v>
       </c>
-      <c r="T196" s="78" t="s">
+      <c r="T196" s="74" t="s">
         <v>1013</v>
       </c>
       <c r="U196" s="5" t="s">
@@ -16678,7 +16791,7 @@
       <c r="D197" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E197" s="85"/>
+      <c r="E197" s="81"/>
       <c r="F197" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16709,10 +16822,10 @@
       <c r="R197" s="61" t="s">
         <v>858</v>
       </c>
-      <c r="S197" s="78" t="s">
+      <c r="S197" s="74" t="s">
         <v>649</v>
       </c>
-      <c r="T197" s="78" t="s">
+      <c r="T197" s="74" t="s">
         <v>648</v>
       </c>
       <c r="U197" s="2" t="s">
@@ -16737,7 +16850,7 @@
       <c r="D198" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E198" s="88"/>
+      <c r="E198" s="84"/>
       <c r="F198" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16766,10 +16879,10 @@
       <c r="R198" s="62" t="s">
         <v>859</v>
       </c>
-      <c r="S198" s="78" t="s">
+      <c r="S198" s="74" t="s">
         <v>650</v>
       </c>
-      <c r="T198" s="78" t="s">
+      <c r="T198" s="74" t="s">
         <v>1005</v>
       </c>
       <c r="U198" s="5" t="s">
@@ -16794,7 +16907,7 @@
       <c r="D199" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E199" s="88"/>
+      <c r="E199" s="84"/>
       <c r="F199" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16823,10 +16936,10 @@
       <c r="R199" s="62" t="s">
         <v>860</v>
       </c>
-      <c r="S199" s="78" t="s">
+      <c r="S199" s="74" t="s">
         <v>651</v>
       </c>
-      <c r="T199" s="78" t="s">
+      <c r="T199" s="74" t="s">
         <v>1010</v>
       </c>
       <c r="U199" s="5" t="s">
@@ -16851,7 +16964,7 @@
       <c r="D200" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E200" s="88"/>
+      <c r="E200" s="84"/>
       <c r="F200" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16880,10 +16993,10 @@
       <c r="R200" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="S200" s="80">
+      <c r="S200" s="76">
         <v>758</v>
       </c>
-      <c r="T200" s="80">
+      <c r="T200" s="76">
         <v>758</v>
       </c>
       <c r="U200" s="5" t="s">
@@ -16908,7 +17021,7 @@
       <c r="D201" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E201" s="88"/>
+      <c r="E201" s="84"/>
       <c r="F201" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16937,10 +17050,10 @@
       <c r="R201" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="S201" s="78" t="s">
+      <c r="S201" s="74" t="s">
         <v>652</v>
       </c>
-      <c r="T201" s="78" t="s">
+      <c r="T201" s="74" t="s">
         <v>1008</v>
       </c>
       <c r="U201" s="5" t="s">
@@ -16965,7 +17078,7 @@
       <c r="D202" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E202" s="88"/>
+      <c r="E202" s="84"/>
       <c r="F202" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16994,10 +17107,10 @@
       <c r="R202" s="62" t="s">
         <v>862</v>
       </c>
-      <c r="S202" s="78" t="s">
+      <c r="S202" s="74" t="s">
         <v>1006</v>
       </c>
-      <c r="T202" s="78" t="s">
+      <c r="T202" s="74" t="s">
         <v>1007</v>
       </c>
       <c r="U202" s="5" t="s">
@@ -17022,7 +17135,7 @@
       <c r="D203" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E203" s="88"/>
+      <c r="E203" s="84"/>
       <c r="F203" s="6" t="s">
         <v>1135</v>
       </c>
@@ -17051,10 +17164,10 @@
       <c r="R203" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="S203" s="78" t="s">
+      <c r="S203" s="74" t="s">
         <v>653</v>
       </c>
-      <c r="T203" s="78" t="s">
+      <c r="T203" s="74" t="s">
         <v>1009</v>
       </c>
       <c r="U203" s="5" t="s">
@@ -17079,7 +17192,7 @@
       <c r="D204" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E204" s="85"/>
+      <c r="E204" s="81"/>
       <c r="F204" s="6" t="s">
         <v>950</v>
       </c>
@@ -17105,8 +17218,8 @@
       <c r="R204" s="61" t="s">
         <v>864</v>
       </c>
-      <c r="S204" s="78"/>
-      <c r="T204" s="78"/>
+      <c r="S204" s="74"/>
+      <c r="T204" s="74"/>
       <c r="U204" s="2" t="s">
         <v>305</v>
       </c>
@@ -17129,7 +17242,7 @@
       <c r="D205" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E205" s="88"/>
+      <c r="E205" s="84"/>
       <c r="F205" s="6" t="s">
         <v>1135</v>
       </c>
@@ -17158,8 +17271,8 @@
       <c r="R205" s="63" t="s">
         <v>865</v>
       </c>
-      <c r="S205" s="78"/>
-      <c r="T205" s="78"/>
+      <c r="S205" s="74"/>
+      <c r="T205" s="74"/>
       <c r="U205" s="5" t="s">
         <v>306</v>
       </c>
@@ -17182,7 +17295,7 @@
       <c r="D206" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E206" s="88"/>
+      <c r="E206" s="84"/>
       <c r="F206" s="6" t="s">
         <v>1135</v>
       </c>
@@ -17211,8 +17324,8 @@
       <c r="R206" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="S206" s="78"/>
-      <c r="T206" s="78"/>
+      <c r="S206" s="74"/>
+      <c r="T206" s="74"/>
       <c r="U206" s="5" t="s">
         <v>307</v>
       </c>
@@ -17235,7 +17348,7 @@
       <c r="D207" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E207" s="88"/>
+      <c r="E207" s="84"/>
       <c r="F207" s="6" t="s">
         <v>1135</v>
       </c>
@@ -17264,8 +17377,8 @@
       <c r="R207" s="62" t="s">
         <v>866</v>
       </c>
-      <c r="S207" s="78"/>
-      <c r="T207" s="78"/>
+      <c r="S207" s="74"/>
+      <c r="T207" s="74"/>
       <c r="U207" s="5" t="s">
         <v>308</v>
       </c>
@@ -17288,7 +17401,7 @@
       <c r="D208" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="E208" s="88"/>
+      <c r="E208" s="84"/>
       <c r="F208" s="6" t="s">
         <v>1135</v>
       </c>
@@ -17317,8 +17430,8 @@
       <c r="R208" s="62" t="s">
         <v>867</v>
       </c>
-      <c r="S208" s="78"/>
-      <c r="T208" s="78"/>
+      <c r="S208" s="74"/>
+      <c r="T208" s="74"/>
       <c r="U208" s="5" t="s">
         <v>880</v>
       </c>
@@ -17341,7 +17454,7 @@
       <c r="D209" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="E209" s="85"/>
+      <c r="E209" s="81"/>
       <c r="F209" s="25" t="s">
         <v>1136</v>
       </c>
@@ -17368,10 +17481,10 @@
       <c r="R209" s="61" t="s">
         <v>1113</v>
       </c>
-      <c r="S209" s="81" t="s">
-        <v>1378</v>
-      </c>
-      <c r="T209" s="78" t="s">
+      <c r="S209" s="77" t="s">
+        <v>1374</v>
+      </c>
+      <c r="T209" s="74" t="s">
         <v>654</v>
       </c>
       <c r="U209" s="2" t="s">
@@ -17396,7 +17509,7 @@
       <c r="D210" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E210" s="85"/>
+      <c r="E210" s="81"/>
       <c r="F210" s="6" t="s">
         <v>950</v>
       </c>
@@ -17422,10 +17535,10 @@
       <c r="R210" s="61" t="s">
         <v>1112</v>
       </c>
-      <c r="S210" s="78" t="s">
+      <c r="S210" s="74" t="s">
         <v>655</v>
       </c>
-      <c r="T210" s="78" t="s">
+      <c r="T210" s="74" t="s">
         <v>676</v>
       </c>
       <c r="U210" s="2" t="s">
@@ -17450,14 +17563,14 @@
       <c r="D211" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E211" s="85"/>
+      <c r="E211" s="81"/>
       <c r="F211" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="G211" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="H211" s="83"/>
+      <c r="H211" s="79"/>
       <c r="I211" s="40" t="str">
         <f t="shared" ref="I211:I220" si="22">CONCATENATE("c",F211,G211,H211)</f>
         <v>cE01</v>
@@ -17486,10 +17599,10 @@
       <c r="R211" s="62" t="s">
         <v>868</v>
       </c>
-      <c r="S211" s="78" t="s">
+      <c r="S211" s="74" t="s">
         <v>656</v>
       </c>
-      <c r="T211" s="78" t="s">
+      <c r="T211" s="74" t="s">
         <v>1002</v>
       </c>
       <c r="U211" s="5" t="s">
@@ -17507,19 +17620,19 @@
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="31" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E212" s="85"/>
+        <v>1381</v>
+      </c>
+      <c r="E212" s="81"/>
       <c r="F212" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="G212" s="26" t="s">
         <v>1138</v>
       </c>
-      <c r="H212" s="83"/>
+      <c r="H212" s="79"/>
       <c r="I212" s="40" t="str">
         <f t="shared" si="22"/>
         <v>cE02</v>
@@ -17532,18 +17645,18 @@
         <v>950</v>
       </c>
       <c r="L212" s="5"/>
-      <c r="M212" s="74" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N212" s="75" t="s">
-        <v>1407</v>
+      <c r="M212" s="70" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N212" s="71" t="s">
+        <v>1403</v>
       </c>
       <c r="O212" s="19"/>
       <c r="P212" s="19"/>
       <c r="Q212" s="58"/>
       <c r="R212" s="62"/>
-      <c r="S212" s="78"/>
-      <c r="T212" s="78"/>
+      <c r="S212" s="74"/>
+      <c r="T212" s="74"/>
       <c r="U212" s="5"/>
       <c r="V212" s="45"/>
       <c r="W212" s="2"/>
@@ -17557,19 +17670,19 @@
         <v>200</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E213" s="85"/>
+        <v>1382</v>
+      </c>
+      <c r="E213" s="81"/>
       <c r="F213" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="G213" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H213" s="83"/>
+      <c r="H213" s="79"/>
       <c r="I213" s="40" t="str">
         <f t="shared" si="22"/>
         <v>cE03</v>
@@ -17580,13 +17693,13 @@
       </c>
       <c r="K213" s="5"/>
       <c r="L213" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="M213" s="74" t="s">
-        <v>1389</v>
-      </c>
-      <c r="N213" s="76" t="s">
-        <v>1390</v>
+        <v>1383</v>
+      </c>
+      <c r="M213" s="70" t="s">
+        <v>1385</v>
+      </c>
+      <c r="N213" s="72" t="s">
+        <v>1386</v>
       </c>
       <c r="O213" s="49"/>
       <c r="P213" s="49"/>
@@ -17596,10 +17709,10 @@
       <c r="R213" s="62" t="s">
         <v>1115</v>
       </c>
-      <c r="S213" s="78" t="s">
+      <c r="S213" s="74" t="s">
         <v>657</v>
       </c>
-      <c r="T213" s="78" t="s">
+      <c r="T213" s="74" t="s">
         <v>1004</v>
       </c>
       <c r="U213" s="5" t="s">
@@ -17624,14 +17737,14 @@
       <c r="D214" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E214" s="85"/>
+      <c r="E214" s="81"/>
       <c r="F214" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="G214" s="26" t="s">
         <v>1140</v>
       </c>
-      <c r="H214" s="83"/>
+      <c r="H214" s="79"/>
       <c r="I214" s="40" t="str">
         <f t="shared" si="22"/>
         <v>cE04</v>
@@ -17658,10 +17771,10 @@
       <c r="R214" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="S214" s="78" t="s">
+      <c r="S214" s="74" t="s">
         <v>658</v>
       </c>
-      <c r="T214" s="78" t="s">
+      <c r="T214" s="74" t="s">
         <v>1003</v>
       </c>
       <c r="U214" s="5" t="s">
@@ -17686,7 +17799,7 @@
       <c r="D215" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E215" s="85"/>
+      <c r="E215" s="81"/>
       <c r="F215" s="6" t="s">
         <v>1136</v>
       </c>
@@ -17713,10 +17826,10 @@
       <c r="R215" s="62" t="s">
         <v>870</v>
       </c>
-      <c r="S215" s="78" t="s">
+      <c r="S215" s="74" t="s">
         <v>659</v>
       </c>
-      <c r="T215" s="78" t="s">
+      <c r="T215" s="74" t="s">
         <v>999</v>
       </c>
       <c r="U215" s="5" t="s">
@@ -17741,7 +17854,7 @@
       <c r="D216" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E216" s="85"/>
+      <c r="E216" s="81"/>
       <c r="F216" s="6" t="s">
         <v>1136</v>
       </c>
@@ -17770,10 +17883,10 @@
       <c r="R216" s="62" t="s">
         <v>871</v>
       </c>
-      <c r="S216" s="78" t="s">
+      <c r="S216" s="74" t="s">
         <v>660</v>
       </c>
-      <c r="T216" s="78" t="s">
+      <c r="T216" s="74" t="s">
         <v>998</v>
       </c>
       <c r="U216" s="5" t="s">
@@ -17798,7 +17911,7 @@
       <c r="D217" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="E217" s="85"/>
+      <c r="E217" s="81"/>
       <c r="F217" s="6" t="s">
         <v>1136</v>
       </c>
@@ -17814,10 +17927,10 @@
       <c r="K217" s="5"/>
       <c r="L217" s="5"/>
       <c r="M217" s="5" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="N217" s="49" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="O217" s="49"/>
       <c r="P217" s="49"/>
@@ -17827,10 +17940,10 @@
       <c r="R217" s="62" t="s">
         <v>995</v>
       </c>
-      <c r="S217" s="78" t="s">
+      <c r="S217" s="74" t="s">
         <v>661</v>
       </c>
-      <c r="T217" s="78" t="s">
+      <c r="T217" s="74" t="s">
         <v>1000</v>
       </c>
       <c r="U217" s="5" t="s">
@@ -17848,12 +17961,12 @@
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="31" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E218" s="85"/>
+        <v>1360</v>
+      </c>
+      <c r="E218" s="81"/>
       <c r="F218" s="6" t="s">
         <v>1136</v>
       </c>
@@ -17867,23 +17980,23 @@
       </c>
       <c r="J218" s="40"/>
       <c r="K218" s="5" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="L218" s="5" t="s">
         <v>1205</v>
       </c>
       <c r="M218" s="5" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="N218" s="49" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="O218" s="49"/>
       <c r="P218" s="49"/>
       <c r="Q218" s="58"/>
       <c r="R218" s="62"/>
-      <c r="S218" s="78"/>
-      <c r="T218" s="78"/>
+      <c r="S218" s="74"/>
+      <c r="T218" s="74"/>
       <c r="U218" s="5"/>
       <c r="V218" s="45"/>
       <c r="W218" s="2"/>
@@ -17902,7 +18015,7 @@
       <c r="D219" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="E219" s="85"/>
+      <c r="E219" s="81"/>
       <c r="F219" s="6" t="s">
         <v>1136</v>
       </c>
@@ -17935,8 +18048,8 @@
       <c r="R219" s="62" t="s">
         <v>872</v>
       </c>
-      <c r="S219" s="78"/>
-      <c r="T219" s="78"/>
+      <c r="S219" s="74"/>
+      <c r="T219" s="74"/>
       <c r="U219" s="5" t="s">
         <v>884</v>
       </c>
@@ -17959,7 +18072,7 @@
       <c r="D220" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E220" s="85"/>
+      <c r="E220" s="81"/>
       <c r="F220" s="6" t="s">
         <v>1136</v>
       </c>
@@ -17976,7 +18089,7 @@
         <v>E05</v>
       </c>
       <c r="K220" s="5" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="L220" s="5" t="s">
         <v>1245</v>
@@ -17995,10 +18108,10 @@
       <c r="R220" s="62" t="s">
         <v>1111</v>
       </c>
-      <c r="S220" s="78" t="s">
+      <c r="S220" s="74" t="s">
         <v>662</v>
       </c>
-      <c r="T220" s="78" t="s">
+      <c r="T220" s="74" t="s">
         <v>1001</v>
       </c>
       <c r="U220" s="5" t="s">
@@ -18025,7 +18138,7 @@
       <c r="D221" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E221" s="85"/>
+      <c r="E221" s="81"/>
       <c r="F221" s="6"/>
       <c r="G221" s="26"/>
       <c r="H221" s="6"/>
@@ -18047,10 +18160,10 @@
       <c r="R221" s="61" t="s">
         <v>873</v>
       </c>
-      <c r="S221" s="78" t="s">
+      <c r="S221" s="74" t="s">
         <v>664</v>
       </c>
-      <c r="T221" s="78" t="s">
+      <c r="T221" s="74" t="s">
         <v>663</v>
       </c>
       <c r="U221" s="2" t="s">
@@ -18075,7 +18188,7 @@
       <c r="D222" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="E222" s="85"/>
+      <c r="E222" s="81"/>
       <c r="F222" s="6" t="s">
         <v>1136</v>
       </c>
@@ -18111,10 +18224,10 @@
       <c r="R222" s="62" t="s">
         <v>874</v>
       </c>
-      <c r="S222" s="78" t="s">
+      <c r="S222" s="74" t="s">
         <v>665</v>
       </c>
-      <c r="T222" s="78" t="s">
+      <c r="T222" s="74" t="s">
         <v>997</v>
       </c>
       <c r="U222" s="5" t="s">
@@ -18139,7 +18252,7 @@
       <c r="D223" s="5" t="s">
         <v>1264</v>
       </c>
-      <c r="E223" s="85"/>
+      <c r="E223" s="81"/>
       <c r="F223" s="6" t="s">
         <v>1136</v>
       </c>
@@ -18166,10 +18279,10 @@
       <c r="R223" s="62" t="s">
         <v>875</v>
       </c>
-      <c r="S223" s="78" t="s">
+      <c r="S223" s="74" t="s">
         <v>666</v>
       </c>
-      <c r="T223" s="78" t="s">
+      <c r="T223" s="74" t="s">
         <v>996</v>
       </c>
       <c r="U223" s="5" t="s">
@@ -18188,9 +18301,9 @@
       <c r="B224" s="2"/>
       <c r="C224" s="31"/>
       <c r="D224" s="20" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E224" s="85"/>
+        <v>1351</v>
+      </c>
+      <c r="E224" s="81"/>
       <c r="F224" s="6" t="s">
         <v>1136</v>
       </c>
@@ -18209,21 +18322,21 @@
         <v>E08a</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="L224" s="5"/>
       <c r="M224" s="5" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="N224" s="19" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="O224" s="19"/>
       <c r="P224" s="19"/>
       <c r="Q224" s="58"/>
       <c r="R224" s="62"/>
-      <c r="S224" s="78"/>
-      <c r="T224" s="78"/>
+      <c r="S224" s="74"/>
+      <c r="T224" s="74"/>
       <c r="U224" s="5"/>
       <c r="V224" s="45"/>
       <c r="W224" s="2"/>
@@ -18236,9 +18349,9 @@
       <c r="B225" s="2"/>
       <c r="C225" s="31"/>
       <c r="D225" s="20" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E225" s="85"/>
+        <v>1350</v>
+      </c>
+      <c r="E225" s="81"/>
       <c r="F225" s="6" t="s">
         <v>1136</v>
       </c>
@@ -18257,23 +18370,23 @@
         <v>E08b</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="L225" s="5" t="s">
         <v>1205</v>
       </c>
       <c r="M225" s="5" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="N225" s="19" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="O225" s="19"/>
       <c r="P225" s="19"/>
       <c r="Q225" s="58"/>
       <c r="R225" s="62"/>
-      <c r="S225" s="78"/>
-      <c r="T225" s="78"/>
+      <c r="S225" s="74"/>
+      <c r="T225" s="74"/>
       <c r="U225" s="5"/>
       <c r="V225" s="45"/>
       <c r="W225" s="2"/>
@@ -18290,9 +18403,9 @@
         <v>142</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E226" s="85"/>
+        <v>1397</v>
+      </c>
+      <c r="E226" s="81"/>
       <c r="F226" s="6" t="s">
         <v>1136</v>
       </c>
@@ -18311,16 +18424,16 @@
         <v>E08c</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="L226" s="5" t="s">
         <v>1229</v>
       </c>
       <c r="M226" s="5" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="N226" s="49" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="O226" s="49"/>
       <c r="P226" s="49"/>
@@ -18330,8 +18443,8 @@
       <c r="R226" s="62" t="s">
         <v>876</v>
       </c>
-      <c r="S226" s="78"/>
-      <c r="T226" s="78"/>
+      <c r="S226" s="74"/>
+      <c r="T226" s="74"/>
       <c r="U226" s="5" t="s">
         <v>319</v>
       </c>
@@ -18347,8 +18460,8 @@
         <f t="shared" si="20"/>
         <v>...E.99. - Injuries of unknown intent (e.g., unintentional or self-harm), including overdoses and deaths by firearm</v>
       </c>
-      <c r="B227" s="72" t="s">
-        <v>1384</v>
+      <c r="B227" s="68" t="s">
+        <v>1380</v>
       </c>
       <c r="C227" s="16" t="s">
         <v>1267</v>
@@ -18392,7 +18505,7 @@
         <v>1217</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="F228" s="55" t="s">
         <v>1233</v>
@@ -18441,7 +18554,7 @@
       </c>
       <c r="J229" s="40"/>
       <c r="K229" s="16" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="L229" s="48" t="s">
         <v>1215</v>
@@ -18534,7 +18647,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W226"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -18547,7 +18660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18742,7 +18855,7 @@
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18755,43 +18868,215 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C11:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="85"/>
+    <col min="2" max="2" width="10.42578125" style="85" customWidth="1"/>
+    <col min="3" max="3" width="126.7109375" style="85" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="85" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
-    <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="65" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="67" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>1310</v>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="85" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G2" s="85" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="85" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H3" s="85" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="85" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="85" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="85" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D7" s="85">
+        <v>116</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="85" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D8" s="85">
+        <v>118</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="85" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D9" s="85">
+        <v>119</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="85" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D10" s="85">
+        <v>120</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="str">
+        <f>IF([1]Sheet1!H1&lt;&gt;"",IF([1]Sheet1!F1&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D1,".",[1]Sheet1!E1,".",[1]Sheet1!F1,". - ",[1]Sheet1!B1),IF([1]Sheet1!E1&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D1,".",[1]Sheet1!E1,". - ",[1]Sheet1!B1),CONCATENATE("..",[1]Sheet1!D1,". - ",[1]Sheet1!B1))),"")</f>
+        <v>...D.05. - Substance use disorders</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="str">
+        <f>IF([1]Sheet1!H2&lt;&gt;"",IF([1]Sheet1!F2&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D2,".",[1]Sheet1!E2,".",[1]Sheet1!F2,". - ",[1]Sheet1!B2),IF([1]Sheet1!E2&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D2,".",[1]Sheet1!E2,". - ",[1]Sheet1!B2),CONCATENATE("..",[1]Sheet1!D2,". - ",[1]Sheet1!B2))),"")</f>
+        <v>....D.05.a. - Alcohol use disorders</v>
+      </c>
+      <c r="C13" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="str">
+        <f>IF([1]Sheet1!H3&lt;&gt;"",IF([1]Sheet1!F3&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D3,".",[1]Sheet1!E3,".",[1]Sheet1!F3,". - ",[1]Sheet1!B3),IF([1]Sheet1!E3&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D3,".",[1]Sheet1!E3,". - ",[1]Sheet1!B3),CONCATENATE("..",[1]Sheet1!D3,". - ",[1]Sheet1!B3))),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="str">
+        <f>IF([1]Sheet1!H4&lt;&gt;"",IF([1]Sheet1!F4&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D4,".",[1]Sheet1!E4,".",[1]Sheet1!F4,". - ",[1]Sheet1!B4),IF([1]Sheet1!E4&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D4,".",[1]Sheet1!E4,". - ",[1]Sheet1!B4),CONCATENATE("..",[1]Sheet1!D4,". - ",[1]Sheet1!B4))),"")</f>
+        <v>....D.05.b. - Opioid use disorders</v>
+      </c>
+      <c r="C15" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="str">
+        <f>IF([1]Sheet1!H5&lt;&gt;"",IF([1]Sheet1!F5&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D5,".",[1]Sheet1!E5,".",[1]Sheet1!F5,". - ",[1]Sheet1!B5),IF([1]Sheet1!E5&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D5,".",[1]Sheet1!E5,". - ",[1]Sheet1!B5),CONCATENATE("..",[1]Sheet1!D5,". - ",[1]Sheet1!B5))),"")</f>
+        <v>....D.05.c. - Cocaine use disorders</v>
+      </c>
+      <c r="C16" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="str">
+        <f>IF([1]Sheet1!H6&lt;&gt;"",IF([1]Sheet1!F6&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D6,".",[1]Sheet1!E6,".",[1]Sheet1!F6,". - ",[1]Sheet1!B6),IF([1]Sheet1!E6&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D6,".",[1]Sheet1!E6,". - ",[1]Sheet1!B6),CONCATENATE("..",[1]Sheet1!D6,". - ",[1]Sheet1!B6))),"")</f>
+        <v>....D.05.d. - Amphetamine use disorders</v>
+      </c>
+      <c r="C17" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="44" t="str">
+        <f>IF([1]Sheet1!H7&lt;&gt;"",IF([1]Sheet1!F7&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D7,".",[1]Sheet1!E7,".",[1]Sheet1!F7,". - ",[1]Sheet1!B7),IF([1]Sheet1!E7&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D7,".",[1]Sheet1!E7,". - ",[1]Sheet1!B7),CONCATENATE("..",[1]Sheet1!D7,". - ",[1]Sheet1!B7))),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="str">
+        <f>IF([1]Sheet1!H8&lt;&gt;"",IF([1]Sheet1!F8&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D8,".",[1]Sheet1!E8,".",[1]Sheet1!F8,". - ",[1]Sheet1!B8),IF([1]Sheet1!E8&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D8,".",[1]Sheet1!E8,". - ",[1]Sheet1!B8),CONCATENATE("..",[1]Sheet1!D8,". - ",[1]Sheet1!B8))),"")</f>
+        <v/>
+      </c>
+      <c r="C19" s="2">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B41149-69BE-4832-B045-5F44E2757626}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$226</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dauphine, David (CDPH-CHSI-PHPRB)</author>
     <author>Matt</author>
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C57" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R126" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="R126" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="1456">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4649,11 +4648,14 @@
   <si>
     <t>Food-borne trematodes</t>
   </si>
+  <si>
+    <t>Homicide</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5215,7 +5217,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5438,23 +5440,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5490,23 +5475,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5682,14 +5650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E168" sqref="E168"/>
+      <selection pane="bottomRight" activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -13308,7 +13276,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.06. - Alzheimer’s disease and other dementias</v>
@@ -15702,7 +15670,7 @@
       </c>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="42" t="str">
         <f t="shared" si="12"/>
         <v>....D.10.c. - Other chronic kidney disease</v>
@@ -15766,7 +15734,7 @@
       </c>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -16374,7 +16342,7 @@
       </c>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A189" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -16722,7 +16690,7 @@
       </c>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -17343,7 +17311,7 @@
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="42" t="str">
-        <f>IF(J207&lt;&gt;"",IF(H207&lt;&gt;"",CONCATENATE("....",F207,".",G207,".",H207,". - ",D207),IF(G207&lt;&gt;"",CONCATENATE("...",F207,".",G207,". - ",D207),CONCATENATE("..",F207,". - ",D207))),"")</f>
+        <f t="shared" ref="A207:A212" si="24">IF(J207&lt;&gt;"",IF(H207&lt;&gt;"",CONCATENATE("....",F207,".",G207,".",H207,". - ",D207),IF(G207&lt;&gt;"",CONCATENATE("...",F207,".",G207,". - ",D207),CONCATENATE("..",F207,". - ",D207))),"")</f>
         <v/>
       </c>
       <c r="B207" s="2">
@@ -17393,7 +17361,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="42" t="str">
-        <f>IF(J208&lt;&gt;"",IF(H208&lt;&gt;"",CONCATENATE("....",F208,".",G208,".",H208,". - ",D208),IF(G208&lt;&gt;"",CONCATENATE("...",F208,".",G208,". - ",D208),CONCATENATE("..",F208,". - ",D208))),"")</f>
+        <f t="shared" si="24"/>
         <v>....E.02.a. - Opioid use disorders</v>
       </c>
       <c r="B208" s="2">
@@ -17455,7 +17423,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="42" t="str">
-        <f>IF(J209&lt;&gt;"",IF(H209&lt;&gt;"",CONCATENATE("....",F209,".",G209,".",H209,". - ",D209),IF(G209&lt;&gt;"",CONCATENATE("...",F209,".",G209,". - ",D209),CONCATENATE("..",F209,". - ",D209))),"")</f>
+        <f t="shared" si="24"/>
         <v>....E.02.b. - Cocaine use disorders</v>
       </c>
       <c r="B209" s="2">
@@ -17517,7 +17485,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="42" t="str">
-        <f>IF(J210&lt;&gt;"",IF(H210&lt;&gt;"",CONCATENATE("....",F210,".",G210,".",H210,". - ",D210),IF(G210&lt;&gt;"",CONCATENATE("...",F210,".",G210,". - ",D210),CONCATENATE("..",F210,". - ",D210))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="B210" s="2">
@@ -17569,7 +17537,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" s="42" t="str">
-        <f>IF(J211&lt;&gt;"",IF(H211&lt;&gt;"",CONCATENATE("....",F211,".",G211,".",H211,". - ",D211),IF(G211&lt;&gt;"",CONCATENATE("...",F211,".",G211,". - ",D211),CONCATENATE("..",F211,". - ",D211))),"")</f>
+        <f t="shared" si="24"/>
         <v>....E.02.c. - Other stimulant use disorders</v>
       </c>
       <c r="B211" s="2">
@@ -17631,7 +17599,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="42" t="str">
-        <f>IF(J212&lt;&gt;"",IF(H212&lt;&gt;"",CONCATENATE("....",F212,".",G212,".",H212,". - ",D212),IF(G212&lt;&gt;"",CONCATENATE("...",F212,".",G212,". - ",D212),CONCATENATE("..",F212,". - ",D212))),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="B212" s="2">
@@ -17816,7 +17784,7 @@
       </c>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -18089,7 +18057,7 @@
       </c>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" ht="51" x14ac:dyDescent="0.25">
       <c r="A220" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...E.05. - Other unintentional injuries</v>
@@ -18228,7 +18196,7 @@
       </c>
       <c r="H222" s="6"/>
       <c r="I222" s="38" t="str">
-        <f t="shared" ref="I222:I229" si="24">CONCATENATE("c",F222,G222,H222)</f>
+        <f t="shared" ref="I222:I229" si="25">CONCATENATE("c",F222,G222,H222)</f>
         <v>cE07</v>
       </c>
       <c r="J222" s="38" t="str">
@@ -18283,7 +18251,9 @@
       <c r="D223" s="5" t="s">
         <v>1261</v>
       </c>
-      <c r="E223" s="72"/>
+      <c r="E223" s="72" t="s">
+        <v>1455</v>
+      </c>
       <c r="F223" s="6" t="s">
         <v>1135</v>
       </c>
@@ -18324,7 +18294,7 @@
       </c>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="42" t="str">
         <f t="shared" si="20"/>
         <v>....E.08.a. - Homicide excluding legal intervention</v>
@@ -18345,11 +18315,11 @@
         <v>1123</v>
       </c>
       <c r="I224" s="38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>cE08a</v>
       </c>
       <c r="J224" s="38" t="str">
-        <f t="shared" ref="J224:J227" si="25">CONCATENATE(F224,G224,H224)</f>
+        <f t="shared" ref="J224:J227" si="26">CONCATENATE(F224,G224,H224)</f>
         <v>E08a</v>
       </c>
       <c r="K224" s="5" t="s">
@@ -18393,11 +18363,11 @@
         <v>1124</v>
       </c>
       <c r="I225" s="38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>cE08b</v>
       </c>
       <c r="J225" s="38" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>E08b</v>
       </c>
       <c r="K225" s="5" t="s">
@@ -18422,7 +18392,7 @@
       <c r="V225" s="43"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" spans="1:23" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" ht="102" x14ac:dyDescent="0.25">
       <c r="A226" s="42" t="str">
         <f t="shared" si="20"/>
         <v>....E.08.c. - Execution, War, Terrorism</v>
@@ -18447,11 +18417,11 @@
         <v>1126</v>
       </c>
       <c r="I226" s="38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>cE08c</v>
       </c>
       <c r="J226" s="38" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>E08c</v>
       </c>
       <c r="K226" s="5" t="s">
@@ -18508,11 +18478,11 @@
         <v>1216</v>
       </c>
       <c r="I227" s="38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>cE99</v>
       </c>
       <c r="J227" s="38" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>E99</v>
       </c>
       <c r="K227" s="46" t="s">
@@ -18546,7 +18516,7 @@
         <v>1136</v>
       </c>
       <c r="I228" s="38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>cZ01</v>
       </c>
       <c r="J228" s="38" t="str">
@@ -18566,7 +18536,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A229" s="42" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -18581,7 +18551,7 @@
         <v>1144</v>
       </c>
       <c r="I229" s="40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>cA09</v>
       </c>
       <c r="J229" s="38"/>
@@ -18614,11 +18584,11 @@
       </c>
       <c r="I230" s="41"/>
       <c r="J230" s="38" t="str">
-        <f t="shared" ref="J230:J232" si="26">CONCATENATE(F230,G230,H230)</f>
+        <f t="shared" ref="J230:J232" si="27">CONCATENATE(F230,G230,H230)</f>
         <v>Z02</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A231" s="42" t="str">
         <f t="shared" si="20"/>
         <v>...Z.03. - Code does not map</v>
@@ -18634,7 +18604,7 @@
       </c>
       <c r="I231" s="41"/>
       <c r="J231" s="38" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Z03</v>
       </c>
       <c r="K231" s="16" t="s">
@@ -18654,7 +18624,7 @@
       </c>
       <c r="I232" s="41"/>
       <c r="J232" s="38" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Z</v>
       </c>
     </row>
@@ -18664,7 +18634,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W226"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -18677,7 +18647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18872,7 +18842,7 @@
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18885,7 +18855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E70776-3C71-4603-AC9F-820C4A9D0D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -38,14 +41,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dauphine, David (CDPH-CHSI-PHPRB)</author>
     <author>Matt</author>
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0">
+    <comment ref="C57" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R126" authorId="2" shapeId="0">
+    <comment ref="R126" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="1456">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4655,7 +4658,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5217,7 +5220,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5440,6 +5443,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5475,6 +5495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5650,14 +5687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B205" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E224" sqref="E224"/>
+      <selection pane="bottomRight" activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -17362,7 +17399,7 @@
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="42" t="str">
         <f t="shared" si="24"/>
-        <v>....E.02.a. - Opioid use disorders</v>
+        <v/>
       </c>
       <c r="B208" s="2">
         <v>118</v>
@@ -17380,17 +17417,12 @@
       <c r="G208" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="H208" s="6" t="s">
-        <v>1123</v>
-      </c>
+      <c r="H208" s="6"/>
       <c r="I208" s="38" t="str">
         <f>CONCATENATE("c",F208,G208,H208)</f>
-        <v>cE02a</v>
-      </c>
-      <c r="J208" s="38" t="str">
-        <f>CONCATENATE(F208,G208,H208)</f>
-        <v>E02a</v>
-      </c>
+        <v>cE02</v>
+      </c>
+      <c r="J208" s="38"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
       <c r="M208" s="5" t="s">
@@ -17424,7 +17456,7 @@
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="42" t="str">
         <f t="shared" si="24"/>
-        <v>....E.02.b. - Cocaine use disorders</v>
+        <v/>
       </c>
       <c r="B209" s="2">
         <v>119</v>
@@ -17442,17 +17474,12 @@
       <c r="G209" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="H209" s="6" t="s">
-        <v>1124</v>
-      </c>
+      <c r="H209" s="6"/>
       <c r="I209" s="38" t="str">
         <f>CONCATENATE("c",F209,G209,H209)</f>
-        <v>cE02b</v>
-      </c>
-      <c r="J209" s="38" t="str">
-        <f>CONCATENATE(F209,G209,H209)</f>
-        <v>E02b</v>
-      </c>
+        <v>cE02</v>
+      </c>
+      <c r="J209" s="38"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
       <c r="M209" s="5" t="s">
@@ -17538,7 +17565,7 @@
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" s="42" t="str">
         <f t="shared" si="24"/>
-        <v>....E.02.c. - Other stimulant use disorders</v>
+        <v/>
       </c>
       <c r="B211" s="2">
         <v>120</v>
@@ -17556,17 +17583,12 @@
       <c r="G211" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="H211" s="6" t="s">
-        <v>1126</v>
-      </c>
+      <c r="H211" s="6"/>
       <c r="I211" s="38" t="str">
         <f>CONCATENATE("c",F211,G211,H211)</f>
-        <v>cE02c</v>
-      </c>
-      <c r="J211" s="38" t="str">
-        <f>CONCATENATE(F211,G211,H211)</f>
-        <v>E02c</v>
-      </c>
+        <v>cE02</v>
+      </c>
+      <c r="J211" s="38"/>
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
       <c r="M211" s="5" t="s">
@@ -18634,7 +18656,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W226"/>
+  <autoFilter ref="A1:W226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -18647,7 +18669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18842,7 +18864,7 @@
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18855,7 +18877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E70776-3C71-4603-AC9F-820C4A9D0D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C68A0EF-797D-4411-91C9-4955433A2D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1457">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4653,6 +4653,9 @@
   </si>
   <si>
     <t>Homicide</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy, myo., endo.</t>
   </si>
 </sst>
 </file>
@@ -5691,10 +5694,10 @@
   <dimension ref="A1:W234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B205" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H208" sqref="H208"/>
+      <selection pane="bottomRight" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -14467,7 +14470,9 @@
       <c r="D156" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E156" s="75"/>
+      <c r="E156" s="75" t="s">
+        <v>1456</v>
+      </c>
       <c r="F156" s="6" t="s">
         <v>1133</v>
       </c>

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C68A0EF-797D-4411-91C9-4955433A2D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$226</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,14 +40,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dauphine, David (CDPH-CHSI-PHPRB)</author>
     <author>Matt</author>
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C57" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R126" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="R126" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1465">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4657,11 +4656,35 @@
   <si>
     <t>Cardiomyopathy, myo., endo.</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5223,7 +5246,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5446,23 +5469,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5498,23 +5504,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5690,14 +5679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E156" sqref="E156"/>
+      <selection pane="bottomRight" activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12560,10 +12549,12 @@
       <c r="G122" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H122" s="6"/>
+      <c r="H122" s="6" t="s">
+        <v>1123</v>
+      </c>
       <c r="I122" s="38" t="str">
         <f>CONCATENATE("c",F122,G122,H122)</f>
-        <v>cD04</v>
+        <v>cD04a</v>
       </c>
       <c r="J122" s="38"/>
       <c r="K122" s="5"/>
@@ -12617,10 +12608,12 @@
       <c r="G123" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H123" s="6"/>
+      <c r="H123" s="6" t="s">
+        <v>1124</v>
+      </c>
       <c r="I123" s="38" t="str">
         <f>CONCATENATE("c",F123,G123,H123)</f>
-        <v>cD04</v>
+        <v>cD04b</v>
       </c>
       <c r="J123" s="38"/>
       <c r="K123" s="5"/>
@@ -12674,10 +12667,12 @@
       <c r="G124" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H124" s="6"/>
+      <c r="H124" s="6" t="s">
+        <v>1126</v>
+      </c>
       <c r="I124" s="38" t="str">
         <f>CONCATENATE("c",F124,G124,H124)</f>
-        <v>cD04</v>
+        <v>cD04c</v>
       </c>
       <c r="J124" s="38"/>
       <c r="K124" s="5"/>
@@ -12731,10 +12726,12 @@
       <c r="G125" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H125" s="6"/>
+      <c r="H125" s="6" t="s">
+        <v>1457</v>
+      </c>
       <c r="I125" s="38" t="str">
         <f>CONCATENATE("c",F125,G125,H125)</f>
-        <v>cD04</v>
+        <v>cD04d</v>
       </c>
       <c r="J125" s="38"/>
       <c r="K125" s="5"/>
@@ -12858,10 +12855,12 @@
       <c r="G127" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H127" s="6"/>
+      <c r="H127" s="6" t="s">
+        <v>1458</v>
+      </c>
       <c r="I127" s="38" t="str">
         <f t="shared" ref="I127:I129" si="13">CONCATENATE("c",F127,G127,H127)</f>
-        <v>cD04</v>
+        <v>cD04e</v>
       </c>
       <c r="J127" s="38"/>
       <c r="K127" s="5"/>
@@ -12911,10 +12910,12 @@
       <c r="G128" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H128" s="6"/>
+      <c r="H128" s="6" t="s">
+        <v>1459</v>
+      </c>
       <c r="I128" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>cD04</v>
+        <v>cD04f</v>
       </c>
       <c r="J128" s="38"/>
       <c r="K128" s="5"/>
@@ -12968,10 +12969,12 @@
       <c r="G129" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H129" s="6"/>
+      <c r="H129" s="6" t="s">
+        <v>1460</v>
+      </c>
       <c r="I129" s="38" t="str">
         <f t="shared" si="13"/>
-        <v>cD04</v>
+        <v>cD04g</v>
       </c>
       <c r="J129" s="38"/>
       <c r="K129" s="5"/>
@@ -13019,7 +13022,9 @@
       <c r="G130" s="26" t="s">
         <v>950</v>
       </c>
-      <c r="H130" s="6"/>
+      <c r="H130" s="6" t="s">
+        <v>950</v>
+      </c>
       <c r="I130" s="38"/>
       <c r="J130" s="38"/>
       <c r="K130" s="5"/>
@@ -13069,10 +13074,12 @@
       <c r="G131" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H131" s="6"/>
+      <c r="H131" s="6" t="s">
+        <v>1462</v>
+      </c>
       <c r="I131" s="38" t="str">
         <f>CONCATENATE("c",F131,G131,H131)</f>
-        <v>cD04</v>
+        <v>cD04h</v>
       </c>
       <c r="J131" s="38"/>
       <c r="K131" s="5"/>
@@ -13122,10 +13129,12 @@
       <c r="G132" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H132" s="6"/>
+      <c r="H132" s="6" t="s">
+        <v>1461</v>
+      </c>
       <c r="I132" s="38" t="str">
         <f>CONCATENATE("c",F132,G132,H132)</f>
-        <v>cD04</v>
+        <v>cD04i</v>
       </c>
       <c r="J132" s="38"/>
       <c r="K132" s="5"/>
@@ -13175,10 +13184,12 @@
       <c r="G133" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H133" s="6"/>
+      <c r="H133" s="6" t="s">
+        <v>1463</v>
+      </c>
       <c r="I133" s="38" t="str">
         <f>CONCATENATE("c",F133,G133,H133)</f>
-        <v>cD04</v>
+        <v>cD04j</v>
       </c>
       <c r="J133" s="38"/>
       <c r="K133" s="5"/>
@@ -13228,10 +13239,12 @@
       <c r="G134" s="26" t="s">
         <v>1139</v>
       </c>
-      <c r="H134" s="6"/>
+      <c r="H134" s="6" t="s">
+        <v>1464</v>
+      </c>
       <c r="I134" s="38" t="str">
         <f>CONCATENATE("c",F134,G134,H134)</f>
-        <v>cD04</v>
+        <v>cD04k</v>
       </c>
       <c r="J134" s="38"/>
       <c r="K134" s="5"/>
@@ -18661,7 +18674,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W226"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -18674,7 +18687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18869,7 +18882,7 @@
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18882,7 +18895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28F118-C452-463C-A094-7394F1CE26E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,14 +41,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dauphine, David (CDPH-CHSI-PHPRB)</author>
     <author>Matt</author>
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0">
+    <comment ref="C57" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R126" authorId="2" shapeId="0">
+    <comment ref="R126" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1467">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -3672,12 +3673,6 @@
     <t>C33-C34, D022, D142-D143, D381</t>
   </si>
   <si>
-    <t>C50, D059, D24, D486</t>
-  </si>
-  <si>
-    <t>C50|D059|D24|D486</t>
-  </si>
-  <si>
     <t>C53, D069, D260</t>
   </si>
   <si>
@@ -3712,12 +3707,6 @@
   </si>
   <si>
     <t>C32|D020|D141|D380</t>
-  </si>
-  <si>
-    <t>C73, D34, D440</t>
-  </si>
-  <si>
-    <t>C73|D34|D440</t>
   </si>
   <si>
     <t>V01-V99</t>
@@ -4016,9 +4005,6 @@
     <t>Added D04</t>
   </si>
   <si>
-    <t>Added D059, 24, 486</t>
-  </si>
-  <si>
     <t>Added D069, D260</t>
   </si>
   <si>
@@ -4047,9 +4033,6 @@
   </si>
   <si>
     <t>Added D020,141,380</t>
-  </si>
-  <si>
-    <t>Added D34,440</t>
   </si>
   <si>
     <t>Added C66 from Kidney Cancer per IHME, Added D014 (IHME garbage code)</t>
@@ -4680,11 +4663,39 @@
   <si>
     <t>k</t>
   </si>
+  <si>
+    <t>Added D34,440
+07/2021: Added D093, D098</t>
+  </si>
+  <si>
+    <t>IHME
+D093 in data; IHME</t>
+  </si>
+  <si>
+    <t>C73, D34, D440, D093, D098</t>
+  </si>
+  <si>
+    <t>C73|D34|D440|D093|D098</t>
+  </si>
+  <si>
+    <t>Added D059, 24, 486
+07/2021: Added D05</t>
+  </si>
+  <si>
+    <t>IHME
+D051 in data; IHME</t>
+  </si>
+  <si>
+    <t>C50, D05, D24, D486</t>
+  </si>
+  <si>
+    <t>C50|D05|D24|D486</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5246,7 +5257,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5469,6 +5480,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5504,6 +5532,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5679,14 +5724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B145" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G156" sqref="G156"/>
+      <selection pane="bottomRight" activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5728,13 +5773,13 @@
         <v>762</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>1409</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>1415</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>1119</v>
@@ -5746,13 +5791,13 @@
         <v>1121</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>384</v>
@@ -5761,10 +5806,10 @@
         <v>759</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>1153</v>
@@ -5892,10 +5937,10 @@
         <v>1125</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>1131</v>
@@ -6044,7 +6089,7 @@
         <v>1147</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1131</v>
@@ -6261,7 +6306,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="6" t="s">
@@ -6599,7 +6644,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="6" t="s">
@@ -7159,10 +7204,10 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="Q27" s="55" t="s">
         <v>960</v>
@@ -8310,7 +8355,7 @@
         <v>696</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="E49" s="72"/>
       <c r="F49" s="6" t="s">
@@ -8377,16 +8422,16 @@
       </c>
       <c r="J50" s="38"/>
       <c r="K50" s="5" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
@@ -8409,7 +8454,7 @@
         <v>878</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -8507,13 +8552,13 @@
         <v>404</v>
       </c>
       <c r="N52" s="63" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="O52" s="63" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="P52" s="63" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="Q52" s="55" t="s">
         <v>404</v>
@@ -8608,10 +8653,10 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="30" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="E54" s="72"/>
       <c r="F54" s="6" t="s">
@@ -8632,10 +8677,10 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="Q54" s="55"/>
       <c r="R54" s="56"/>
@@ -8777,7 +8822,7 @@
         <v>33</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="E57" s="72"/>
       <c r="F57" s="6" t="s">
@@ -8795,16 +8840,16 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="P57" s="16" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="Q57" s="55" t="s">
         <v>408</v>
@@ -8825,7 +8870,7 @@
         <v>33</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -8925,7 +8970,7 @@
         <v>370</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="P59" s="16" t="s">
         <v>370</v>
@@ -8949,7 +8994,7 @@
         <v>35</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -8964,7 +9009,7 @@
         <v>36</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="E60" s="72"/>
       <c r="F60" s="6" t="s">
@@ -9049,10 +9094,10 @@
         <v>372</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="Q61" s="55" t="s">
         <v>412</v>
@@ -9110,10 +9155,10 @@
         <v>373</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="Q62" s="55" t="s">
         <v>413</v>
@@ -9387,7 +9432,7 @@
       </c>
       <c r="J67" s="38"/>
       <c r="K67" s="5" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>1152</v>
@@ -9396,7 +9441,7 @@
         <v>1157</v>
       </c>
       <c r="N67" s="19" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="O67" s="19"/>
       <c r="P67" s="19"/>
@@ -9505,7 +9550,7 @@
         <v>420</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="Q69" s="55" t="s">
         <v>420</v>
@@ -9645,7 +9690,7 @@
         <v>48</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="E72" s="72"/>
       <c r="F72" s="6" t="s">
@@ -9780,7 +9825,7 @@
         <v>383</v>
       </c>
       <c r="S74" s="69" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="T74" s="66" t="s">
         <v>557</v>
@@ -9843,7 +9888,7 @@
         <v>51</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E76" s="72"/>
       <c r="F76" s="25" t="s">
@@ -9919,10 +9964,10 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="N77" s="47" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="O77" s="47"/>
       <c r="P77" s="47"/>
@@ -9970,16 +10015,16 @@
       </c>
       <c r="J78" s="38"/>
       <c r="K78" s="18" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="L78" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="N78" s="19" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="O78" s="19"/>
       <c r="P78" s="19"/>
@@ -10015,7 +10060,7 @@
         <v>699</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="E79" s="72"/>
       <c r="F79" s="6" t="s">
@@ -10031,7 +10076,7 @@
       </c>
       <c r="J79" s="38"/>
       <c r="K79" s="19" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="L79" s="17" t="s">
         <v>1152</v>
@@ -10133,7 +10178,7 @@
         <v>53</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="E81" s="75"/>
       <c r="F81" s="6" t="s">
@@ -10152,7 +10197,7 @@
         <v>B02</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="L81" s="17" t="s">
         <v>1152</v>
@@ -10216,7 +10261,7 @@
         <v>B03</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="L82" s="17" t="s">
         <v>1152</v>
@@ -10282,16 +10327,16 @@
         <v>B04</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="L83" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="N83" s="47" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="O83" s="47"/>
       <c r="P83" s="47"/>
@@ -10346,7 +10391,7 @@
         <v>B05</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="L84" s="17" t="s">
         <v>1152</v>
@@ -10410,7 +10455,7 @@
         <v>B06</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="L85" s="17" t="s">
         <v>1152</v>
@@ -10458,7 +10503,7 @@
         <v>221</v>
       </c>
       <c r="E86" s="75" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>1132</v>
@@ -10476,7 +10521,7 @@
         <v>B07</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="L86" s="17" t="s">
         <v>1152</v>
@@ -10593,16 +10638,16 @@
       </c>
       <c r="J88" s="38"/>
       <c r="K88" s="18" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="L88" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="N88" s="47" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="O88" s="47"/>
       <c r="P88" s="47"/>
@@ -10654,16 +10699,16 @@
       </c>
       <c r="J89" s="38"/>
       <c r="K89" s="18" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="L89" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="N89" s="47" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="O89" s="47"/>
       <c r="P89" s="47"/>
@@ -10687,7 +10732,7 @@
       </c>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A90" s="42" t="str">
         <f t="shared" si="6"/>
         <v>...B.09. - Breast cancer</v>
@@ -10718,16 +10763,16 @@
         <v>B09</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>1277</v>
-      </c>
-      <c r="L90" s="17" t="s">
-        <v>1152</v>
+        <v>1463</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>1464</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>1170</v>
+        <v>1465</v>
       </c>
       <c r="N90" s="47" t="s">
-        <v>1171</v>
+        <v>1466</v>
       </c>
       <c r="O90" s="47"/>
       <c r="P90" s="47"/>
@@ -10758,10 +10803,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="35" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="E91" s="72"/>
       <c r="F91" s="6" t="s">
@@ -10788,7 +10833,7 @@
       <c r="S91" s="66"/>
       <c r="T91" s="66"/>
       <c r="U91" s="5" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="V91" s="43"/>
       <c r="W91" s="2"/>
@@ -10821,16 +10866,16 @@
       </c>
       <c r="J92" s="38"/>
       <c r="K92" s="5" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="L92" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="N92" s="47" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="O92" s="47"/>
       <c r="P92" s="47"/>
@@ -10882,16 +10927,16 @@
       </c>
       <c r="J93" s="38"/>
       <c r="K93" s="5" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="L93" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="N93" s="47" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="O93" s="47"/>
       <c r="P93" s="47"/>
@@ -10946,16 +10991,16 @@
         <v>B11</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="L94" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="N94" s="47" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="O94" s="47"/>
       <c r="P94" s="47"/>
@@ -11010,16 +11055,16 @@
         <v>B12</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="L95" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="N95" s="47" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="O95" s="47"/>
       <c r="P95" s="47"/>
@@ -11071,16 +11116,16 @@
       </c>
       <c r="J96" s="38"/>
       <c r="K96" s="19" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="L96" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="N96" s="47" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="O96" s="47"/>
       <c r="P96" s="47"/>
@@ -11135,16 +11180,16 @@
         <v>B13</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="L97" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="N97" s="47" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="O97" s="47"/>
       <c r="P97" s="47"/>
@@ -11199,16 +11244,16 @@
         <v>B14</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="L98" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="N98" s="47" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="O98" s="47"/>
       <c r="P98" s="47"/>
@@ -11263,16 +11308,16 @@
         <v>B15</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="L99" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="O99" s="19"/>
       <c r="P99" s="19"/>
@@ -11308,7 +11353,7 @@
         <v>707</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="E100" s="72"/>
       <c r="F100" s="6" t="s">
@@ -11324,16 +11369,16 @@
       </c>
       <c r="J100" s="38"/>
       <c r="K100" s="19" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="L100" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="N100" s="47" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="O100" s="47"/>
       <c r="P100" s="47"/>
@@ -11385,16 +11430,16 @@
       </c>
       <c r="J101" s="38"/>
       <c r="K101" s="19" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="L101" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="N101" s="47" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="O101" s="47"/>
       <c r="P101" s="47"/>
@@ -11418,7 +11463,7 @@
       </c>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A102" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11446,16 +11491,16 @@
       </c>
       <c r="J102" s="38"/>
       <c r="K102" s="19" t="s">
-        <v>1288</v>
-      </c>
-      <c r="L102" s="17" t="s">
-        <v>1152</v>
+        <v>1459</v>
+      </c>
+      <c r="L102" s="18" t="s">
+        <v>1460</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>1184</v>
+        <v>1461</v>
       </c>
       <c r="N102" s="47" t="s">
-        <v>1185</v>
+        <v>1462</v>
       </c>
       <c r="O102" s="47"/>
       <c r="P102" s="47"/>
@@ -11791,7 +11836,7 @@
         <v>715</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="E108" s="72"/>
       <c r="F108" s="6" t="s">
@@ -11870,16 +11915,16 @@
         <v>B99</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="N109" s="47" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="O109" s="47"/>
       <c r="P109" s="47"/>
@@ -11927,10 +11972,10 @@
       </c>
       <c r="J110" s="38"/>
       <c r="M110" s="5" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
@@ -11985,22 +12030,22 @@
         <v>D01</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="N111" s="47" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="O111" s="47" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="P111" s="47" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="Q111" s="55" t="s">
         <v>973</v>
@@ -12021,7 +12066,7 @@
         <v>66</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
@@ -12056,18 +12101,18 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="O112" s="19"/>
       <c r="P112" s="19"/>
       <c r="Q112" s="55" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="R112" s="58" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="S112" s="66" t="s">
         <v>684</v>
@@ -12212,7 +12257,7 @@
         <v>719</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="E115" s="72"/>
       <c r="F115" s="6" t="s">
@@ -12377,10 +12422,10 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="31" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="E118" s="72"/>
       <c r="F118" s="6" t="s">
@@ -12408,7 +12453,7 @@
       <c r="S118" s="66"/>
       <c r="T118" s="66"/>
       <c r="U118" s="2" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="V118" s="43"/>
       <c r="W118" s="2"/>
@@ -12420,10 +12465,10 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="31" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="E119" s="72"/>
       <c r="F119" s="6"/>
@@ -12435,7 +12480,7 @@
         <v/>
       </c>
       <c r="K119" s="78" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
@@ -12727,7 +12772,7 @@
         <v>1139</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="I125" s="38" t="str">
         <f>CONCATENATE("c",F125,G125,H125)</f>
@@ -12740,13 +12785,13 @@
         <v>443</v>
       </c>
       <c r="N125" s="47" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="O125" s="47" t="s">
         <v>443</v>
       </c>
       <c r="P125" s="47" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="Q125" s="55" t="s">
         <v>443</v>
@@ -12787,7 +12832,7 @@
         <v>1134</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>1123</v>
@@ -12801,24 +12846,24 @@
         <v>D99a</v>
       </c>
       <c r="K126" s="62" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="L126" s="62" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="N126" s="19" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="O126" s="19"/>
       <c r="P126" s="19"/>
       <c r="Q126" s="55" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="R126" s="58" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="S126" s="66" t="s">
         <v>600</v>
@@ -12856,7 +12901,7 @@
         <v>1139</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="I127" s="38" t="str">
         <f t="shared" ref="I127:I129" si="13">CONCATENATE("c",F127,G127,H127)</f>
@@ -12911,7 +12956,7 @@
         <v>1139</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="I128" s="38" t="str">
         <f t="shared" si="13"/>
@@ -12960,7 +13005,7 @@
         <v>729</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="E129" s="75"/>
       <c r="F129" s="6" t="s">
@@ -12970,7 +13015,7 @@
         <v>1139</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="I129" s="38" t="str">
         <f t="shared" si="13"/>
@@ -13015,7 +13060,7 @@
         <v>74</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="E130" s="75"/>
       <c r="F130" s="6"/>
@@ -13075,7 +13120,7 @@
         <v>1139</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="I131" s="38" t="str">
         <f>CONCATENATE("c",F131,G131,H131)</f>
@@ -13130,7 +13175,7 @@
         <v>1139</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="I132" s="38" t="str">
         <f>CONCATENATE("c",F132,G132,H132)</f>
@@ -13185,7 +13230,7 @@
         <v>1139</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="I133" s="38" t="str">
         <f>CONCATENATE("c",F133,G133,H133)</f>
@@ -13230,7 +13275,7 @@
         <v>76</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="E134" s="72"/>
       <c r="F134" s="6" t="s">
@@ -13240,7 +13285,7 @@
         <v>1139</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="I134" s="38" t="str">
         <f>CONCATENATE("c",F134,G134,H134)</f>
@@ -13344,7 +13389,7 @@
         <v>255</v>
       </c>
       <c r="E136" s="72" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>1134</v>
@@ -13699,16 +13744,16 @@
         <v>D07</v>
       </c>
       <c r="K142" s="53" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="L142" s="18" t="s">
         <v>1152</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="N142" s="54" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="O142" s="54"/>
       <c r="P142" s="54"/>
@@ -14029,7 +14074,7 @@
         <v>460</v>
       </c>
       <c r="N148" s="47" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="O148" s="47"/>
       <c r="P148" s="47"/>
@@ -14245,13 +14290,13 @@
         <v>464</v>
       </c>
       <c r="N152" s="47" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="O152" s="47" t="s">
         <v>464</v>
       </c>
       <c r="P152" s="47" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="Q152" s="55" t="s">
         <v>464</v>
@@ -14349,7 +14394,7 @@
         <v>96</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="E154" s="75"/>
       <c r="F154" s="6" t="s">
@@ -14432,22 +14477,22 @@
         <v>C03</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="L155" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="M155" s="5" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="N155" s="47" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="O155" s="47" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="P155" s="47" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="Q155" s="55" t="s">
         <v>467</v>
@@ -14484,7 +14529,7 @@
         <v>275</v>
       </c>
       <c r="E156" s="75" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>1133</v>
@@ -14510,10 +14555,10 @@
         <v>829</v>
       </c>
       <c r="O156" s="47" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="P156" s="47" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="Q156" s="55" t="s">
         <v>468</v>
@@ -14534,7 +14579,7 @@
         <v>98</v>
       </c>
       <c r="W156" s="64" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
@@ -14545,7 +14590,7 @@
       <c r="B157" s="2"/>
       <c r="C157" s="34"/>
       <c r="D157" s="5" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="E157" s="75"/>
       <c r="F157" s="6" t="s">
@@ -14564,22 +14609,22 @@
         <v>C05</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="N157" s="47" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="O157" s="47" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="P157" s="47" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="Q157" s="55"/>
       <c r="R157" s="59"/>
@@ -14601,10 +14646,10 @@
         <v>99</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="E158" s="72" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>1133</v>
@@ -14622,22 +14667,22 @@
         <v>C99</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="N158" s="19" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="O158" s="19" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="P158" s="19" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="Q158" s="55" t="s">
         <v>469</v>
@@ -14658,7 +14703,7 @@
         <v>99</v>
       </c>
       <c r="W158" s="64" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
@@ -14715,7 +14760,7 @@
       </c>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.66. - Chronic obstructive pulmonary disease</v>
@@ -14730,13 +14775,13 @@
         <v>278</v>
       </c>
       <c r="E160" s="72" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>1134</v>
       </c>
       <c r="G160" s="26" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="38" t="str">
@@ -14796,7 +14841,7 @@
         <v>1134</v>
       </c>
       <c r="G161" s="26" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="H161" s="6"/>
       <c r="I161" s="38" t="str">
@@ -14846,7 +14891,7 @@
         <v>157</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>280</v>
@@ -14856,7 +14901,7 @@
         <v>1134</v>
       </c>
       <c r="G162" s="26" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="H162" s="6"/>
       <c r="I162" s="38" t="str">
@@ -14909,10 +14954,10 @@
         <v>104</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="E163" s="72" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>1134</v>
@@ -14929,7 +14974,7 @@
         <v>D09</v>
       </c>
       <c r="K163" s="62" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="L163" s="5"/>
       <c r="M163" s="5" t="s">
@@ -15017,7 +15062,7 @@
       </c>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" s="46" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A165" s="42" t="str">
         <f t="shared" si="12"/>
         <v>...D.11. - Cirrhosis of the liver</v>
@@ -15048,16 +15093,16 @@
         <v>D11</v>
       </c>
       <c r="K165" s="16" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="L165" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="N165" s="47" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="O165" s="47"/>
       <c r="P165" s="47"/>
@@ -15309,7 +15354,7 @@
       </c>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15423,7 +15468,7 @@
       </c>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="51" x14ac:dyDescent="0.25">
       <c r="A172" s="42" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15451,16 +15496,16 @@
       </c>
       <c r="J172" s="38"/>
       <c r="K172" s="5" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="L172" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="N172" s="47" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="O172" s="47"/>
       <c r="P172" s="47"/>
@@ -15673,7 +15718,7 @@
         <v>740</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="E176" s="72"/>
       <c r="F176" s="6" t="s">
@@ -16101,7 +16146,7 @@
         <v>483</v>
       </c>
       <c r="N183" s="47" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="O183" s="47"/>
       <c r="P183" s="47"/>
@@ -16425,16 +16470,16 @@
       </c>
       <c r="J189" s="38"/>
       <c r="K189" s="5" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="M189" s="5" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="N189" s="47" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="O189" s="47"/>
       <c r="P189" s="47"/>
@@ -17127,13 +17172,13 @@
         <v>...D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D202" s="46" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="F202" s="52" t="s">
         <v>1134</v>
       </c>
       <c r="G202" s="51" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="I202" s="41"/>
       <c r="J202" s="38" t="str">
@@ -17183,7 +17228,7 @@
         <v>1113</v>
       </c>
       <c r="S203" s="69" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="T203" s="66" t="s">
         <v>654</v>
@@ -17281,16 +17326,16 @@
         <v>E01</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="L205" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="M205" s="5" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="N205" s="19" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="O205" s="19"/>
       <c r="P205" s="19"/>
@@ -17321,13 +17366,13 @@
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="30" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="E206" s="72" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>1135</v>
@@ -17345,14 +17390,14 @@
         <v>E02</v>
       </c>
       <c r="K206" s="77" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="L206" s="5"/>
       <c r="M206" s="5" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="N206" s="19" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="O206" s="19"/>
       <c r="P206" s="19"/>
@@ -17444,10 +17489,10 @@
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
       <c r="M208" s="5" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="N208" s="47" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="O208" s="47"/>
       <c r="P208" s="47"/>
@@ -17592,7 +17637,7 @@
         <v>726</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E211" s="72"/>
       <c r="F211" s="6" t="s">
@@ -17665,16 +17710,16 @@
       </c>
       <c r="J212" s="38"/>
       <c r="K212" s="5" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="L212" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="N212" s="19" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="O212" s="19"/>
       <c r="P212" s="19"/>
@@ -17697,7 +17742,7 @@
         <v>728</v>
       </c>
       <c r="W212" s="2" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="213" spans="1:23" ht="51" x14ac:dyDescent="0.25">
@@ -17709,10 +17754,10 @@
         <v>200</v>
       </c>
       <c r="C213" s="30" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="E213" s="72"/>
       <c r="F213" s="6" t="s">
@@ -17732,13 +17777,13 @@
       </c>
       <c r="K213" s="5"/>
       <c r="L213" s="5" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="M213" s="5" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="N213" s="47" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="O213" s="47"/>
       <c r="P213" s="47"/>
@@ -17966,10 +18011,10 @@
       <c r="K217" s="5"/>
       <c r="L217" s="5"/>
       <c r="M217" s="5" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="N217" s="47" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="O217" s="47"/>
       <c r="P217" s="47"/>
@@ -18000,10 +18045,10 @@
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="30" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="E218" s="72"/>
       <c r="F218" s="6" t="s">
@@ -18019,16 +18064,16 @@
       </c>
       <c r="J218" s="38"/>
       <c r="K218" s="5" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="M218" s="5" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="N218" s="47" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="O218" s="47"/>
       <c r="P218" s="47"/>
@@ -18068,16 +18113,16 @@
       </c>
       <c r="J219" s="38"/>
       <c r="K219" s="5" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="L219" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="M219" s="5" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="N219" s="47" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="O219" s="47"/>
       <c r="P219" s="47"/>
@@ -18128,16 +18173,16 @@
         <v>E05</v>
       </c>
       <c r="K220" s="5" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="M220" s="5" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="N220" s="47" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="O220" s="47"/>
       <c r="P220" s="47"/>
@@ -18160,7 +18205,7 @@
         <v>885</v>
       </c>
       <c r="W220" s="22" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="221" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
@@ -18225,7 +18270,7 @@
         <v>140</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="E222" s="72"/>
       <c r="F222" s="6" t="s">
@@ -18244,16 +18289,16 @@
         <v>E07</v>
       </c>
       <c r="K222" s="5" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="M222" s="5" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="N222" s="47" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="O222" s="47"/>
       <c r="P222" s="47"/>
@@ -18289,10 +18334,10 @@
         <v>141</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="E223" s="72" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>1135</v>
@@ -18310,7 +18355,7 @@
       </c>
       <c r="K223" s="5"/>
       <c r="L223" s="5" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="O223" s="19"/>
       <c r="P223" s="19"/>
@@ -18342,7 +18387,7 @@
       <c r="B224" s="2"/>
       <c r="C224" s="30"/>
       <c r="D224" s="20" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="E224" s="72"/>
       <c r="F224" s="6" t="s">
@@ -18363,14 +18408,14 @@
         <v>E08a</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="L224" s="5"/>
       <c r="M224" s="5" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="N224" s="19" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="O224" s="19"/>
       <c r="P224" s="19"/>
@@ -18390,7 +18435,7 @@
       <c r="B225" s="2"/>
       <c r="C225" s="30"/>
       <c r="D225" s="20" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="E225" s="72"/>
       <c r="F225" s="6" t="s">
@@ -18411,16 +18456,16 @@
         <v>E08b</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="M225" s="5" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="N225" s="19" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="O225" s="19"/>
       <c r="P225" s="19"/>
@@ -18444,7 +18489,7 @@
         <v>142</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="E226" s="72"/>
       <c r="F226" s="6" t="s">
@@ -18465,16 +18510,16 @@
         <v>E08c</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="M226" s="5" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="N226" s="47" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="O226" s="47"/>
       <c r="P226" s="47"/>
@@ -18493,7 +18538,7 @@
         <v>142</v>
       </c>
       <c r="W226" s="22" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="227" spans="1:23" ht="51" x14ac:dyDescent="0.25">
@@ -18503,19 +18548,19 @@
       </c>
       <c r="B227" s="46"/>
       <c r="C227" s="16" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="D227" s="46" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="F227" s="52" t="s">
         <v>1135</v>
       </c>
       <c r="G227" s="51" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="I227" s="38" t="str">
         <f t="shared" si="25"/>
@@ -18526,16 +18571,16 @@
         <v>E99</v>
       </c>
       <c r="K227" s="46" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="L227" s="46" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="M227" s="16" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="N227" s="16" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="228" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
@@ -18544,13 +18589,13 @@
         <v>...Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D228" s="46" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="F228" s="52" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="G228" s="51" t="s">
         <v>1136</v>
@@ -18564,16 +18609,16 @@
         <v>Z01</v>
       </c>
       <c r="K228" s="46" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="L228" s="46" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="M228" s="16" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="N228" s="16" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="229" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
@@ -18582,7 +18627,7 @@
         <v/>
       </c>
       <c r="D229" s="46" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="F229" s="52" t="s">
         <v>1131</v>
@@ -18596,16 +18641,16 @@
       </c>
       <c r="J229" s="38"/>
       <c r="K229" s="16" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="L229" s="46" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="M229" s="16" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="N229" s="16" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
@@ -18614,10 +18659,10 @@
         <v>...Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D230" s="46" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F230" s="52" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="G230" s="51" t="s">
         <v>1137</v>
@@ -18634,10 +18679,10 @@
         <v>...Z.03. - Code does not map</v>
       </c>
       <c r="D231" s="46" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="F231" s="52" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="G231" s="51" t="s">
         <v>1138</v>
@@ -18648,7 +18693,7 @@
         <v>Z03</v>
       </c>
       <c r="K231" s="16" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
@@ -18657,10 +18702,10 @@
         <v>..Z. - Unknown/Missing Value</v>
       </c>
       <c r="D232" s="46" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F232" s="52" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="I232" s="41"/>
       <c r="J232" s="38" t="str">
@@ -18674,7 +18719,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W226"/>
+  <autoFilter ref="A1:W226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -18687,7 +18732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18882,7 +18927,7 @@
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18895,7 +18940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -18916,22 +18961,22 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="C2" s="76" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G2" s="76" t="s">
         <v>1416</v>
       </c>
-      <c r="E2" s="76" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>1422</v>
-      </c>
       <c r="H2" s="76" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="J2" s="76" t="s">
         <v>950</v>
@@ -18939,97 +18984,97 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="76" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="C3" s="76" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G3" s="76" t="s">
         <v>1417</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>1423</v>
-      </c>
       <c r="H3" s="76" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="76" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="76" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="76" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="D7" s="76">
         <v>116</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="76" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="D8" s="76">
         <v>118</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C9" s="76" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="D9" s="76">
         <v>119</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" s="76" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="D10" s="76">
         <v>120</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="51" x14ac:dyDescent="0.25">

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28F118-C452-463C-A094-7394F1CE26E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8E25D1-C384-4E4B-BA1C-FA9B3F388B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -5728,42 +5728,40 @@
   <dimension ref="A1:W234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M90" sqref="M90"/>
+      <selection pane="bottomRight" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="49" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="26" style="42" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="51" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="52" customWidth="1"/>
-    <col min="10" max="10" width="8" style="52" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10" style="46" customWidth="1"/>
-    <col min="13" max="13" width="28" style="16" customWidth="1"/>
-    <col min="14" max="14" width="38.140625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="71.28515625" style="16" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="61" customWidth="1"/>
-    <col min="18" max="18" width="35.140625" style="61" customWidth="1"/>
-    <col min="19" max="19" width="62.140625" style="70" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" style="70" customWidth="1"/>
-    <col min="21" max="21" width="50.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="50.85546875" style="44" customWidth="1"/>
-    <col min="23" max="23" width="50.42578125" style="44" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="44"/>
+    <col min="1" max="1" width="48.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="44" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="52" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="51" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="52" customWidth="1"/>
+    <col min="9" max="10" width="7.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63.140625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="46" customWidth="1"/>
+    <col min="13" max="14" width="49" style="16"/>
+    <col min="15" max="15" width="48.85546875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="46.28515625" style="16" customWidth="1"/>
+    <col min="17" max="17" width="49" style="61" customWidth="1"/>
+    <col min="18" max="18" width="48.85546875" style="61" customWidth="1"/>
+    <col min="19" max="19" width="61.5703125" style="70" customWidth="1"/>
+    <col min="20" max="20" width="49" style="70" customWidth="1"/>
+    <col min="21" max="21" width="51.5703125" style="44" customWidth="1"/>
+    <col min="22" max="22" width="53" style="44" customWidth="1"/>
+    <col min="23" max="23" width="97" style="44" customWidth="1"/>
+    <col min="24" max="16384" width="49" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="16" t="s">
         <v>1150</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -5834,7 +5832,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="str">
+      <c r="A2" s="16" t="str">
         <f>CONCATENATE(".",U2)</f>
         <v>.All CAUSES</v>
       </c>
@@ -5877,7 +5875,7 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="str">
+      <c r="A3" s="16" t="str">
         <f t="shared" ref="A3:A65" si="0">IF(J3&lt;&gt;"",IF(H3&lt;&gt;"",CONCATENATE("....",F3,".",G3,".",H3,". - ",D3),IF(G3&lt;&gt;"",CONCATENATE("...",F3,".",G3,". - ",D3),CONCATENATE("..",F3,". - ",D3))),"")</f>
         <v>..A. - Communicable, maternal, perinatal and nutritional conditions</v>
       </c>
@@ -5928,7 +5926,7 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="str">
+      <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.99. - Other Infectious Diseases/Nutritional Deficiencies</v>
       </c>
@@ -5971,7 +5969,7 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="str">
+      <c r="A5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6019,7 +6017,7 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="str">
+      <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.01. - Tuberculosis</v>
       </c>
@@ -6077,7 +6075,7 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="str">
+      <c r="A7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.02. - HIV/ and other Sexually transmitted diseases (STDs)</v>
       </c>
@@ -6120,7 +6118,7 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>....A.02.a. - Sexually transmitted diseases (STDs) excluding HIV</v>
       </c>
@@ -6181,7 +6179,7 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="str">
+      <c r="A9" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6238,7 +6236,7 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="str">
+      <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6295,7 +6293,7 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="str">
+      <c r="A11" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6352,7 +6350,7 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="str">
+      <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6407,7 +6405,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="str">
+      <c r="A13" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6464,7 +6462,7 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="str">
+      <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>....A.02.b. - HIV/AIDS</v>
       </c>
@@ -6523,7 +6521,7 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="str">
+      <c r="A15" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6576,7 +6574,7 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="str">
+      <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6633,7 +6631,7 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="str">
+      <c r="A17" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6688,7 +6686,7 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="str">
+      <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6737,7 +6735,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="str">
+      <c r="A19" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6792,7 +6790,7 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="str">
+      <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6847,7 +6845,7 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="str">
+      <c r="A21" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6902,7 +6900,7 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="str">
+      <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6957,7 +6955,7 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="str">
+      <c r="A23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.04. - Meningitis</v>
       </c>
@@ -7015,7 +7013,7 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="str">
+      <c r="A24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.05. - Encephalitis</v>
       </c>
@@ -7073,7 +7071,7 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="str">
+      <c r="A25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.06. - Hepatitis</v>
       </c>
@@ -7119,7 +7117,7 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="str">
+      <c r="A26" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7170,7 +7168,7 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="str">
+      <c r="A27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>....A.06.a. - Acute hepatitis B</v>
       </c>
@@ -7226,7 +7224,7 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="str">
+      <c r="A28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>....A.06.b. - Acute hepatitis C</v>
       </c>
@@ -7282,7 +7280,7 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="str">
+      <c r="A29" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7333,7 +7331,7 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="str">
+      <c r="A30" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7381,7 +7379,7 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="str">
+      <c r="A31" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7436,7 +7434,7 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="str">
+      <c r="A32" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7491,7 +7489,7 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="str">
+      <c r="A33" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7546,7 +7544,7 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="str">
+      <c r="A34" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7601,7 +7599,7 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="str">
+      <c r="A35" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7656,7 +7654,7 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="str">
+      <c r="A36" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7707,7 +7705,7 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="str">
+      <c r="A37" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7758,7 +7756,7 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="str">
+      <c r="A38" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7813,7 +7811,7 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="str">
+      <c r="A39" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7868,7 +7866,7 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="str">
+      <c r="A40" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7919,7 +7917,7 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="str">
+      <c r="A41" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7974,7 +7972,7 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="str">
+      <c r="A42" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8025,7 +8023,7 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="str">
+      <c r="A43" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8080,7 +8078,7 @@
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="str">
+      <c r="A44" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8135,7 +8133,7 @@
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="str">
+      <c r="A45" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8187,7 +8185,7 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="str">
+      <c r="A46" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8242,7 +8240,7 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="str">
+      <c r="A47" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8293,7 +8291,7 @@
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="str">
+      <c r="A48" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8344,7 +8342,7 @@
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="str">
+      <c r="A49" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8395,7 +8393,7 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" ht="102" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="str">
+      <c r="A50" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8458,7 +8456,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="str">
+      <c r="A51" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.07. - Respiratory infections</v>
       </c>
@@ -8515,7 +8513,7 @@
       <c r="W51" s="2"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="str">
+      <c r="A52" s="16" t="str">
         <f t="shared" si="0"/>
         <v>....A.07.a. - Lower respiratory infections</v>
       </c>
@@ -8581,7 +8579,7 @@
       <c r="W52" s="2"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="str">
+      <c r="A53" s="16" t="str">
         <f t="shared" si="0"/>
         <v>....A.07.b. - Upper respiratory infections</v>
       </c>
@@ -8647,7 +8645,7 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="str">
+      <c r="A54" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.10. - COVID-19</v>
       </c>
@@ -8691,7 +8689,7 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="str">
+      <c r="A55" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8752,7 +8750,7 @@
       <c r="W55" s="2"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="str">
+      <c r="A56" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.08. - Maternal conditions</v>
       </c>
@@ -8811,7 +8809,7 @@
       <c r="W56" s="2"/>
     </row>
     <row r="57" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="42" t="str">
+      <c r="A57" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8874,7 +8872,7 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="str">
+      <c r="A58" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8935,7 +8933,7 @@
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="str">
+      <c r="A59" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8998,7 +8996,7 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="str">
+      <c r="A60" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -9059,7 +9057,7 @@
       <c r="W60" s="2"/>
     </row>
     <row r="61" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="str">
+      <c r="A61" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -9120,7 +9118,7 @@
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="42" t="str">
+      <c r="A62" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -9181,7 +9179,7 @@
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="str">
+      <c r="A63" s="16" t="str">
         <f t="shared" si="0"/>
         <v>...A.09. - Neonatal conditions</v>
       </c>
@@ -9240,7 +9238,7 @@
       <c r="W63" s="2"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="str">
+      <c r="A64" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -9295,7 +9293,7 @@
       <c r="W64" s="2"/>
     </row>
     <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="42" t="str">
+      <c r="A65" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -9350,7 +9348,7 @@
       <c r="W65" s="2"/>
     </row>
     <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="42" t="str">
+      <c r="A66" s="16" t="str">
         <f t="shared" ref="A66:A126" si="6">IF(J66&lt;&gt;"",IF(H66&lt;&gt;"",CONCATENATE("....",F66,".",G66,".",H66,". - ",D66),IF(G66&lt;&gt;"",CONCATENATE("...",F66,".",G66,". - ",D66),CONCATENATE("..",F66,". - ",D66))),"")</f>
         <v/>
       </c>
@@ -9405,7 +9403,7 @@
       <c r="W66" s="2"/>
     </row>
     <row r="67" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="str">
+      <c r="A67" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9466,7 +9464,7 @@
       <c r="W67" s="2"/>
     </row>
     <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="str">
+      <c r="A68" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9518,7 +9516,7 @@
       <c r="W68" s="2"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="str">
+      <c r="A69" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9573,7 +9571,7 @@
       <c r="W69" s="2"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="42" t="str">
+      <c r="A70" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9628,7 +9626,7 @@
       <c r="W70" s="2"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="str">
+      <c r="A71" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9679,7 +9677,7 @@
       <c r="W71" s="2"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="str">
+      <c r="A72" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9734,7 +9732,7 @@
       <c r="W72" s="2"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="42" t="str">
+      <c r="A73" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9789,7 +9787,7 @@
       <c r="W73" s="2"/>
     </row>
     <row r="74" spans="1:23" ht="84" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="str">
+      <c r="A74" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -9839,7 +9837,7 @@
       <c r="W74" s="2"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="str">
+      <c r="A75" s="16" t="str">
         <f t="shared" si="6"/>
         <v>..D. - Other Chronic</v>
       </c>
@@ -9877,7 +9875,7 @@
       <c r="W75" s="2"/>
     </row>
     <row r="76" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="str">
+      <c r="A76" s="16" t="str">
         <f t="shared" si="6"/>
         <v>..B. - Cancer/Malignant neoplasms</v>
       </c>
@@ -9932,7 +9930,7 @@
       <c r="W76" s="2"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="42" t="str">
+      <c r="A77" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.01. - Mouth and oropharynx cancers</v>
       </c>
@@ -9988,7 +9986,7 @@
       <c r="W77" s="2"/>
     </row>
     <row r="78" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="42" t="str">
+      <c r="A78" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10049,7 +10047,7 @@
       <c r="W78" s="2"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="str">
+      <c r="A79" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10110,7 +10108,7 @@
       <c r="W79" s="2"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="str">
+      <c r="A80" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10167,7 +10165,7 @@
       <c r="W80" s="2"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="42" t="str">
+      <c r="A81" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.02. - Esophagus cancer</v>
       </c>
@@ -10231,7 +10229,7 @@
       <c r="W81" s="2"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="42" t="str">
+      <c r="A82" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.03. - Stomach cancer</v>
       </c>
@@ -10297,7 +10295,7 @@
       </c>
     </row>
     <row r="83" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="str">
+      <c r="A83" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.04. - Colon and rectum cancers</v>
       </c>
@@ -10361,7 +10359,7 @@
       <c r="W83" s="2"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="str">
+      <c r="A84" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.05. - Liver cancer</v>
       </c>
@@ -10425,7 +10423,7 @@
       <c r="W84" s="2"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="str">
+      <c r="A85" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.06. - Pancreas cancer</v>
       </c>
@@ -10489,7 +10487,7 @@
       <c r="W85" s="2"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="str">
+      <c r="A86" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.07. - Trachea, bronchus and lung cancers</v>
       </c>
@@ -10555,7 +10553,7 @@
       <c r="W86" s="2"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87" s="42" t="str">
+      <c r="A87" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.08. - Melanoma and other skin cancers</v>
       </c>
@@ -10611,7 +10609,7 @@
       <c r="W87" s="2"/>
     </row>
     <row r="88" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="str">
+      <c r="A88" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10672,7 +10670,7 @@
       <c r="W88" s="2"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" s="42" t="str">
+      <c r="A89" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10733,7 +10731,7 @@
       <c r="W89" s="2"/>
     </row>
     <row r="90" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="42" t="str">
+      <c r="A90" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.09. - Breast cancer</v>
       </c>
@@ -10797,7 +10795,7 @@
       <c r="W90" s="2"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" s="42" t="str">
+      <c r="A91" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.10. - Uterine cancer</v>
       </c>
@@ -10839,7 +10837,7 @@
       <c r="W91" s="2"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="42" t="str">
+      <c r="A92" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10900,7 +10898,7 @@
       <c r="W92" s="2"/>
     </row>
     <row r="93" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="42" t="str">
+      <c r="A93" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -10961,7 +10959,7 @@
       <c r="W93" s="2"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="str">
+      <c r="A94" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.11. - Ovary cancer</v>
       </c>
@@ -11025,7 +11023,7 @@
       <c r="W94" s="2"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" s="42" t="str">
+      <c r="A95" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.12. - Prostate cancer</v>
       </c>
@@ -11089,7 +11087,7 @@
       <c r="W95" s="2"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" s="42" t="str">
+      <c r="A96" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -11150,7 +11148,7 @@
       <c r="W96" s="2"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A97" s="42" t="str">
+      <c r="A97" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.13. - Kidney, renal pelvis and ureter cancer</v>
       </c>
@@ -11214,7 +11212,7 @@
       <c r="W97" s="2"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" s="42" t="str">
+      <c r="A98" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.14. - Bladder cancer</v>
       </c>
@@ -11278,7 +11276,7 @@
       <c r="W98" s="2"/>
     </row>
     <row r="99" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="42" t="str">
+      <c r="A99" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.15. - Brain and nervous system cancers</v>
       </c>
@@ -11342,7 +11340,7 @@
       <c r="W99" s="2"/>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" s="42" t="str">
+      <c r="A100" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -11403,7 +11401,7 @@
       <c r="W100" s="2"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" s="42" t="str">
+      <c r="A101" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -11464,7 +11462,7 @@
       <c r="W101" s="2"/>
     </row>
     <row r="102" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="42" t="str">
+      <c r="A102" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -11525,7 +11523,7 @@
       <c r="W102" s="2"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" s="42" t="str">
+      <c r="A103" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -11582,7 +11580,7 @@
       <c r="W103" s="2"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" s="42" t="str">
+      <c r="A104" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.16. - Lymphomas and multiple myeloma</v>
       </c>
@@ -11639,7 +11637,7 @@
       <c r="W104" s="2"/>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" s="42" t="str">
+      <c r="A105" s="16" t="str">
         <f t="shared" si="6"/>
         <v>....B.16.a. - Hodgkin lymphoma</v>
       </c>
@@ -11701,7 +11699,7 @@
       <c r="W105" s="2"/>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="42" t="str">
+      <c r="A106" s="16" t="str">
         <f t="shared" si="6"/>
         <v>....B.16.b. - Non-Hodgkin lymphoma</v>
       </c>
@@ -11763,7 +11761,7 @@
       <c r="W106" s="2"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="42" t="str">
+      <c r="A107" s="16" t="str">
         <f t="shared" si="6"/>
         <v>....B.16.c. - Multiple myeloma</v>
       </c>
@@ -11825,7 +11823,7 @@
       <c r="W107" s="2"/>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="str">
+      <c r="A108" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.17. - Leukemia</v>
       </c>
@@ -11885,7 +11883,7 @@
       <c r="W108" s="2"/>
     </row>
     <row r="109" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="42" t="str">
+      <c r="A109" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...B.99. - Other malignant neoplasms</v>
       </c>
@@ -11945,7 +11943,7 @@
       <c r="W109" s="2"/>
     </row>
     <row r="110" spans="1:23" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="42" t="str">
+      <c r="A110" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12000,7 +11998,7 @@
       <c r="W110" s="2"/>
     </row>
     <row r="111" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="42" t="str">
+      <c r="A111" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...D.01. - Diabetes mellitus</v>
       </c>
@@ -12070,7 +12068,7 @@
       </c>
     </row>
     <row r="112" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="42" t="str">
+      <c r="A112" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...D.02. - Endocrine, blood, immune disorders</v>
       </c>
@@ -12129,7 +12127,7 @@
       <c r="W112" s="2"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A113" s="42" t="str">
+      <c r="A113" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12185,8 +12183,8 @@
       </c>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A114" s="42" t="str">
+    <row r="114" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="16" t="str">
         <f t="shared" si="6"/>
         <v>...D.03. - Sickle cell disorders and trait</v>
       </c>
@@ -12246,7 +12244,7 @@
       <c r="W114" s="2"/>
     </row>
     <row r="115" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="42" t="str">
+      <c r="A115" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12303,7 +12301,7 @@
       <c r="W115" s="2"/>
     </row>
     <row r="116" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="42" t="str">
+      <c r="A116" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12359,8 +12357,8 @@
       </c>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="42" t="str">
+    <row r="117" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12416,7 +12414,7 @@
       <c r="W117" s="2"/>
     </row>
     <row r="118" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="42" t="str">
+      <c r="A118" s="16" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">...D.04. - Mental Health disorders </v>
       </c>
@@ -12459,7 +12457,7 @@
       <c r="W118" s="2"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A119" s="42" t="str">
+      <c r="A119" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12498,7 +12496,7 @@
       <c r="W119" s="2"/>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A120" s="42" t="str">
+      <c r="A120" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12528,7 +12526,7 @@
       <c r="W120" s="2"/>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A121" s="42" t="str">
+      <c r="A121" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12574,7 +12572,7 @@
       <c r="W121" s="2"/>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A122" s="42" t="str">
+      <c r="A122" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12633,7 +12631,7 @@
       <c r="W122" s="2"/>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A123" s="42" t="str">
+      <c r="A123" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12692,7 +12690,7 @@
       <c r="W123" s="2"/>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A124" s="42" t="str">
+      <c r="A124" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12751,7 +12749,7 @@
       <c r="W124" s="2"/>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A125" s="42" t="str">
+      <c r="A125" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -12814,7 +12812,7 @@
       <c r="W125" s="2"/>
     </row>
     <row r="126" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="42" t="str">
+      <c r="A126" s="16" t="str">
         <f t="shared" si="6"/>
         <v>....D.99.a. - Alcohol use disorders</v>
       </c>
@@ -12880,7 +12878,7 @@
       <c r="W126" s="2"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A127" s="42" t="str">
+      <c r="A127" s="16" t="str">
         <f t="shared" ref="A127:A187" si="12">IF(J127&lt;&gt;"",IF(H127&lt;&gt;"",CONCATENATE("....",F127,".",G127,".",H127,". - ",D127),IF(G127&lt;&gt;"",CONCATENATE("...",F127,".",G127,". - ",D127),CONCATENATE("..",F127,". - ",D127))),"")</f>
         <v/>
       </c>
@@ -12935,7 +12933,7 @@
       <c r="W127" s="2"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A128" s="42" t="str">
+      <c r="A128" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12993,8 +12991,8 @@
       </c>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A129" s="42" t="str">
+    <row r="129" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13048,8 +13046,8 @@
       </c>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A130" s="42" t="str">
+    <row r="130" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13098,8 +13096,8 @@
       </c>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A131" s="42" t="str">
+    <row r="131" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13154,7 +13152,7 @@
       <c r="W131" s="2"/>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A132" s="42" t="str">
+      <c r="A132" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13208,8 +13206,8 @@
       </c>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A133" s="42" t="str">
+    <row r="133" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13263,8 +13261,8 @@
       </c>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="33" x14ac:dyDescent="0.25">
-      <c r="A134" s="42" t="str">
+    <row r="134" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13319,7 +13317,7 @@
       <c r="W134" s="2"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A135" s="42" t="str">
+      <c r="A135" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13375,7 +13373,7 @@
       </c>
     </row>
     <row r="136" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="42" t="str">
+      <c r="A136" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...D.06. - Alzheimer’s disease and other dementias</v>
       </c>
@@ -13437,7 +13435,7 @@
       <c r="W136" s="2"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A137" s="42" t="str">
+      <c r="A137" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13494,7 +13492,7 @@
       <c r="W137" s="2"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A138" s="42" t="str">
+      <c r="A138" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13551,7 +13549,7 @@
       <c r="W138" s="2"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A139" s="42" t="str">
+      <c r="A139" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13608,7 +13606,7 @@
       <c r="W139" s="2"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A140" s="42" t="str">
+      <c r="A140" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13661,7 +13659,7 @@
       <c r="W140" s="2"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A141" s="42" t="str">
+      <c r="A141" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13713,8 +13711,8 @@
       </c>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A142" s="42" t="str">
+    <row r="142" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...D.07. - Other neurological conditions</v>
       </c>
@@ -13778,7 +13776,7 @@
       <c r="W142" s="2"/>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A143" s="42" t="str">
+      <c r="A143" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13830,7 +13828,7 @@
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A144" s="42" t="str">
+      <c r="A144" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13883,7 +13881,7 @@
       <c r="W144" s="2"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A145" s="42" t="str">
+      <c r="A145" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13935,8 +13933,8 @@
       </c>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A146" s="42" t="str">
+    <row r="146" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -13989,7 +13987,7 @@
       <c r="W146" s="2"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A147" s="42" t="str">
+      <c r="A147" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14042,7 +14040,7 @@
       <c r="W147" s="2"/>
     </row>
     <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="42" t="str">
+      <c r="A148" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14095,7 +14093,7 @@
       <c r="W148" s="2"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A149" s="42" t="str">
+      <c r="A149" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14148,7 +14146,7 @@
       <c r="W149" s="2"/>
     </row>
     <row r="150" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="42" t="str">
+      <c r="A150" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14203,7 +14201,7 @@
       </c>
     </row>
     <row r="151" spans="1:23" ht="42" x14ac:dyDescent="0.25">
-      <c r="A151" s="42" t="str">
+      <c r="A151" s="16" t="str">
         <f t="shared" si="12"/>
         <v>..C. - Cardiovascular diseases</v>
       </c>
@@ -14258,7 +14256,7 @@
       <c r="W151" s="2"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A152" s="42" t="str">
+      <c r="A152" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14319,7 +14317,7 @@
       <c r="W152" s="2"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A153" s="42" t="str">
+      <c r="A153" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...C.01. - Hypertensive heart disease</v>
       </c>
@@ -14383,7 +14381,7 @@
       <c r="W153" s="2"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A154" s="42" t="str">
+      <c r="A154" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...C.02. - Ischemic heart disease</v>
       </c>
@@ -14446,8 +14444,8 @@
       </c>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A155" s="42" t="str">
+    <row r="155" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...C.03. - Stroke</v>
       </c>
@@ -14515,7 +14513,7 @@
       <c r="W155" s="2"/>
     </row>
     <row r="156" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="42" t="str">
+      <c r="A156" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
@@ -14583,7 +14581,7 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="42" t="str">
+      <c r="A157" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...C.05. -  Congestive heart failure</v>
       </c>
@@ -14635,7 +14633,7 @@
       <c r="W157" s="2"/>
     </row>
     <row r="158" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A158" s="42" t="str">
+      <c r="A158" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...C.99. - Other or unspecified cardiovascular diseases</v>
       </c>
@@ -14707,7 +14705,7 @@
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A159" s="42" t="str">
+      <c r="A159" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -14761,7 +14759,7 @@
       <c r="W159" s="2"/>
     </row>
     <row r="160" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="42" t="str">
+      <c r="A160" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...D.66. - Chronic obstructive pulmonary disease</v>
       </c>
@@ -14823,7 +14821,7 @@
       <c r="W160" s="2"/>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A161" s="42" t="str">
+      <c r="A161" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...D.67. - Asthma</v>
       </c>
@@ -14883,7 +14881,7 @@
       <c r="W161" s="2"/>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A162" s="42" t="str">
+      <c r="A162" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...D.68. - Other respiratory diseases</v>
       </c>
@@ -14943,7 +14941,7 @@
       <c r="W162" s="2"/>
     </row>
     <row r="163" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="42" t="str">
+      <c r="A163" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...D.09. - Digestive diseases (excluding cirrhosis)</v>
       </c>
@@ -15006,7 +15004,7 @@
       <c r="W163" s="2"/>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A164" s="42" t="str">
+      <c r="A164" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15063,7 +15061,7 @@
       <c r="W164" s="2"/>
     </row>
     <row r="165" spans="1:23" s="46" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="42" t="str">
+      <c r="A165" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...D.11. - Cirrhosis of the liver</v>
       </c>
@@ -15127,7 +15125,7 @@
       <c r="W165" s="2"/>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A166" s="42" t="str">
+      <c r="A166" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15184,7 +15182,7 @@
       <c r="W166" s="2"/>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A167" s="42" t="str">
+      <c r="A167" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15241,7 +15239,7 @@
       <c r="W167" s="2"/>
     </row>
     <row r="168" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="42" t="str">
+      <c r="A168" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15298,7 +15296,7 @@
       <c r="W168" s="2"/>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A169" s="42" t="str">
+      <c r="A169" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15355,7 +15353,7 @@
       <c r="W169" s="2"/>
     </row>
     <row r="170" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="42" t="str">
+      <c r="A170" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15412,7 +15410,7 @@
       <c r="W170" s="2"/>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A171" s="42" t="str">
+      <c r="A171" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15469,7 +15467,7 @@
       <c r="W171" s="2"/>
     </row>
     <row r="172" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A172" s="42" t="str">
+      <c r="A172" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15530,7 +15528,7 @@
       <c r="W172" s="2"/>
     </row>
     <row r="173" spans="1:23" ht="33" x14ac:dyDescent="0.25">
-      <c r="A173" s="42" t="str">
+      <c r="A173" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15582,7 +15580,7 @@
       <c r="W173" s="2"/>
     </row>
     <row r="174" spans="1:23" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="42" t="str">
+      <c r="A174" s="16" t="str">
         <f t="shared" si="12"/>
         <v>...D.10. - Kidney diseases</v>
       </c>
@@ -15643,7 +15641,7 @@
       <c r="W174" s="2"/>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A175" s="42" t="str">
+      <c r="A175" s="16" t="str">
         <f t="shared" si="12"/>
         <v>....D.10.a. - Acute glomerulonephritis</v>
       </c>
@@ -15707,7 +15705,7 @@
       <c r="W175" s="2"/>
     </row>
     <row r="176" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="42" t="str">
+      <c r="A176" s="16" t="str">
         <f t="shared" si="12"/>
         <v>....D.10.b. - Chronic kidney disease due to diabetes</v>
       </c>
@@ -15771,7 +15769,7 @@
       <c r="W176" s="2"/>
     </row>
     <row r="177" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="42" t="str">
+      <c r="A177" s="16" t="str">
         <f t="shared" si="12"/>
         <v>....D.10.c. - Other chronic kidney disease</v>
       </c>
@@ -15835,7 +15833,7 @@
       <c r="W177" s="2"/>
     </row>
     <row r="178" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="42" t="str">
+      <c r="A178" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15888,7 +15886,7 @@
       <c r="W178" s="2"/>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A179" s="42" t="str">
+      <c r="A179" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15945,7 +15943,7 @@
       <c r="W179" s="2"/>
     </row>
     <row r="180" spans="1:23" ht="24" x14ac:dyDescent="0.25">
-      <c r="A180" s="42" t="str">
+      <c r="A180" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16002,7 +16000,7 @@
       <c r="W180" s="2"/>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A181" s="42" t="str">
+      <c r="A181" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16059,7 +16057,7 @@
       <c r="W181" s="2"/>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="42" t="str">
+      <c r="A182" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16116,7 +16114,7 @@
       <c r="W182" s="2"/>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A183" s="42" t="str">
+      <c r="A183" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16171,7 +16169,7 @@
       <c r="W183" s="2"/>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A184" s="42" t="str">
+      <c r="A184" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16227,7 +16225,7 @@
       <c r="W184" s="2"/>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A185" s="42" t="str">
+      <c r="A185" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16284,7 +16282,7 @@
       <c r="W185" s="2"/>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A186" s="42" t="str">
+      <c r="A186" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16337,7 +16335,7 @@
       <c r="W186" s="2"/>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A187" s="42" t="str">
+      <c r="A187" s="16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -16390,7 +16388,7 @@
       <c r="W187" s="2"/>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A188" s="42" t="str">
+      <c r="A188" s="16" t="str">
         <f t="shared" ref="A188:A232" si="20">IF(J188&lt;&gt;"",IF(H188&lt;&gt;"",CONCATENATE("....",F188,".",G188,".",H188,". - ",D188),IF(G188&lt;&gt;"",CONCATENATE("...",F188,".",G188,". - ",D188),CONCATENATE("..",F188,". - ",D188))),"")</f>
         <v/>
       </c>
@@ -16443,7 +16441,7 @@
       <c r="W188" s="2"/>
     </row>
     <row r="189" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="42" t="str">
+      <c r="A189" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -16504,7 +16502,7 @@
       <c r="W189" s="2"/>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A190" s="42" t="str">
+      <c r="A190" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...D.12. - Congenital anomalies</v>
       </c>
@@ -16563,7 +16561,7 @@
       <c r="W190" s="2"/>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A191" s="42" t="str">
+      <c r="A191" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -16620,7 +16618,7 @@
       <c r="W191" s="2"/>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A192" s="42" t="str">
+      <c r="A192" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -16677,7 +16675,7 @@
       <c r="W192" s="2"/>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A193" s="42" t="str">
+      <c r="A193" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -16734,7 +16732,7 @@
       <c r="W193" s="2"/>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A194" s="42" t="str">
+      <c r="A194" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -16791,7 +16789,7 @@
       <c r="W194" s="2"/>
     </row>
     <row r="195" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="42" t="str">
+      <c r="A195" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -16848,7 +16846,7 @@
       <c r="W195" s="2"/>
     </row>
     <row r="196" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="42" t="str">
+      <c r="A196" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -16905,7 +16903,7 @@
       <c r="W196" s="2"/>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A197" s="42" t="str">
+      <c r="A197" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -16955,7 +16953,7 @@
       <c r="W197" s="2"/>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A198" s="42" t="str">
+      <c r="A198" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -17008,7 +17006,7 @@
       <c r="W198" s="2"/>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A199" s="42" t="str">
+      <c r="A199" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -17061,7 +17059,7 @@
       <c r="W199" s="2"/>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A200" s="42" t="str">
+      <c r="A200" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -17114,7 +17112,7 @@
       <c r="W200" s="2"/>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A201" s="42" t="str">
+      <c r="A201" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -17167,7 +17165,7 @@
       <c r="W201" s="2"/>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A202" s="42" t="str">
+      <c r="A202" s="16" t="str">
         <f>IF(J202&lt;&gt;"",IF(H202&lt;&gt;"",CONCATENATE("....",F202,".",G202,".",H202,". - ",D202),IF(G202&lt;&gt;"",CONCATENATE("...",F202,".",G202,". - ",D202),CONCATENATE("..",F202,". - ",D202))),"")</f>
         <v>...D.99. - Other Chronic Conditions</v>
       </c>
@@ -17187,7 +17185,7 @@
       </c>
     </row>
     <row r="203" spans="1:23" ht="24" x14ac:dyDescent="0.25">
-      <c r="A203" s="42" t="str">
+      <c r="A203" s="16" t="str">
         <f t="shared" si="20"/>
         <v>..E. - Injuries</v>
       </c>
@@ -17242,7 +17240,7 @@
       <c r="W203" s="2"/>
     </row>
     <row r="204" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="42" t="str">
+      <c r="A204" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -17296,7 +17294,7 @@
       <c r="W204" s="2"/>
     </row>
     <row r="205" spans="1:23" ht="36" x14ac:dyDescent="0.25">
-      <c r="A205" s="42" t="str">
+      <c r="A205" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...E.01. - Road injury</v>
       </c>
@@ -17360,7 +17358,7 @@
       <c r="W205" s="2"/>
     </row>
     <row r="206" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="42" t="str">
+      <c r="A206" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...E.02. - Drug overdose (poisoning/substance use disorders)</v>
       </c>
@@ -17410,7 +17408,7 @@
       <c r="W206" s="2"/>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="42" t="str">
+      <c r="A207" s="16" t="str">
         <f t="shared" ref="A207:A212" si="24">IF(J207&lt;&gt;"",IF(H207&lt;&gt;"",CONCATENATE("....",F207,".",G207,".",H207,". - ",D207),IF(G207&lt;&gt;"",CONCATENATE("...",F207,".",G207,". - ",D207),CONCATENATE("..",F207,". - ",D207))),"")</f>
         <v/>
       </c>
@@ -17460,7 +17458,7 @@
       <c r="W207" s="2"/>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A208" s="42" t="str">
+      <c r="A208" s="16" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -17517,7 +17515,7 @@
       <c r="W208" s="2"/>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A209" s="42" t="str">
+      <c r="A209" s="16" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -17574,7 +17572,7 @@
       <c r="W209" s="2"/>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A210" s="42" t="str">
+      <c r="A210" s="16" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -17626,7 +17624,7 @@
       <c r="W210" s="2"/>
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A211" s="42" t="str">
+      <c r="A211" s="16" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -17683,7 +17681,7 @@
       <c r="W211" s="2"/>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A212" s="42" t="str">
+      <c r="A212" s="16" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -17746,7 +17744,7 @@
       </c>
     </row>
     <row r="213" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A213" s="42" t="str">
+      <c r="A213" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...E.03. - Poisonings (non-drug)</v>
       </c>
@@ -17808,7 +17806,7 @@
       <c r="W213" s="2"/>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A214" s="42" t="str">
+      <c r="A214" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...E.04. - Falls</v>
       </c>
@@ -17870,7 +17868,7 @@
       <c r="W214" s="2"/>
     </row>
     <row r="215" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="42" t="str">
+      <c r="A215" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -17925,7 +17923,7 @@
       <c r="W215" s="2"/>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A216" s="42" t="str">
+      <c r="A216" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -17982,7 +17980,7 @@
       <c r="W216" s="2"/>
     </row>
     <row r="217" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="42" t="str">
+      <c r="A217" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -18039,7 +18037,7 @@
       <c r="W217" s="2"/>
     </row>
     <row r="218" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="42" t="str">
+      <c r="A218" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -18086,7 +18084,7 @@
       <c r="W218" s="2"/>
     </row>
     <row r="219" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="42" t="str">
+      <c r="A219" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -18143,7 +18141,7 @@
       <c r="W219" s="2"/>
     </row>
     <row r="220" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A220" s="42" t="str">
+      <c r="A220" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...E.05. - Other unintentional injuries</v>
       </c>
@@ -18209,7 +18207,7 @@
       </c>
     </row>
     <row r="221" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="42" t="str">
+      <c r="A221" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -18259,7 +18257,7 @@
       <c r="W221" s="2"/>
     </row>
     <row r="222" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="42" t="str">
+      <c r="A222" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...E.07. - Suicide/Self-harm</v>
       </c>
@@ -18323,7 +18321,7 @@
       <c r="W222" s="2"/>
     </row>
     <row r="223" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="42" t="str">
+      <c r="A223" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...E.08. - Homicide/Interpersonal violence</v>
       </c>
@@ -18380,7 +18378,7 @@
       <c r="W223" s="2"/>
     </row>
     <row r="224" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="42" t="str">
+      <c r="A224" s="16" t="str">
         <f t="shared" si="20"/>
         <v>....E.08.a. - Homicide excluding legal intervention</v>
       </c>
@@ -18428,7 +18426,7 @@
       <c r="W224" s="2"/>
     </row>
     <row r="225" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="42" t="str">
+      <c r="A225" s="16" t="str">
         <f t="shared" si="20"/>
         <v>....E.08.b. - Legal intervention</v>
       </c>
@@ -18478,7 +18476,7 @@
       <c r="W225" s="2"/>
     </row>
     <row r="226" spans="1:23" ht="102" x14ac:dyDescent="0.25">
-      <c r="A226" s="42" t="str">
+      <c r="A226" s="16" t="str">
         <f t="shared" si="20"/>
         <v>....E.08.c. - Execution, War, Terrorism</v>
       </c>
@@ -18542,7 +18540,7 @@
       </c>
     </row>
     <row r="227" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A227" s="42" t="str">
+      <c r="A227" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...E.99. - Injuries of unknown intent (e.g., unintentional or self-harm), including overdoses and deaths by firearm</v>
       </c>
@@ -18584,7 +18582,7 @@
       </c>
     </row>
     <row r="228" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="42" t="str">
+      <c r="A228" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
@@ -18622,7 +18620,7 @@
       </c>
     </row>
     <row r="229" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="42" t="str">
+      <c r="A229" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -18654,7 +18652,7 @@
       </c>
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A230" s="42" t="str">
+      <c r="A230" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...Z.02. - Unknown/Missing Value</v>
       </c>
@@ -18674,7 +18672,7 @@
       </c>
     </row>
     <row r="231" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A231" s="42" t="str">
+      <c r="A231" s="16" t="str">
         <f t="shared" si="20"/>
         <v>...Z.03. - Code does not map</v>
       </c>
@@ -18697,7 +18695,7 @@
       </c>
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A232" s="42" t="str">
+      <c r="A232" s="16" t="str">
         <f t="shared" si="20"/>
         <v>..Z. - Unknown/Missing Value</v>
       </c>

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2313FF37-958B-4FC5-9A9D-906051281104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D75FD0-CC05-48BE-AE63-C6B1B1D69241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4255,9 +4255,6 @@
     <t>U010-U019, U02, X85-Y09, Y871</t>
   </si>
   <si>
-    <t>Y355,  Y36, Y891, Y38, y899</t>
-  </si>
-  <si>
     <t>Y355|Y36|Y37|Y891|Y38</t>
   </si>
   <si>
@@ -4737,6 +4734,9 @@
   </si>
   <si>
     <t>U07[1-2]</t>
+  </si>
+  <si>
+    <t>Y355,  Y36, Y891, Y38</t>
   </si>
 </sst>
 </file>
@@ -5772,10 +5772,10 @@
   <dimension ref="A1:W238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomRight" activeCell="A159" sqref="A159:XFD159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5815,13 +5815,13 @@
         <v>762</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>1401</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>1402</v>
-      </c>
       <c r="F1" s="23" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>1119</v>
@@ -5833,7 +5833,7 @@
         <v>1121</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>1292</v>
@@ -5979,10 +5979,10 @@
         <v>1125</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>1434</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>1435</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>1131</v>
@@ -6131,7 +6131,7 @@
         <v>1147</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1131</v>
@@ -6348,7 +6348,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="6" t="s">
@@ -6686,7 +6686,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E17" s="71"/>
       <c r="F17" s="6" t="s">
@@ -7246,10 +7246,10 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N27" s="16" t="s">
         <v>1398</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>1399</v>
       </c>
       <c r="Q27" s="55" t="s">
         <v>960</v>
@@ -8397,7 +8397,7 @@
         <v>696</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E49" s="71"/>
       <c r="F49" s="6" t="s">
@@ -8473,7 +8473,7 @@
         <v>1217</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
@@ -8520,7 +8520,7 @@
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
       <c r="K51" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
@@ -8575,7 +8575,7 @@
         <v/>
       </c>
       <c r="K52" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
@@ -8634,7 +8634,7 @@
         <v/>
       </c>
       <c r="K53" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
@@ -8676,10 +8676,10 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="33" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E54" s="71"/>
       <c r="F54" s="6" t="s">
@@ -8700,10 +8700,10 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -8722,10 +8722,10 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="33" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E55" s="71"/>
       <c r="F55" s="6" t="s">
@@ -8746,10 +8746,10 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
@@ -8768,10 +8768,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="33" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E56" s="71"/>
       <c r="F56" s="6" t="s">
@@ -8792,10 +8792,10 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="N56" s="16" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="Q56" s="55"/>
       <c r="R56" s="56"/>
@@ -8812,13 +8812,13 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="30" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E57" s="71" t="s">
         <v>1470</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E57" s="71" t="s">
-        <v>1471</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>1131</v>
@@ -8833,14 +8833,14 @@
       </c>
       <c r="J57" s="38"/>
       <c r="K57" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="J58" s="38"/>
       <c r="K58" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
@@ -8986,7 +8986,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E60" s="71"/>
       <c r="F60" s="6" t="s">
@@ -9173,7 +9173,7 @@
         <v>36</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E63" s="71"/>
       <c r="F63" s="6" t="s">
@@ -9461,7 +9461,7 @@
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="30" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="71"/>
@@ -9479,13 +9479,13 @@
       <c r="J68" s="38"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N68" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="Q68" s="55"/>
       <c r="R68" s="56"/>
@@ -9891,7 +9891,7 @@
         <v>48</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E76" s="71"/>
       <c r="F76" s="6" t="s">
@@ -10026,7 +10026,7 @@
         <v>383</v>
       </c>
       <c r="S78" s="68" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="T78" s="65" t="s">
         <v>557</v>
@@ -10261,7 +10261,7 @@
         <v>699</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E83" s="71"/>
       <c r="F83" s="6" t="s">
@@ -10379,7 +10379,7 @@
         <v>53</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E85" s="74"/>
       <c r="F85" s="6" t="s">
@@ -10704,7 +10704,7 @@
         <v>221</v>
       </c>
       <c r="E90" s="74" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>1132</v>
@@ -10964,16 +10964,16 @@
         <v>B09</v>
       </c>
       <c r="K94" s="16" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L94" s="18" t="s">
         <v>1462</v>
       </c>
-      <c r="L94" s="18" t="s">
+      <c r="M94" s="5" t="s">
         <v>1463</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="N94" s="47" t="s">
         <v>1464</v>
-      </c>
-      <c r="N94" s="47" t="s">
-        <v>1465</v>
       </c>
       <c r="O94" s="47"/>
       <c r="P94" s="47"/>
@@ -11554,7 +11554,7 @@
         <v>707</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E104" s="71"/>
       <c r="F104" s="6" t="s">
@@ -11692,16 +11692,16 @@
       </c>
       <c r="J106" s="38"/>
       <c r="K106" s="19" t="s">
+        <v>1457</v>
+      </c>
+      <c r="L106" s="18" t="s">
         <v>1458</v>
       </c>
-      <c r="L106" s="18" t="s">
+      <c r="M106" s="5" t="s">
         <v>1459</v>
       </c>
-      <c r="M106" s="5" t="s">
+      <c r="N106" s="47" t="s">
         <v>1460</v>
-      </c>
-      <c r="N106" s="47" t="s">
-        <v>1461</v>
       </c>
       <c r="O106" s="47"/>
       <c r="P106" s="47"/>
@@ -12037,7 +12037,7 @@
         <v>715</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E112" s="71"/>
       <c r="F112" s="6" t="s">
@@ -12458,7 +12458,7 @@
         <v>719</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E119" s="71"/>
       <c r="F119" s="6" t="s">
@@ -12666,10 +12666,10 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="31" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>1361</v>
       </c>
       <c r="E123" s="71"/>
       <c r="F123" s="6"/>
@@ -12681,7 +12681,7 @@
         <v/>
       </c>
       <c r="K123" s="77" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
@@ -12973,7 +12973,7 @@
         <v>1139</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I129" s="38" t="str">
         <f>CONCATENATE("c",F129,G129,H129)</f>
@@ -13102,7 +13102,7 @@
         <v>1139</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I131" s="38" t="str">
         <f t="shared" ref="I131:I133" si="14">CONCATENATE("c",F131,G131,H131)</f>
@@ -13157,7 +13157,7 @@
         <v>1139</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I132" s="38" t="str">
         <f t="shared" si="14"/>
@@ -13206,7 +13206,7 @@
         <v>729</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E133" s="74"/>
       <c r="F133" s="6" t="s">
@@ -13216,7 +13216,7 @@
         <v>1139</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I133" s="38" t="str">
         <f t="shared" si="14"/>
@@ -13261,7 +13261,7 @@
         <v>74</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E134" s="74"/>
       <c r="F134" s="6"/>
@@ -13321,7 +13321,7 @@
         <v>1139</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I135" s="38" t="str">
         <f>CONCATENATE("c",F135,G135,H135)</f>
@@ -13376,7 +13376,7 @@
         <v>1139</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I136" s="38" t="str">
         <f>CONCATENATE("c",F136,G136,H136)</f>
@@ -13431,7 +13431,7 @@
         <v>1139</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I137" s="38" t="str">
         <f>CONCATENATE("c",F137,G137,H137)</f>
@@ -13476,7 +13476,7 @@
         <v>76</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E138" s="71"/>
       <c r="F138" s="6" t="s">
@@ -13486,7 +13486,7 @@
         <v>1139</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I138" s="38" t="str">
         <f>CONCATENATE("c",F138,G138,H138)</f>
@@ -13590,7 +13590,7 @@
         <v>255</v>
       </c>
       <c r="E140" s="71" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>1134</v>
@@ -14275,7 +14275,7 @@
         <v>460</v>
       </c>
       <c r="N152" s="47" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="O152" s="47"/>
       <c r="P152" s="47"/>
@@ -14595,7 +14595,7 @@
         <v>96</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E158" s="74"/>
       <c r="F158" s="6" t="s">
@@ -14730,7 +14730,7 @@
         <v>275</v>
       </c>
       <c r="E160" s="74" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>1133</v>
@@ -14791,7 +14791,7 @@
       <c r="B161" s="2"/>
       <c r="C161" s="34"/>
       <c r="D161" s="5" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E161" s="74"/>
       <c r="F161" s="6" t="s">
@@ -14850,7 +14850,7 @@
         <v>1298</v>
       </c>
       <c r="E162" s="71" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>1133</v>
@@ -14868,7 +14868,7 @@
         <v>C99</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="L162" s="5" t="s">
         <v>1300</v>
@@ -14976,7 +14976,7 @@
         <v>278</v>
       </c>
       <c r="E164" s="71" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>1134</v>
@@ -15158,7 +15158,7 @@
         <v>1305</v>
       </c>
       <c r="E167" s="71" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>1134</v>
@@ -15175,7 +15175,7 @@
         <v>D09</v>
       </c>
       <c r="K167" s="62" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="L167" s="5"/>
       <c r="M167" s="5" t="s">
@@ -15303,7 +15303,7 @@
         <v>1189</v>
       </c>
       <c r="N169" s="47" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="O169" s="47"/>
       <c r="P169" s="47"/>
@@ -15919,7 +15919,7 @@
         <v>740</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E180" s="71"/>
       <c r="F180" s="6" t="s">
@@ -16347,7 +16347,7 @@
         <v>483</v>
       </c>
       <c r="N187" s="47" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="O187" s="47"/>
       <c r="P187" s="47"/>
@@ -17429,7 +17429,7 @@
         <v>1113</v>
       </c>
       <c r="S207" s="68" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="T207" s="65" t="s">
         <v>654</v>
@@ -17567,13 +17567,13 @@
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="30" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E210" s="71" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>1135</v>
@@ -17591,14 +17591,14 @@
         <v>E02</v>
       </c>
       <c r="K210" s="76" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="L210" s="5"/>
       <c r="M210" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="N210" s="19" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="O210" s="19"/>
       <c r="P210" s="19"/>
@@ -17690,10 +17690,10 @@
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
       <c r="M212" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="N212" s="47" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="O212" s="47"/>
       <c r="P212" s="47"/>
@@ -17838,7 +17838,7 @@
         <v>726</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E215" s="71"/>
       <c r="F215" s="6" t="s">
@@ -17911,16 +17911,16 @@
       </c>
       <c r="J216" s="38"/>
       <c r="K216" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="L216" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="M216" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N216" s="19" t="s">
         <v>1358</v>
-      </c>
-      <c r="N216" s="19" t="s">
-        <v>1359</v>
       </c>
       <c r="O216" s="19"/>
       <c r="P216" s="19"/>
@@ -17955,10 +17955,10 @@
         <v>200</v>
       </c>
       <c r="C217" s="30" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E217" s="71"/>
       <c r="F217" s="6" t="s">
@@ -17978,13 +17978,13 @@
       </c>
       <c r="K217" s="5"/>
       <c r="L217" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="M217" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N217" s="47" t="s">
         <v>1372</v>
-      </c>
-      <c r="N217" s="47" t="s">
-        <v>1373</v>
       </c>
       <c r="O217" s="47"/>
       <c r="P217" s="47"/>
@@ -18212,10 +18212,10 @@
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
       <c r="M221" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="N221" s="47" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O221" s="47"/>
       <c r="P221" s="47"/>
@@ -18246,10 +18246,10 @@
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="30" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E222" s="71"/>
       <c r="F222" s="6" t="s">
@@ -18265,16 +18265,16 @@
       </c>
       <c r="J222" s="38"/>
       <c r="K222" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="L222" s="5" t="s">
         <v>1199</v>
       </c>
       <c r="M222" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="N222" s="47" t="s">
         <v>1348</v>
-      </c>
-      <c r="N222" s="47" t="s">
-        <v>1349</v>
       </c>
       <c r="O222" s="47"/>
       <c r="P222" s="47"/>
@@ -18374,7 +18374,7 @@
         <v>E05</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="L224" s="5" t="s">
         <v>1238</v>
@@ -18538,7 +18538,7 @@
         <v>1257</v>
       </c>
       <c r="E227" s="71" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>1135</v>
@@ -18609,14 +18609,14 @@
         <v>E08a</v>
       </c>
       <c r="K228" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="L228" s="5"/>
       <c r="M228" s="5" t="s">
         <v>1343</v>
       </c>
       <c r="N228" s="19" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O228" s="19"/>
       <c r="P228" s="19"/>
@@ -18657,7 +18657,7 @@
         <v>E08b</v>
       </c>
       <c r="K229" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L229" s="5" t="s">
         <v>1199</v>
@@ -18666,7 +18666,7 @@
         <v>1342</v>
       </c>
       <c r="N229" s="19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="O229" s="19"/>
       <c r="P229" s="19"/>
@@ -18690,7 +18690,7 @@
         <v>142</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E230" s="71"/>
       <c r="F230" s="6" t="s">
@@ -18711,16 +18711,16 @@
         <v>E08c</v>
       </c>
       <c r="K230" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="L230" s="5" t="s">
         <v>1223</v>
       </c>
       <c r="M230" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="N230" s="47" t="s">
         <v>1344</v>
-      </c>
-      <c r="N230" s="47" t="s">
-        <v>1345</v>
       </c>
       <c r="O230" s="47"/>
       <c r="P230" s="47"/>
@@ -18755,7 +18755,7 @@
         <v>1206</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F231" s="52" t="s">
         <v>1135</v>
@@ -18772,7 +18772,7 @@
         <v>E99</v>
       </c>
       <c r="K231" s="46" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="L231" s="46" t="s">
         <v>1253</v>
@@ -18793,7 +18793,7 @@
         <v>1211</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F232" s="52" t="s">
         <v>1227</v>
@@ -19162,22 +19162,22 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="75" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J2" s="75" t="s">
         <v>950</v>
@@ -19185,97 +19185,97 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="75" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F3" s="75" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="75" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" s="75" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G6" s="75" t="s">
         <v>1417</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G6" s="75" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" s="75" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D7" s="75">
         <v>116</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="75" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D8" s="75">
         <v>118</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C9" s="75" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D9" s="75">
         <v>119</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G9" s="75" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" s="75" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D10" s="75">
         <v>120</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G10" s="75" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="51" x14ac:dyDescent="0.25">

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB61BD5C-31DA-4C64-B675-14926DE64D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A38CA6-FEAF-45E1-AC30-D4978F4A2C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="21570" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="450" windowWidth="28530" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,9 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$248</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$252</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -101,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2876" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="1600">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4614,12 +4613,6 @@
   </si>
   <si>
     <t>Y355,  Y36, Y891, Y38</t>
-  </si>
-  <si>
-    <t>Move G312 to alcohol</t>
-  </si>
-  <si>
-    <t>F0[1-3]|G30|G31[0-1, 3-9]</t>
   </si>
   <si>
     <t>I3[0-3,8]|I40|I42[0-5, 7-9]</t>
@@ -4726,9 +4719,6 @@
     </r>
   </si>
   <si>
-    <t>F01-F03, G30-G31 (minus G31.2)</t>
-  </si>
-  <si>
     <t>Alcohol-related</t>
   </si>
   <si>
@@ -5103,6 +5093,45 @@
   </si>
   <si>
     <t>E5[2-9]|E51[0, 2-9]|E6[0-2]|E63[0-8]|E64[1-8]</t>
+  </si>
+  <si>
+    <t>Suicide</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>Alzheimer’s  disease</t>
+  </si>
+  <si>
+    <t>Unspecified dementia</t>
+  </si>
+  <si>
+    <t>Vascular dementia</t>
+  </si>
+  <si>
+    <t>Frontotemporal dementia</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>G310</t>
+  </si>
+  <si>
+    <t>CCB/CDC; LJH and partner input</t>
+  </si>
+  <si>
+    <t>F0[2-3]|G31[1, 8-9]</t>
+  </si>
+  <si>
+    <t>Move G312 to alcohol;  disaggregated to "detailed level" groupings; added F00</t>
+  </si>
+  <si>
+    <t>F00|G30</t>
+  </si>
+  <si>
+    <t>F00-F03, G30-G31 (minus G31.2)</t>
   </si>
 </sst>
 </file>
@@ -6147,22 +6176,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W256"/>
+  <dimension ref="A1:W260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E204" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D210" sqref="D210"/>
+      <selection pane="bottomRight" activeCell="N147" sqref="N147:N150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="44" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="42" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="12" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="52" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="51" customWidth="1"/>
     <col min="8" max="10" width="7.85546875" style="52" customWidth="1"/>
@@ -6181,7 +6210,7 @@
     <col min="24" max="16384" width="49" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1147</v>
       </c>
@@ -8841,16 +8870,16 @@
       </c>
       <c r="J50" s="38"/>
       <c r="K50" s="5" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
@@ -9751,7 +9780,7 @@
         <v>A10</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5" t="s">
@@ -9857,7 +9886,7 @@
       </c>
       <c r="J68" s="38"/>
       <c r="K68" s="5" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>1450</v>
@@ -10014,16 +10043,16 @@
       </c>
       <c r="J71" s="38"/>
       <c r="K71" s="5" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>1149</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="O71" s="19"/>
       <c r="P71" s="19"/>
@@ -10118,7 +10147,7 @@
         <v>1128</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="38" t="str">
@@ -10127,10 +10156,10 @@
       </c>
       <c r="J73" s="38"/>
       <c r="K73" s="5" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M73" s="5" t="s">
         <v>419</v>
@@ -10283,7 +10312,7 @@
         <v>1128</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="38" t="str">
@@ -10292,10 +10321,10 @@
       </c>
       <c r="J76" s="38"/>
       <c r="K76" s="5" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M76" s="5" t="s">
         <v>421</v>
@@ -10351,16 +10380,16 @@
       </c>
       <c r="J77" s="38"/>
       <c r="K77" s="5" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="N77" s="16" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="Q77" s="55" t="s">
         <v>422</v>
@@ -10389,10 +10418,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="30" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="E78" s="71"/>
       <c r="F78" s="6" t="s">
@@ -10411,16 +10440,16 @@
         <v>A12</v>
       </c>
       <c r="K78" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M78" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="L78" s="5" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>1518</v>
-      </c>
       <c r="N78" s="16" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="Q78" s="55"/>
       <c r="R78" s="56"/>
@@ -10437,17 +10466,17 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="30" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="E79" s="71"/>
       <c r="F79" s="6" t="s">
         <v>1128</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="38" t="str">
@@ -10459,16 +10488,16 @@
         <v>A13</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="N79" s="16" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="Q79" s="55"/>
       <c r="R79" s="56"/>
@@ -10485,17 +10514,17 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="30" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E80" s="71"/>
       <c r="F80" s="6" t="s">
         <v>1128</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="38" t="str">
@@ -10507,16 +10536,16 @@
         <v>A14</v>
       </c>
       <c r="K80" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N80" s="16" t="s">
         <v>1525</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>1527</v>
-      </c>
-      <c r="N80" s="16" t="s">
-        <v>1528</v>
       </c>
       <c r="Q80" s="55"/>
       <c r="R80" s="56"/>
@@ -11306,7 +11335,9 @@
       <c r="D94" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E94" s="74"/>
+      <c r="E94" s="74" t="s">
+        <v>1588</v>
+      </c>
       <c r="F94" s="6" t="s">
         <v>1129</v>
       </c>
@@ -12046,16 +12077,16 @@
         <v>B15</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="L106" s="17" t="s">
         <v>1149</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="O106" s="19"/>
       <c r="P106" s="19"/>
@@ -12710,7 +12741,7 @@
       </c>
       <c r="J117" s="38"/>
       <c r="K117" s="79" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="M117" s="5" t="s">
         <v>1232</v>
@@ -12845,7 +12876,7 @@
         <v>1269</v>
       </c>
       <c r="N119" s="19" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="O119" s="19"/>
       <c r="P119" s="19"/>
@@ -13076,7 +13107,7 @@
         <v>973</v>
       </c>
       <c r="N123" s="47" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="O123" s="47"/>
       <c r="P123" s="47"/>
@@ -13107,17 +13138,17 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="30" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="E124" s="71"/>
       <c r="F124" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G124" s="26" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="38" t="str">
@@ -13129,16 +13160,16 @@
         <v>D14</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="O124" s="47"/>
       <c r="P124" s="47"/>
@@ -13157,17 +13188,17 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="30" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="E125" s="71"/>
       <c r="F125" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G125" s="26" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="38" t="str">
@@ -13179,16 +13210,16 @@
         <v>D15</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="N125" s="47" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="O125" s="47"/>
       <c r="P125" s="47"/>
@@ -13207,17 +13238,17 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="30" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="E126" s="71"/>
       <c r="F126" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="38" t="str">
@@ -13229,16 +13260,16 @@
         <v>D16</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="N126" s="47" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="O126" s="47"/>
       <c r="P126" s="47"/>
@@ -13717,10 +13748,10 @@
       <c r="I136" s="38"/>
       <c r="J136" s="38"/>
       <c r="K136" s="62" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="L136" s="62" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="M136" s="5"/>
       <c r="N136" s="19"/>
@@ -13736,7 +13767,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="str">
-        <f t="shared" ref="A137:A205" si="17">IF(J137&lt;&gt;"",IF(H137&lt;&gt;"",CONCATENATE("....",F137,".",G137,".",H137,". - ",D137),IF(G137&lt;&gt;"",CONCATENATE("...",F137,".",G137,". - ",D137),CONCATENATE("..",F137,". - ",D137))),"")</f>
+        <f t="shared" ref="A137:A209" si="17">IF(J137&lt;&gt;"",IF(H137&lt;&gt;"",CONCATENATE("....",F137,".",G137,".",H137,". - ",D137),IF(G137&lt;&gt;"",CONCATENATE("...",F137,".",G137,". - ",D137),CONCATENATE("..",F137,". - ",D137))),"")</f>
         <v/>
       </c>
       <c r="B137" s="2">
@@ -14254,7 +14285,7 @@
       </c>
       <c r="H146" s="6"/>
       <c r="I146" s="38" t="str">
-        <f t="shared" ref="I146:I152" si="19">CONCATENATE("c",F146,G146,H146)</f>
+        <f t="shared" ref="I146:I156" si="19">CONCATENATE("c",F146,G146,H146)</f>
         <v>cD06</v>
       </c>
       <c r="J146" s="38" t="str">
@@ -14262,16 +14293,16 @@
         <v>D06</v>
       </c>
       <c r="K146" s="5" t="s">
-        <v>1454</v>
+        <v>1597</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>1464</v>
+        <v>1595</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>1473</v>
+        <v>1599</v>
       </c>
       <c r="N146" s="47" t="s">
-        <v>1455</v>
+        <v>948</v>
       </c>
       <c r="O146" s="47"/>
       <c r="P146" s="47"/>
@@ -14298,179 +14329,133 @@
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.08. - Parkinson's disease</v>
-      </c>
-      <c r="B147" s="2">
-        <v>133</v>
-      </c>
-      <c r="C147" s="34" t="s">
-        <v>1506</v>
-      </c>
+        <v>....D.06.a. - Alzheimer’s  disease</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="30"/>
       <c r="D147" s="5" t="s">
-        <v>1505</v>
-      </c>
-      <c r="E147" s="74"/>
+        <v>1589</v>
+      </c>
+      <c r="E147" s="71"/>
       <c r="F147" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H147" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>1120</v>
+      </c>
       <c r="I147" s="38" t="str">
         <f t="shared" si="19"/>
-        <v>cD08</v>
+        <v>cD06a</v>
       </c>
       <c r="J147" s="38" t="str">
         <f>CONCATENATE(F147,G147,H147)</f>
-        <v>D08</v>
-      </c>
-      <c r="K147" s="5" t="s">
-        <v>1507</v>
-      </c>
-      <c r="L147" s="5" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M147" s="5" t="s">
-        <v>448</v>
-      </c>
+        <v>D06a</v>
+      </c>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
       <c r="N147" s="47" t="s">
-        <v>812</v>
+        <v>1598</v>
       </c>
       <c r="O147" s="47"/>
       <c r="P147" s="47"/>
-      <c r="Q147" s="55" t="s">
-        <v>448</v>
-      </c>
-      <c r="R147" s="59" t="s">
-        <v>812</v>
-      </c>
-      <c r="S147" s="65" t="s">
-        <v>608</v>
-      </c>
-      <c r="T147" s="67">
-        <v>332</v>
-      </c>
-      <c r="U147" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="V147" s="49" t="s">
-        <v>79</v>
-      </c>
+      <c r="Q147" s="55"/>
+      <c r="R147" s="59"/>
+      <c r="S147" s="65"/>
+      <c r="T147" s="65"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="43"/>
       <c r="W147" s="2"/>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="B148" s="2">
-        <v>134</v>
-      </c>
-      <c r="C148" s="34" t="s">
-        <v>80</v>
-      </c>
+        <v>....D.06.b. - Unspecified dementia</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="30"/>
       <c r="D148" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E148" s="74"/>
+        <v>1590</v>
+      </c>
+      <c r="E148" s="71"/>
       <c r="F148" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H148" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>1121</v>
+      </c>
       <c r="I148" s="38" t="str">
         <f t="shared" si="19"/>
-        <v>cD07</v>
-      </c>
-      <c r="J148" s="38"/>
+        <v>cD06b</v>
+      </c>
+      <c r="J148" s="38" t="str">
+        <f t="shared" ref="J148:J149" si="20">CONCATENATE(F148,G148,H148)</f>
+        <v>D06b</v>
+      </c>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="5" t="s">
-        <v>449</v>
-      </c>
+      <c r="M148" s="5"/>
       <c r="N148" s="47" t="s">
-        <v>813</v>
+        <v>1596</v>
       </c>
       <c r="O148" s="47"/>
       <c r="P148" s="47"/>
-      <c r="Q148" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="R148" s="59" t="s">
-        <v>813</v>
-      </c>
-      <c r="S148" s="65" t="s">
-        <v>609</v>
-      </c>
-      <c r="T148" s="67">
-        <v>345</v>
-      </c>
-      <c r="U148" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="V148" s="49" t="s">
-        <v>80</v>
-      </c>
+      <c r="Q148" s="55"/>
+      <c r="R148" s="59"/>
+      <c r="S148" s="65"/>
+      <c r="T148" s="65"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="43"/>
       <c r="W148" s="2"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="B149" s="2">
-        <v>135</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>81</v>
-      </c>
+        <v>....D.06.c. - Vascular dementia</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="30"/>
       <c r="D149" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E149" s="74"/>
+        <v>1591</v>
+      </c>
+      <c r="E149" s="71"/>
       <c r="F149" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H149" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>1123</v>
+      </c>
       <c r="I149" s="38" t="str">
         <f t="shared" si="19"/>
-        <v>cD07</v>
-      </c>
-      <c r="J149" s="38"/>
+        <v>cD06c</v>
+      </c>
+      <c r="J149" s="38" t="str">
+        <f t="shared" si="20"/>
+        <v>D06c</v>
+      </c>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
-      <c r="M149" s="5" t="s">
-        <v>450</v>
-      </c>
+      <c r="M149" s="5"/>
       <c r="N149" s="47" t="s">
-        <v>450</v>
+        <v>1593</v>
       </c>
       <c r="O149" s="47"/>
       <c r="P149" s="47"/>
-      <c r="Q149" s="55" t="s">
-        <v>450</v>
-      </c>
-      <c r="R149" s="59" t="s">
-        <v>450</v>
-      </c>
-      <c r="S149" s="65" t="s">
-        <v>610</v>
-      </c>
-      <c r="T149" s="67">
-        <v>340</v>
-      </c>
-      <c r="U149" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="V149" s="49" t="s">
-        <v>81</v>
-      </c>
+      <c r="Q149" s="55"/>
+      <c r="R149" s="59"/>
+      <c r="S149" s="65"/>
+      <c r="T149" s="65"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="43"/>
       <c r="W149" s="2"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
@@ -14478,120 +14463,119 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="B150" s="2">
-        <v>136</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>82</v>
-      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="30"/>
       <c r="D150" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E150" s="74"/>
+        <v>1592</v>
+      </c>
+      <c r="E150" s="71"/>
       <c r="F150" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H150" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>1421</v>
+      </c>
       <c r="I150" s="38" t="str">
         <f t="shared" si="19"/>
-        <v>cD07</v>
+        <v>cD06d</v>
       </c>
       <c r="J150" s="38"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
-      <c r="M150" s="5" t="s">
-        <v>451</v>
-      </c>
+      <c r="M150" s="5"/>
       <c r="N150" s="47" t="s">
-        <v>451</v>
+        <v>1594</v>
       </c>
       <c r="O150" s="47"/>
       <c r="P150" s="47"/>
-      <c r="Q150" s="55" t="s">
-        <v>451</v>
-      </c>
-      <c r="R150" s="59" t="s">
-        <v>451</v>
-      </c>
+      <c r="Q150" s="55"/>
+      <c r="R150" s="59"/>
       <c r="S150" s="65"/>
       <c r="T150" s="65"/>
-      <c r="U150" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="V150" s="49" t="s">
-        <v>82</v>
-      </c>
+      <c r="U150" s="5"/>
+      <c r="V150" s="43"/>
       <c r="W150" s="2"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>...D.08. - Parkinson's disease</v>
       </c>
       <c r="B151" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>83</v>
+        <v>1503</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>259</v>
+        <v>1502</v>
       </c>
       <c r="E151" s="74"/>
       <c r="F151" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H151" s="6"/>
       <c r="I151" s="38" t="str">
         <f t="shared" si="19"/>
-        <v>cD07</v>
-      </c>
-      <c r="J151" s="38"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
+        <v>cD08</v>
+      </c>
+      <c r="J151" s="38" t="str">
+        <f>CONCATENATE(F151,G151,H151)</f>
+        <v>D08</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>1513</v>
+      </c>
       <c r="M151" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N151" s="47" t="s">
-        <v>452</v>
+        <v>812</v>
       </c>
       <c r="O151" s="47"/>
       <c r="P151" s="47"/>
       <c r="Q151" s="55" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="R151" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="S151" s="65"/>
-      <c r="T151" s="65"/>
+        <v>812</v>
+      </c>
+      <c r="S151" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="T151" s="67">
+        <v>332</v>
+      </c>
       <c r="U151" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="V151" s="49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.07. - Other neurological conditions</v>
+        <v/>
       </c>
       <c r="B152" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E152" s="74"/>
       <c r="F152" s="6" t="s">
@@ -14605,41 +14589,34 @@
         <f t="shared" si="19"/>
         <v>cD07</v>
       </c>
-      <c r="J152" s="38" t="str">
-        <f>CONCATENATE(F152,G152,H152)</f>
-        <v>D07</v>
-      </c>
-      <c r="K152" s="53" t="s">
-        <v>1497</v>
-      </c>
-      <c r="L152" s="18" t="s">
-        <v>1476</v>
-      </c>
+      <c r="J152" s="38"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
       <c r="M152" s="5" t="s">
-        <v>1498</v>
-      </c>
-      <c r="N152" s="54" t="s">
-        <v>1499</v>
-      </c>
-      <c r="O152" s="54"/>
-      <c r="P152" s="54"/>
+        <v>449</v>
+      </c>
+      <c r="N152" s="47" t="s">
+        <v>813</v>
+      </c>
+      <c r="O152" s="47"/>
+      <c r="P152" s="47"/>
       <c r="Q152" s="55" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="R152" s="59" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S152" s="65" t="s">
-        <v>611</v>
-      </c>
-      <c r="T152" s="65" t="s">
-        <v>1098</v>
+        <v>609</v>
+      </c>
+      <c r="T152" s="67">
+        <v>345</v>
       </c>
       <c r="U152" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="V152" s="49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W152" s="2"/>
     </row>
@@ -14649,51 +14626,56 @@
         <v/>
       </c>
       <c r="B153" s="2">
-        <v>139</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E153" s="71"/>
+        <v>135</v>
+      </c>
+      <c r="C153" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E153" s="74"/>
       <c r="F153" s="6" t="s">
-        <v>948</v>
+        <v>1131</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>948</v>
+        <v>1139</v>
       </c>
       <c r="H153" s="6"/>
-      <c r="I153" s="38"/>
+      <c r="I153" s="38" t="str">
+        <f t="shared" si="19"/>
+        <v>cD07</v>
+      </c>
       <c r="J153" s="38"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
       <c r="M153" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N153" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
+        <v>450</v>
+      </c>
+      <c r="N153" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="O153" s="47"/>
+      <c r="P153" s="47"/>
       <c r="Q153" s="55" t="s">
-        <v>454</v>
-      </c>
-      <c r="R153" s="58" t="s">
-        <v>815</v>
-      </c>
-      <c r="S153" s="65"/>
-      <c r="T153" s="66"/>
-      <c r="U153" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="V153" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="W153" s="2" t="s">
-        <v>612</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="R153" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="S153" s="65" t="s">
+        <v>610</v>
+      </c>
+      <c r="T153" s="67">
+        <v>340</v>
+      </c>
+      <c r="U153" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="V153" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="W153" s="2"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="str">
@@ -14701,50 +14683,50 @@
         <v/>
       </c>
       <c r="B154" s="2">
-        <v>140</v>
-      </c>
-      <c r="C154" s="30" t="s">
-        <v>86</v>
+        <v>136</v>
+      </c>
+      <c r="C154" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E154" s="71"/>
+        <v>258</v>
+      </c>
+      <c r="E154" s="74"/>
       <c r="F154" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G154" s="26">
-        <v>99</v>
+      <c r="G154" s="26" t="s">
+        <v>1139</v>
       </c>
       <c r="H154" s="6"/>
       <c r="I154" s="38" t="str">
-        <f t="shared" ref="I154:I160" si="20">CONCATENATE("c",F154,G154,H154)</f>
-        <v>cD99</v>
+        <f t="shared" si="19"/>
+        <v>cD07</v>
       </c>
       <c r="J154" s="38"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
       <c r="M154" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N154" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="O154" s="47"/>
       <c r="P154" s="47"/>
       <c r="Q154" s="55" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="R154" s="59" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="S154" s="65"/>
       <c r="T154" s="65"/>
       <c r="U154" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="V154" s="50" t="s">
-        <v>86</v>
+        <v>258</v>
+      </c>
+      <c r="V154" s="49" t="s">
+        <v>82</v>
       </c>
       <c r="W154" s="2"/>
     </row>
@@ -14754,103 +14736,114 @@
         <v/>
       </c>
       <c r="B155" s="2">
-        <v>141</v>
-      </c>
-      <c r="C155" s="30" t="s">
-        <v>87</v>
+        <v>137</v>
+      </c>
+      <c r="C155" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E155" s="71"/>
+        <v>259</v>
+      </c>
+      <c r="E155" s="74"/>
       <c r="F155" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G155" s="26">
-        <v>99</v>
+      <c r="G155" s="26" t="s">
+        <v>1139</v>
       </c>
       <c r="H155" s="6"/>
       <c r="I155" s="38" t="str">
-        <f t="shared" si="20"/>
-        <v>cD99</v>
+        <f t="shared" si="19"/>
+        <v>cD07</v>
       </c>
       <c r="J155" s="38"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N155" s="47" t="s">
-        <v>816</v>
+        <v>452</v>
       </c>
       <c r="O155" s="47"/>
       <c r="P155" s="47"/>
       <c r="Q155" s="55" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="R155" s="59" t="s">
-        <v>816</v>
+        <v>452</v>
       </c>
       <c r="S155" s="65"/>
       <c r="T155" s="65"/>
       <c r="U155" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="V155" s="50" t="s">
-        <v>87</v>
+        <v>259</v>
+      </c>
+      <c r="V155" s="49" t="s">
+        <v>83</v>
       </c>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>...D.07. - Other neurological conditions</v>
       </c>
       <c r="B156" s="2">
-        <v>142</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>731</v>
+        <v>138</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E156" s="71"/>
+        <v>260</v>
+      </c>
+      <c r="E156" s="74"/>
       <c r="F156" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G156" s="26">
-        <v>99</v>
+      <c r="G156" s="26" t="s">
+        <v>1139</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="38" t="str">
-        <f t="shared" si="20"/>
-        <v>cD99</v>
-      </c>
-      <c r="J156" s="38"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
+        <f t="shared" si="19"/>
+        <v>cD07</v>
+      </c>
+      <c r="J156" s="38" t="str">
+        <f>CONCATENATE(F156,G156,H156)</f>
+        <v>D07</v>
+      </c>
+      <c r="K156" s="53" t="s">
+        <v>1494</v>
+      </c>
+      <c r="L156" s="18" t="s">
+        <v>1473</v>
+      </c>
       <c r="M156" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="N156" s="47" t="s">
-        <v>817</v>
-      </c>
-      <c r="O156" s="47"/>
-      <c r="P156" s="47"/>
+        <v>1495</v>
+      </c>
+      <c r="N156" s="54" t="s">
+        <v>1496</v>
+      </c>
+      <c r="O156" s="54"/>
+      <c r="P156" s="54"/>
       <c r="Q156" s="55" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="R156" s="59" t="s">
-        <v>817</v>
-      </c>
-      <c r="S156" s="65"/>
-      <c r="T156" s="65"/>
+        <v>814</v>
+      </c>
+      <c r="S156" s="65" t="s">
+        <v>611</v>
+      </c>
+      <c r="T156" s="65" t="s">
+        <v>1098</v>
+      </c>
       <c r="U156" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="V156" s="50" t="s">
-        <v>88</v>
+        <v>260</v>
+      </c>
+      <c r="V156" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="W156" s="2"/>
     </row>
@@ -14860,52 +14853,51 @@
         <v/>
       </c>
       <c r="B157" s="2">
-        <v>143</v>
-      </c>
-      <c r="C157" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>265</v>
+        <v>139</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="E157" s="71"/>
       <c r="F157" s="6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G157" s="26">
-        <v>99</v>
+        <v>948</v>
+      </c>
+      <c r="G157" s="26" t="s">
+        <v>948</v>
       </c>
       <c r="H157" s="6"/>
-      <c r="I157" s="38" t="str">
-        <f t="shared" si="20"/>
-        <v>cD99</v>
-      </c>
+      <c r="I157" s="38"/>
       <c r="J157" s="38"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="N157" s="47" t="s">
-        <v>818</v>
-      </c>
-      <c r="O157" s="47"/>
-      <c r="P157" s="47"/>
+        <v>948</v>
+      </c>
+      <c r="N157" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
       <c r="Q157" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="R157" s="59" t="s">
-        <v>818</v>
+        <v>454</v>
+      </c>
+      <c r="R157" s="58" t="s">
+        <v>815</v>
       </c>
       <c r="S157" s="65"/>
-      <c r="T157" s="65"/>
-      <c r="U157" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="V157" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="W157" s="2"/>
+      <c r="T157" s="66"/>
+      <c r="U157" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="V157" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="W157" s="2" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="str">
@@ -14913,13 +14905,13 @@
         <v/>
       </c>
       <c r="B158" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E158" s="71"/>
       <c r="F158" s="6" t="s">
@@ -14930,33 +14922,33 @@
       </c>
       <c r="H158" s="6"/>
       <c r="I158" s="38" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="I158:I164" si="21">CONCATENATE("c",F158,G158,H158)</f>
         <v>cD99</v>
       </c>
       <c r="J158" s="38"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
       <c r="M158" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N158" s="47" t="s">
-        <v>1369</v>
+        <v>455</v>
       </c>
       <c r="O158" s="47"/>
       <c r="P158" s="47"/>
       <c r="Q158" s="55" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="R158" s="59" t="s">
-        <v>819</v>
+        <v>455</v>
       </c>
       <c r="S158" s="65"/>
       <c r="T158" s="65"/>
       <c r="U158" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="V158" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W158" s="2"/>
     </row>
@@ -14966,13 +14958,13 @@
         <v/>
       </c>
       <c r="B159" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E159" s="71"/>
       <c r="F159" s="6" t="s">
@@ -14983,49 +14975,49 @@
       </c>
       <c r="H159" s="6"/>
       <c r="I159" s="38" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cD99</v>
       </c>
       <c r="J159" s="38"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
       <c r="M159" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N159" s="47" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="O159" s="47"/>
       <c r="P159" s="47"/>
       <c r="Q159" s="55" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="R159" s="59" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="S159" s="65"/>
       <c r="T159" s="65"/>
       <c r="U159" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="V159" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B160" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>92</v>
+        <v>731</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E160" s="71"/>
       <c r="F160" s="6" t="s">
@@ -15036,90 +15028,86 @@
       </c>
       <c r="H160" s="6"/>
       <c r="I160" s="38" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cD99</v>
       </c>
       <c r="J160" s="38"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
       <c r="M160" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N160" s="47" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="O160" s="47"/>
       <c r="P160" s="47"/>
       <c r="Q160" s="55" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="R160" s="59" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="S160" s="65"/>
       <c r="T160" s="65"/>
       <c r="U160" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="V160" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="W160" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" ht="42" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="W160" s="2"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>..C. - Cardiovascular diseases</v>
+        <v/>
       </c>
       <c r="B161" s="2">
-        <v>147</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>269</v>
+        <v>143</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="E161" s="71"/>
-      <c r="F161" s="25" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G161" s="26"/>
+      <c r="F161" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G161" s="26">
+        <v>99</v>
+      </c>
       <c r="H161" s="6"/>
-      <c r="I161" s="38"/>
-      <c r="J161" s="38" t="str">
-        <f>CONCATENATE(F161,G161,H161)</f>
-        <v>C</v>
-      </c>
+      <c r="I161" s="38" t="str">
+        <f t="shared" si="21"/>
+        <v>cD99</v>
+      </c>
+      <c r="J161" s="38"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
       <c r="M161" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N161" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O161" s="19"/>
-      <c r="P161" s="19"/>
+        <v>458</v>
+      </c>
+      <c r="N161" s="47" t="s">
+        <v>818</v>
+      </c>
+      <c r="O161" s="47"/>
+      <c r="P161" s="47"/>
       <c r="Q161" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="R161" s="58" t="s">
-        <v>822</v>
-      </c>
-      <c r="S161" s="65" t="s">
-        <v>614</v>
-      </c>
-      <c r="T161" s="65" t="s">
-        <v>679</v>
-      </c>
-      <c r="U161" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="V161" s="43" t="s">
-        <v>93</v>
+        <v>458</v>
+      </c>
+      <c r="R161" s="59" t="s">
+        <v>818</v>
+      </c>
+      <c r="S161" s="65"/>
+      <c r="T161" s="65"/>
+      <c r="U161" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="V161" s="50" t="s">
+        <v>89</v>
       </c>
       <c r="W161" s="2"/>
     </row>
@@ -15129,575 +15117,591 @@
         <v/>
       </c>
       <c r="B162" s="2">
-        <v>148</v>
-      </c>
-      <c r="C162" s="34" t="s">
-        <v>94</v>
+        <v>144</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E162" s="74"/>
+        <v>266</v>
+      </c>
+      <c r="E162" s="71"/>
       <c r="F162" s="6" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G162" s="26">
         <v>99</v>
       </c>
       <c r="H162" s="6"/>
       <c r="I162" s="38" t="str">
-        <f t="shared" ref="I162:I172" si="21">CONCATENATE("c",F162,G162,H162)</f>
-        <v>cC99</v>
+        <f t="shared" si="21"/>
+        <v>cD99</v>
       </c>
       <c r="J162" s="38"/>
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>
       <c r="M162" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N162" s="47" t="s">
-        <v>1290</v>
-      </c>
-      <c r="O162" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="P162" s="47" t="s">
-        <v>1290</v>
-      </c>
+        <v>1369</v>
+      </c>
+      <c r="O162" s="47"/>
+      <c r="P162" s="47"/>
       <c r="Q162" s="55" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="R162" s="59" t="s">
-        <v>823</v>
-      </c>
-      <c r="S162" s="65" t="s">
-        <v>615</v>
-      </c>
-      <c r="T162" s="65" t="s">
-        <v>1048</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="S162" s="65"/>
+      <c r="T162" s="65"/>
       <c r="U162" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="V162" s="49" t="s">
-        <v>94</v>
+        <v>266</v>
+      </c>
+      <c r="V162" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="W162" s="2"/>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.01. - Hypertensive heart disease</v>
+        <v/>
       </c>
       <c r="B163" s="2">
-        <v>149</v>
-      </c>
-      <c r="C163" s="34" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E163" s="74"/>
+        <v>267</v>
+      </c>
+      <c r="E163" s="71"/>
       <c r="F163" s="6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G163" s="26" t="s">
-        <v>1133</v>
+        <v>1131</v>
+      </c>
+      <c r="G163" s="26">
+        <v>99</v>
       </c>
       <c r="H163" s="6"/>
       <c r="I163" s="38" t="str">
         <f t="shared" si="21"/>
-        <v>cC01</v>
-      </c>
-      <c r="J163" s="38" t="str">
-        <f t="shared" ref="J163:J172" si="22">CONCATENATE(F163,G163,H163)</f>
-        <v>C01</v>
-      </c>
-      <c r="K163" s="5" t="s">
-        <v>1550</v>
-      </c>
-      <c r="L163" s="5" t="s">
-        <v>1516</v>
-      </c>
+        <v>cD99</v>
+      </c>
+      <c r="J163" s="38"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
       <c r="M163" s="5" t="s">
-        <v>1548</v>
+        <v>460</v>
       </c>
       <c r="N163" s="47" t="s">
-        <v>1549</v>
-      </c>
-      <c r="O163" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="P163" s="47" t="s">
-        <v>824</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="O163" s="47"/>
+      <c r="P163" s="47"/>
       <c r="Q163" s="55" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="R163" s="59" t="s">
-        <v>824</v>
-      </c>
-      <c r="S163" s="65" t="s">
-        <v>616</v>
-      </c>
-      <c r="T163" s="67">
-        <v>402</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="S163" s="65"/>
+      <c r="T163" s="65"/>
       <c r="U163" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="V163" s="49" t="s">
-        <v>95</v>
+        <v>267</v>
+      </c>
+      <c r="V163" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.02. - Ischemic heart disease</v>
+        <v/>
       </c>
       <c r="B164" s="2">
-        <v>150</v>
-      </c>
-      <c r="C164" s="34" t="s">
-        <v>96</v>
+        <v>146</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E164" s="74"/>
+        <v>268</v>
+      </c>
+      <c r="E164" s="71"/>
       <c r="F164" s="6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G164" s="26" t="s">
-        <v>1134</v>
+        <v>1131</v>
+      </c>
+      <c r="G164" s="26">
+        <v>99</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="38" t="str">
         <f t="shared" si="21"/>
-        <v>cC02</v>
-      </c>
-      <c r="J164" s="38" t="str">
-        <f t="shared" si="22"/>
-        <v>C02</v>
-      </c>
+        <v>cD99</v>
+      </c>
+      <c r="J164" s="38"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
       <c r="M164" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N164" s="47" t="s">
-        <v>825</v>
-      </c>
-      <c r="O164" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="P164" s="47" t="s">
-        <v>825</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="O164" s="47"/>
+      <c r="P164" s="47"/>
       <c r="Q164" s="55" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="R164" s="59" t="s">
-        <v>825</v>
-      </c>
-      <c r="S164" s="65" t="s">
-        <v>617</v>
-      </c>
-      <c r="T164" s="65" t="s">
-        <v>1025</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="S164" s="65"/>
+      <c r="T164" s="65"/>
       <c r="U164" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="V164" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="W164" s="2"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="V164" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="W164" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="42" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.03. - Stroke</v>
+        <v>..C. - Cardiovascular diseases</v>
       </c>
       <c r="B165" s="2">
-        <v>151</v>
-      </c>
-      <c r="C165" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E165" s="74"/>
-      <c r="F165" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E165" s="71"/>
+      <c r="F165" s="25" t="s">
         <v>1130</v>
       </c>
-      <c r="G165" s="26" t="s">
-        <v>1135</v>
-      </c>
+      <c r="G165" s="26"/>
       <c r="H165" s="6"/>
-      <c r="I165" s="38" t="str">
-        <f t="shared" si="21"/>
-        <v>cC03</v>
-      </c>
+      <c r="I165" s="38"/>
       <c r="J165" s="38" t="str">
-        <f t="shared" si="22"/>
-        <v>C03</v>
-      </c>
-      <c r="K165" s="5" t="s">
-        <v>1205</v>
-      </c>
-      <c r="L165" s="5" t="s">
-        <v>1149</v>
-      </c>
+        <f>CONCATENATE(F165,G165,H165)</f>
+        <v>C</v>
+      </c>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
       <c r="M165" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="N165" s="47" t="s">
-        <v>1204</v>
-      </c>
-      <c r="O165" s="47" t="s">
-        <v>1203</v>
-      </c>
-      <c r="P165" s="47" t="s">
-        <v>1291</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="N165" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
       <c r="Q165" s="55" t="s">
-        <v>466</v>
-      </c>
-      <c r="R165" s="59" t="s">
-        <v>826</v>
+        <v>462</v>
+      </c>
+      <c r="R165" s="58" t="s">
+        <v>822</v>
       </c>
       <c r="S165" s="65" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="T165" s="65" t="s">
-        <v>1052</v>
-      </c>
-      <c r="U165" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="V165" s="49" t="s">
-        <v>97</v>
+        <v>679</v>
+      </c>
+      <c r="U165" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="V165" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
+        <v/>
       </c>
       <c r="B166" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E166" s="74" t="s">
-        <v>1420</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E166" s="74"/>
       <c r="F166" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="G166" s="26" t="s">
-        <v>1136</v>
+      <c r="G166" s="26">
+        <v>99</v>
       </c>
       <c r="H166" s="6"/>
       <c r="I166" s="38" t="str">
-        <f t="shared" si="21"/>
-        <v>cC04</v>
-      </c>
-      <c r="J166" s="38" t="str">
-        <f t="shared" si="22"/>
-        <v>C04</v>
-      </c>
-      <c r="K166" s="5" t="s">
-        <v>1457</v>
-      </c>
+        <f t="shared" ref="I166:I176" si="22">CONCATENATE("c",F166,G166,H166)</f>
+        <v>cC99</v>
+      </c>
+      <c r="J166" s="38"/>
+      <c r="K166" s="5"/>
       <c r="L166" s="5"/>
       <c r="M166" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N166" s="47" t="s">
-        <v>1456</v>
+        <v>1290</v>
       </c>
       <c r="O166" s="47" t="s">
-        <v>1288</v>
+        <v>463</v>
       </c>
       <c r="P166" s="47" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="Q166" s="55" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="R166" s="59" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="S166" s="65" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="T166" s="65" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="U166" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="V166" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="W166" s="63" t="s">
-        <v>1295</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="W166" s="2"/>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.05. -  Congestive heart failure</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="34"/>
+        <v>...C.01. - Hypertensive heart disease</v>
+      </c>
+      <c r="B167" s="2">
+        <v>149</v>
+      </c>
+      <c r="C167" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="D167" s="5" t="s">
-        <v>1415</v>
+        <v>271</v>
       </c>
       <c r="E167" s="74"/>
       <c r="F167" s="6" t="s">
         <v>1130</v>
       </c>
       <c r="G167" s="26" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="H167" s="6"/>
       <c r="I167" s="38" t="str">
-        <f t="shared" si="21"/>
-        <v>cC05</v>
+        <f t="shared" si="22"/>
+        <v>cC01</v>
       </c>
       <c r="J167" s="38" t="str">
-        <f t="shared" si="22"/>
-        <v>C05</v>
+        <f t="shared" ref="J167:J176" si="23">CONCATENATE(F167,G167,H167)</f>
+        <v>C01</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>1277</v>
+        <v>1547</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>1191</v>
+        <v>1513</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>1275</v>
+        <v>1545</v>
       </c>
       <c r="N167" s="47" t="s">
-        <v>1275</v>
+        <v>1546</v>
       </c>
       <c r="O167" s="47" t="s">
-        <v>1275</v>
+        <v>464</v>
       </c>
       <c r="P167" s="47" t="s">
-        <v>1275</v>
-      </c>
-      <c r="Q167" s="55"/>
-      <c r="R167" s="59"/>
-      <c r="S167" s="65"/>
-      <c r="T167" s="65"/>
-      <c r="U167" s="5"/>
-      <c r="V167" s="49"/>
+        <v>824</v>
+      </c>
+      <c r="Q167" s="55" t="s">
+        <v>464</v>
+      </c>
+      <c r="R167" s="59" t="s">
+        <v>824</v>
+      </c>
+      <c r="S167" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="T167" s="67">
+        <v>402</v>
+      </c>
+      <c r="U167" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V167" s="49" t="s">
+        <v>95</v>
+      </c>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.06. - Cardiac arrest</v>
-      </c>
-      <c r="B168" s="2"/>
+        <v>...C.02. - Ischemic heart disease</v>
+      </c>
+      <c r="B168" s="2">
+        <v>150</v>
+      </c>
       <c r="C168" s="34" t="s">
-        <v>1501</v>
+        <v>96</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>1501</v>
+        <v>1356</v>
       </c>
       <c r="E168" s="74"/>
       <c r="F168" s="6" t="s">
         <v>1130</v>
       </c>
       <c r="G168" s="26" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="H168" s="6"/>
       <c r="I168" s="38" t="str">
-        <f t="shared" si="21"/>
-        <v>cC06</v>
+        <f t="shared" si="22"/>
+        <v>cC02</v>
       </c>
       <c r="J168" s="38" t="str">
-        <f t="shared" si="22"/>
-        <v>C06</v>
-      </c>
-      <c r="K168" s="5" t="s">
-        <v>1503</v>
-      </c>
-      <c r="L168" s="5" t="s">
-        <v>1516</v>
-      </c>
+        <f t="shared" si="23"/>
+        <v>C02</v>
+      </c>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
       <c r="M168" s="5" t="s">
-        <v>1502</v>
+        <v>465</v>
       </c>
       <c r="N168" s="47" t="s">
-        <v>1502</v>
-      </c>
-      <c r="O168" s="47"/>
-      <c r="P168" s="47"/>
-      <c r="Q168" s="55"/>
-      <c r="R168" s="59"/>
-      <c r="S168" s="65"/>
-      <c r="T168" s="65"/>
-      <c r="U168" s="5"/>
-      <c r="V168" s="49"/>
+        <v>825</v>
+      </c>
+      <c r="O168" s="47" t="s">
+        <v>465</v>
+      </c>
+      <c r="P168" s="47" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q168" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="R168" s="59" t="s">
+        <v>825</v>
+      </c>
+      <c r="S168" s="65" t="s">
+        <v>617</v>
+      </c>
+      <c r="T168" s="65" t="s">
+        <v>1025</v>
+      </c>
+      <c r="U168" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="V168" s="49" t="s">
+        <v>96</v>
+      </c>
       <c r="W168" s="2"/>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.07. - Supraventricular arithmia</v>
-      </c>
-      <c r="B169" s="2"/>
+        <v>...C.03. - Stroke</v>
+      </c>
+      <c r="B169" s="2">
+        <v>151</v>
+      </c>
       <c r="C169" s="34" t="s">
-        <v>1534</v>
+        <v>97</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>1534</v>
+        <v>273</v>
       </c>
       <c r="E169" s="74"/>
       <c r="F169" s="6" t="s">
         <v>1130</v>
       </c>
       <c r="G169" s="26" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="H169" s="6"/>
       <c r="I169" s="38" t="str">
-        <f t="shared" si="21"/>
-        <v>cC07</v>
+        <f t="shared" si="22"/>
+        <v>cC03</v>
       </c>
       <c r="J169" s="38" t="str">
-        <f t="shared" si="22"/>
-        <v>C07</v>
+        <f t="shared" si="23"/>
+        <v>C03</v>
       </c>
       <c r="K169" s="5" t="s">
-        <v>1545</v>
+        <v>1205</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>1516</v>
+        <v>1149</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>1544</v>
+        <v>1203</v>
       </c>
       <c r="N169" s="47" t="s">
-        <v>1543</v>
-      </c>
-      <c r="O169" s="47"/>
-      <c r="P169" s="47"/>
-      <c r="Q169" s="55"/>
-      <c r="R169" s="59"/>
-      <c r="S169" s="65"/>
-      <c r="T169" s="65"/>
-      <c r="U169" s="5"/>
-      <c r="V169" s="49"/>
+        <v>1204</v>
+      </c>
+      <c r="O169" s="47" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P169" s="47" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Q169" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="R169" s="59" t="s">
+        <v>826</v>
+      </c>
+      <c r="S169" s="65" t="s">
+        <v>618</v>
+      </c>
+      <c r="T169" s="65" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U169" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="V169" s="49" t="s">
+        <v>97</v>
+      </c>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.08. - Valve disorders</v>
-      </c>
-      <c r="B170" s="2"/>
+        <v>...C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
+      </c>
+      <c r="B170" s="2">
+        <v>152</v>
+      </c>
       <c r="C170" s="34" t="s">
-        <v>1535</v>
+        <v>98</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E170" s="74"/>
+        <v>274</v>
+      </c>
+      <c r="E170" s="74" t="s">
+        <v>1420</v>
+      </c>
       <c r="F170" s="6" t="s">
         <v>1130</v>
       </c>
       <c r="G170" s="26" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="H170" s="6"/>
       <c r="I170" s="38" t="str">
-        <f t="shared" si="21"/>
-        <v>cC08</v>
+        <f t="shared" si="22"/>
+        <v>cC04</v>
       </c>
       <c r="J170" s="38" t="str">
-        <f t="shared" si="22"/>
-        <v>C08</v>
+        <f t="shared" si="23"/>
+        <v>C04</v>
       </c>
       <c r="K170" s="5" t="s">
-        <v>1539</v>
-      </c>
-      <c r="L170" s="5" t="s">
-        <v>1516</v>
-      </c>
+        <v>1455</v>
+      </c>
+      <c r="L170" s="5"/>
       <c r="M170" s="5" t="s">
-        <v>1538</v>
+        <v>467</v>
       </c>
       <c r="N170" s="47" t="s">
-        <v>1537</v>
-      </c>
-      <c r="O170" s="47"/>
-      <c r="P170" s="47"/>
-      <c r="Q170" s="55"/>
-      <c r="R170" s="59"/>
-      <c r="S170" s="65"/>
-      <c r="T170" s="65"/>
-      <c r="U170" s="5"/>
-      <c r="V170" s="49"/>
-      <c r="W170" s="2"/>
+        <v>1454</v>
+      </c>
+      <c r="O170" s="47" t="s">
+        <v>1288</v>
+      </c>
+      <c r="P170" s="47" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Q170" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="R170" s="59" t="s">
+        <v>827</v>
+      </c>
+      <c r="S170" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="T170" s="65" t="s">
+        <v>1053</v>
+      </c>
+      <c r="U170" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="V170" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="W170" s="63" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.09. - Thromboembolism</v>
+        <v>...C.05. -  Congestive heart failure</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="34" t="s">
-        <v>1536</v>
-      </c>
+      <c r="C171" s="34"/>
       <c r="D171" s="5" t="s">
-        <v>1536</v>
+        <v>1415</v>
       </c>
       <c r="E171" s="74"/>
       <c r="F171" s="6" t="s">
         <v>1130</v>
       </c>
       <c r="G171" s="26" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H171" s="6"/>
       <c r="I171" s="38" t="str">
-        <f t="shared" si="21"/>
-        <v>cC09</v>
+        <f t="shared" si="22"/>
+        <v>cC05</v>
       </c>
       <c r="J171" s="38" t="str">
-        <f t="shared" si="22"/>
-        <v>C09</v>
+        <f t="shared" si="23"/>
+        <v>C05</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>1542</v>
+        <v>1277</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>1516</v>
+        <v>1191</v>
       </c>
       <c r="M171" s="5" t="s">
-        <v>1541</v>
+        <v>1275</v>
       </c>
       <c r="N171" s="47" t="s">
-        <v>1540</v>
-      </c>
-      <c r="O171" s="47"/>
-      <c r="P171" s="47"/>
+        <v>1275</v>
+      </c>
+      <c r="O171" s="47" t="s">
+        <v>1275</v>
+      </c>
+      <c r="P171" s="47" t="s">
+        <v>1275</v>
+      </c>
       <c r="Q171" s="55"/>
       <c r="R171" s="59"/>
       <c r="S171" s="65"/>
@@ -15706,778 +15710,737 @@
       <c r="V171" s="49"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...C.99. - Other or unspecified cardiovascular diseases</v>
-      </c>
-      <c r="B172" s="2">
-        <v>153</v>
-      </c>
-      <c r="C172" s="30" t="s">
-        <v>99</v>
+        <v>...C.06. - Cardiac arrest</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="34" t="s">
+        <v>1498</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E172" s="71" t="s">
-        <v>1379</v>
-      </c>
+        <v>1498</v>
+      </c>
+      <c r="E172" s="74"/>
       <c r="F172" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="G172" s="26">
-        <v>99</v>
+      <c r="G172" s="26" t="s">
+        <v>1138</v>
       </c>
       <c r="H172" s="6"/>
       <c r="I172" s="38" t="str">
-        <f t="shared" si="21"/>
-        <v>cC99</v>
+        <f t="shared" si="22"/>
+        <v>cC06</v>
       </c>
       <c r="J172" s="38" t="str">
-        <f t="shared" si="22"/>
-        <v>C99</v>
+        <f t="shared" si="23"/>
+        <v>C06</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>1368</v>
+        <v>1500</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>1278</v>
+        <v>1513</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>1546</v>
-      </c>
-      <c r="N172" s="19" t="s">
-        <v>1547</v>
-      </c>
-      <c r="O172" s="19" t="s">
-        <v>1293</v>
-      </c>
-      <c r="P172" s="19" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q172" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="R172" s="59" t="s">
-        <v>828</v>
-      </c>
-      <c r="S172" s="65" t="s">
-        <v>620</v>
-      </c>
-      <c r="T172" s="65" t="s">
-        <v>1097</v>
-      </c>
-      <c r="U172" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="V172" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="W172" s="63" t="s">
-        <v>1292</v>
-      </c>
+        <v>1499</v>
+      </c>
+      <c r="N172" s="47" t="s">
+        <v>1499</v>
+      </c>
+      <c r="O172" s="47"/>
+      <c r="P172" s="47"/>
+      <c r="Q172" s="55"/>
+      <c r="R172" s="59"/>
+      <c r="S172" s="65"/>
+      <c r="T172" s="65"/>
+      <c r="U172" s="5"/>
+      <c r="V172" s="49"/>
+      <c r="W172" s="2"/>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="B173" s="2">
-        <v>154</v>
-      </c>
-      <c r="C173" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E173" s="71"/>
+        <v>...C.07. - Supraventricular arithmia</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="34" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E173" s="74"/>
       <c r="F173" s="6" t="s">
-        <v>948</v>
+        <v>1130</v>
       </c>
       <c r="G173" s="26" t="s">
-        <v>948</v>
+        <v>1139</v>
       </c>
       <c r="H173" s="6"/>
-      <c r="I173" s="38"/>
-      <c r="J173" s="38"/>
-      <c r="K173" s="5"/>
-      <c r="L173" s="5"/>
+      <c r="I173" s="38" t="str">
+        <f t="shared" si="22"/>
+        <v>cC07</v>
+      </c>
+      <c r="J173" s="38" t="str">
+        <f t="shared" si="23"/>
+        <v>C07</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L173" s="5" t="s">
+        <v>1513</v>
+      </c>
       <c r="M173" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N173" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O173" s="19"/>
-      <c r="P173" s="19"/>
-      <c r="Q173" s="55" t="s">
-        <v>469</v>
-      </c>
-      <c r="R173" s="58" t="s">
-        <v>829</v>
-      </c>
-      <c r="S173" s="65" t="s">
-        <v>621</v>
-      </c>
-      <c r="T173" s="65" t="s">
-        <v>678</v>
-      </c>
-      <c r="U173" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="V173" s="43" t="s">
-        <v>100</v>
-      </c>
+        <v>1541</v>
+      </c>
+      <c r="N173" s="47" t="s">
+        <v>1540</v>
+      </c>
+      <c r="O173" s="47"/>
+      <c r="P173" s="47"/>
+      <c r="Q173" s="55"/>
+      <c r="R173" s="59"/>
+      <c r="S173" s="65"/>
+      <c r="T173" s="65"/>
+      <c r="U173" s="5"/>
+      <c r="V173" s="49"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.66. - Chronic obstructive pulmonary disease</v>
-      </c>
-      <c r="B174" s="2">
-        <v>155</v>
-      </c>
-      <c r="C174" s="30" t="s">
-        <v>101</v>
+        <v>...C.08. - Valve disorders</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="34" t="s">
+        <v>1532</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E174" s="71" t="s">
-        <v>1375</v>
-      </c>
+        <v>1532</v>
+      </c>
+      <c r="E174" s="74"/>
       <c r="F174" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G174" s="26" t="s">
-        <v>1300</v>
+        <v>1140</v>
       </c>
       <c r="H174" s="6"/>
       <c r="I174" s="38" t="str">
-        <f t="shared" ref="I174:I180" si="23">CONCATENATE("c",F174,G174,H174)</f>
-        <v>cD66</v>
+        <f t="shared" si="22"/>
+        <v>cC08</v>
       </c>
       <c r="J174" s="38" t="str">
-        <f t="shared" ref="J174:J181" si="24">CONCATENATE(F174,G174,H174)</f>
-        <v>D66</v>
+        <f t="shared" si="23"/>
+        <v>C08</v>
       </c>
       <c r="K174" s="5" t="s">
-        <v>1572</v>
+        <v>1536</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M174" s="5" t="s">
-        <v>470</v>
+        <v>1535</v>
       </c>
       <c r="N174" s="47" t="s">
-        <v>1571</v>
+        <v>1534</v>
       </c>
       <c r="O174" s="47"/>
       <c r="P174" s="47"/>
-      <c r="Q174" s="55" t="s">
-        <v>470</v>
-      </c>
-      <c r="R174" s="59" t="s">
-        <v>830</v>
-      </c>
-      <c r="S174" s="65" t="s">
-        <v>622</v>
-      </c>
-      <c r="T174" s="65" t="s">
-        <v>1024</v>
-      </c>
-      <c r="U174" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="V174" s="43" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q174" s="55"/>
+      <c r="R174" s="59"/>
+      <c r="S174" s="65"/>
+      <c r="T174" s="65"/>
+      <c r="U174" s="5"/>
+      <c r="V174" s="49"/>
       <c r="W174" s="2"/>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.67. - Asthma</v>
-      </c>
-      <c r="B175" s="2">
-        <v>156</v>
-      </c>
-      <c r="C175" s="30" t="s">
-        <v>102</v>
+        <v>...C.09. - Thromboembolism</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="34" t="s">
+        <v>1533</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E175" s="71"/>
+        <v>1533</v>
+      </c>
+      <c r="E175" s="74"/>
       <c r="F175" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G175" s="26" t="s">
-        <v>1301</v>
+        <v>1141</v>
       </c>
       <c r="H175" s="6"/>
       <c r="I175" s="38" t="str">
+        <f t="shared" si="22"/>
+        <v>cC09</v>
+      </c>
+      <c r="J175" s="38" t="str">
         <f t="shared" si="23"/>
-        <v>cD67</v>
-      </c>
-      <c r="J175" s="38" t="str">
-        <f t="shared" si="24"/>
-        <v>D67</v>
-      </c>
-      <c r="K175" s="5"/>
-      <c r="L175" s="5"/>
+        <v>C09</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="L175" s="5" t="s">
+        <v>1513</v>
+      </c>
       <c r="M175" s="5" t="s">
-        <v>471</v>
+        <v>1538</v>
       </c>
       <c r="N175" s="47" t="s">
-        <v>831</v>
+        <v>1537</v>
       </c>
       <c r="O175" s="47"/>
       <c r="P175" s="47"/>
-      <c r="Q175" s="55" t="s">
-        <v>471</v>
-      </c>
-      <c r="R175" s="59" t="s">
-        <v>831</v>
-      </c>
-      <c r="S175" s="65" t="s">
-        <v>623</v>
-      </c>
-      <c r="T175" s="67">
-        <v>493</v>
-      </c>
-      <c r="U175" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="V175" s="43" t="s">
-        <v>102</v>
-      </c>
+      <c r="Q175" s="55"/>
+      <c r="R175" s="59"/>
+      <c r="S175" s="65"/>
+      <c r="T175" s="65"/>
+      <c r="U175" s="5"/>
+      <c r="V175" s="49"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.68. - Other respiratory diseases</v>
+        <v>...C.99. - Other or unspecified cardiovascular diseases</v>
       </c>
       <c r="B176" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>1299</v>
+        <v>99</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E176" s="71"/>
+        <v>1276</v>
+      </c>
+      <c r="E176" s="71" t="s">
+        <v>1379</v>
+      </c>
       <c r="F176" s="6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G176" s="26" t="s">
-        <v>1302</v>
+        <v>1130</v>
+      </c>
+      <c r="G176" s="26">
+        <v>99</v>
       </c>
       <c r="H176" s="6"/>
       <c r="I176" s="38" t="str">
+        <f t="shared" si="22"/>
+        <v>cC99</v>
+      </c>
+      <c r="J176" s="38" t="str">
         <f t="shared" si="23"/>
-        <v>cD68</v>
-      </c>
-      <c r="J176" s="38" t="str">
-        <f t="shared" si="24"/>
-        <v>D68</v>
-      </c>
-      <c r="K176" s="5"/>
+        <v>C99</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>1368</v>
+      </c>
       <c r="L176" s="5" t="s">
-        <v>1516</v>
+        <v>1278</v>
       </c>
       <c r="M176" s="5" t="s">
-        <v>1570</v>
-      </c>
-      <c r="N176" s="47" t="s">
-        <v>1569</v>
-      </c>
-      <c r="O176" s="47"/>
-      <c r="P176" s="47"/>
+        <v>1543</v>
+      </c>
+      <c r="N176" s="19" t="s">
+        <v>1544</v>
+      </c>
+      <c r="O176" s="19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P176" s="19" t="s">
+        <v>1294</v>
+      </c>
       <c r="Q176" s="55" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="R176" s="59" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="S176" s="65" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="T176" s="65" t="s">
-        <v>1051</v>
+        <v>1097</v>
       </c>
       <c r="U176" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="V176" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="W176" s="2"/>
-    </row>
-    <row r="177" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="V176" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="W176" s="63" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.69. - Respiratory failure</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="30" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>1508</v>
+        <v/>
+      </c>
+      <c r="B177" s="2">
+        <v>154</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="E177" s="71"/>
       <c r="F177" s="6" t="s">
-        <v>1131</v>
+        <v>948</v>
       </c>
       <c r="G177" s="26" t="s">
-        <v>1509</v>
+        <v>948</v>
       </c>
       <c r="H177" s="6"/>
-      <c r="I177" s="38" t="str">
-        <f t="shared" si="23"/>
-        <v>cD69</v>
-      </c>
-      <c r="J177" s="38" t="str">
-        <f t="shared" si="24"/>
-        <v>D69</v>
-      </c>
-      <c r="K177" s="5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="L177" s="5" t="s">
-        <v>1516</v>
-      </c>
+      <c r="I177" s="38"/>
+      <c r="J177" s="38"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
       <c r="M177" s="5" t="s">
-        <v>1512</v>
-      </c>
-      <c r="N177" s="47" t="s">
-        <v>1511</v>
-      </c>
-      <c r="O177" s="47"/>
-      <c r="P177" s="47"/>
-      <c r="Q177" s="55"/>
-      <c r="R177" s="59"/>
-      <c r="S177" s="65"/>
-      <c r="T177" s="65"/>
-      <c r="U177" s="5"/>
-      <c r="V177" s="43"/>
+        <v>948</v>
+      </c>
+      <c r="N177" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O177" s="19"/>
+      <c r="P177" s="19"/>
+      <c r="Q177" s="55" t="s">
+        <v>469</v>
+      </c>
+      <c r="R177" s="58" t="s">
+        <v>829</v>
+      </c>
+      <c r="S177" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="T177" s="65" t="s">
+        <v>678</v>
+      </c>
+      <c r="U177" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="V177" s="43" t="s">
+        <v>100</v>
+      </c>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.70. - Interstitial lung disease</v>
-      </c>
-      <c r="B178" s="2"/>
+        <v>...D.66. - Chronic obstructive pulmonary disease</v>
+      </c>
+      <c r="B178" s="2">
+        <v>155</v>
+      </c>
       <c r="C178" s="30" t="s">
-        <v>1556</v>
+        <v>101</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E178" s="71"/>
+        <v>277</v>
+      </c>
+      <c r="E178" s="71" t="s">
+        <v>1375</v>
+      </c>
       <c r="F178" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G178" s="26" t="s">
-        <v>1559</v>
+        <v>1300</v>
       </c>
       <c r="H178" s="6"/>
       <c r="I178" s="38" t="str">
-        <f t="shared" si="23"/>
-        <v>cD70</v>
+        <f t="shared" ref="I178:I184" si="24">CONCATENATE("c",F178,G178,H178)</f>
+        <v>cD66</v>
       </c>
       <c r="J178" s="38" t="str">
-        <f t="shared" si="24"/>
-        <v>D70</v>
+        <f t="shared" ref="J178:J185" si="25">CONCATENATE(F178,G178,H178)</f>
+        <v>D66</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>1562</v>
+        <v>470</v>
       </c>
       <c r="N178" s="47" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="O178" s="47"/>
       <c r="P178" s="47"/>
-      <c r="Q178" s="55"/>
-      <c r="R178" s="59"/>
-      <c r="S178" s="65"/>
-      <c r="T178" s="65"/>
-      <c r="U178" s="5"/>
-      <c r="V178" s="43"/>
+      <c r="Q178" s="55" t="s">
+        <v>470</v>
+      </c>
+      <c r="R178" s="59" t="s">
+        <v>830</v>
+      </c>
+      <c r="S178" s="65" t="s">
+        <v>622</v>
+      </c>
+      <c r="T178" s="65" t="s">
+        <v>1024</v>
+      </c>
+      <c r="U178" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="V178" s="43" t="s">
+        <v>101</v>
+      </c>
       <c r="W178" s="2"/>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.71. - Aspiration pneumonitis</v>
-      </c>
-      <c r="B179" s="2"/>
+        <v>...D.67. - Asthma</v>
+      </c>
+      <c r="B179" s="2">
+        <v>156</v>
+      </c>
       <c r="C179" s="30" t="s">
-        <v>1557</v>
+        <v>102</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>1557</v>
+        <v>278</v>
       </c>
       <c r="E179" s="71"/>
       <c r="F179" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G179" s="26" t="s">
-        <v>1560</v>
+        <v>1301</v>
       </c>
       <c r="H179" s="6"/>
       <c r="I179" s="38" t="str">
-        <f t="shared" si="23"/>
-        <v>cD71</v>
+        <f t="shared" si="24"/>
+        <v>cD67</v>
       </c>
       <c r="J179" s="38" t="str">
-        <f t="shared" si="24"/>
-        <v>D71</v>
-      </c>
-      <c r="K179" s="5" t="s">
-        <v>1566</v>
-      </c>
-      <c r="L179" s="5" t="s">
-        <v>1516</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>D67</v>
+      </c>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
       <c r="M179" s="5" t="s">
-        <v>1565</v>
+        <v>471</v>
       </c>
       <c r="N179" s="47" t="s">
-        <v>1565</v>
+        <v>831</v>
       </c>
       <c r="O179" s="47"/>
       <c r="P179" s="47"/>
-      <c r="Q179" s="55"/>
-      <c r="R179" s="59"/>
-      <c r="S179" s="65"/>
-      <c r="T179" s="65"/>
-      <c r="U179" s="5"/>
-      <c r="V179" s="43"/>
+      <c r="Q179" s="55" t="s">
+        <v>471</v>
+      </c>
+      <c r="R179" s="59" t="s">
+        <v>831</v>
+      </c>
+      <c r="S179" s="65" t="s">
+        <v>623</v>
+      </c>
+      <c r="T179" s="67">
+        <v>493</v>
+      </c>
+      <c r="U179" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V179" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.72. - ARDS</v>
-      </c>
-      <c r="B180" s="2"/>
+        <v>...D.68. - Other respiratory diseases</v>
+      </c>
+      <c r="B180" s="2">
+        <v>157</v>
+      </c>
       <c r="C180" s="30" t="s">
-        <v>1558</v>
+        <v>1299</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>1558</v>
+        <v>279</v>
       </c>
       <c r="E180" s="71"/>
       <c r="F180" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G180" s="26" t="s">
-        <v>1561</v>
+        <v>1302</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="38" t="str">
-        <f t="shared" si="23"/>
-        <v>cD72</v>
+        <f t="shared" si="24"/>
+        <v>cD68</v>
       </c>
       <c r="J180" s="38" t="str">
-        <f t="shared" si="24"/>
-        <v>D72</v>
-      </c>
-      <c r="K180" s="5" t="s">
-        <v>1568</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>D68</v>
+      </c>
+      <c r="K180" s="5"/>
       <c r="L180" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="M180" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="N180" s="47" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="O180" s="47"/>
       <c r="P180" s="47"/>
-      <c r="Q180" s="55"/>
-      <c r="R180" s="59"/>
-      <c r="S180" s="65"/>
-      <c r="T180" s="65"/>
-      <c r="U180" s="5"/>
-      <c r="V180" s="43"/>
+      <c r="Q180" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="R180" s="59" t="s">
+        <v>832</v>
+      </c>
+      <c r="S180" s="65" t="s">
+        <v>624</v>
+      </c>
+      <c r="T180" s="65" t="s">
+        <v>1051</v>
+      </c>
+      <c r="U180" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="V180" s="43" t="s">
+        <v>103</v>
+      </c>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.09. - Digestive diseases (excluding cirrhosis)</v>
-      </c>
-      <c r="B181" s="2">
-        <v>158</v>
-      </c>
-      <c r="C181" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E181" s="71" t="s">
-        <v>1408</v>
-      </c>
+        <v>...D.69. - Respiratory failure</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="30" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E181" s="71"/>
       <c r="F181" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G181" s="26" t="s">
-        <v>1141</v>
+        <v>1506</v>
       </c>
       <c r="H181" s="6"/>
-      <c r="I181" s="38" t="s">
-        <v>948</v>
+      <c r="I181" s="38" t="str">
+        <f t="shared" si="24"/>
+        <v>cD69</v>
       </c>
       <c r="J181" s="38" t="str">
-        <f t="shared" si="24"/>
-        <v>D09</v>
-      </c>
-      <c r="K181" s="62" t="s">
-        <v>1462</v>
+        <f t="shared" si="25"/>
+        <v>D69</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>1507</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>1464</v>
+        <v>1513</v>
       </c>
       <c r="M181" s="5" t="s">
-        <v>1477</v>
-      </c>
-      <c r="N181" s="19" t="s">
-        <v>1461</v>
-      </c>
-      <c r="O181" s="19"/>
-      <c r="P181" s="19"/>
-      <c r="Q181" s="55" t="s">
-        <v>473</v>
-      </c>
-      <c r="R181" s="58" t="s">
-        <v>833</v>
-      </c>
-      <c r="S181" s="65" t="s">
-        <v>625</v>
-      </c>
-      <c r="T181" s="65" t="s">
-        <v>680</v>
-      </c>
-      <c r="U181" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="V181" s="43" t="s">
-        <v>104</v>
-      </c>
+        <v>1509</v>
+      </c>
+      <c r="N181" s="47" t="s">
+        <v>1508</v>
+      </c>
+      <c r="O181" s="47"/>
+      <c r="P181" s="47"/>
+      <c r="Q181" s="55"/>
+      <c r="R181" s="59"/>
+      <c r="S181" s="65"/>
+      <c r="T181" s="65"/>
+      <c r="U181" s="5"/>
+      <c r="V181" s="43"/>
       <c r="W181" s="2"/>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="B182" s="2">
-        <v>159</v>
-      </c>
+        <v>...D.70. - Interstitial lung disease</v>
+      </c>
+      <c r="B182" s="2"/>
       <c r="C182" s="30" t="s">
-        <v>105</v>
+        <v>1553</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>281</v>
+        <v>1553</v>
       </c>
       <c r="E182" s="71"/>
       <c r="F182" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G182" s="26" t="s">
-        <v>1141</v>
+        <v>1556</v>
       </c>
       <c r="H182" s="6"/>
       <c r="I182" s="38" t="str">
-        <f t="shared" ref="I182:I190" si="25">CONCATENATE("c",F182,G182,H182)</f>
-        <v>cD09</v>
-      </c>
-      <c r="J182" s="38"/>
-      <c r="K182" s="5"/>
-      <c r="L182" s="5"/>
+        <f t="shared" si="24"/>
+        <v>cD70</v>
+      </c>
+      <c r="J182" s="38" t="str">
+        <f t="shared" si="25"/>
+        <v>D70</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>1513</v>
+      </c>
       <c r="M182" s="5" t="s">
-        <v>474</v>
+        <v>1559</v>
       </c>
       <c r="N182" s="47" t="s">
-        <v>834</v>
+        <v>1560</v>
       </c>
       <c r="O182" s="47"/>
       <c r="P182" s="47"/>
-      <c r="Q182" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="R182" s="59" t="s">
-        <v>834</v>
-      </c>
-      <c r="S182" s="65" t="s">
-        <v>626</v>
-      </c>
-      <c r="T182" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="U182" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="V182" s="43" t="s">
-        <v>105</v>
-      </c>
+      <c r="Q182" s="55"/>
+      <c r="R182" s="59"/>
+      <c r="S182" s="65"/>
+      <c r="T182" s="65"/>
+      <c r="U182" s="5"/>
+      <c r="V182" s="43"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" s="46" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.11. - Liver cirrhosis (non-alcohol)</v>
-      </c>
-      <c r="B183" s="2">
-        <v>160</v>
-      </c>
-      <c r="C183" s="34" t="s">
-        <v>106</v>
+        <v>...D.71. - Aspiration pneumonitis</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="30" t="s">
+        <v>1554</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E183" s="74"/>
+        <v>1554</v>
+      </c>
+      <c r="E183" s="71"/>
       <c r="F183" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G183" s="26" t="s">
-        <v>1148</v>
+        <v>1557</v>
       </c>
       <c r="H183" s="6"/>
       <c r="I183" s="38" t="str">
+        <f t="shared" si="24"/>
+        <v>cD71</v>
+      </c>
+      <c r="J183" s="38" t="str">
         <f t="shared" si="25"/>
-        <v>cD11</v>
-      </c>
-      <c r="J183" s="38" t="str">
-        <f>CONCATENATE(F183,G183,H183)</f>
-        <v>D11</v>
-      </c>
-      <c r="K183" s="16" t="s">
-        <v>1458</v>
+        <v>D71</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>1563</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>1476</v>
+        <v>1513</v>
       </c>
       <c r="M183" s="5" t="s">
-        <v>1459</v>
+        <v>1562</v>
       </c>
       <c r="N183" s="47" t="s">
-        <v>1460</v>
+        <v>1562</v>
       </c>
       <c r="O183" s="47"/>
       <c r="P183" s="47"/>
-      <c r="Q183" s="55" t="s">
-        <v>475</v>
-      </c>
-      <c r="R183" s="59" t="s">
-        <v>835</v>
-      </c>
-      <c r="S183" s="65" t="s">
-        <v>627</v>
-      </c>
-      <c r="T183" s="65" t="s">
-        <v>1096</v>
-      </c>
-      <c r="U183" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="V183" s="48" t="s">
-        <v>106</v>
-      </c>
+      <c r="Q183" s="55"/>
+      <c r="R183" s="59"/>
+      <c r="S183" s="65"/>
+      <c r="T183" s="65"/>
+      <c r="U183" s="5"/>
+      <c r="V183" s="43"/>
       <c r="W183" s="2"/>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="B184" s="2">
-        <v>161</v>
-      </c>
-      <c r="C184" s="34" t="s">
-        <v>107</v>
+        <v>...D.72. - ARDS</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="30" t="s">
+        <v>1555</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E184" s="74"/>
+        <v>1555</v>
+      </c>
+      <c r="E184" s="71"/>
       <c r="F184" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G184" s="26" t="s">
-        <v>1141</v>
+        <v>1558</v>
       </c>
       <c r="H184" s="6"/>
       <c r="I184" s="38" t="str">
+        <f t="shared" si="24"/>
+        <v>cD72</v>
+      </c>
+      <c r="J184" s="38" t="str">
         <f t="shared" si="25"/>
-        <v>cD09</v>
-      </c>
-      <c r="J184" s="38"/>
-      <c r="K184" s="5"/>
-      <c r="L184" s="5"/>
+        <v>D72</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>1513</v>
+      </c>
       <c r="M184" s="5" t="s">
-        <v>476</v>
+        <v>1564</v>
       </c>
       <c r="N184" s="47" t="s">
-        <v>836</v>
+        <v>1564</v>
       </c>
       <c r="O184" s="47"/>
       <c r="P184" s="47"/>
-      <c r="Q184" s="55" t="s">
-        <v>476</v>
-      </c>
-      <c r="R184" s="59" t="s">
-        <v>836</v>
-      </c>
-      <c r="S184" s="65" t="s">
-        <v>628</v>
-      </c>
-      <c r="T184" s="65" t="s">
-        <v>1018</v>
-      </c>
-      <c r="U184" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="V184" s="49" t="s">
-        <v>107</v>
-      </c>
+      <c r="Q184" s="55"/>
+      <c r="R184" s="59"/>
+      <c r="S184" s="65"/>
+      <c r="T184" s="65"/>
+      <c r="U184" s="5"/>
+      <c r="V184" s="43"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>...D.09. - Digestive diseases (excluding cirrhosis)</v>
       </c>
       <c r="B185" s="2">
-        <v>162</v>
-      </c>
-      <c r="C185" s="34" t="s">
-        <v>732</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="E185" s="74"/>
+        <v>158</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E185" s="71" t="s">
+        <v>1408</v>
+      </c>
       <c r="F185" s="6" t="s">
         <v>1131</v>
       </c>
@@ -16485,60 +16448,62 @@
         <v>1141</v>
       </c>
       <c r="H185" s="6"/>
-      <c r="I185" s="38" t="str">
+      <c r="I185" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="J185" s="38" t="str">
         <f t="shared" si="25"/>
-        <v>cD09</v>
-      </c>
-      <c r="J185" s="38"/>
-      <c r="K185" s="5" t="s">
-        <v>1491</v>
+        <v>D09</v>
+      </c>
+      <c r="K185" s="62" t="s">
+        <v>1460</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="M185" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="N185" s="47" t="s">
-        <v>1496</v>
-      </c>
-      <c r="O185" s="47"/>
-      <c r="P185" s="47"/>
+        <v>1474</v>
+      </c>
+      <c r="N185" s="19" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
       <c r="Q185" s="55" t="s">
-        <v>837</v>
-      </c>
-      <c r="R185" s="59" t="s">
-        <v>837</v>
+        <v>473</v>
+      </c>
+      <c r="R185" s="58" t="s">
+        <v>833</v>
       </c>
       <c r="S185" s="65" t="s">
-        <v>629</v>
-      </c>
-      <c r="T185" s="67">
-        <v>535</v>
-      </c>
-      <c r="U185" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="V185" s="5" t="s">
-        <v>732</v>
+        <v>625</v>
+      </c>
+      <c r="T185" s="65" t="s">
+        <v>680</v>
+      </c>
+      <c r="U185" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="V185" s="43" t="s">
+        <v>104</v>
       </c>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B186" s="2">
-        <v>163</v>
-      </c>
-      <c r="C186" s="34" t="s">
-        <v>733</v>
+        <v>159</v>
+      </c>
+      <c r="C186" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="E186" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="E186" s="71"/>
       <c r="F186" s="6" t="s">
         <v>1131</v>
       </c>
@@ -16547,110 +16512,117 @@
       </c>
       <c r="H186" s="6"/>
       <c r="I186" s="38" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I186:I194" si="26">CONCATENATE("c",F186,G186,H186)</f>
         <v>cD09</v>
       </c>
       <c r="J186" s="38"/>
       <c r="K186" s="5"/>
       <c r="L186" s="5"/>
       <c r="M186" s="5" t="s">
-        <v>838</v>
+        <v>474</v>
       </c>
       <c r="N186" s="47" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="O186" s="47"/>
       <c r="P186" s="47"/>
       <c r="Q186" s="55" t="s">
-        <v>838</v>
+        <v>474</v>
       </c>
       <c r="R186" s="59" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="S186" s="65" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="T186" s="65" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="U186" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="V186" s="5" t="s">
-        <v>733</v>
+        <v>281</v>
+      </c>
+      <c r="V186" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" s="46" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>...D.11. - Liver cirrhosis (non-alcohol)</v>
       </c>
       <c r="B187" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C187" s="34" t="s">
-        <v>665</v>
+        <v>106</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>917</v>
+        <v>1472</v>
       </c>
       <c r="E187" s="74"/>
       <c r="F187" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G187" s="26" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="38" t="str">
-        <f t="shared" si="25"/>
-        <v>cD09</v>
-      </c>
-      <c r="J187" s="38"/>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
+        <f t="shared" si="26"/>
+        <v>cD11</v>
+      </c>
+      <c r="J187" s="38" t="str">
+        <f>CONCATENATE(F187,G187,H187)</f>
+        <v>D11</v>
+      </c>
+      <c r="K187" s="16" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>1473</v>
+      </c>
       <c r="M187" s="5" t="s">
-        <v>984</v>
+        <v>1457</v>
       </c>
       <c r="N187" s="47" t="s">
-        <v>839</v>
+        <v>1458</v>
       </c>
       <c r="O187" s="47"/>
       <c r="P187" s="47"/>
       <c r="Q187" s="55" t="s">
-        <v>984</v>
+        <v>475</v>
       </c>
       <c r="R187" s="59" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="S187" s="65" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="T187" s="65" t="s">
-        <v>1022</v>
+        <v>1096</v>
       </c>
       <c r="U187" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="V187" s="5" t="s">
-        <v>665</v>
+        <v>282</v>
+      </c>
+      <c r="V187" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B188" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C188" s="34" t="s">
-        <v>734</v>
+        <v>107</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>918</v>
+        <v>283</v>
       </c>
       <c r="E188" s="74"/>
       <c r="F188" s="6" t="s">
@@ -16661,37 +16633,37 @@
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="38" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>cD09</v>
       </c>
       <c r="J188" s="38"/>
       <c r="K188" s="5"/>
       <c r="L188" s="5"/>
       <c r="M188" s="5" t="s">
-        <v>985</v>
+        <v>476</v>
       </c>
       <c r="N188" s="47" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O188" s="47"/>
       <c r="P188" s="47"/>
       <c r="Q188" s="55" t="s">
-        <v>985</v>
+        <v>476</v>
       </c>
       <c r="R188" s="59" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="S188" s="65" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="T188" s="65" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="U188" s="5" t="s">
-        <v>918</v>
-      </c>
-      <c r="V188" s="5" t="s">
-        <v>734</v>
+        <v>283</v>
+      </c>
+      <c r="V188" s="49" t="s">
+        <v>107</v>
       </c>
       <c r="W188" s="2"/>
     </row>
@@ -16701,13 +16673,13 @@
         <v/>
       </c>
       <c r="B189" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C189" s="34" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E189" s="74"/>
       <c r="F189" s="6" t="s">
@@ -16718,41 +16690,41 @@
       </c>
       <c r="H189" s="6"/>
       <c r="I189" s="38" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>cD09</v>
       </c>
       <c r="J189" s="38"/>
       <c r="K189" s="5" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="M189" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="N189" s="47" t="s">
         <v>1493</v>
-      </c>
-      <c r="N189" s="47" t="s">
-        <v>1495</v>
       </c>
       <c r="O189" s="47"/>
       <c r="P189" s="47"/>
       <c r="Q189" s="55" t="s">
-        <v>986</v>
+        <v>837</v>
       </c>
       <c r="R189" s="59" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="S189" s="65" t="s">
-        <v>633</v>
-      </c>
-      <c r="T189" s="65" t="s">
-        <v>1020</v>
+        <v>629</v>
+      </c>
+      <c r="T189" s="67">
+        <v>535</v>
       </c>
       <c r="U189" s="5" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="V189" s="5" t="s">
-        <v>920</v>
+        <v>732</v>
       </c>
       <c r="W189" s="2"/>
     </row>
@@ -16762,13 +16734,13 @@
         <v/>
       </c>
       <c r="B190" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C190" s="34" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>284</v>
+        <v>916</v>
       </c>
       <c r="E190" s="74"/>
       <c r="F190" s="6" t="s">
@@ -16779,41 +16751,37 @@
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="38" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>cD09</v>
       </c>
       <c r="J190" s="38"/>
-      <c r="K190" s="5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L190" s="5" t="s">
-        <v>1149</v>
-      </c>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
       <c r="M190" s="5" t="s">
-        <v>1183</v>
+        <v>838</v>
       </c>
       <c r="N190" s="47" t="s">
-        <v>1184</v>
+        <v>838</v>
       </c>
       <c r="O190" s="47"/>
       <c r="P190" s="47"/>
       <c r="Q190" s="55" t="s">
-        <v>987</v>
+        <v>838</v>
       </c>
       <c r="R190" s="59" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="S190" s="65" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="T190" s="65" t="s">
-        <v>1050</v>
+        <v>1019</v>
       </c>
       <c r="U190" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="V190" s="49" t="s">
-        <v>736</v>
+        <v>916</v>
+      </c>
+      <c r="V190" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="W190" s="2"/>
     </row>
@@ -16823,542 +16791,554 @@
         <v/>
       </c>
       <c r="B191" s="2">
-        <v>168</v>
-      </c>
-      <c r="C191" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E191" s="71"/>
+        <v>164</v>
+      </c>
+      <c r="C191" s="34" t="s">
+        <v>665</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="E191" s="74"/>
       <c r="F191" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="G191" s="26"/>
+        <v>1131</v>
+      </c>
+      <c r="G191" s="26" t="s">
+        <v>1141</v>
+      </c>
       <c r="H191" s="6"/>
-      <c r="I191" s="38"/>
-      <c r="J191" s="39"/>
+      <c r="I191" s="38" t="str">
+        <f t="shared" si="26"/>
+        <v>cD09</v>
+      </c>
+      <c r="J191" s="38"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
       <c r="M191" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N191" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
+        <v>984</v>
+      </c>
+      <c r="N191" s="47" t="s">
+        <v>839</v>
+      </c>
+      <c r="O191" s="47"/>
+      <c r="P191" s="47"/>
       <c r="Q191" s="55" t="s">
-        <v>949</v>
-      </c>
-      <c r="R191" s="58" t="s">
-        <v>954</v>
+        <v>984</v>
+      </c>
+      <c r="R191" s="59" t="s">
+        <v>839</v>
       </c>
       <c r="S191" s="65" t="s">
-        <v>676</v>
-      </c>
-      <c r="T191" s="66" t="s">
-        <v>677</v>
-      </c>
-      <c r="U191" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="V191" s="43" t="s">
-        <v>108</v>
+        <v>631</v>
+      </c>
+      <c r="T191" s="65" t="s">
+        <v>1022</v>
+      </c>
+      <c r="U191" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="V191" s="5" t="s">
+        <v>665</v>
       </c>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>...D.10. - Kidney diseases</v>
+        <v/>
       </c>
       <c r="B192" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C192" s="34" t="s">
-        <v>109</v>
+        <v>734</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>286</v>
+        <v>918</v>
       </c>
       <c r="E192" s="74"/>
       <c r="F192" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G192" s="26" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H192" s="6"/>
-      <c r="I192" s="38" t="s">
-        <v>948</v>
-      </c>
-      <c r="J192" s="38" t="str">
-        <f>CONCATENATE(F192,G192,H192)</f>
-        <v>D10</v>
-      </c>
+      <c r="I192" s="38" t="str">
+        <f t="shared" si="26"/>
+        <v>cD09</v>
+      </c>
+      <c r="J192" s="38"/>
       <c r="K192" s="5"/>
       <c r="L192" s="5"/>
       <c r="M192" s="5" t="s">
-        <v>948</v>
+        <v>985</v>
       </c>
       <c r="N192" s="47" t="s">
-        <v>948</v>
+        <v>840</v>
       </c>
       <c r="O192" s="47"/>
-      <c r="P192" s="47" t="s">
-        <v>948</v>
-      </c>
+      <c r="P192" s="47"/>
       <c r="Q192" s="55" t="s">
-        <v>950</v>
+        <v>985</v>
       </c>
       <c r="R192" s="59" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="S192" s="65" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="T192" s="65" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="U192" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="V192" s="49" t="s">
-        <v>109</v>
+        <v>918</v>
+      </c>
+      <c r="V192" s="5" t="s">
+        <v>734</v>
       </c>
       <c r="W192" s="2"/>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>....D.10.a. - Acute glomerulonephritis</v>
+        <v/>
       </c>
       <c r="B193" s="2">
-        <v>170</v>
-      </c>
-      <c r="C193" s="32" t="s">
-        <v>737</v>
+        <v>166</v>
+      </c>
+      <c r="C193" s="34" t="s">
+        <v>735</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="E193" s="71"/>
+        <v>919</v>
+      </c>
+      <c r="E193" s="74"/>
       <c r="F193" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G193" s="26" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H193" s="6" t="s">
-        <v>1120</v>
-      </c>
+        <v>1141</v>
+      </c>
+      <c r="H193" s="6"/>
       <c r="I193" s="38" t="str">
-        <f t="shared" ref="I193:I201" si="26">CONCATENATE("c",F193,G193,H193)</f>
-        <v>cD10a</v>
-      </c>
-      <c r="J193" s="38" t="str">
-        <f>CONCATENATE(F193,G193,H193)</f>
-        <v>D10a</v>
-      </c>
-      <c r="K193" s="5"/>
-      <c r="L193" s="5"/>
+        <f t="shared" si="26"/>
+        <v>cD09</v>
+      </c>
+      <c r="J193" s="38"/>
+      <c r="K193" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="L193" s="5" t="s">
+        <v>1462</v>
+      </c>
       <c r="M193" s="5" t="s">
-        <v>951</v>
+        <v>1490</v>
       </c>
       <c r="N193" s="47" t="s">
-        <v>844</v>
+        <v>1492</v>
       </c>
       <c r="O193" s="47"/>
-      <c r="P193" s="47" t="s">
-        <v>844</v>
-      </c>
+      <c r="P193" s="47"/>
       <c r="Q193" s="55" t="s">
-        <v>951</v>
+        <v>986</v>
       </c>
       <c r="R193" s="59" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="S193" s="65" t="s">
-        <v>636</v>
-      </c>
-      <c r="T193" s="67">
-        <v>580</v>
+        <v>633</v>
+      </c>
+      <c r="T193" s="65" t="s">
+        <v>1020</v>
       </c>
       <c r="U193" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="V193" s="5" t="s">
-        <v>737</v>
+        <v>920</v>
       </c>
       <c r="W193" s="2"/>
     </row>
     <row r="194" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>....D.10.b. - Chronic kidney disease due to diabetes</v>
+        <v/>
       </c>
       <c r="B194" s="2">
-        <v>171</v>
-      </c>
-      <c r="C194" s="32" t="s">
-        <v>738</v>
+        <v>167</v>
+      </c>
+      <c r="C194" s="34" t="s">
+        <v>736</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E194" s="71"/>
+        <v>284</v>
+      </c>
+      <c r="E194" s="74"/>
       <c r="F194" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G194" s="26" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H194" s="6" t="s">
-        <v>1121</v>
-      </c>
+        <v>1141</v>
+      </c>
+      <c r="H194" s="6"/>
       <c r="I194" s="38" t="str">
         <f t="shared" si="26"/>
-        <v>cD10b</v>
-      </c>
-      <c r="J194" s="38" t="str">
-        <f>CONCATENATE(F194,G194,H194)</f>
-        <v>D10b</v>
-      </c>
-      <c r="K194" s="5"/>
-      <c r="L194" s="5"/>
+        <v>cD09</v>
+      </c>
+      <c r="J194" s="38"/>
+      <c r="K194" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>1149</v>
+      </c>
       <c r="M194" s="5" t="s">
-        <v>952</v>
+        <v>1183</v>
       </c>
       <c r="N194" s="47" t="s">
-        <v>845</v>
+        <v>1184</v>
       </c>
       <c r="O194" s="47"/>
-      <c r="P194" s="47" t="s">
-        <v>845</v>
-      </c>
+      <c r="P194" s="47"/>
       <c r="Q194" s="55" t="s">
-        <v>952</v>
+        <v>987</v>
       </c>
       <c r="R194" s="59" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="S194" s="65" t="s">
-        <v>637</v>
-      </c>
-      <c r="T194" s="67">
-        <v>2504</v>
+        <v>634</v>
+      </c>
+      <c r="T194" s="65" t="s">
+        <v>1050</v>
       </c>
       <c r="U194" s="5" t="s">
-        <v>922</v>
-      </c>
-      <c r="V194" s="5" t="s">
-        <v>924</v>
+        <v>284</v>
+      </c>
+      <c r="V194" s="49" t="s">
+        <v>736</v>
       </c>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>....D.10.c. - Other chronic kidney disease</v>
+        <v/>
       </c>
       <c r="B195" s="2">
-        <v>172</v>
-      </c>
-      <c r="C195" s="32" t="s">
-        <v>739</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>923</v>
+        <v>168</v>
+      </c>
+      <c r="C195" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E195" s="71"/>
       <c r="F195" s="6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G195" s="26" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H195" s="6" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I195" s="38" t="str">
-        <f t="shared" si="26"/>
-        <v>cD10c</v>
-      </c>
-      <c r="J195" s="38" t="str">
-        <f>CONCATENATE(F195,G195,H195)</f>
-        <v>D10c</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="G195" s="26"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="38"/>
+      <c r="J195" s="39"/>
       <c r="K195" s="5"/>
       <c r="L195" s="5"/>
       <c r="M195" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="N195" s="47" t="s">
-        <v>955</v>
-      </c>
-      <c r="O195" s="47"/>
-      <c r="P195" s="47" t="s">
-        <v>955</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="N195" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O195" s="19"/>
+      <c r="P195" s="19"/>
       <c r="Q195" s="55" t="s">
-        <v>953</v>
-      </c>
-      <c r="R195" s="59" t="s">
-        <v>955</v>
+        <v>949</v>
+      </c>
+      <c r="R195" s="58" t="s">
+        <v>954</v>
       </c>
       <c r="S195" s="65" t="s">
-        <v>638</v>
-      </c>
-      <c r="T195" s="67">
-        <v>589</v>
-      </c>
-      <c r="U195" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="V195" s="5" t="s">
-        <v>739</v>
+        <v>676</v>
+      </c>
+      <c r="T195" s="66" t="s">
+        <v>677</v>
+      </c>
+      <c r="U195" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="V195" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>...D.10. - Kidney diseases</v>
       </c>
       <c r="B196" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C196" s="34" t="s">
-        <v>740</v>
+        <v>109</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>880</v>
+        <v>286</v>
       </c>
       <c r="E196" s="74"/>
       <c r="F196" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G196" s="26">
-        <v>99</v>
+      <c r="G196" s="26" t="s">
+        <v>1143</v>
       </c>
       <c r="H196" s="6"/>
-      <c r="I196" s="38" t="str">
-        <f t="shared" si="26"/>
-        <v>cD99</v>
-      </c>
-      <c r="J196" s="38"/>
+      <c r="I196" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="J196" s="38" t="str">
+        <f>CONCATENATE(F196,G196,H196)</f>
+        <v>D10</v>
+      </c>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
       <c r="M196" s="5" t="s">
-        <v>477</v>
+        <v>948</v>
       </c>
       <c r="N196" s="47" t="s">
-        <v>477</v>
+        <v>948</v>
       </c>
       <c r="O196" s="47"/>
-      <c r="P196" s="47"/>
+      <c r="P196" s="47" t="s">
+        <v>948</v>
+      </c>
       <c r="Q196" s="55" t="s">
-        <v>477</v>
+        <v>950</v>
       </c>
       <c r="R196" s="59" t="s">
-        <v>477</v>
-      </c>
-      <c r="S196" s="65"/>
-      <c r="T196" s="65"/>
+        <v>843</v>
+      </c>
+      <c r="S196" s="65" t="s">
+        <v>635</v>
+      </c>
+      <c r="T196" s="65" t="s">
+        <v>1017</v>
+      </c>
       <c r="U196" s="5" t="s">
-        <v>880</v>
+        <v>286</v>
       </c>
       <c r="V196" s="49" t="s">
-        <v>740</v>
+        <v>109</v>
       </c>
       <c r="W196" s="2"/>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>....D.10.a. - Acute glomerulonephritis</v>
       </c>
       <c r="B197" s="2">
-        <v>174</v>
-      </c>
-      <c r="C197" s="34" t="s">
-        <v>110</v>
+        <v>170</v>
+      </c>
+      <c r="C197" s="32" t="s">
+        <v>737</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E197" s="74"/>
+        <v>921</v>
+      </c>
+      <c r="E197" s="71"/>
       <c r="F197" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G197" s="26">
-        <v>99</v>
-      </c>
-      <c r="H197" s="6"/>
+      <c r="G197" s="26" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>1120</v>
+      </c>
       <c r="I197" s="38" t="str">
-        <f t="shared" si="26"/>
-        <v>cD99</v>
-      </c>
-      <c r="J197" s="38"/>
+        <f t="shared" ref="I197:I205" si="27">CONCATENATE("c",F197,G197,H197)</f>
+        <v>cD10a</v>
+      </c>
+      <c r="J197" s="38" t="str">
+        <f>CONCATENATE(F197,G197,H197)</f>
+        <v>D10a</v>
+      </c>
       <c r="K197" s="5"/>
       <c r="L197" s="5"/>
       <c r="M197" s="5" t="s">
-        <v>478</v>
+        <v>951</v>
       </c>
       <c r="N197" s="47" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="O197" s="47"/>
-      <c r="P197" s="47"/>
+      <c r="P197" s="47" t="s">
+        <v>844</v>
+      </c>
       <c r="Q197" s="55" t="s">
-        <v>478</v>
+        <v>951</v>
       </c>
       <c r="R197" s="59" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="S197" s="65" t="s">
-        <v>639</v>
-      </c>
-      <c r="T197" s="65" t="s">
-        <v>1013</v>
+        <v>636</v>
+      </c>
+      <c r="T197" s="67">
+        <v>580</v>
       </c>
       <c r="U197" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="V197" s="49" t="s">
-        <v>110</v>
+        <v>921</v>
+      </c>
+      <c r="V197" s="5" t="s">
+        <v>737</v>
       </c>
       <c r="W197" s="2"/>
     </row>
     <row r="198" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>....D.10.b. - Chronic kidney disease due to diabetes</v>
       </c>
       <c r="B198" s="2">
-        <v>175</v>
-      </c>
-      <c r="C198" s="34" t="s">
-        <v>741</v>
+        <v>171</v>
+      </c>
+      <c r="C198" s="32" t="s">
+        <v>738</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="E198" s="74"/>
+        <v>1357</v>
+      </c>
+      <c r="E198" s="71"/>
       <c r="F198" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G198" s="26">
-        <v>99</v>
-      </c>
-      <c r="H198" s="6"/>
+      <c r="G198" s="26" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>1121</v>
+      </c>
       <c r="I198" s="38" t="str">
-        <f t="shared" si="26"/>
-        <v>cD99</v>
-      </c>
-      <c r="J198" s="38"/>
+        <f t="shared" si="27"/>
+        <v>cD10b</v>
+      </c>
+      <c r="J198" s="38" t="str">
+        <f>CONCATENATE(F198,G198,H198)</f>
+        <v>D10b</v>
+      </c>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="5" t="s">
-        <v>1554</v>
+        <v>952</v>
       </c>
       <c r="N198" s="47" t="s">
-        <v>1553</v>
+        <v>845</v>
       </c>
       <c r="O198" s="47"/>
-      <c r="P198" s="47"/>
+      <c r="P198" s="47" t="s">
+        <v>845</v>
+      </c>
       <c r="Q198" s="55" t="s">
-        <v>479</v>
+        <v>952</v>
       </c>
       <c r="R198" s="59" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="S198" s="65" t="s">
-        <v>1014</v>
-      </c>
-      <c r="T198" s="65" t="s">
-        <v>1049</v>
+        <v>637</v>
+      </c>
+      <c r="T198" s="67">
+        <v>2504</v>
       </c>
       <c r="U198" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="V198" s="49" t="s">
-        <v>111</v>
+        <v>922</v>
+      </c>
+      <c r="V198" s="5" t="s">
+        <v>924</v>
       </c>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>....D.10.c. - Other chronic kidney disease</v>
       </c>
       <c r="B199" s="2">
-        <v>176</v>
-      </c>
-      <c r="C199" s="34" t="s">
-        <v>112</v>
+        <v>172</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>739</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E199" s="74"/>
+        <v>923</v>
+      </c>
+      <c r="E199" s="71"/>
       <c r="F199" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G199" s="26">
-        <v>99</v>
-      </c>
-      <c r="H199" s="6"/>
+      <c r="G199" s="26" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>1123</v>
+      </c>
       <c r="I199" s="38" t="str">
-        <f t="shared" si="26"/>
-        <v>cD99</v>
-      </c>
-      <c r="J199" s="38"/>
+        <f t="shared" si="27"/>
+        <v>cD10c</v>
+      </c>
+      <c r="J199" s="38" t="str">
+        <f>CONCATENATE(F199,G199,H199)</f>
+        <v>D10c</v>
+      </c>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
       <c r="M199" s="5" t="s">
-        <v>480</v>
+        <v>953</v>
       </c>
       <c r="N199" s="47" t="s">
-        <v>848</v>
+        <v>955</v>
       </c>
       <c r="O199" s="47"/>
-      <c r="P199" s="47"/>
+      <c r="P199" s="47" t="s">
+        <v>955</v>
+      </c>
       <c r="Q199" s="55" t="s">
-        <v>480</v>
+        <v>953</v>
       </c>
       <c r="R199" s="59" t="s">
-        <v>848</v>
+        <v>955</v>
       </c>
       <c r="S199" s="65" t="s">
-        <v>1015</v>
-      </c>
-      <c r="T199" s="65" t="s">
-        <v>1016</v>
+        <v>638</v>
+      </c>
+      <c r="T199" s="67">
+        <v>589</v>
       </c>
       <c r="U199" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="V199" s="49" t="s">
-        <v>112</v>
+        <v>923</v>
+      </c>
+      <c r="V199" s="5" t="s">
+        <v>739</v>
       </c>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B200" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C200" s="34" t="s">
-        <v>113</v>
+        <v>740</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>289</v>
+        <v>880</v>
       </c>
       <c r="E200" s="74"/>
       <c r="F200" s="6" t="s">
@@ -17369,37 +17349,33 @@
       </c>
       <c r="H200" s="6"/>
       <c r="I200" s="38" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>cD99</v>
       </c>
       <c r="J200" s="38"/>
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
       <c r="M200" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="N200" s="47" t="s">
-        <v>849</v>
+        <v>477</v>
       </c>
       <c r="O200" s="47"/>
       <c r="P200" s="47"/>
       <c r="Q200" s="55" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="R200" s="59" t="s">
-        <v>849</v>
-      </c>
-      <c r="S200" s="65" t="s">
-        <v>640</v>
-      </c>
-      <c r="T200" s="65" t="s">
-        <v>1012</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="S200" s="65"/>
+      <c r="T200" s="65"/>
       <c r="U200" s="5" t="s">
-        <v>289</v>
+        <v>880</v>
       </c>
       <c r="V200" s="49" t="s">
-        <v>113</v>
+        <v>740</v>
       </c>
       <c r="W200" s="2"/>
     </row>
@@ -17409,15 +17385,15 @@
         <v/>
       </c>
       <c r="B201" s="2">
-        <v>178</v>
-      </c>
-      <c r="C201" s="33" t="s">
-        <v>114</v>
+        <v>174</v>
+      </c>
+      <c r="C201" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E201" s="71"/>
+        <v>287</v>
+      </c>
+      <c r="E201" s="74"/>
       <c r="F201" s="6" t="s">
         <v>1131</v>
       </c>
@@ -17426,91 +17402,94 @@
       </c>
       <c r="H201" s="6"/>
       <c r="I201" s="38" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>cD99</v>
       </c>
       <c r="J201" s="38"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
       <c r="M201" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N201" s="47" t="s">
-        <v>1367</v>
+        <v>846</v>
       </c>
       <c r="O201" s="47"/>
       <c r="P201" s="47"/>
       <c r="Q201" s="55" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="R201" s="59" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="S201" s="65" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="T201" s="65" t="s">
-        <v>641</v>
+        <v>1013</v>
       </c>
       <c r="U201" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="V201" s="43" t="s">
-        <v>114</v>
+        <v>287</v>
+      </c>
+      <c r="V201" s="49" t="s">
+        <v>110</v>
       </c>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B202" s="2">
-        <v>179</v>
-      </c>
-      <c r="C202" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E202" s="71"/>
+        <v>175</v>
+      </c>
+      <c r="C202" s="34" t="s">
+        <v>741</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E202" s="74"/>
       <c r="F202" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="G202" s="26" t="s">
-        <v>948</v>
+        <v>1131</v>
+      </c>
+      <c r="G202" s="26">
+        <v>99</v>
       </c>
       <c r="H202" s="6"/>
-      <c r="I202" s="38" t="s">
-        <v>948</v>
+      <c r="I202" s="38" t="str">
+        <f t="shared" si="27"/>
+        <v>cD99</v>
       </c>
       <c r="J202" s="38"/>
       <c r="K202" s="5"/>
       <c r="L202" s="5"/>
       <c r="M202" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N202" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O202" s="19"/>
-      <c r="P202" s="19"/>
+        <v>1551</v>
+      </c>
+      <c r="N202" s="47" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O202" s="47"/>
+      <c r="P202" s="47"/>
       <c r="Q202" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="R202" s="58" t="s">
-        <v>851</v>
+        <v>479</v>
+      </c>
+      <c r="R202" s="59" t="s">
+        <v>847</v>
       </c>
       <c r="S202" s="65" t="s">
-        <v>643</v>
+        <v>1014</v>
       </c>
       <c r="T202" s="65" t="s">
-        <v>675</v>
-      </c>
-      <c r="U202" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="V202" s="43" t="s">
-        <v>115</v>
+        <v>1049</v>
+      </c>
+      <c r="U202" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="V202" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="W202" s="2"/>
     </row>
@@ -17520,13 +17499,13 @@
         <v/>
       </c>
       <c r="B203" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C203" s="34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E203" s="74"/>
       <c r="F203" s="6" t="s">
@@ -17537,37 +17516,37 @@
       </c>
       <c r="H203" s="6"/>
       <c r="I203" s="38" t="str">
-        <f>CONCATENATE("c",F203,G203,H203)</f>
+        <f t="shared" si="27"/>
         <v>cD99</v>
       </c>
       <c r="J203" s="38"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N203" s="47" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="O203" s="47"/>
       <c r="P203" s="47"/>
       <c r="Q203" s="55" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="R203" s="59" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="S203" s="65" t="s">
-        <v>644</v>
+        <v>1015</v>
       </c>
       <c r="T203" s="65" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="U203" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="V203" s="49" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="W203" s="2"/>
     </row>
@@ -17577,13 +17556,13 @@
         <v/>
       </c>
       <c r="B204" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C204" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E204" s="74"/>
       <c r="F204" s="6" t="s">
@@ -17594,33 +17573,37 @@
       </c>
       <c r="H204" s="6"/>
       <c r="I204" s="38" t="str">
-        <f>CONCATENATE("c",F204,G204,H204)</f>
+        <f t="shared" si="27"/>
         <v>cD99</v>
       </c>
       <c r="J204" s="38"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
       <c r="M204" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="N204" s="47" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="O204" s="47"/>
       <c r="P204" s="47"/>
       <c r="Q204" s="55" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="R204" s="59" t="s">
-        <v>853</v>
-      </c>
-      <c r="S204" s="65"/>
-      <c r="T204" s="65"/>
+        <v>849</v>
+      </c>
+      <c r="S204" s="65" t="s">
+        <v>640</v>
+      </c>
+      <c r="T204" s="65" t="s">
+        <v>1012</v>
+      </c>
       <c r="U204" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="V204" s="49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W204" s="2"/>
     </row>
@@ -17630,15 +17613,15 @@
         <v/>
       </c>
       <c r="B205" s="2">
-        <v>182</v>
-      </c>
-      <c r="C205" s="34" t="s">
-        <v>118</v>
+        <v>178</v>
+      </c>
+      <c r="C205" s="33" t="s">
+        <v>114</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E205" s="74"/>
+        <v>290</v>
+      </c>
+      <c r="E205" s="71"/>
       <c r="F205" s="6" t="s">
         <v>1131</v>
       </c>
@@ -17647,102 +17630,107 @@
       </c>
       <c r="H205" s="6"/>
       <c r="I205" s="38" t="str">
-        <f>CONCATENATE("c",F205,G205,H205)</f>
+        <f t="shared" si="27"/>
         <v>cD99</v>
       </c>
       <c r="J205" s="38"/>
-      <c r="K205" s="5"/>
-      <c r="L205" s="5"/>
       <c r="M205" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N205" s="47" t="s">
-        <v>486</v>
+        <v>1367</v>
       </c>
       <c r="O205" s="47"/>
       <c r="P205" s="47"/>
       <c r="Q205" s="55" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="R205" s="59" t="s">
-        <v>486</v>
-      </c>
-      <c r="S205" s="65"/>
-      <c r="T205" s="65"/>
+        <v>850</v>
+      </c>
+      <c r="S205" s="65" t="s">
+        <v>642</v>
+      </c>
+      <c r="T205" s="65" t="s">
+        <v>641</v>
+      </c>
       <c r="U205" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="V205" s="49" t="s">
-        <v>118</v>
+        <v>290</v>
+      </c>
+      <c r="V205" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="W205" s="2"/>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="str">
-        <f t="shared" ref="A206:A254" si="27">IF(J206&lt;&gt;"",IF(H206&lt;&gt;"",CONCATENATE("....",F206,".",G206,".",H206,". - ",D206),IF(G206&lt;&gt;"",CONCATENATE("...",F206,".",G206,". - ",D206),CONCATENATE("..",F206,". - ",D206))),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B206" s="2">
-        <v>183</v>
-      </c>
-      <c r="C206" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E206" s="74"/>
+        <v>179</v>
+      </c>
+      <c r="C206" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E206" s="71"/>
       <c r="F206" s="6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G206" s="26">
-        <v>99</v>
+        <v>948</v>
+      </c>
+      <c r="G206" s="26" t="s">
+        <v>948</v>
       </c>
       <c r="H206" s="6"/>
-      <c r="I206" s="38" t="str">
-        <f>CONCATENATE("c",F206,G206,H206)</f>
-        <v>cD99</v>
+      <c r="I206" s="38" t="s">
+        <v>948</v>
       </c>
       <c r="J206" s="38"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
       <c r="M206" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="N206" s="47" t="s">
-        <v>854</v>
-      </c>
-      <c r="O206" s="47"/>
-      <c r="P206" s="47"/>
+        <v>948</v>
+      </c>
+      <c r="N206" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O206" s="19"/>
+      <c r="P206" s="19"/>
       <c r="Q206" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="R206" s="59" t="s">
-        <v>854</v>
-      </c>
-      <c r="S206" s="65"/>
-      <c r="T206" s="65"/>
-      <c r="U206" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="V206" s="49" t="s">
-        <v>119</v>
+        <v>483</v>
+      </c>
+      <c r="R206" s="58" t="s">
+        <v>851</v>
+      </c>
+      <c r="S206" s="65" t="s">
+        <v>643</v>
+      </c>
+      <c r="T206" s="65" t="s">
+        <v>675</v>
+      </c>
+      <c r="U206" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="V206" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B207" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C207" s="34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E207" s="74"/>
       <c r="F207" s="6" t="s">
@@ -17757,285 +17745,271 @@
         <v>cD99</v>
       </c>
       <c r="J207" s="38"/>
-      <c r="K207" s="5" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L207" s="5" t="s">
-        <v>1206</v>
-      </c>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
       <c r="M207" s="5" t="s">
-        <v>1180</v>
+        <v>484</v>
       </c>
       <c r="N207" s="47" t="s">
-        <v>1181</v>
+        <v>852</v>
       </c>
       <c r="O207" s="47"/>
       <c r="P207" s="47"/>
       <c r="Q207" s="55" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="R207" s="59" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="S207" s="65" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T207" s="65" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="U207" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="V207" s="49" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="W207" s="2"/>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...D.12. - Congenital anomalies</v>
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="B208" s="2">
-        <v>185</v>
-      </c>
-      <c r="C208" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E208" s="71"/>
+        <v>181</v>
+      </c>
+      <c r="C208" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E208" s="74"/>
       <c r="F208" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G208" s="26" t="s">
-        <v>1142</v>
+      <c r="G208" s="26">
+        <v>99</v>
       </c>
       <c r="H208" s="6"/>
-      <c r="I208" s="38" t="s">
-        <v>948</v>
-      </c>
-      <c r="J208" s="38" t="str">
-        <f>CONCATENATE(F208,G208,H208)</f>
-        <v>D12</v>
-      </c>
+      <c r="I208" s="38" t="str">
+        <f>CONCATENATE("c",F208,G208,H208)</f>
+        <v>cD99</v>
+      </c>
+      <c r="J208" s="38"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
       <c r="M208" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N208" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O208" s="19"/>
-      <c r="P208" s="19"/>
+        <v>485</v>
+      </c>
+      <c r="N208" s="47" t="s">
+        <v>853</v>
+      </c>
+      <c r="O208" s="47"/>
+      <c r="P208" s="47"/>
       <c r="Q208" s="55" t="s">
-        <v>489</v>
-      </c>
-      <c r="R208" s="58" t="s">
-        <v>856</v>
-      </c>
-      <c r="S208" s="65" t="s">
-        <v>647</v>
-      </c>
-      <c r="T208" s="65" t="s">
-        <v>646</v>
-      </c>
-      <c r="U208" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="V208" s="43" t="s">
-        <v>121</v>
+        <v>485</v>
+      </c>
+      <c r="R208" s="59" t="s">
+        <v>853</v>
+      </c>
+      <c r="S208" s="65"/>
+      <c r="T208" s="65"/>
+      <c r="U208" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="V208" s="49" t="s">
+        <v>117</v>
       </c>
       <c r="W208" s="2"/>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B209" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C209" s="34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E209" s="74"/>
       <c r="F209" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G209" s="26" t="s">
-        <v>1142</v>
+      <c r="G209" s="26">
+        <v>99</v>
       </c>
       <c r="H209" s="6"/>
       <c r="I209" s="38" t="str">
-        <f t="shared" ref="I209:I215" si="28">CONCATENATE("c",F209,G209,H209)</f>
-        <v>cD12</v>
+        <f>CONCATENATE("c",F209,G209,H209)</f>
+        <v>cD99</v>
       </c>
       <c r="J209" s="38"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
       <c r="M209" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N209" s="47" t="s">
-        <v>857</v>
+        <v>486</v>
       </c>
       <c r="O209" s="47"/>
       <c r="P209" s="47"/>
       <c r="Q209" s="55" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="R209" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="S209" s="65" t="s">
-        <v>648</v>
-      </c>
-      <c r="T209" s="65" t="s">
-        <v>1003</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="S209" s="65"/>
+      <c r="T209" s="65"/>
       <c r="U209" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="V209" s="49" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W209" s="2"/>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="A210:A258" si="28">IF(J210&lt;&gt;"",IF(H210&lt;&gt;"",CONCATENATE("....",F210,".",G210,".",H210,". - ",D210),IF(G210&lt;&gt;"",CONCATENATE("...",F210,".",G210,". - ",D210),CONCATENATE("..",F210,". - ",D210))),"")</f>
         <v/>
       </c>
       <c r="B210" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C210" s="34" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E210" s="74"/>
       <c r="F210" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G210" s="26" t="s">
-        <v>1142</v>
+      <c r="G210" s="26">
+        <v>99</v>
       </c>
       <c r="H210" s="6"/>
       <c r="I210" s="38" t="str">
-        <f t="shared" si="28"/>
-        <v>cD12</v>
+        <f>CONCATENATE("c",F210,G210,H210)</f>
+        <v>cD99</v>
       </c>
       <c r="J210" s="38"/>
       <c r="K210" s="5"/>
       <c r="L210" s="5"/>
       <c r="M210" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N210" s="47" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="O210" s="47"/>
       <c r="P210" s="47"/>
       <c r="Q210" s="55" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="R210" s="59" t="s">
-        <v>858</v>
-      </c>
-      <c r="S210" s="65" t="s">
-        <v>649</v>
-      </c>
-      <c r="T210" s="65" t="s">
-        <v>1008</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="S210" s="65"/>
+      <c r="T210" s="65"/>
       <c r="U210" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="V210" s="49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B211" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C211" s="34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E211" s="74"/>
       <c r="F211" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G211" s="26" t="s">
-        <v>1142</v>
+      <c r="G211" s="26">
+        <v>99</v>
       </c>
       <c r="H211" s="6"/>
       <c r="I211" s="38" t="str">
-        <f t="shared" si="28"/>
-        <v>cD12</v>
+        <f>CONCATENATE("c",F211,G211,H211)</f>
+        <v>cD99</v>
       </c>
       <c r="J211" s="38"/>
-      <c r="K211" s="5"/>
-      <c r="L211" s="5"/>
+      <c r="K211" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L211" s="5" t="s">
+        <v>1206</v>
+      </c>
       <c r="M211" s="5" t="s">
-        <v>492</v>
+        <v>1180</v>
       </c>
       <c r="N211" s="47" t="s">
-        <v>492</v>
+        <v>1181</v>
       </c>
       <c r="O211" s="47"/>
       <c r="P211" s="47"/>
       <c r="Q211" s="55" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="R211" s="59" t="s">
-        <v>492</v>
-      </c>
-      <c r="S211" s="67">
-        <v>758</v>
-      </c>
-      <c r="T211" s="67">
-        <v>758</v>
+        <v>855</v>
+      </c>
+      <c r="S211" s="65" t="s">
+        <v>645</v>
+      </c>
+      <c r="T211" s="65" t="s">
+        <v>1011</v>
       </c>
       <c r="U211" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="V211" s="49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="W211" s="2"/>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="28"/>
+        <v>...D.12. - Congenital anomalies</v>
       </c>
       <c r="B212" s="2">
-        <v>189</v>
-      </c>
-      <c r="C212" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E212" s="74"/>
+        <v>185</v>
+      </c>
+      <c r="C212" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E212" s="71"/>
       <c r="F212" s="6" t="s">
         <v>1131</v>
       </c>
@@ -18043,54 +18017,56 @@
         <v>1142</v>
       </c>
       <c r="H212" s="6"/>
-      <c r="I212" s="38" t="str">
-        <f t="shared" si="28"/>
-        <v>cD12</v>
-      </c>
-      <c r="J212" s="38"/>
+      <c r="I212" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="J212" s="38" t="str">
+        <f>CONCATENATE(F212,G212,H212)</f>
+        <v>D12</v>
+      </c>
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
       <c r="M212" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="N212" s="47" t="s">
-        <v>859</v>
-      </c>
-      <c r="O212" s="47"/>
-      <c r="P212" s="47"/>
+        <v>948</v>
+      </c>
+      <c r="N212" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O212" s="19"/>
+      <c r="P212" s="19"/>
       <c r="Q212" s="55" t="s">
-        <v>493</v>
-      </c>
-      <c r="R212" s="59" t="s">
-        <v>859</v>
+        <v>489</v>
+      </c>
+      <c r="R212" s="58" t="s">
+        <v>856</v>
       </c>
       <c r="S212" s="65" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="T212" s="65" t="s">
-        <v>1006</v>
-      </c>
-      <c r="U212" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="V212" s="49" t="s">
-        <v>125</v>
+        <v>646</v>
+      </c>
+      <c r="U212" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="V212" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B213" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C213" s="34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E213" s="74"/>
       <c r="F213" s="6" t="s">
@@ -18101,53 +18077,53 @@
       </c>
       <c r="H213" s="6"/>
       <c r="I213" s="38" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I213:I219" si="29">CONCATENATE("c",F213,G213,H213)</f>
         <v>cD12</v>
       </c>
       <c r="J213" s="38"/>
       <c r="K213" s="5"/>
       <c r="L213" s="5"/>
       <c r="M213" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N213" s="47" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="O213" s="47"/>
       <c r="P213" s="47"/>
       <c r="Q213" s="55" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="R213" s="59" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="S213" s="65" t="s">
-        <v>1004</v>
+        <v>648</v>
       </c>
       <c r="T213" s="65" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="U213" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="V213" s="49" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B214" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C214" s="34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E214" s="74"/>
       <c r="F214" s="6" t="s">
@@ -18158,777 +18134,791 @@
       </c>
       <c r="H214" s="6"/>
       <c r="I214" s="38" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>cD12</v>
       </c>
       <c r="J214" s="38"/>
       <c r="K214" s="5"/>
       <c r="L214" s="5"/>
       <c r="M214" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N214" s="47" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="O214" s="47"/>
       <c r="P214" s="47"/>
       <c r="Q214" s="55" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="R214" s="59" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="S214" s="65" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="T214" s="65" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="U214" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="V214" s="49" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="W214" s="2"/>
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...D.13. - Urinary tract infection</v>
-      </c>
-      <c r="B215" s="2"/>
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="B215" s="2">
+        <v>188</v>
+      </c>
       <c r="C215" s="34" t="s">
-        <v>1513</v>
+        <v>124</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1513</v>
+        <v>300</v>
       </c>
       <c r="E215" s="74"/>
       <c r="F215" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="G215" s="26" t="s">
-        <v>1504</v>
+        <v>1142</v>
       </c>
       <c r="H215" s="6"/>
       <c r="I215" s="38" t="str">
-        <f t="shared" si="28"/>
-        <v>cD13</v>
-      </c>
-      <c r="J215" s="38" t="str">
-        <f>CONCATENATE(F215,G215,H215)</f>
-        <v>D13</v>
-      </c>
-      <c r="K215" s="5" t="s">
-        <v>1555</v>
-      </c>
-      <c r="L215" s="5" t="s">
-        <v>1516</v>
-      </c>
+        <f t="shared" si="29"/>
+        <v>cD12</v>
+      </c>
+      <c r="J215" s="38"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="5"/>
       <c r="M215" s="5" t="s">
-        <v>1552</v>
+        <v>492</v>
       </c>
       <c r="N215" s="47" t="s">
-        <v>1551</v>
+        <v>492</v>
       </c>
       <c r="O215" s="47"/>
       <c r="P215" s="47"/>
-      <c r="Q215" s="55"/>
-      <c r="R215" s="59"/>
-      <c r="S215" s="65"/>
-      <c r="T215" s="65"/>
-      <c r="U215" s="5"/>
-      <c r="V215" s="49"/>
+      <c r="Q215" s="55" t="s">
+        <v>492</v>
+      </c>
+      <c r="R215" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="S215" s="67">
+        <v>758</v>
+      </c>
+      <c r="T215" s="67">
+        <v>758</v>
+      </c>
+      <c r="U215" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="V215" s="49" t="s">
+        <v>124</v>
+      </c>
       <c r="W215" s="2"/>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B216" s="2">
-        <v>192</v>
-      </c>
-      <c r="C216" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E216" s="71"/>
+        <v>189</v>
+      </c>
+      <c r="C216" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E216" s="74"/>
       <c r="F216" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="G216" s="26"/>
+        <v>1131</v>
+      </c>
+      <c r="G216" s="26" t="s">
+        <v>1142</v>
+      </c>
       <c r="H216" s="6"/>
-      <c r="I216" s="38" t="s">
-        <v>948</v>
+      <c r="I216" s="38" t="str">
+        <f t="shared" si="29"/>
+        <v>cD12</v>
       </c>
       <c r="J216" s="38"/>
       <c r="K216" s="5"/>
       <c r="L216" s="5"/>
       <c r="M216" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N216" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O216" s="19"/>
-      <c r="P216" s="19"/>
+        <v>493</v>
+      </c>
+      <c r="N216" s="47" t="s">
+        <v>859</v>
+      </c>
+      <c r="O216" s="47"/>
+      <c r="P216" s="47"/>
       <c r="Q216" s="55" t="s">
-        <v>496</v>
-      </c>
-      <c r="R216" s="58" t="s">
-        <v>862</v>
-      </c>
-      <c r="S216" s="65"/>
-      <c r="T216" s="65"/>
-      <c r="U216" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="V216" s="43" t="s">
-        <v>128</v>
+        <v>493</v>
+      </c>
+      <c r="R216" s="59" t="s">
+        <v>859</v>
+      </c>
+      <c r="S216" s="65" t="s">
+        <v>650</v>
+      </c>
+      <c r="T216" s="65" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U216" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="V216" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B217" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C217" s="34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E217" s="74"/>
       <c r="F217" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G217" s="26">
-        <v>99</v>
+      <c r="G217" s="26" t="s">
+        <v>1142</v>
       </c>
       <c r="H217" s="6"/>
       <c r="I217" s="38" t="str">
-        <f>CONCATENATE("c",F217,G217,H217)</f>
-        <v>cD99</v>
+        <f t="shared" si="29"/>
+        <v>cD12</v>
       </c>
       <c r="J217" s="38"/>
       <c r="K217" s="5"/>
       <c r="L217" s="5"/>
       <c r="M217" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="N217" s="19" t="s">
-        <v>863</v>
-      </c>
-      <c r="O217" s="19"/>
-      <c r="P217" s="19"/>
+        <v>494</v>
+      </c>
+      <c r="N217" s="47" t="s">
+        <v>860</v>
+      </c>
+      <c r="O217" s="47"/>
+      <c r="P217" s="47"/>
       <c r="Q217" s="55" t="s">
-        <v>863</v>
-      </c>
-      <c r="R217" s="60" t="s">
-        <v>863</v>
-      </c>
-      <c r="S217" s="65"/>
-      <c r="T217" s="65"/>
+        <v>494</v>
+      </c>
+      <c r="R217" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="S217" s="65" t="s">
+        <v>1004</v>
+      </c>
+      <c r="T217" s="65" t="s">
+        <v>1005</v>
+      </c>
       <c r="U217" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V217" s="49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B218" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C218" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E218" s="74"/>
       <c r="F218" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G218" s="26">
-        <v>99</v>
+      <c r="G218" s="26" t="s">
+        <v>1142</v>
       </c>
       <c r="H218" s="6"/>
       <c r="I218" s="38" t="str">
-        <f>CONCATENATE("c",F218,G218,H218)</f>
-        <v>cD99</v>
+        <f t="shared" si="29"/>
+        <v>cD12</v>
       </c>
       <c r="J218" s="38"/>
       <c r="K218" s="5"/>
       <c r="L218" s="5"/>
       <c r="M218" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N218" s="47" t="s">
-        <v>497</v>
+        <v>861</v>
       </c>
       <c r="O218" s="47"/>
       <c r="P218" s="47"/>
       <c r="Q218" s="55" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R218" s="59" t="s">
-        <v>497</v>
-      </c>
-      <c r="S218" s="65"/>
-      <c r="T218" s="65"/>
+        <v>861</v>
+      </c>
+      <c r="S218" s="65" t="s">
+        <v>651</v>
+      </c>
+      <c r="T218" s="65" t="s">
+        <v>1007</v>
+      </c>
       <c r="U218" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V218" s="49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W218" s="2"/>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="B219" s="2">
-        <v>195</v>
-      </c>
+        <f t="shared" si="28"/>
+        <v>...D.13. - Urinary tract infection</v>
+      </c>
+      <c r="B219" s="2"/>
       <c r="C219" s="34" t="s">
-        <v>131</v>
+        <v>1510</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>307</v>
+        <v>1510</v>
       </c>
       <c r="E219" s="74"/>
       <c r="F219" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G219" s="26">
-        <v>99</v>
+      <c r="G219" s="26" t="s">
+        <v>1501</v>
       </c>
       <c r="H219" s="6"/>
       <c r="I219" s="38" t="str">
-        <f>CONCATENATE("c",F219,G219,H219)</f>
-        <v>cD99</v>
-      </c>
-      <c r="J219" s="38"/>
-      <c r="K219" s="5"/>
-      <c r="L219" s="5"/>
+        <f t="shared" si="29"/>
+        <v>cD13</v>
+      </c>
+      <c r="J219" s="38" t="str">
+        <f>CONCATENATE(F219,G219,H219)</f>
+        <v>D13</v>
+      </c>
+      <c r="K219" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L219" s="5" t="s">
+        <v>1513</v>
+      </c>
       <c r="M219" s="5" t="s">
-        <v>498</v>
+        <v>1549</v>
       </c>
       <c r="N219" s="47" t="s">
-        <v>864</v>
+        <v>1548</v>
       </c>
       <c r="O219" s="47"/>
       <c r="P219" s="47"/>
-      <c r="Q219" s="55" t="s">
-        <v>498</v>
-      </c>
-      <c r="R219" s="59" t="s">
-        <v>864</v>
-      </c>
+      <c r="Q219" s="55"/>
+      <c r="R219" s="59"/>
       <c r="S219" s="65"/>
       <c r="T219" s="65"/>
-      <c r="U219" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="V219" s="49" t="s">
-        <v>131</v>
-      </c>
+      <c r="U219" s="5"/>
+      <c r="V219" s="49"/>
       <c r="W219" s="2"/>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B220" s="2">
-        <v>196</v>
-      </c>
-      <c r="C220" s="34" t="s">
-        <v>742</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="E220" s="74"/>
+        <v>192</v>
+      </c>
+      <c r="C220" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E220" s="71"/>
       <c r="F220" s="6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G220" s="26">
-        <v>99</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="G220" s="26"/>
       <c r="H220" s="6"/>
-      <c r="I220" s="38" t="str">
-        <f>CONCATENATE("c",F220,G220,H220)</f>
-        <v>cD99</v>
+      <c r="I220" s="38" t="s">
+        <v>948</v>
       </c>
       <c r="J220" s="38"/>
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
       <c r="M220" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="N220" s="47" t="s">
-        <v>865</v>
-      </c>
-      <c r="O220" s="47"/>
-      <c r="P220" s="47"/>
+        <v>948</v>
+      </c>
+      <c r="N220" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O220" s="19"/>
+      <c r="P220" s="19"/>
       <c r="Q220" s="55" t="s">
-        <v>988</v>
-      </c>
-      <c r="R220" s="59" t="s">
-        <v>865</v>
+        <v>496</v>
+      </c>
+      <c r="R220" s="58" t="s">
+        <v>862</v>
       </c>
       <c r="S220" s="65"/>
       <c r="T220" s="65"/>
-      <c r="U220" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="V220" s="49" t="s">
-        <v>742</v>
+      <c r="U220" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V220" s="43" t="s">
+        <v>128</v>
       </c>
       <c r="W220" s="2"/>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="str">
-        <f>IF(J221&lt;&gt;"",IF(H221&lt;&gt;"",CONCATENATE("....",F221,".",G221,".",H221,". - ",D221),IF(G221&lt;&gt;"",CONCATENATE("...",F221,".",G221,". - ",D221),CONCATENATE("..",F221,". - ",D221))),"")</f>
-        <v>...D.99. - Other Chronic Conditions</v>
-      </c>
-      <c r="D221" s="46" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F221" s="52" t="s">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="B221" s="2">
+        <v>193</v>
+      </c>
+      <c r="C221" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E221" s="74"/>
+      <c r="F221" s="6" t="s">
         <v>1131</v>
       </c>
-      <c r="G221" s="51" t="s">
-        <v>1202</v>
-      </c>
-      <c r="I221" s="41"/>
-      <c r="J221" s="38" t="str">
-        <f>CONCATENATE(F221,G221,H221)</f>
-        <v>D99</v>
-      </c>
-      <c r="K221" s="79" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="222" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+      <c r="G221" s="26">
+        <v>99</v>
+      </c>
+      <c r="H221" s="6"/>
+      <c r="I221" s="38" t="str">
+        <f>CONCATENATE("c",F221,G221,H221)</f>
+        <v>cD99</v>
+      </c>
+      <c r="J221" s="38"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N221" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="O221" s="19"/>
+      <c r="P221" s="19"/>
+      <c r="Q221" s="55" t="s">
+        <v>863</v>
+      </c>
+      <c r="R221" s="60" t="s">
+        <v>863</v>
+      </c>
+      <c r="S221" s="65"/>
+      <c r="T221" s="65"/>
+      <c r="U221" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="V221" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="W221" s="2"/>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>..E. - Injuries</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="B222" s="2">
-        <v>197</v>
-      </c>
-      <c r="C222" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E222" s="71"/>
-      <c r="F222" s="25" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G222" s="26"/>
+        <v>194</v>
+      </c>
+      <c r="C222" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E222" s="74"/>
+      <c r="F222" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G222" s="26">
+        <v>99</v>
+      </c>
       <c r="H222" s="6"/>
-      <c r="I222" s="38"/>
-      <c r="J222" s="38" t="str">
-        <f>CONCATENATE(F222,G222,H222)</f>
-        <v>E</v>
-      </c>
+      <c r="I222" s="38" t="str">
+        <f>CONCATENATE("c",F222,G222,H222)</f>
+        <v>cD99</v>
+      </c>
+      <c r="J222" s="38"/>
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
       <c r="M222" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N222" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O222" s="19"/>
-      <c r="P222" s="19"/>
+        <v>497</v>
+      </c>
+      <c r="N222" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="O222" s="47"/>
+      <c r="P222" s="47"/>
       <c r="Q222" s="55" t="s">
-        <v>989</v>
-      </c>
-      <c r="R222" s="58" t="s">
-        <v>1110</v>
-      </c>
-      <c r="S222" s="68" t="s">
-        <v>1337</v>
-      </c>
-      <c r="T222" s="65" t="s">
-        <v>652</v>
-      </c>
-      <c r="U222" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="V222" s="43" t="s">
-        <v>132</v>
+        <v>497</v>
+      </c>
+      <c r="R222" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="S222" s="65"/>
+      <c r="T222" s="65"/>
+      <c r="U222" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="V222" s="49" t="s">
+        <v>130</v>
       </c>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B223" s="2">
-        <v>198</v>
-      </c>
-      <c r="C223" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E223" s="71"/>
+        <v>195</v>
+      </c>
+      <c r="C223" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E223" s="74"/>
       <c r="F223" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="G223" s="26" t="s">
-        <v>948</v>
+        <v>1131</v>
+      </c>
+      <c r="G223" s="26">
+        <v>99</v>
       </c>
       <c r="H223" s="6"/>
-      <c r="I223" s="38"/>
+      <c r="I223" s="38" t="str">
+        <f>CONCATENATE("c",F223,G223,H223)</f>
+        <v>cD99</v>
+      </c>
       <c r="J223" s="38"/>
       <c r="K223" s="5"/>
       <c r="L223" s="5"/>
       <c r="M223" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N223" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O223" s="19"/>
-      <c r="P223" s="19"/>
+        <v>498</v>
+      </c>
+      <c r="N223" s="47" t="s">
+        <v>864</v>
+      </c>
+      <c r="O223" s="47"/>
+      <c r="P223" s="47"/>
       <c r="Q223" s="55" t="s">
-        <v>990</v>
-      </c>
-      <c r="R223" s="58" t="s">
-        <v>1109</v>
-      </c>
-      <c r="S223" s="65" t="s">
-        <v>653</v>
-      </c>
-      <c r="T223" s="65" t="s">
-        <v>674</v>
-      </c>
-      <c r="U223" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="V223" s="43" t="s">
-        <v>133</v>
+        <v>498</v>
+      </c>
+      <c r="R223" s="59" t="s">
+        <v>864</v>
+      </c>
+      <c r="S223" s="65"/>
+      <c r="T223" s="65"/>
+      <c r="U223" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="V223" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...E.01. - Road injury</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="B224" s="2">
-        <v>199</v>
-      </c>
-      <c r="C224" s="30" t="s">
-        <v>134</v>
+        <v>196</v>
+      </c>
+      <c r="C224" s="34" t="s">
+        <v>742</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E224" s="71"/>
+        <v>878</v>
+      </c>
+      <c r="E224" s="74"/>
       <c r="F224" s="6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G224" s="26" t="s">
-        <v>1133</v>
+        <v>1131</v>
+      </c>
+      <c r="G224" s="26">
+        <v>99</v>
       </c>
       <c r="H224" s="6"/>
       <c r="I224" s="38" t="str">
-        <f t="shared" ref="I224:I242" si="29">CONCATENATE("c",F224,G224,H224)</f>
-        <v>cE01</v>
-      </c>
-      <c r="J224" s="38" t="str">
-        <f>CONCATENATE(F224,G224,H224)</f>
-        <v>E01</v>
-      </c>
-      <c r="K224" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="L224" s="5" t="s">
-        <v>1149</v>
-      </c>
+        <f>CONCATENATE("c",F224,G224,H224)</f>
+        <v>cD99</v>
+      </c>
+      <c r="J224" s="38"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
       <c r="M224" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N224" s="19" t="s">
-        <v>1177</v>
-      </c>
-      <c r="O224" s="19"/>
-      <c r="P224" s="19"/>
+        <v>988</v>
+      </c>
+      <c r="N224" s="47" t="s">
+        <v>865</v>
+      </c>
+      <c r="O224" s="47"/>
+      <c r="P224" s="47"/>
       <c r="Q224" s="55" t="s">
-        <v>499</v>
+        <v>988</v>
       </c>
       <c r="R224" s="59" t="s">
-        <v>866</v>
-      </c>
-      <c r="S224" s="65" t="s">
-        <v>654</v>
-      </c>
-      <c r="T224" s="65" t="s">
-        <v>1000</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="S224" s="65"/>
+      <c r="T224" s="65"/>
       <c r="U224" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="V224" s="43" t="s">
-        <v>134</v>
+        <v>878</v>
+      </c>
+      <c r="V224" s="49" t="s">
+        <v>742</v>
       </c>
       <c r="W224" s="2"/>
     </row>
-    <row r="225" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...E.02. - Drug overdose (poisoning/substance use disorders)</v>
-      </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="30" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E225" s="71" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F225" s="6" t="s">
+        <f>IF(J225&lt;&gt;"",IF(H225&lt;&gt;"",CONCATENATE("....",F225,".",G225,".",H225,". - ",D225),IF(G225&lt;&gt;"",CONCATENATE("...",F225,".",G225,". - ",D225),CONCATENATE("..",F225,". - ",D225))),"")</f>
+        <v>...D.99. - Other Chronic Conditions</v>
+      </c>
+      <c r="D225" s="46" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F225" s="52" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G225" s="51" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I225" s="41"/>
+      <c r="J225" s="38" t="str">
+        <f>CONCATENATE(F225,G225,H225)</f>
+        <v>D99</v>
+      </c>
+      <c r="K225" s="79" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+      <c r="A226" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>..E. - Injuries</v>
+      </c>
+      <c r="B226" s="2">
+        <v>197</v>
+      </c>
+      <c r="C226" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E226" s="71"/>
+      <c r="F226" s="25" t="s">
         <v>1132</v>
       </c>
-      <c r="G225" s="26" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H225" s="6"/>
-      <c r="I225" s="38" t="str">
-        <f t="shared" si="29"/>
-        <v>cE02</v>
-      </c>
-      <c r="J225" s="38" t="str">
-        <f t="shared" ref="J225:J235" si="30">CONCATENATE(F225,G225,H225)</f>
-        <v>E02</v>
-      </c>
-      <c r="K225" s="76" t="s">
-        <v>1411</v>
-      </c>
-      <c r="L225" s="5"/>
-      <c r="M225" s="5" t="s">
-        <v>1345</v>
-      </c>
-      <c r="N225" s="19" t="s">
-        <v>1364</v>
-      </c>
-      <c r="O225" s="19"/>
-      <c r="P225" s="19"/>
-      <c r="Q225" s="55"/>
-      <c r="R225" s="59"/>
-      <c r="S225" s="65"/>
-      <c r="T225" s="65"/>
-      <c r="U225" s="5"/>
-      <c r="V225" s="43"/>
-      <c r="W225" s="2"/>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A226" s="16" t="str">
-        <f t="shared" ref="A226:A234" si="31">IF(J226&lt;&gt;"",IF(H226&lt;&gt;"",CONCATENATE("....",F226,".",G226,".",H226,". - ",D226),IF(G226&lt;&gt;"",CONCATENATE("...",F226,".",G226,". - ",D226),CONCATENATE("..",F226,". - ",D226))),"")</f>
-        <v/>
-      </c>
-      <c r="B226" s="2">
-        <v>117</v>
-      </c>
-      <c r="C226" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E226" s="74"/>
-      <c r="F226" s="6"/>
       <c r="G226" s="26"/>
       <c r="H226" s="6"/>
       <c r="I226" s="38"/>
-      <c r="J226" s="38"/>
+      <c r="J226" s="38" t="str">
+        <f>CONCATENATE(F226,G226,H226)</f>
+        <v>E</v>
+      </c>
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
       <c r="M226" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="N226" s="47" t="s">
+      <c r="N226" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="O226" s="47"/>
-      <c r="P226" s="47"/>
+      <c r="O226" s="19"/>
+      <c r="P226" s="19"/>
       <c r="Q226" s="55" t="s">
-        <v>978</v>
-      </c>
-      <c r="R226" s="59" t="s">
-        <v>797</v>
-      </c>
-      <c r="S226" s="65" t="s">
-        <v>599</v>
+        <v>989</v>
+      </c>
+      <c r="R226" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="S226" s="68" t="s">
+        <v>1337</v>
       </c>
       <c r="T226" s="65" t="s">
-        <v>1099</v>
-      </c>
-      <c r="U226" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="V226" s="49" t="s">
-        <v>71</v>
+        <v>652</v>
+      </c>
+      <c r="U226" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="V226" s="43" t="s">
+        <v>132</v>
       </c>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B227" s="2">
-        <v>118</v>
-      </c>
-      <c r="C227" s="32" t="s">
-        <v>666</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>905</v>
+        <v>198</v>
+      </c>
+      <c r="C227" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="E227" s="71"/>
       <c r="F227" s="6" t="s">
-        <v>1132</v>
+        <v>948</v>
       </c>
       <c r="G227" s="26" t="s">
-        <v>1134</v>
+        <v>948</v>
       </c>
       <c r="H227" s="6"/>
-      <c r="I227" s="38" t="str">
-        <f t="shared" ref="I227:I234" si="32">CONCATENATE("c",F227,G227,H227)</f>
-        <v>cE02</v>
-      </c>
+      <c r="I227" s="38"/>
       <c r="J227" s="38"/>
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
       <c r="M227" s="5" t="s">
-        <v>1329</v>
-      </c>
-      <c r="N227" s="47" t="s">
-        <v>1329</v>
-      </c>
-      <c r="O227" s="47"/>
-      <c r="P227" s="47"/>
+        <v>948</v>
+      </c>
+      <c r="N227" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="O227" s="19"/>
+      <c r="P227" s="19"/>
       <c r="Q227" s="55" t="s">
-        <v>979</v>
-      </c>
-      <c r="R227" s="59" t="s">
-        <v>798</v>
+        <v>990</v>
+      </c>
+      <c r="R227" s="58" t="s">
+        <v>1109</v>
       </c>
       <c r="S227" s="65" t="s">
-        <v>600</v>
+        <v>653</v>
       </c>
       <c r="T227" s="65" t="s">
-        <v>1094</v>
-      </c>
-      <c r="U227" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="V227" s="5" t="s">
-        <v>666</v>
+        <v>674</v>
+      </c>
+      <c r="U227" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="V227" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v/>
+        <f t="shared" si="28"/>
+        <v>...E.01. - Road injury</v>
       </c>
       <c r="B228" s="2">
-        <v>119</v>
-      </c>
-      <c r="C228" s="32" t="s">
-        <v>667</v>
+        <v>199</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>906</v>
+        <v>309</v>
       </c>
       <c r="E228" s="71"/>
       <c r="F228" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G228" s="26" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H228" s="6"/>
       <c r="I228" s="38" t="str">
-        <f t="shared" si="32"/>
-        <v>cE02</v>
-      </c>
-      <c r="J228" s="38"/>
-      <c r="K228" s="5"/>
-      <c r="L228" s="5"/>
+        <f t="shared" ref="I228:I246" si="30">CONCATENATE("c",F228,G228,H228)</f>
+        <v>cE01</v>
+      </c>
+      <c r="J228" s="38" t="str">
+        <f>CONCATENATE(F228,G228,H228)</f>
+        <v>E01</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>1149</v>
+      </c>
       <c r="M228" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="N228" s="47" t="s">
-        <v>799</v>
-      </c>
-      <c r="O228" s="47"/>
-      <c r="P228" s="47"/>
+        <v>1176</v>
+      </c>
+      <c r="N228" s="19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="O228" s="19"/>
+      <c r="P228" s="19"/>
       <c r="Q228" s="55" t="s">
-        <v>799</v>
+        <v>499</v>
       </c>
       <c r="R228" s="59" t="s">
-        <v>799</v>
+        <v>866</v>
       </c>
       <c r="S228" s="65" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
       <c r="T228" s="65" t="s">
-        <v>1093</v>
+        <v>1000</v>
       </c>
       <c r="U228" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="V228" s="5" t="s">
-        <v>667</v>
+        <v>309</v>
+      </c>
+      <c r="V228" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="B229" s="2">
-        <v>121</v>
-      </c>
-      <c r="C229" s="32" t="s">
-        <v>725</v>
+        <f t="shared" si="28"/>
+        <v>...E.02. - Drug overdose (poisoning/substance use disorders)</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="30" t="s">
+        <v>1330</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="E229" s="71"/>
+        <v>1410</v>
+      </c>
+      <c r="E229" s="71" t="s">
+        <v>1409</v>
+      </c>
       <c r="F229" s="6" t="s">
         <v>1132</v>
       </c>
@@ -18937,105 +18927,96 @@
       </c>
       <c r="H229" s="6"/>
       <c r="I229" s="38" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>cE02</v>
       </c>
-      <c r="J229" s="38"/>
+      <c r="J229" s="38" t="str">
+        <f t="shared" ref="J229:J239" si="31">CONCATENATE(F229,G229,H229)</f>
+        <v>E02</v>
+      </c>
+      <c r="K229" s="76" t="s">
+        <v>1411</v>
+      </c>
       <c r="L229" s="5"/>
       <c r="M229" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="N229" s="47" t="s">
-        <v>801</v>
-      </c>
-      <c r="O229" s="47"/>
-      <c r="P229" s="47"/>
-      <c r="Q229" s="55" t="s">
-        <v>801</v>
-      </c>
-      <c r="R229" s="59" t="s">
-        <v>801</v>
-      </c>
+        <v>1345</v>
+      </c>
+      <c r="N229" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="O229" s="19"/>
+      <c r="P229" s="19"/>
+      <c r="Q229" s="55"/>
+      <c r="R229" s="59"/>
       <c r="S229" s="65"/>
       <c r="T229" s="65"/>
-      <c r="U229" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="V229" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="U229" s="5"/>
+      <c r="V229" s="43"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="A230:A238" si="32">IF(J230&lt;&gt;"",IF(H230&lt;&gt;"",CONCATENATE("....",F230,".",G230,".",H230,". - ",D230),IF(G230&lt;&gt;"",CONCATENATE("...",F230,".",G230,". - ",D230),CONCATENATE("..",F230,". - ",D230))),"")</f>
         <v/>
       </c>
       <c r="B230" s="2">
-        <v>120</v>
-      </c>
-      <c r="C230" s="32" t="s">
-        <v>724</v>
+        <v>117</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E230" s="71"/>
-      <c r="F230" s="6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G230" s="26" t="s">
-        <v>1134</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="E230" s="74"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="26"/>
       <c r="H230" s="6"/>
-      <c r="I230" s="38" t="str">
-        <f t="shared" si="32"/>
-        <v>cE02</v>
-      </c>
+      <c r="I230" s="38"/>
       <c r="J230" s="38"/>
       <c r="K230" s="5"/>
       <c r="L230" s="5"/>
       <c r="M230" s="5" t="s">
-        <v>800</v>
+        <v>948</v>
       </c>
       <c r="N230" s="47" t="s">
-        <v>800</v>
+        <v>948</v>
       </c>
       <c r="O230" s="47"/>
       <c r="P230" s="47"/>
       <c r="Q230" s="55" t="s">
-        <v>800</v>
+        <v>978</v>
       </c>
       <c r="R230" s="59" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="S230" s="65" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="T230" s="65" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="U230" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="V230" s="5" t="s">
-        <v>724</v>
+        <v>248</v>
+      </c>
+      <c r="V230" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="W230" s="2"/>
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="B231" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>726</v>
+        <v>666</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E231" s="71"/>
       <c r="F231" s="6" t="s">
@@ -19046,544 +19027,551 @@
       </c>
       <c r="H231" s="6"/>
       <c r="I231" s="38" t="str">
+        <f t="shared" ref="I231:I238" si="33">CONCATENATE("c",F231,G231,H231)</f>
+        <v>cE02</v>
+      </c>
+      <c r="J231" s="38"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
+      <c r="M231" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="N231" s="47" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O231" s="47"/>
+      <c r="P231" s="47"/>
+      <c r="Q231" s="55" t="s">
+        <v>979</v>
+      </c>
+      <c r="R231" s="59" t="s">
+        <v>798</v>
+      </c>
+      <c r="S231" s="65" t="s">
+        <v>600</v>
+      </c>
+      <c r="T231" s="65" t="s">
+        <v>1094</v>
+      </c>
+      <c r="U231" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="V231" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="W231" s="2"/>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A232" s="16" t="str">
         <f t="shared" si="32"/>
-        <v>cE02</v>
-      </c>
-      <c r="J231" s="38"/>
-      <c r="K231" s="5" t="s">
-        <v>1414</v>
-      </c>
-      <c r="L231" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="M231" s="5" t="s">
-        <v>1332</v>
-      </c>
-      <c r="N231" s="19" t="s">
-        <v>1333</v>
-      </c>
-      <c r="O231" s="19"/>
-      <c r="P231" s="19"/>
-      <c r="Q231" s="55" t="s">
-        <v>980</v>
-      </c>
-      <c r="R231" s="59" t="s">
-        <v>802</v>
-      </c>
-      <c r="S231" s="65" t="s">
-        <v>603</v>
-      </c>
-      <c r="T231" s="65" t="s">
-        <v>1095</v>
-      </c>
-      <c r="U231" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="V231" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="W231" s="2" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="232" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>...E.03. - Alcohol-related conditions</v>
-      </c>
-      <c r="B232" s="2"/>
-      <c r="C232" s="78" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D232" s="71" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E232" s="71" t="s">
-        <v>1474</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B232" s="2">
+        <v>119</v>
+      </c>
+      <c r="C232" s="32" t="s">
+        <v>667</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="E232" s="71"/>
       <c r="F232" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G232" s="26" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H232" s="6"/>
-      <c r="I232" s="38"/>
-      <c r="J232" s="38" t="str">
-        <f t="shared" si="30"/>
-        <v>E03</v>
-      </c>
+      <c r="I232" s="38" t="str">
+        <f t="shared" si="33"/>
+        <v>cE02</v>
+      </c>
+      <c r="J232" s="38"/>
       <c r="K232" s="5"/>
       <c r="L232" s="5"/>
-      <c r="M232" s="5"/>
-      <c r="N232" s="19"/>
-      <c r="O232" s="19"/>
-      <c r="P232" s="19"/>
-      <c r="Q232" s="55"/>
-      <c r="R232" s="59"/>
-      <c r="S232" s="65"/>
-      <c r="T232" s="65"/>
-      <c r="U232" s="5"/>
-      <c r="V232" s="5"/>
+      <c r="M232" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="N232" s="47" t="s">
+        <v>799</v>
+      </c>
+      <c r="O232" s="47"/>
+      <c r="P232" s="47"/>
+      <c r="Q232" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="R232" s="59" t="s">
+        <v>799</v>
+      </c>
+      <c r="S232" s="65" t="s">
+        <v>601</v>
+      </c>
+      <c r="T232" s="65" t="s">
+        <v>1093</v>
+      </c>
+      <c r="U232" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="V232" s="5" t="s">
+        <v>667</v>
+      </c>
       <c r="W232" s="2"/>
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>....E.03.a. - Alcoholic liver disease</v>
-      </c>
-      <c r="B233" s="2"/>
-      <c r="C233" s="78" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D233" s="71" t="s">
-        <v>1466</v>
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="B233" s="2">
+        <v>121</v>
+      </c>
+      <c r="C233" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>908</v>
       </c>
       <c r="E233" s="71"/>
       <c r="F233" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G233" s="26" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H233" s="6" t="s">
-        <v>1120</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="H233" s="6"/>
       <c r="I233" s="38" t="str">
-        <f t="shared" si="32"/>
-        <v>cE03a</v>
-      </c>
-      <c r="J233" s="38" t="str">
-        <f t="shared" si="30"/>
-        <v>E03a</v>
-      </c>
-      <c r="K233" s="5" t="s">
-        <v>1478</v>
-      </c>
-      <c r="L233" s="5" t="s">
-        <v>1464</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>cE02</v>
+      </c>
+      <c r="J233" s="38"/>
+      <c r="L233" s="5"/>
       <c r="M233" s="5" t="s">
-        <v>1469</v>
-      </c>
-      <c r="N233" s="19" t="s">
-        <v>1468</v>
-      </c>
-      <c r="O233" s="19"/>
-      <c r="P233" s="19"/>
-      <c r="Q233" s="55"/>
-      <c r="R233" s="59"/>
+        <v>801</v>
+      </c>
+      <c r="N233" s="47" t="s">
+        <v>801</v>
+      </c>
+      <c r="O233" s="47"/>
+      <c r="P233" s="47"/>
+      <c r="Q233" s="55" t="s">
+        <v>801</v>
+      </c>
+      <c r="R233" s="59" t="s">
+        <v>801</v>
+      </c>
       <c r="S233" s="65"/>
       <c r="T233" s="65"/>
-      <c r="U233" s="5"/>
-      <c r="V233" s="5"/>
+      <c r="U233" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="V233" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>....E.03.b. - Other alcohol-related</v>
-      </c>
-      <c r="B234" s="2"/>
-      <c r="C234" s="78" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D234" s="71" t="s">
-        <v>1467</v>
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="B234" s="2">
+        <v>120</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>724</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>1413</v>
       </c>
       <c r="E234" s="71"/>
       <c r="F234" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G234" s="26" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H234" s="6" t="s">
-        <v>1121</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="H234" s="6"/>
       <c r="I234" s="38" t="str">
-        <f t="shared" si="32"/>
-        <v>cE03b</v>
-      </c>
-      <c r="J234" s="38" t="str">
-        <f t="shared" si="30"/>
-        <v>E03b</v>
-      </c>
-      <c r="K234" s="62" t="s">
-        <v>1479</v>
-      </c>
-      <c r="L234" s="5" t="s">
-        <v>1470</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>cE02</v>
+      </c>
+      <c r="J234" s="38"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="5"/>
       <c r="M234" s="5" t="s">
-        <v>1472</v>
-      </c>
-      <c r="N234" s="19" t="s">
-        <v>1471</v>
-      </c>
-      <c r="O234" s="19"/>
-      <c r="P234" s="19"/>
-      <c r="Q234" s="55"/>
-      <c r="R234" s="59"/>
-      <c r="S234" s="65"/>
-      <c r="T234" s="65"/>
-      <c r="U234" s="5"/>
-      <c r="V234" s="5"/>
+        <v>800</v>
+      </c>
+      <c r="N234" s="47" t="s">
+        <v>800</v>
+      </c>
+      <c r="O234" s="47"/>
+      <c r="P234" s="47"/>
+      <c r="Q234" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="R234" s="59" t="s">
+        <v>800</v>
+      </c>
+      <c r="S234" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="T234" s="65" t="s">
+        <v>1092</v>
+      </c>
+      <c r="U234" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="V234" s="5" t="s">
+        <v>724</v>
+      </c>
       <c r="W234" s="2"/>
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...E.04. - Poisonings (non-drug)</v>
+        <f t="shared" si="32"/>
+        <v/>
       </c>
       <c r="B235" s="2">
-        <v>200</v>
-      </c>
-      <c r="C235" s="30" t="s">
-        <v>1331</v>
+        <v>122</v>
+      </c>
+      <c r="C235" s="32" t="s">
+        <v>726</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1343</v>
+        <v>909</v>
       </c>
       <c r="E235" s="71"/>
       <c r="F235" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G235" s="26" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="38" t="str">
-        <f t="shared" si="29"/>
-        <v>cE04</v>
-      </c>
-      <c r="J235" s="38" t="str">
-        <f t="shared" si="30"/>
-        <v>E04</v>
-      </c>
-      <c r="K235" s="5"/>
+        <f t="shared" si="33"/>
+        <v>cE02</v>
+      </c>
+      <c r="J235" s="38"/>
+      <c r="K235" s="5" t="s">
+        <v>1414</v>
+      </c>
       <c r="L235" s="5" t="s">
-        <v>1344</v>
+        <v>1149</v>
       </c>
       <c r="M235" s="5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="N235" s="47" t="s">
-        <v>1347</v>
-      </c>
-      <c r="O235" s="47"/>
-      <c r="P235" s="47"/>
+        <v>1332</v>
+      </c>
+      <c r="N235" s="19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="O235" s="19"/>
+      <c r="P235" s="19"/>
       <c r="Q235" s="55" t="s">
-        <v>1111</v>
+        <v>980</v>
       </c>
       <c r="R235" s="59" t="s">
-        <v>1112</v>
+        <v>802</v>
       </c>
       <c r="S235" s="65" t="s">
-        <v>655</v>
+        <v>603</v>
       </c>
       <c r="T235" s="65" t="s">
-        <v>1002</v>
+        <v>1095</v>
       </c>
       <c r="U235" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="V235" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="W235" s="2"/>
+        <v>909</v>
+      </c>
+      <c r="V235" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="W235" s="2" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...E.05. - Falls</v>
-      </c>
-      <c r="B236" s="2">
-        <v>201</v>
-      </c>
-      <c r="C236" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E236" s="71"/>
+        <f t="shared" si="32"/>
+        <v>...E.03. - Alcohol-related conditions</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="78" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D236" s="71" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E236" s="71" t="s">
+        <v>1471</v>
+      </c>
       <c r="F236" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G236" s="26" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H236" s="6"/>
-      <c r="I236" s="38" t="str">
-        <f t="shared" si="29"/>
-        <v>cE05</v>
-      </c>
+      <c r="I236" s="38"/>
       <c r="J236" s="38" t="str">
-        <f>CONCATENATE(F236,G236,H236)</f>
-        <v>E05</v>
-      </c>
-      <c r="K236" s="5" t="s">
-        <v>948</v>
-      </c>
+        <f t="shared" si="31"/>
+        <v>E03</v>
+      </c>
+      <c r="K236" s="5"/>
       <c r="L236" s="5"/>
-      <c r="M236" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="N236" s="47" t="s">
-        <v>867</v>
-      </c>
-      <c r="O236" s="47"/>
-      <c r="P236" s="47"/>
-      <c r="Q236" s="55" t="s">
-        <v>500</v>
-      </c>
-      <c r="R236" s="59" t="s">
-        <v>867</v>
-      </c>
-      <c r="S236" s="65" t="s">
-        <v>656</v>
-      </c>
-      <c r="T236" s="65" t="s">
-        <v>1001</v>
-      </c>
-      <c r="U236" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="V236" s="43" t="s">
-        <v>136</v>
-      </c>
+      <c r="M236" s="5"/>
+      <c r="N236" s="19"/>
+      <c r="O236" s="19"/>
+      <c r="P236" s="19"/>
+      <c r="Q236" s="55"/>
+      <c r="R236" s="59"/>
+      <c r="S236" s="65"/>
+      <c r="T236" s="65"/>
+      <c r="U236" s="5"/>
+      <c r="V236" s="5"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="B237" s="2">
-        <v>202</v>
-      </c>
-      <c r="C237" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>312</v>
+        <f t="shared" si="32"/>
+        <v>....E.03.a. - Alcoholic liver disease</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="78" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D237" s="71" t="s">
+        <v>1464</v>
       </c>
       <c r="E237" s="71"/>
       <c r="F237" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G237" s="26" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H237" s="6"/>
+        <v>1135</v>
+      </c>
+      <c r="H237" s="6" t="s">
+        <v>1120</v>
+      </c>
       <c r="I237" s="38" t="str">
-        <f t="shared" si="29"/>
-        <v>cE06</v>
-      </c>
-      <c r="J237" s="38"/>
+        <f t="shared" si="33"/>
+        <v>cE03a</v>
+      </c>
+      <c r="J237" s="38" t="str">
+        <f t="shared" si="31"/>
+        <v>E03a</v>
+      </c>
+      <c r="K237" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L237" s="5" t="s">
+        <v>1462</v>
+      </c>
       <c r="M237" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="N237" s="47" t="s">
-        <v>868</v>
-      </c>
-      <c r="O237" s="47"/>
-      <c r="P237" s="47"/>
-      <c r="Q237" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="R237" s="59" t="s">
-        <v>868</v>
-      </c>
-      <c r="S237" s="65" t="s">
-        <v>657</v>
-      </c>
-      <c r="T237" s="65" t="s">
-        <v>997</v>
-      </c>
-      <c r="U237" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="V237" s="43" t="s">
-        <v>137</v>
-      </c>
+        <v>1467</v>
+      </c>
+      <c r="N237" s="19" t="s">
+        <v>1466</v>
+      </c>
+      <c r="O237" s="19"/>
+      <c r="P237" s="19"/>
+      <c r="Q237" s="55"/>
+      <c r="R237" s="59"/>
+      <c r="S237" s="65"/>
+      <c r="T237" s="65"/>
+      <c r="U237" s="5"/>
+      <c r="V237" s="5"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" ht="51" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="B238" s="2">
-        <v>203</v>
-      </c>
-      <c r="C238" s="30" t="s">
-        <v>743</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>313</v>
+        <f t="shared" si="32"/>
+        <v>....E.03.b. - Other alcohol-related</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="78" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D238" s="71" t="s">
+        <v>1465</v>
       </c>
       <c r="E238" s="71"/>
       <c r="F238" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G238" s="26" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H238" s="6"/>
+        <v>1135</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>1121</v>
+      </c>
       <c r="I238" s="38" t="str">
-        <f t="shared" si="29"/>
-        <v>cE06</v>
-      </c>
-      <c r="J238" s="38"/>
-      <c r="K238" s="5"/>
-      <c r="L238" s="5"/>
+        <f t="shared" si="33"/>
+        <v>cE03b</v>
+      </c>
+      <c r="J238" s="38" t="str">
+        <f t="shared" si="31"/>
+        <v>E03b</v>
+      </c>
+      <c r="K238" s="62" t="s">
+        <v>1476</v>
+      </c>
+      <c r="L238" s="5" t="s">
+        <v>1468</v>
+      </c>
       <c r="M238" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="N238" s="47" t="s">
-        <v>869</v>
-      </c>
-      <c r="O238" s="47"/>
-      <c r="P238" s="47"/>
-      <c r="Q238" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="R238" s="59" t="s">
-        <v>869</v>
-      </c>
-      <c r="S238" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="T238" s="65" t="s">
-        <v>996</v>
-      </c>
-      <c r="U238" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="V238" s="43" t="s">
-        <v>138</v>
-      </c>
+        <v>1470</v>
+      </c>
+      <c r="N238" s="19" t="s">
+        <v>1469</v>
+      </c>
+      <c r="O238" s="19"/>
+      <c r="P238" s="19"/>
+      <c r="Q238" s="55"/>
+      <c r="R238" s="59"/>
+      <c r="S238" s="65"/>
+      <c r="T238" s="65"/>
+      <c r="U238" s="5"/>
+      <c r="V238" s="5"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="28"/>
+        <v>...E.04. - Poisonings (non-drug)</v>
       </c>
       <c r="B239" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>744</v>
+        <v>1331</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>881</v>
+        <v>1343</v>
       </c>
       <c r="E239" s="71"/>
       <c r="F239" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G239" s="26" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="38" t="str">
-        <f t="shared" si="29"/>
-        <v>cE06</v>
-      </c>
-      <c r="J239" s="38"/>
+        <f t="shared" si="30"/>
+        <v>cE04</v>
+      </c>
+      <c r="J239" s="38" t="str">
+        <f t="shared" si="31"/>
+        <v>E04</v>
+      </c>
       <c r="K239" s="5"/>
-      <c r="L239" s="5"/>
+      <c r="L239" s="5" t="s">
+        <v>1344</v>
+      </c>
       <c r="M239" s="5" t="s">
-        <v>1326</v>
+        <v>1346</v>
       </c>
       <c r="N239" s="47" t="s">
-        <v>1328</v>
+        <v>1347</v>
       </c>
       <c r="O239" s="47"/>
       <c r="P239" s="47"/>
       <c r="Q239" s="55" t="s">
-        <v>991</v>
+        <v>1111</v>
       </c>
       <c r="R239" s="59" t="s">
-        <v>993</v>
+        <v>1112</v>
       </c>
       <c r="S239" s="65" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="T239" s="65" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="U239" s="5" t="s">
-        <v>881</v>
+        <v>310</v>
       </c>
       <c r="V239" s="43" t="s">
-        <v>744</v>
+        <v>135</v>
       </c>
       <c r="W239" s="2"/>
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="B240" s="2"/>
+        <f t="shared" si="28"/>
+        <v>...E.05. - Falls</v>
+      </c>
+      <c r="B240" s="2">
+        <v>201</v>
+      </c>
       <c r="C240" s="30" t="s">
-        <v>1327</v>
+        <v>136</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1324</v>
+        <v>311</v>
       </c>
       <c r="E240" s="71"/>
       <c r="F240" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G240" s="26" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H240" s="6"/>
       <c r="I240" s="38" t="str">
-        <f t="shared" si="29"/>
-        <v>cE06</v>
-      </c>
-      <c r="J240" s="38"/>
+        <f t="shared" si="30"/>
+        <v>cE05</v>
+      </c>
+      <c r="J240" s="38" t="str">
+        <f>CONCATENATE(F240,G240,H240)</f>
+        <v>E05</v>
+      </c>
       <c r="K240" s="5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="L240" s="5" t="s">
-        <v>1191</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="L240" s="5"/>
       <c r="M240" s="5" t="s">
-        <v>1322</v>
+        <v>500</v>
       </c>
       <c r="N240" s="47" t="s">
-        <v>1323</v>
+        <v>867</v>
       </c>
       <c r="O240" s="47"/>
       <c r="P240" s="47"/>
-      <c r="Q240" s="55"/>
-      <c r="R240" s="59"/>
-      <c r="S240" s="65"/>
-      <c r="T240" s="65"/>
-      <c r="U240" s="5"/>
-      <c r="V240" s="43"/>
+      <c r="Q240" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="R240" s="59" t="s">
+        <v>867</v>
+      </c>
+      <c r="S240" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="T240" s="65" t="s">
+        <v>1001</v>
+      </c>
+      <c r="U240" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="V240" s="43" t="s">
+        <v>136</v>
+      </c>
       <c r="W240" s="2"/>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B241" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>745</v>
+        <v>137</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>882</v>
+        <v>312</v>
       </c>
       <c r="E241" s="71"/>
       <c r="F241" s="6" t="s">
@@ -19594,53 +19582,51 @@
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="38" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>cE06</v>
       </c>
       <c r="J241" s="38"/>
-      <c r="K241" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="L241" s="5" t="s">
-        <v>1149</v>
-      </c>
       <c r="M241" s="5" t="s">
-        <v>1178</v>
+        <v>501</v>
       </c>
       <c r="N241" s="47" t="s">
-        <v>1179</v>
+        <v>868</v>
       </c>
       <c r="O241" s="47"/>
       <c r="P241" s="47"/>
       <c r="Q241" s="55" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="R241" s="59" t="s">
-        <v>870</v>
-      </c>
-      <c r="S241" s="65"/>
-      <c r="T241" s="65"/>
+        <v>868</v>
+      </c>
+      <c r="S241" s="65" t="s">
+        <v>657</v>
+      </c>
+      <c r="T241" s="65" t="s">
+        <v>997</v>
+      </c>
       <c r="U241" s="5" t="s">
-        <v>882</v>
+        <v>312</v>
       </c>
       <c r="V241" s="43" t="s">
-        <v>745</v>
+        <v>137</v>
       </c>
       <c r="W241" s="2"/>
     </row>
-    <row r="242" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...E.06. - Other unintentional injuries</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="B242" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E242" s="71"/>
       <c r="F242" s="6" t="s">
@@ -19651,561 +19637,781 @@
       </c>
       <c r="H242" s="6"/>
       <c r="I242" s="38" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>cE06</v>
       </c>
-      <c r="J242" s="38" t="str">
-        <f>CONCATENATE(F242,G242,H242)</f>
-        <v>E06</v>
-      </c>
-      <c r="K242" s="5" t="s">
-        <v>1341</v>
-      </c>
-      <c r="L242" s="5" t="s">
-        <v>1225</v>
-      </c>
+      <c r="J242" s="38"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="5"/>
       <c r="M242" s="5" t="s">
-        <v>1226</v>
+        <v>502</v>
       </c>
       <c r="N242" s="47" t="s">
-        <v>1227</v>
+        <v>869</v>
       </c>
       <c r="O242" s="47"/>
       <c r="P242" s="47"/>
       <c r="Q242" s="55" t="s">
-        <v>992</v>
+        <v>502</v>
       </c>
       <c r="R242" s="59" t="s">
-        <v>1108</v>
+        <v>869</v>
       </c>
       <c r="S242" s="65" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="T242" s="65" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="U242" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V242" s="43" t="s">
-        <v>883</v>
-      </c>
-      <c r="W242" s="22" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="W242" s="2"/>
+    </row>
+    <row r="243" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B243" s="2">
-        <v>207</v>
-      </c>
-      <c r="C243" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>315</v>
+        <v>204</v>
+      </c>
+      <c r="C243" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>881</v>
       </c>
       <c r="E243" s="71"/>
-      <c r="F243" s="6"/>
-      <c r="G243" s="26"/>
+      <c r="F243" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G243" s="26" t="s">
+        <v>1138</v>
+      </c>
       <c r="H243" s="6"/>
-      <c r="I243" s="38"/>
+      <c r="I243" s="38" t="str">
+        <f t="shared" si="30"/>
+        <v>cE06</v>
+      </c>
       <c r="J243" s="38"/>
       <c r="K243" s="5"/>
       <c r="L243" s="5"/>
       <c r="M243" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="N243" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="O243" s="19"/>
-      <c r="P243" s="19"/>
+        <v>1326</v>
+      </c>
+      <c r="N243" s="47" t="s">
+        <v>1328</v>
+      </c>
+      <c r="O243" s="47"/>
+      <c r="P243" s="47"/>
       <c r="Q243" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="R243" s="58" t="s">
-        <v>871</v>
+        <v>991</v>
+      </c>
+      <c r="R243" s="59" t="s">
+        <v>993</v>
       </c>
       <c r="S243" s="65" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="T243" s="65" t="s">
-        <v>661</v>
-      </c>
-      <c r="U243" s="2" t="s">
-        <v>315</v>
+        <v>998</v>
+      </c>
+      <c r="U243" s="5" t="s">
+        <v>881</v>
       </c>
       <c r="V243" s="43" t="s">
-        <v>139</v>
+        <v>744</v>
       </c>
       <c r="W243" s="2"/>
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...E.07. - Suicide/Self-harm</v>
-      </c>
-      <c r="B244" s="2">
-        <v>208</v>
-      </c>
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="B244" s="2"/>
       <c r="C244" s="30" t="s">
-        <v>140</v>
+        <v>1327</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1243</v>
+        <v>1324</v>
       </c>
       <c r="E244" s="71"/>
       <c r="F244" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G244" s="26" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H244" s="6"/>
       <c r="I244" s="38" t="str">
-        <f t="shared" ref="I244:I251" si="33">CONCATENATE("c",F244,G244,H244)</f>
-        <v>cE07</v>
-      </c>
-      <c r="J244" s="38" t="str">
-        <f>CONCATENATE(F244,G244,H244)</f>
-        <v>E07</v>
-      </c>
+        <f t="shared" si="30"/>
+        <v>cE06</v>
+      </c>
+      <c r="J244" s="38"/>
       <c r="K244" s="5" t="s">
-        <v>1268</v>
+        <v>1325</v>
       </c>
       <c r="L244" s="5" t="s">
         <v>1191</v>
       </c>
       <c r="M244" s="5" t="s">
-        <v>1192</v>
+        <v>1322</v>
       </c>
       <c r="N244" s="47" t="s">
-        <v>1193</v>
+        <v>1323</v>
       </c>
       <c r="O244" s="47"/>
       <c r="P244" s="47"/>
-      <c r="Q244" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="R244" s="59" t="s">
-        <v>872</v>
-      </c>
-      <c r="S244" s="65" t="s">
-        <v>663</v>
-      </c>
-      <c r="T244" s="65" t="s">
-        <v>995</v>
-      </c>
-      <c r="U244" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="V244" s="43" t="s">
-        <v>140</v>
-      </c>
+      <c r="Q244" s="55"/>
+      <c r="R244" s="59"/>
+      <c r="S244" s="65"/>
+      <c r="T244" s="65"/>
+      <c r="U244" s="5"/>
+      <c r="V244" s="43"/>
       <c r="W244" s="2"/>
     </row>
-    <row r="245" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...E.08. - Homicide/Interpersonal violence</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="B245" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C245" s="30" t="s">
-        <v>141</v>
+        <v>745</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E245" s="71" t="s">
-        <v>1419</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="E245" s="71"/>
       <c r="F245" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G245" s="26" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H245" s="6"/>
-      <c r="I245" s="38" t="s">
-        <v>948</v>
-      </c>
-      <c r="J245" s="38" t="str">
-        <f>CONCATENATE(F245,G245,H245)</f>
-        <v>E08</v>
-      </c>
-      <c r="K245" s="5"/>
+      <c r="I245" s="38" t="str">
+        <f t="shared" si="30"/>
+        <v>cE06</v>
+      </c>
+      <c r="J245" s="38"/>
+      <c r="K245" s="5" t="s">
+        <v>1209</v>
+      </c>
       <c r="L245" s="5" t="s">
-        <v>1191</v>
-      </c>
-      <c r="O245" s="19"/>
-      <c r="P245" s="19"/>
+        <v>1149</v>
+      </c>
+      <c r="M245" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N245" s="47" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O245" s="47"/>
+      <c r="P245" s="47"/>
       <c r="Q245" s="55" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="R245" s="59" t="s">
-        <v>873</v>
-      </c>
-      <c r="S245" s="65" t="s">
-        <v>664</v>
-      </c>
-      <c r="T245" s="65" t="s">
-        <v>994</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="S245" s="65"/>
+      <c r="T245" s="65"/>
       <c r="U245" s="5" t="s">
-        <v>317</v>
+        <v>882</v>
       </c>
       <c r="V245" s="43" t="s">
-        <v>141</v>
+        <v>745</v>
       </c>
       <c r="W245" s="2"/>
     </row>
     <row r="246" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>....E.08.a. - Homicide excluding legal intervention</v>
-      </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="30"/>
-      <c r="D246" s="20" t="s">
-        <v>1316</v>
+        <f t="shared" si="28"/>
+        <v>...E.06. - Other unintentional injuries</v>
+      </c>
+      <c r="B246" s="2">
+        <v>206</v>
+      </c>
+      <c r="C246" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="E246" s="71"/>
       <c r="F246" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G246" s="26" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H246" s="6" t="s">
-        <v>1120</v>
-      </c>
+        <v>1138</v>
+      </c>
+      <c r="H246" s="6"/>
       <c r="I246" s="38" t="str">
-        <f t="shared" si="33"/>
-        <v>cE08a</v>
+        <f t="shared" si="30"/>
+        <v>cE06</v>
       </c>
       <c r="J246" s="38" t="str">
-        <f t="shared" ref="J246:J249" si="34">CONCATENATE(F246,G246,H246)</f>
-        <v>E08a</v>
+        <f>CONCATENATE(F246,G246,H246)</f>
+        <v>E06</v>
       </c>
       <c r="K246" s="5" t="s">
-        <v>1338</v>
-      </c>
-      <c r="L246" s="5"/>
+        <v>1341</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>1225</v>
+      </c>
       <c r="M246" s="5" t="s">
-        <v>1318</v>
-      </c>
-      <c r="N246" s="19" t="s">
-        <v>1320</v>
-      </c>
-      <c r="O246" s="19"/>
-      <c r="P246" s="19"/>
-      <c r="Q246" s="55"/>
-      <c r="R246" s="59"/>
-      <c r="S246" s="65"/>
-      <c r="T246" s="65"/>
-      <c r="U246" s="5"/>
-      <c r="V246" s="43"/>
-      <c r="W246" s="2"/>
-    </row>
-    <row r="247" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1226</v>
+      </c>
+      <c r="N246" s="47" t="s">
+        <v>1227</v>
+      </c>
+      <c r="O246" s="47"/>
+      <c r="P246" s="47"/>
+      <c r="Q246" s="55" t="s">
+        <v>992</v>
+      </c>
+      <c r="R246" s="59" t="s">
+        <v>1108</v>
+      </c>
+      <c r="S246" s="65" t="s">
+        <v>660</v>
+      </c>
+      <c r="T246" s="65" t="s">
+        <v>999</v>
+      </c>
+      <c r="U246" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="V246" s="43" t="s">
+        <v>883</v>
+      </c>
+      <c r="W246" s="22" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>....E.08.b. - Legal intervention</v>
-      </c>
-      <c r="B247" s="2"/>
-      <c r="C247" s="30"/>
-      <c r="D247" s="20" t="s">
-        <v>1315</v>
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="B247" s="2">
+        <v>207</v>
+      </c>
+      <c r="C247" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="E247" s="71"/>
-      <c r="F247" s="6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G247" s="26" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H247" s="6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I247" s="38" t="str">
-        <f t="shared" si="33"/>
-        <v>cE08b</v>
-      </c>
-      <c r="J247" s="38" t="str">
-        <f t="shared" si="34"/>
-        <v>E08b</v>
-      </c>
-      <c r="K247" s="5" t="s">
-        <v>1339</v>
-      </c>
-      <c r="L247" s="5" t="s">
-        <v>1191</v>
-      </c>
+      <c r="F247" s="6"/>
+      <c r="G247" s="26"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="38"/>
+      <c r="J247" s="38"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
       <c r="M247" s="5" t="s">
-        <v>1317</v>
+        <v>948</v>
       </c>
       <c r="N247" s="19" t="s">
-        <v>1321</v>
+        <v>948</v>
       </c>
       <c r="O247" s="19"/>
       <c r="P247" s="19"/>
-      <c r="Q247" s="55"/>
-      <c r="R247" s="59"/>
-      <c r="S247" s="65"/>
-      <c r="T247" s="65"/>
-      <c r="U247" s="5"/>
-      <c r="V247" s="43"/>
+      <c r="Q247" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="R247" s="58" t="s">
+        <v>871</v>
+      </c>
+      <c r="S247" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="T247" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="U247" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="V247" s="43" t="s">
+        <v>139</v>
+      </c>
       <c r="W247" s="2"/>
     </row>
-    <row r="248" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>....E.08.c. - Execution, War, Terrorism</v>
+        <f t="shared" si="28"/>
+        <v>...E.07. - Suicide/Self-harm</v>
       </c>
       <c r="B248" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C248" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E248" s="71"/>
+        <v>1243</v>
+      </c>
+      <c r="E248" s="71" t="s">
+        <v>1587</v>
+      </c>
       <c r="F248" s="6" t="s">
         <v>1132</v>
       </c>
       <c r="G248" s="26" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H248" s="6" t="s">
-        <v>1123</v>
-      </c>
+        <v>1139</v>
+      </c>
+      <c r="H248" s="6"/>
       <c r="I248" s="38" t="str">
-        <f t="shared" si="33"/>
-        <v>cE08c</v>
+        <f t="shared" ref="I248:I255" si="34">CONCATENATE("c",F248,G248,H248)</f>
+        <v>cE07</v>
       </c>
       <c r="J248" s="38" t="str">
-        <f t="shared" si="34"/>
-        <v>E08c</v>
+        <f>CONCATENATE(F248,G248,H248)</f>
+        <v>E07</v>
       </c>
       <c r="K248" s="5" t="s">
-        <v>1340</v>
+        <v>1268</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>1210</v>
+        <v>1191</v>
       </c>
       <c r="M248" s="5" t="s">
-        <v>1453</v>
+        <v>1192</v>
       </c>
       <c r="N248" s="47" t="s">
-        <v>1319</v>
+        <v>1193</v>
       </c>
       <c r="O248" s="47"/>
       <c r="P248" s="47"/>
       <c r="Q248" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="R248" s="59" t="s">
+        <v>872</v>
+      </c>
+      <c r="S248" s="65" t="s">
+        <v>663</v>
+      </c>
+      <c r="T248" s="65" t="s">
+        <v>995</v>
+      </c>
+      <c r="U248" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="V248" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="W248" s="2"/>
+    </row>
+    <row r="249" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>...E.08. - Homicide/Interpersonal violence</v>
+      </c>
+      <c r="B249" s="2">
+        <v>209</v>
+      </c>
+      <c r="C249" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E249" s="71" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G249" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H249" s="6"/>
+      <c r="I249" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="J249" s="38" t="str">
+        <f>CONCATENATE(F249,G249,H249)</f>
+        <v>E08</v>
+      </c>
+      <c r="K249" s="5"/>
+      <c r="L249" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="O249" s="19"/>
+      <c r="P249" s="19"/>
+      <c r="Q249" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="R249" s="59" t="s">
+        <v>873</v>
+      </c>
+      <c r="S249" s="65" t="s">
+        <v>664</v>
+      </c>
+      <c r="T249" s="65" t="s">
+        <v>994</v>
+      </c>
+      <c r="U249" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="V249" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="W249" s="2"/>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A250" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>....E.08.a. - Homicide excluding legal intervention</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="30"/>
+      <c r="D250" s="20" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E250" s="71"/>
+      <c r="F250" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G250" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H250" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I250" s="38" t="str">
+        <f t="shared" si="34"/>
+        <v>cE08a</v>
+      </c>
+      <c r="J250" s="38" t="str">
+        <f t="shared" ref="J250:J253" si="35">CONCATENATE(F250,G250,H250)</f>
+        <v>E08a</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L250" s="5"/>
+      <c r="M250" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N250" s="19" t="s">
+        <v>1320</v>
+      </c>
+      <c r="O250" s="19"/>
+      <c r="P250" s="19"/>
+      <c r="Q250" s="55"/>
+      <c r="R250" s="59"/>
+      <c r="S250" s="65"/>
+      <c r="T250" s="65"/>
+      <c r="U250" s="5"/>
+      <c r="V250" s="43"/>
+      <c r="W250" s="2"/>
+    </row>
+    <row r="251" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A251" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>....E.08.b. - Legal intervention</v>
+      </c>
+      <c r="B251" s="2"/>
+      <c r="C251" s="30"/>
+      <c r="D251" s="20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E251" s="71"/>
+      <c r="F251" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G251" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I251" s="38" t="str">
+        <f t="shared" si="34"/>
+        <v>cE08b</v>
+      </c>
+      <c r="J251" s="38" t="str">
+        <f t="shared" si="35"/>
+        <v>E08b</v>
+      </c>
+      <c r="K251" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L251" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M251" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="N251" s="19" t="s">
+        <v>1321</v>
+      </c>
+      <c r="O251" s="19"/>
+      <c r="P251" s="19"/>
+      <c r="Q251" s="55"/>
+      <c r="R251" s="59"/>
+      <c r="S251" s="65"/>
+      <c r="T251" s="65"/>
+      <c r="U251" s="5"/>
+      <c r="V251" s="43"/>
+      <c r="W251" s="2"/>
+    </row>
+    <row r="252" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>....E.08.c. - Execution, War, Terrorism</v>
+      </c>
+      <c r="B252" s="2">
+        <v>210</v>
+      </c>
+      <c r="C252" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E252" s="71"/>
+      <c r="F252" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G252" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H252" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I252" s="38" t="str">
+        <f t="shared" si="34"/>
+        <v>cE08c</v>
+      </c>
+      <c r="J252" s="38" t="str">
+        <f t="shared" si="35"/>
+        <v>E08c</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M252" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="N252" s="47" t="s">
+        <v>1319</v>
+      </c>
+      <c r="O252" s="47"/>
+      <c r="P252" s="47"/>
+      <c r="Q252" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="R248" s="59" t="s">
+      <c r="R252" s="59" t="s">
         <v>874</v>
       </c>
-      <c r="S248" s="65"/>
-      <c r="T248" s="65"/>
-      <c r="U248" s="5" t="s">
+      <c r="S252" s="65"/>
+      <c r="T252" s="65"/>
+      <c r="U252" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V248" s="43" t="s">
+      <c r="V252" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="W248" s="22" t="s">
+      <c r="W252" s="22" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A249" s="16" t="str">
-        <f t="shared" si="27"/>
+    <row r="253" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A253" s="16" t="str">
+        <f t="shared" si="28"/>
         <v>...E.99. - Injuries of unknown intent (e.g., unintentional or self-harm), including overdoses and deaths by firearm</v>
       </c>
-      <c r="B249" s="46"/>
-      <c r="C249" s="16" t="s">
+      <c r="B253" s="46"/>
+      <c r="C253" s="16" t="s">
         <v>1245</v>
       </c>
-      <c r="D249" s="46" t="s">
+      <c r="D253" s="46" t="s">
         <v>1197</v>
       </c>
-      <c r="E249" s="16" t="s">
+      <c r="E253" s="16" t="s">
         <v>1417</v>
       </c>
-      <c r="F249" s="52" t="s">
+      <c r="F253" s="52" t="s">
         <v>1132</v>
       </c>
-      <c r="G249" s="51" t="s">
+      <c r="G253" s="51" t="s">
         <v>1202</v>
       </c>
-      <c r="I249" s="38" t="str">
-        <f t="shared" si="33"/>
+      <c r="I253" s="38" t="str">
+        <f t="shared" si="34"/>
         <v>cE99</v>
       </c>
-      <c r="J249" s="38" t="str">
-        <f t="shared" si="34"/>
-        <v>E99</v>
-      </c>
-      <c r="K249" s="46" t="s">
-        <v>1416</v>
-      </c>
-      <c r="L249" s="46" t="s">
-        <v>1238</v>
-      </c>
-      <c r="M249" s="16" t="s">
-        <v>1239</v>
-      </c>
-      <c r="N249" s="16" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="250" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A250" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
-      </c>
-      <c r="D250" s="46" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E250" s="16" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F250" s="52" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G250" s="51" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I250" s="38" t="str">
-        <f t="shared" si="33"/>
-        <v>cZ01</v>
-      </c>
-      <c r="J250" s="38" t="str">
-        <f>CONCATENATE(F250,G250,H250)</f>
-        <v>Z01</v>
-      </c>
-      <c r="K250" s="46" t="s">
-        <v>1198</v>
-      </c>
-      <c r="L250" s="46" t="s">
-        <v>1199</v>
-      </c>
-      <c r="M250" s="16" t="s">
-        <v>1200</v>
-      </c>
-      <c r="N250" s="16" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="251" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A251" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D251" s="46" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F251" s="52" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G251" s="51" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I251" s="40" t="str">
-        <f t="shared" si="33"/>
-        <v>cA10</v>
-      </c>
-      <c r="J251" s="38"/>
-      <c r="K251" s="16" t="s">
-        <v>1480</v>
-      </c>
-      <c r="L251" s="46" t="s">
-        <v>1199</v>
-      </c>
-      <c r="M251" s="16" t="s">
-        <v>1195</v>
-      </c>
-      <c r="N251" s="16" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A252" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...Z.02. - Unknown/Missing Value</v>
-      </c>
-      <c r="D252" s="46" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F252" s="52" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G252" s="51" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I252" s="41"/>
-      <c r="J252" s="38" t="str">
-        <f t="shared" ref="J252:J254" si="35">CONCATENATE(F252,G252,H252)</f>
-        <v>Z02</v>
-      </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A253" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>...Z.03. - Code does not map</v>
-      </c>
-      <c r="D253" s="46" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F253" s="52" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G253" s="51" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I253" s="41"/>
       <c r="J253" s="38" t="str">
         <f t="shared" si="35"/>
-        <v>Z03</v>
-      </c>
-      <c r="K253" s="16" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+        <v>E99</v>
+      </c>
+      <c r="K253" s="46" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L253" s="46" t="s">
+        <v>1238</v>
+      </c>
+      <c r="M253" s="16" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N253" s="16" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="str">
-        <f t="shared" si="27"/>
-        <v>..Z. - Unknown/Missing Value</v>
+        <f t="shared" si="28"/>
+        <v>...Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D254" s="46" t="s">
-        <v>1274</v>
+        <v>1201</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>1405</v>
       </c>
       <c r="F254" s="52" t="s">
         <v>1214</v>
       </c>
-      <c r="I254" s="41"/>
+      <c r="G254" s="51" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I254" s="38" t="str">
+        <f t="shared" si="34"/>
+        <v>cZ01</v>
+      </c>
       <c r="J254" s="38" t="str">
-        <f t="shared" si="35"/>
+        <f>CONCATENATE(F254,G254,H254)</f>
+        <v>Z01</v>
+      </c>
+      <c r="K254" s="46" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L254" s="46" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M254" s="16" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N254" s="16" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="D255" s="46" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F255" s="52" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G255" s="51" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I255" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>cA10</v>
+      </c>
+      <c r="J255" s="38"/>
+      <c r="K255" s="16" t="s">
+        <v>1477</v>
+      </c>
+      <c r="L255" s="46" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M255" s="16" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N255" s="16" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A256" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>...Z.02. - Unknown/Missing Value</v>
+      </c>
+      <c r="D256" s="46" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F256" s="52" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G256" s="51" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I256" s="41"/>
+      <c r="J256" s="38" t="str">
+        <f t="shared" ref="J256:J258" si="36">CONCATENATE(F256,G256,H256)</f>
+        <v>Z02</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>...Z.03. - Code does not map</v>
+      </c>
+      <c r="D257" s="46" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F257" s="52" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G257" s="51" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I257" s="41"/>
+      <c r="J257" s="38" t="str">
+        <f t="shared" si="36"/>
+        <v>Z03</v>
+      </c>
+      <c r="K257" s="16" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>..Z. - Unknown/Missing Value</v>
+      </c>
+      <c r="D258" s="46" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F258" s="52" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I258" s="41"/>
+      <c r="J258" s="38" t="str">
+        <f t="shared" si="36"/>
         <v>Z</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K256" s="16" t="s">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K260" s="16" t="s">
         <v>948</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W248" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W252" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F579AE6-E730-4276-BF67-0BBE1C310FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142CD95-9969-4B54-B2A4-85AB3B2D8DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="4350" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1608">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -5144,6 +5144,18 @@
   </si>
   <si>
     <t>Perinatal conditions</t>
+  </si>
+  <si>
+    <t>Hepatitis A</t>
+  </si>
+  <si>
+    <t>Hepatitis B</t>
+  </si>
+  <si>
+    <t>Hepatitis C</t>
+  </si>
+  <si>
+    <t>Hepatitis E</t>
   </si>
 </sst>
 </file>
@@ -6188,10 +6200,10 @@
   <dimension ref="A1:W261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7587,7 +7599,7 @@
         <v>687</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>164</v>
+        <v>1604</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="6" t="s">
@@ -7629,7 +7641,7 @@
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>....A.06.a. - Acute hepatitis B</v>
+        <v>....A.06.a. - Hepatitis B</v>
       </c>
       <c r="B27" s="2">
         <v>23</v>
@@ -7638,7 +7650,7 @@
         <v>688</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>165</v>
+        <v>1605</v>
       </c>
       <c r="E27" s="66"/>
       <c r="F27" s="27" t="s">
@@ -7685,7 +7697,7 @@
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>....A.06.b. - Acute hepatitis C</v>
+        <v>....A.06.b. - Hepatitis C</v>
       </c>
       <c r="B28" s="2">
         <v>24</v>
@@ -7694,7 +7706,7 @@
         <v>689</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>166</v>
+        <v>1606</v>
       </c>
       <c r="E28" s="66"/>
       <c r="F28" s="27" t="s">
@@ -7750,7 +7762,7 @@
         <v>690</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>167</v>
+        <v>1607</v>
       </c>
       <c r="E29" s="66"/>
       <c r="F29" s="6" t="s">

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A829F955-5DA9-4F32-85AF-B4ED6C2EE880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5C7A8-08C8-4BA2-8338-40E4116DD266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -287,9 +287,6 @@
     <t>Corpus uteri cancer</t>
   </si>
   <si>
-    <t>Ovary cancer</t>
-  </si>
-  <si>
     <t>Prostate cancer</t>
   </si>
   <si>
@@ -1661,9 +1658,6 @@
   </si>
   <si>
     <t>C0[0-8]|D103|D11[0,7,9]</t>
-  </si>
-  <si>
-    <t>Uterine cancer</t>
   </si>
   <si>
     <t>WHO 2017, p. 29/IHME</t>
@@ -2860,6 +2854,12 @@
   </si>
   <si>
     <t>Supraventricular arrhythmia</t>
+  </si>
+  <si>
+    <t>Ovarian cancer</t>
+  </si>
+  <si>
+    <t>Cervical cancer</t>
   </si>
 </sst>
 </file>
@@ -3696,77 +3696,77 @@
   <dimension ref="A1:N261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B174" sqref="B174"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="49" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="49" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.453125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="50" style="31" customWidth="1"/>
-    <col min="3" max="4" width="27.453125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" style="33" customWidth="1"/>
-    <col min="7" max="9" width="7.81640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="28.453125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="27.26953125" style="31" customWidth="1"/>
+    <col min="3" max="4" width="27.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="33" customWidth="1"/>
+    <col min="7" max="9" width="7.85546875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="31" customWidth="1"/>
     <col min="12" max="13" width="49" style="13"/>
     <col min="14" max="14" width="97" style="31" customWidth="1"/>
     <col min="15" max="16384" width="49" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F1" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>413</v>
-      </c>
       <c r="I1" s="26" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -3786,18 +3786,18 @@
       <c r="M2" s="3"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f t="shared" ref="A3:A70" si="0">IF(I3&lt;&gt;"",IF(G3&lt;&gt;"",CONCATENATE("....",E3,".",F3,".",G3,". - ",B3),IF(F3&lt;&gt;"",CONCATENATE("...",E3,".",F3,". - ",B3),CONCATENATE("..",E3,". - ",B3))),"")</f>
         <v>..A. - Communicable, maternal, and nutritional conditions</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="4"/>
@@ -3812,20 +3812,20 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>...A.99. - Other Infectious Diseases/Nutritional Deficiencies</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F4" s="23">
         <v>99</v>
@@ -3842,7 +3842,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3853,7 +3853,7 @@
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
       <c r="E5" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="4"/>
@@ -3865,7 +3865,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>...A.01. - Tuberculosis</v>
@@ -3876,10 +3876,10 @@
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="27" t="str">
@@ -3893,30 +3893,30 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>...A.02. - HIV/ and other Sexually transmitted diseases (STDs)</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="27"/>
@@ -3930,7 +3930,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>....A.02.a. - Sexually transmitted diseases (STDs) excluding HIV</v>
@@ -3941,16 +3941,16 @@
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I8" s="27" t="str">
         <f>CONCATENATE(E8,F8,G8)</f>
@@ -3959,14 +3959,14 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3977,13 +3977,13 @@
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H9" s="27" t="str">
         <f>CONCATENATE("c",E9,F9,G9)</f>
@@ -3993,14 +3993,14 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4011,13 +4011,13 @@
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H10" s="27" t="str">
         <f>CONCATENATE("c",E10,F10,G10)</f>
@@ -4027,31 +4027,31 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B11" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H11" s="27" t="str">
         <f>CONCATENATE("c",E11,F11,G11)</f>
@@ -4061,14 +4061,14 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4079,13 +4079,13 @@
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H12" s="27" t="str">
         <f>CONCATENATE("c",E12,F12,G12)</f>
@@ -4095,16 +4095,16 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4115,13 +4115,13 @@
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H13" s="27" t="str">
         <f>CONCATENATE("c",E13,F13,G13)</f>
@@ -4131,14 +4131,14 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>....A.02.b. - HIV/AIDS</v>
@@ -4149,16 +4149,16 @@
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I14" s="27" t="str">
         <f>CONCATENATE(E14,F14,G14)</f>
@@ -4167,14 +4167,14 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4185,13 +4185,13 @@
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H15" s="27" t="str">
         <f>CONCATENATE("c",E15,F15,G15)</f>
@@ -4201,14 +4201,14 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4219,13 +4219,13 @@
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H16" s="27" t="str">
         <f>CONCATENATE("c",E16,F16,G16)</f>
@@ -4235,25 +4235,25 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B17" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F17" s="23">
         <v>99</v>
@@ -4267,14 +4267,14 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4285,10 +4285,10 @@
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="27"/>
@@ -4296,13 +4296,13 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4313,7 +4313,7 @@
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F19" s="23">
         <v>99</v>
@@ -4327,14 +4327,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4345,7 +4345,7 @@
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F20" s="23">
         <v>99</v>
@@ -4359,14 +4359,14 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4377,7 +4377,7 @@
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F21" s="23">
         <v>99</v>
@@ -4391,14 +4391,14 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4409,7 +4409,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F22" s="23">
         <v>99</v>
@@ -4423,14 +4423,14 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>...A.04. - Meningitis</v>
@@ -4441,10 +4441,10 @@
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="27" t="str">
@@ -4458,14 +4458,14 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>...A.05. - Encephalitis</v>
@@ -4476,10 +4476,10 @@
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="27" t="str">
@@ -4493,14 +4493,14 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>...A.06. - Hepatitis</v>
@@ -4511,10 +4511,10 @@
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="27"/>
@@ -4527,21 +4527,21 @@
       <c r="L25" s="3"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B26" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="27" t="str">
@@ -4552,31 +4552,31 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>....A.06.a. - Hepatitis B</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H27" s="27" t="str">
         <f>CONCATENATE("c",E27,F27,G27)</f>
@@ -4589,31 +4589,31 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
         <f t="shared" si="0"/>
         <v>....A.06.b. - Hepatitis C</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H28" s="27" t="str">
         <f>CONCATENATE("c",E28,F28,G28)</f>
@@ -4626,28 +4626,28 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B29" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="27" t="str">
@@ -4658,14 +4658,14 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4676,7 +4676,7 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="4"/>
@@ -4685,14 +4685,14 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4703,7 +4703,7 @@
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F31" s="23">
         <v>99</v>
@@ -4717,14 +4717,14 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4735,7 +4735,7 @@
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F32" s="23">
         <v>99</v>
@@ -4749,14 +4749,14 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4767,7 +4767,7 @@
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F33" s="23">
         <v>99</v>
@@ -4781,14 +4781,14 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4799,7 +4799,7 @@
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F34" s="23">
         <v>99</v>
@@ -4813,14 +4813,14 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4831,7 +4831,7 @@
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F35" s="23">
         <v>99</v>
@@ -4845,14 +4845,14 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4863,7 +4863,7 @@
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F36" s="23">
         <v>99</v>
@@ -4877,14 +4877,14 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4895,7 +4895,7 @@
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F37" s="23">
         <v>99</v>
@@ -4909,14 +4909,14 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4927,7 +4927,7 @@
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
       <c r="E38" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F38" s="23">
         <v>99</v>
@@ -4941,14 +4941,14 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4959,7 +4959,7 @@
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F39" s="23">
         <v>99</v>
@@ -4973,25 +4973,25 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B40" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
       <c r="E40" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F40" s="23">
         <v>99</v>
@@ -5005,14 +5005,14 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5023,7 +5023,7 @@
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F41" s="23">
         <v>99</v>
@@ -5037,14 +5037,14 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5055,7 +5055,7 @@
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F42" s="23">
         <v>99</v>
@@ -5069,14 +5069,14 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5087,7 +5087,7 @@
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F43" s="23">
         <v>99</v>
@@ -5101,14 +5101,14 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5119,7 +5119,7 @@
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
       <c r="E44" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F44" s="23">
         <v>99</v>
@@ -5133,14 +5133,14 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5151,7 +5151,7 @@
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="4"/>
@@ -5160,14 +5160,14 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5178,7 +5178,7 @@
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F46" s="23">
         <v>99</v>
@@ -5192,14 +5192,14 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5210,7 +5210,7 @@
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F47" s="23">
         <v>99</v>
@@ -5224,14 +5224,14 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5242,7 +5242,7 @@
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F48" s="23">
         <v>99</v>
@@ -5256,25 +5256,25 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B49" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F49" s="23">
         <v>99</v>
@@ -5288,25 +5288,25 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="78" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B50" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F50" s="23">
         <v>99</v>
@@ -5318,22 +5318,22 @@
       </c>
       <c r="I50" s="27"/>
       <c r="J50" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5349,18 +5349,18 @@
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="str">
         <f>IF(I52&lt;&gt;"",IF(G52&lt;&gt;"",CONCATENATE("....",E52,".",F52,".",G52,". - ",B52),IF(F52&lt;&gt;"",CONCATENATE("...",E52,".",F52,". - ",B52),CONCATENATE("..",E52,". - ",B52))),"")</f>
         <v/>
@@ -5379,18 +5379,18 @@
         <v/>
       </c>
       <c r="J52" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="str">
         <f>IF(I53&lt;&gt;"",IF(G53&lt;&gt;"",CONCATENATE("....",E53,".",F53,".",G53,". - ",B53),IF(F53&lt;&gt;"",CONCATENATE("...",E53,".",F53,". - ",B53),CONCATENATE("..",E53,". - ",B53))),"")</f>
         <v/>
@@ -5409,32 +5409,32 @@
         <v/>
       </c>
       <c r="J53" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="str">
         <f t="shared" si="0"/>
         <v>...A.07. - Influenza</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="27" t="str">
@@ -5448,28 +5448,28 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="str">
         <f t="shared" si="0"/>
         <v>...A.08. - Pneumonia</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="27" t="str">
@@ -5483,28 +5483,28 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="str">
         <f>IF(I56&lt;&gt;"",IF(G56&lt;&gt;"",CONCATENATE("....",E56,".",F56,".",G56,". - ",B56),IF(F56&lt;&gt;"",CONCATENATE("...",E56,".",F56,". - ",B56),CONCATENATE("..",E56,". - ",B56))),"")</f>
         <v>...A.11. - COVID-19</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
       <c r="E56" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="27" t="str">
@@ -5518,30 +5518,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B57" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="27" t="str">
@@ -5550,18 +5550,18 @@
       </c>
       <c r="I57" s="27"/>
       <c r="J57" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5572,10 +5572,10 @@
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
       <c r="E58" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="27" t="str">
@@ -5584,18 +5584,18 @@
       </c>
       <c r="I58" s="27"/>
       <c r="J58" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="str">
         <f t="shared" si="0"/>
         <v>...A.09. - Maternal conditions</v>
@@ -5606,14 +5606,14 @@
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I59" s="27" t="str">
         <f>CONCATENATE(E59,F59,G59)</f>
@@ -5622,28 +5622,28 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B60" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="27" t="str">
@@ -5654,16 +5654,16 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5674,10 +5674,10 @@
       <c r="C61" s="39"/>
       <c r="D61" s="39"/>
       <c r="E61" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="27" t="str">
@@ -5688,14 +5688,14 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5706,10 +5706,10 @@
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="27" t="str">
@@ -5720,30 +5720,30 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B63" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="27" t="str">
@@ -5754,14 +5754,14 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5772,10 +5772,10 @@
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="E64" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="27" t="str">
@@ -5786,14 +5786,14 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5804,10 +5804,10 @@
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
       <c r="E65" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="27" t="str">
@@ -5818,30 +5818,30 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f>IF(I66&lt;&gt;"",IF(G66&lt;&gt;"",CONCATENATE("....",E66,".",F66,".",G66,". - ",B66),IF(F66&lt;&gt;"",CONCATENATE("...",E66,".",F66,". - ",B66),CONCATENATE("..",E66,". - ",B66))),"")</f>
         <v>..P. - Perinatal conditions</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
       <c r="E66" s="45" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="4"/>
       <c r="H66" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I66" s="27" t="str">
         <f>CONCATENATE(E66,F66,G66)</f>
@@ -5852,7 +5852,7 @@
       <c r="L66" s="3"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f>IF(I67&lt;&gt;"",IF(G67&lt;&gt;"",CONCATENATE("....",E67,".",F67,".",G67,". - ",B67),IF(F67&lt;&gt;"",CONCATENATE("...",E67,".",F67,". - ",B67),CONCATENATE("..",E67,". - ",B67))),"")</f>
         <v>...P.01. - Neonatal conditions</v>
@@ -5863,34 +5863,34 @@
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
       <c r="E67" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I67" s="27" t="str">
         <f>CONCATENATE(E67,F67,G67)</f>
         <v>P01</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5901,10 +5901,10 @@
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
       <c r="E68" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="27" t="str">
@@ -5915,22 +5915,22 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="27" t="str">
@@ -5939,20 +5939,20 @@
       </c>
       <c r="I69" s="27"/>
       <c r="J69" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5963,10 +5963,10 @@
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="27" t="str">
@@ -5977,14 +5977,14 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f t="shared" ref="A71:A136" si="7">IF(I71&lt;&gt;"",IF(G71&lt;&gt;"",CONCATENATE("....",E71,".",F71,".",G71,". - ",B71),IF(F71&lt;&gt;"",CONCATENATE("...",E71,".",F71,". - ",B71),CONCATENATE("..",E71,". - ",B71))),"")</f>
         <v/>
@@ -5995,10 +5995,10 @@
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
       <c r="E71" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="27" t="str">
@@ -6009,14 +6009,14 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" ht="78" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6027,10 +6027,10 @@
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
       <c r="E72" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="27" t="str">
@@ -6039,20 +6039,20 @@
       </c>
       <c r="I72" s="27"/>
       <c r="J72" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="M72" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="M72" s="16" t="s">
-        <v>735</v>
-      </c>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6063,7 +6063,7 @@
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="4"/>
@@ -6072,14 +6072,14 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6090,10 +6090,10 @@
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="27" t="str">
@@ -6102,20 +6102,20 @@
       </c>
       <c r="I74" s="27"/>
       <c r="J74" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6126,7 +6126,7 @@
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
       <c r="E75" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F75" s="23">
         <v>99</v>
@@ -6140,14 +6140,14 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6158,7 +6158,7 @@
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
       <c r="E76" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F76" s="23">
         <v>99</v>
@@ -6172,28 +6172,28 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B77" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="27" t="str">
@@ -6202,20 +6202,20 @@
       </c>
       <c r="I77" s="27"/>
       <c r="J77" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6226,7 +6226,7 @@
       <c r="C78" s="39"/>
       <c r="D78" s="39"/>
       <c r="E78" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F78" s="23">
         <v>99</v>
@@ -6238,34 +6238,34 @@
       </c>
       <c r="I78" s="27"/>
       <c r="J78" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...A.12. - Sepsis</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="27" t="str">
@@ -6277,34 +6277,34 @@
         <v>A12</v>
       </c>
       <c r="J79" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="M79" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="K79" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="M79" s="13" t="s">
-        <v>767</v>
-      </c>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...A.13. - Anemia</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
       <c r="E80" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="27" t="str">
@@ -6316,34 +6316,34 @@
         <v>A13</v>
       </c>
       <c r="J80" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>776</v>
-      </c>
       <c r="M80" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...A.14. - Malnutrition</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
       <c r="E81" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="27" t="str">
@@ -6355,20 +6355,20 @@
         <v>A14</v>
       </c>
       <c r="J81" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L81" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>777</v>
-      </c>
       <c r="M81" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6386,25 +6386,25 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
         <f t="shared" si="7"/>
         <v>..D. - Other Chronic</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C83" s="39"/>
       <c r="D83" s="39"/>
       <c r="E83" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="4"/>
@@ -6419,18 +6419,18 @@
       <c r="M83" s="16"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
         <f t="shared" si="7"/>
         <v>..B. - Cancer/Malignant neoplasms</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
       <c r="E84" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="4"/>
@@ -6442,14 +6442,14 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M84" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.01. - Mouth and oropharynx cancers</v>
@@ -6460,10 +6460,10 @@
       <c r="C85" s="41"/>
       <c r="D85" s="41"/>
       <c r="E85" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="27" t="str">
@@ -6477,14 +6477,14 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M85" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6495,10 +6495,10 @@
       <c r="C86" s="39"/>
       <c r="D86" s="39"/>
       <c r="E86" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="27" t="str">
@@ -6507,34 +6507,34 @@
       </c>
       <c r="I86" s="27"/>
       <c r="J86" s="15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L86" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="M86" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="M86" s="16" t="s">
-        <v>520</v>
-      </c>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B87" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
       <c r="E87" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="27" t="str">
@@ -6543,20 +6543,20 @@
       </c>
       <c r="I87" s="27"/>
       <c r="J87" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K87" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="L87" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="M87" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="M87" s="32" t="s">
-        <v>440</v>
-      </c>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6567,10 +6567,10 @@
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
       <c r="E88" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="27" t="str">
@@ -6581,28 +6581,28 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M88" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.02. - Esophagus cancer</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C89" s="41"/>
       <c r="D89" s="41"/>
       <c r="E89" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="27" t="str">
@@ -6614,20 +6614,20 @@
         <v>B02</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L89" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="M89" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="M89" s="32" t="s">
-        <v>442</v>
-      </c>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.03. - Stomach cancer</v>
@@ -6638,10 +6638,10 @@
       <c r="C90" s="41"/>
       <c r="D90" s="41"/>
       <c r="E90" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="27" t="str">
@@ -6653,22 +6653,22 @@
         <v>B03</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L90" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="M90" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="M90" s="32" t="s">
-        <v>444</v>
-      </c>
       <c r="N90" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.04. - Colon and rectum cancers</v>
@@ -6679,10 +6679,10 @@
       <c r="C91" s="41"/>
       <c r="D91" s="41"/>
       <c r="E91" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="27" t="str">
@@ -6694,20 +6694,20 @@
         <v>B04</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L91" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="M91" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="M91" s="32" t="s">
-        <v>498</v>
-      </c>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.05. - Liver cancer</v>
@@ -6718,10 +6718,10 @@
       <c r="C92" s="41"/>
       <c r="D92" s="41"/>
       <c r="E92" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="27" t="str">
@@ -6733,20 +6733,20 @@
         <v>B05</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L92" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="M92" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="M92" s="32" t="s">
-        <v>446</v>
-      </c>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.06. - Pancreas cancer</v>
@@ -6757,10 +6757,10 @@
       <c r="C93" s="41"/>
       <c r="D93" s="41"/>
       <c r="E93" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="27" t="str">
@@ -6772,20 +6772,20 @@
         <v>B06</v>
       </c>
       <c r="J93" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L93" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="M93" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="M93" s="32" t="s">
-        <v>448</v>
-      </c>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.07. - Trachea, bronchus and lung cancers</v>
@@ -6794,14 +6794,14 @@
         <v>63</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D94" s="41"/>
       <c r="E94" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="27" t="str">
@@ -6813,20 +6813,20 @@
         <v>B07</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M94" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.08. - Melanoma and other skin cancers</v>
@@ -6835,35 +6835,35 @@
         <v>64</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I95" s="27" t="str">
         <f t="shared" si="11"/>
         <v>B08</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M95" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6874,10 +6874,10 @@
       <c r="C96" s="39"/>
       <c r="D96" s="39"/>
       <c r="E96" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="27" t="str">
@@ -6886,20 +6886,20 @@
       </c>
       <c r="I96" s="27"/>
       <c r="J96" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L96" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="M96" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="M96" s="32" t="s">
-        <v>502</v>
-      </c>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6910,10 +6910,10 @@
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
       <c r="E97" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="27" t="str">
@@ -6922,20 +6922,20 @@
       </c>
       <c r="I97" s="27"/>
       <c r="J97" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L97" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="M97" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="M97" s="32" t="s">
-        <v>504</v>
-      </c>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.09. - Breast cancer</v>
@@ -6946,10 +6946,10 @@
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
       <c r="E98" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="27" t="str">
@@ -6961,31 +6961,31 @@
         <v>B09</v>
       </c>
       <c r="J98" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="L98" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="K98" s="15" t="s">
+      <c r="M98" s="32" t="s">
         <v>690</v>
       </c>
-      <c r="L98" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="M98" s="32" t="s">
-        <v>692</v>
-      </c>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>...B.10. - Uterine cancer</v>
+        <v>...B.10. - Cervical cancer</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>521</v>
+        <v>881</v>
       </c>
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
       <c r="E99" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F99" s="23">
         <v>10</v>
@@ -6997,13 +6997,13 @@
         <v>B10</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L99" s="3"/>
       <c r="M99" s="32"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7014,10 +7014,10 @@
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
       <c r="E100" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="27" t="str">
@@ -7026,20 +7026,20 @@
       </c>
       <c r="I100" s="27"/>
       <c r="J100" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L100" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M100" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="M100" s="32" t="s">
-        <v>452</v>
-      </c>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7050,7 +7050,7 @@
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F101" s="23">
         <v>10</v>
@@ -7062,31 +7062,31 @@
       </c>
       <c r="I101" s="27"/>
       <c r="J101" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K101" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M101" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>...B.11. - Ovary cancer</v>
+        <v>...B.11. - Ovarian cancer</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>70</v>
+        <v>880</v>
       </c>
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F102" s="23">
         <v>11</v>
@@ -7101,34 +7101,34 @@
         <v>B11</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="M102" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="M102" s="32" t="s">
-        <v>471</v>
-      </c>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.12. - Prostate cancer</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
       <c r="E103" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="27" t="str">
@@ -7140,31 +7140,31 @@
         <v>B12</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L103" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M103" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="M103" s="32" t="s">
-        <v>454</v>
-      </c>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B104" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
       <c r="E104" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F104" s="23">
         <v>99</v>
@@ -7176,33 +7176,33 @@
       </c>
       <c r="I104" s="27"/>
       <c r="J104" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K104" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L104" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="M104" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="M104" s="32" t="s">
-        <v>456</v>
-      </c>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.13. - Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C105" s="39"/>
       <c r="D105" s="39" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F105" s="23">
         <v>13</v>
@@ -7217,31 +7217,31 @@
         <v>B13</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L105" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="M105" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="M105" s="32" t="s">
-        <v>473</v>
-      </c>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.14. - Bladder cancer</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C106" s="39"/>
       <c r="D106" s="39"/>
       <c r="E106" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F106" s="23">
         <v>14</v>
@@ -7256,33 +7256,33 @@
         <v>B14</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K106" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L106" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="M106" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="M106" s="32" t="s">
-        <v>507</v>
-      </c>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" ht="130" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.15. - Brain and nervous system cancers</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C107" s="39"/>
       <c r="D107" s="39" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F107" s="23">
         <v>15</v>
@@ -7297,31 +7297,31 @@
         <v>B15</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K107" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B108" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F108" s="23">
         <v>99</v>
@@ -7333,31 +7333,31 @@
       </c>
       <c r="I108" s="27"/>
       <c r="J108" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L108" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="M108" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="M108" s="32" t="s">
-        <v>458</v>
-      </c>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B109" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C109" s="39"/>
       <c r="D109" s="39"/>
       <c r="E109" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F109" s="23">
         <v>99</v>
@@ -7369,31 +7369,31 @@
       </c>
       <c r="I109" s="27"/>
       <c r="J109" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L109" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="M109" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="M109" s="32" t="s">
-        <v>460</v>
-      </c>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B110" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C110" s="39"/>
       <c r="D110" s="39"/>
       <c r="E110" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F110" s="23">
         <v>99</v>
@@ -7405,31 +7405,31 @@
       </c>
       <c r="I110" s="27"/>
       <c r="J110" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="K110" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="L110" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="K110" s="15" t="s">
+      <c r="M110" s="32" t="s">
         <v>686</v>
       </c>
-      <c r="L110" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="M110" s="32" t="s">
-        <v>688</v>
-      </c>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B111" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C111" s="39"/>
       <c r="D111" s="39"/>
       <c r="E111" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F111" s="23">
         <v>99</v>
@@ -7443,27 +7443,27 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M111" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.16. - Lymphomas and multiple myeloma</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112" s="39"/>
       <c r="D112" s="39" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F112" s="23">
         <v>16</v>
@@ -7477,31 +7477,31 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M112" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="str">
         <f t="shared" si="7"/>
         <v>....B.16.a. - Hodgkin lymphoma</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C113" s="39"/>
       <c r="D113" s="39"/>
       <c r="E113" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F113" s="23">
         <v>16</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H113" s="27" t="str">
         <f t="shared" ref="H113:H119" si="14">CONCATENATE("c",E113,F113,G113)</f>
@@ -7514,31 +7514,31 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M113" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="str">
         <f t="shared" si="7"/>
         <v>....B.16.b. - Non-Hodgkin lymphoma</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
       <c r="E114" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F114" s="23">
         <v>16</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H114" s="27" t="str">
         <f t="shared" si="14"/>
@@ -7551,31 +7551,31 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M114" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="str">
         <f t="shared" si="7"/>
         <v>....B.16.c. - Multiple myeloma</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
       <c r="E115" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F115" s="23">
         <v>16</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H115" s="27" t="str">
         <f t="shared" si="14"/>
@@ -7588,25 +7588,25 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M115" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.17. - Leukemia</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
       <c r="E116" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F116" s="23">
         <v>17</v>
@@ -7623,27 +7623,27 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M116" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...B.99. - Other malignant neoplasms</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C117" s="39"/>
       <c r="D117" s="39" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F117" s="23">
         <v>99</v>
@@ -7658,31 +7658,31 @@
         <v>B99</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L117" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M117" s="32" t="s">
         <v>474</v>
       </c>
-      <c r="M117" s="32" t="s">
-        <v>475</v>
-      </c>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" ht="91" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B118" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
       <c r="E118" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F118" s="23">
         <v>99</v>
@@ -7694,33 +7694,33 @@
       </c>
       <c r="I118" s="27"/>
       <c r="J118" s="44" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...D.01. - Diabetes mellitus</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C119" s="39"/>
       <c r="D119" s="39" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="27" t="str">
@@ -7732,42 +7732,42 @@
         <v>D01</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M119" s="32" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...D.02. - Endocrine, blood, immune disorders</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C120" s="39"/>
       <c r="D120" s="39" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I120" s="27" t="str">
         <f>CONCATENATE(E120,F120,G120)</f>
@@ -7776,28 +7776,28 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="M120" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B121" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
       <c r="E121" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="27" t="str">
@@ -7808,28 +7808,28 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M121" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...D.03. - Sickle cell disorders and trait</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
       <c r="E122" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F122" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="27" t="str">
@@ -7843,28 +7843,28 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M122" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B123" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
       <c r="E123" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="27" t="str">
@@ -7875,28 +7875,28 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M123" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B124" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="27" t="str">
@@ -7907,28 +7907,28 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="M124" s="32" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...D.14. - Obesity</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
       <c r="E125" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="27" t="str">
@@ -7940,34 +7940,34 @@
         <v>D14</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...D.15. - Hypothyroidism</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
       <c r="E126" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="27" t="str">
@@ -7979,34 +7979,34 @@
         <v>D15</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="M126" s="32" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="str">
         <f t="shared" si="7"/>
         <v>...D.16. - Hyperlipidemia</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
       <c r="E127" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="27" t="str">
@@ -8018,69 +8018,69 @@
         <v>D16</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M127" s="32" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B128" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C128" s="40"/>
       <c r="D128" s="40"/>
       <c r="E128" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I128" s="27"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M128" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N128" s="2"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">...D.04. - Mental Health disorders </v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
       <c r="E129" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I129" s="27" t="str">
         <f>CONCATENATE(E129,F129,G129)</f>
@@ -8092,13 +8092,13 @@
       <c r="M129" s="16"/>
       <c r="N129" s="2"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B130" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
@@ -8111,14 +8111,14 @@
         <v/>
       </c>
       <c r="J130" s="43" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="16"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -8137,13 +8137,13 @@
       <c r="M131" s="16"/>
       <c r="N131" s="2"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B132" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C132" s="41"/>
       <c r="D132" s="41"/>
@@ -8155,31 +8155,31 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M132" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N132" s="2"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B133" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C133" s="39"/>
       <c r="D133" s="39"/>
       <c r="E133" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H133" s="27" t="str">
         <f>CONCATENATE("c",E133,F133,G133)</f>
@@ -8189,31 +8189,31 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M133" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N133" s="2"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B134" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C134" s="39"/>
       <c r="D134" s="39"/>
       <c r="E134" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H134" s="27" t="str">
         <f>CONCATENATE("c",E134,F134,G134)</f>
@@ -8223,31 +8223,31 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M134" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B135" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C135" s="41"/>
       <c r="D135" s="41"/>
       <c r="E135" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H135" s="27" t="str">
         <f>CONCATENATE("c",E135,F135,G135)</f>
@@ -8257,31 +8257,31 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M135" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="B136" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C136" s="41"/>
       <c r="D136" s="41"/>
       <c r="E136" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H136" s="27" t="str">
         <f>CONCATENATE("c",E136,F136,G136)</f>
@@ -8291,14 +8291,14 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M136" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="41"/>
       <c r="D137" s="41"/>
@@ -8308,33 +8308,33 @@
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
       <c r="J137" s="37" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K137" s="37" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L137" s="3"/>
       <c r="M137" s="16"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="str">
         <f t="shared" ref="A138:A210" si="17">IF(I138&lt;&gt;"",IF(G138&lt;&gt;"",CONCATENATE("....",E138,".",F138,".",G138,". - ",B138),IF(F138&lt;&gt;"",CONCATENATE("...",E138,".",F138,". - ",B138),CONCATENATE("..",E138,". - ",B138))),"")</f>
         <v/>
       </c>
       <c r="B138" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C138" s="41"/>
       <c r="D138" s="41"/>
       <c r="E138" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F138" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H138" s="27" t="str">
         <f t="shared" ref="H138:H140" si="18">CONCATENATE("c",E138,F138,G138)</f>
@@ -8344,31 +8344,31 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M138" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B139" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C139" s="41"/>
       <c r="D139" s="41"/>
       <c r="E139" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H139" s="27" t="str">
         <f t="shared" si="18"/>
@@ -8378,31 +8378,31 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M139" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B140" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C140" s="41"/>
       <c r="D140" s="41"/>
       <c r="E140" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H140" s="27" t="str">
         <f t="shared" si="18"/>
@@ -8412,60 +8412,60 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M140" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B141" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C141" s="41"/>
       <c r="D141" s="41"/>
       <c r="E141" s="4"/>
       <c r="F141" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M141" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N141" s="2"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B142" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C142" s="39"/>
       <c r="D142" s="39"/>
       <c r="E142" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H142" s="27" t="str">
         <f>CONCATENATE("c",E142,F142,G142)</f>
@@ -8475,31 +8475,31 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M142" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N142" s="2"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B143" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C143" s="39"/>
       <c r="D143" s="39"/>
       <c r="E143" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H143" s="27" t="str">
         <f>CONCATENATE("c",E143,F143,G143)</f>
@@ -8509,31 +8509,31 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M143" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N143" s="2"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B144" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C144" s="41"/>
       <c r="D144" s="41"/>
       <c r="E144" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H144" s="27" t="str">
         <f>CONCATENATE("c",E144,F144,G144)</f>
@@ -8543,31 +8543,31 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M144" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N144" s="2"/>
     </row>
-    <row r="145" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B145" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C145" s="39"/>
       <c r="D145" s="39"/>
       <c r="E145" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H145" s="27" t="str">
         <f>CONCATENATE("c",E145,F145,G145)</f>
@@ -8577,28 +8577,28 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M145" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B146" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C146" s="39"/>
       <c r="D146" s="39"/>
       <c r="E146" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="27"/>
@@ -8606,34 +8606,34 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M146" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.06. - Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C147" s="39" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D147" s="39" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F147" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="27" t="str">
@@ -8645,37 +8645,37 @@
         <v>D06</v>
       </c>
       <c r="J147" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="L147" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="K147" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="L147" s="3" t="s">
-        <v>846</v>
-      </c>
       <c r="M147" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="str">
         <f t="shared" si="17"/>
         <v>....D.06.a. - Alzheimer’s  disease</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C148" s="39"/>
       <c r="D148" s="39"/>
       <c r="E148" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H148" s="27" t="str">
         <f t="shared" si="19"/>
@@ -8688,31 +8688,31 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="M148" s="32" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="str">
         <f t="shared" si="17"/>
         <v>....D.06.b. - Unspecified dementia</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C149" s="39"/>
       <c r="D149" s="39"/>
       <c r="E149" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H149" s="27" t="str">
         <f t="shared" si="19"/>
@@ -8725,31 +8725,31 @@
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="M149" s="32" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="str">
         <f t="shared" si="17"/>
         <v>....D.06.c. - Vascular dementia</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C150" s="39"/>
       <c r="D150" s="39"/>
       <c r="E150" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F150" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H150" s="27" t="str">
         <f t="shared" si="19"/>
@@ -8762,31 +8762,31 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M150" s="32" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B151" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C151" s="39"/>
       <c r="D151" s="39"/>
       <c r="E151" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H151" s="27" t="str">
         <f t="shared" si="19"/>
@@ -8796,30 +8796,30 @@
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="M151" s="32" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.08. - Parkinson's disease</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C152" s="41"/>
       <c r="D152" s="41" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F152" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="27" t="str">
@@ -8831,34 +8831,34 @@
         <v>D08</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M152" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B153" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C153" s="41"/>
       <c r="D153" s="41"/>
       <c r="E153" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F153" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="27" t="str">
@@ -8869,28 +8869,28 @@
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M153" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B154" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C154" s="41"/>
       <c r="D154" s="41"/>
       <c r="E154" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F154" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="27" t="str">
@@ -8901,28 +8901,28 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M154" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B155" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C155" s="41"/>
       <c r="D155" s="41"/>
       <c r="E155" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="27" t="str">
@@ -8933,28 +8933,28 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M155" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N155" s="2"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B156" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C156" s="41"/>
       <c r="D156" s="41"/>
       <c r="E156" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="27" t="str">
@@ -8965,30 +8965,30 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M156" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.07. - Other neurological conditions</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C157" s="41"/>
       <c r="D157" s="41" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F157" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="27" t="str">
@@ -9000,34 +9000,34 @@
         <v>D07</v>
       </c>
       <c r="J157" s="35" t="s">
+        <v>746</v>
+      </c>
+      <c r="K157" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="M157" s="36" t="s">
         <v>748</v>
       </c>
-      <c r="K157" s="15" t="s">
-        <v>728</v>
-      </c>
-      <c r="L157" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="M157" s="36" t="s">
-        <v>750</v>
-      </c>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B158" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C158" s="39"/>
       <c r="D158" s="39"/>
       <c r="E158" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F158" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="27"/>
@@ -9035,27 +9035,27 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M158" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B159" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C159" s="39"/>
       <c r="D159" s="39"/>
       <c r="E159" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F159" s="23">
         <v>99</v>
@@ -9069,25 +9069,25 @@
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M159" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B160" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C160" s="39"/>
       <c r="D160" s="39"/>
       <c r="E160" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F160" s="23">
         <v>99</v>
@@ -9101,25 +9101,25 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M160" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N160" s="2"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B161" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C161" s="39"/>
       <c r="D161" s="39"/>
       <c r="E161" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F161" s="23">
         <v>99</v>
@@ -9133,25 +9133,25 @@
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M161" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N161" s="2"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B162" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C162" s="39"/>
       <c r="D162" s="39"/>
       <c r="E162" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F162" s="23">
         <v>99</v>
@@ -9165,25 +9165,25 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M162" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N162" s="2"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B163" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C163" s="39"/>
       <c r="D163" s="39"/>
       <c r="E163" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F163" s="23">
         <v>99</v>
@@ -9197,25 +9197,25 @@
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M163" s="32" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N163" s="2"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B164" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C164" s="39"/>
       <c r="D164" s="39"/>
       <c r="E164" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F164" s="23">
         <v>99</v>
@@ -9229,25 +9229,25 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M164" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N164" s="2"/>
     </row>
-    <row r="165" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B165" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C165" s="39"/>
       <c r="D165" s="39"/>
       <c r="E165" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F165" s="23">
         <v>99</v>
@@ -9261,27 +9261,27 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M165" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="str">
         <f t="shared" si="17"/>
         <v>..C. - Cardiovascular diseases</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C166" s="39"/>
       <c r="D166" s="39"/>
       <c r="E166" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="4"/>
@@ -9293,27 +9293,27 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M166" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N166" s="2"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B167" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C167" s="41"/>
       <c r="D167" s="41" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F167" s="23">
         <v>99</v>
@@ -9327,30 +9327,30 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M167" s="32" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N167" s="2"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.01. - Hypertensive heart disease</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C168" s="41"/>
       <c r="D168" s="41" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F168" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="27" t="str">
@@ -9362,36 +9362,36 @@
         <v>C01</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M168" s="32" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N168" s="2"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.02. - Ischemic heart disease</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C169" s="41"/>
       <c r="D169" s="41" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F169" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="27" t="str">
@@ -9405,28 +9405,28 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M169" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N169" s="2"/>
     </row>
-    <row r="170" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.03. - Stroke</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C170" s="41"/>
       <c r="D170" s="41"/>
       <c r="E170" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="27" t="str">
@@ -9438,36 +9438,36 @@
         <v>C03</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L170" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="M170" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="M170" s="32" t="s">
-        <v>489</v>
-      </c>
       <c r="N170" s="2"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D171" s="41"/>
       <c r="E171" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F171" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="27" t="str">
@@ -9479,36 +9479,36 @@
         <v>C04</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M171" s="32" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N171" s="38" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.05. - Congestive heart failure</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C172" s="41"/>
       <c r="D172" s="41" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F172" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="27" t="str">
@@ -9520,34 +9520,34 @@
         <v>C05</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M172" s="32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N172" s="2"/>
     </row>
-    <row r="173" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.06. - Cardiac arrest</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C173" s="41"/>
       <c r="D173" s="41"/>
       <c r="E173" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F173" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="27" t="str">
@@ -9559,34 +9559,34 @@
         <v>C06</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M173" s="32" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N173" s="2"/>
     </row>
-    <row r="174" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.07. - Supraventricular arrhythmia</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C174" s="41"/>
       <c r="D174" s="41"/>
       <c r="E174" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F174" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="27" t="str">
@@ -9598,34 +9598,34 @@
         <v>C07</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M174" s="32" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N174" s="2"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.08. - Valve disorders</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C175" s="41"/>
       <c r="D175" s="41"/>
       <c r="E175" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F175" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="27" t="str">
@@ -9637,34 +9637,34 @@
         <v>C08</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="M175" s="32" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="N175" s="2"/>
     </row>
-    <row r="176" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.09. - Thromboembolism</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C176" s="41"/>
       <c r="D176" s="41"/>
       <c r="E176" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="27" t="str">
@@ -9676,33 +9676,33 @@
         <v>C09</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M176" s="32" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="N176" s="2"/>
     </row>
-    <row r="177" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...C.99. - Other or unspecified cardiovascular diseases</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C177" s="39" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D177" s="39"/>
       <c r="E177" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F177" s="23">
         <v>99</v>
@@ -9717,36 +9717,36 @@
         <v>C99</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M177" s="16" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N177" s="38" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B178" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C178" s="39"/>
       <c r="D178" s="39"/>
       <c r="E178" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F178" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="27"/>
@@ -9754,30 +9754,30 @@
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M178" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N178" s="2"/>
     </row>
-    <row r="179" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.66. - Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C179" s="39" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D179" s="39"/>
       <c r="E179" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F179" s="23" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="27" t="str">
@@ -9789,34 +9789,34 @@
         <v>D66</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M179" s="32" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N179" s="2"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.67. - Asthma</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C180" s="39"/>
       <c r="D180" s="39"/>
       <c r="E180" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F180" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="27" t="str">
@@ -9830,28 +9830,28 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M180" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N180" s="2"/>
     </row>
-    <row r="181" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.68. - Other respiratory diseases</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C181" s="39"/>
       <c r="D181" s="39"/>
       <c r="E181" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F181" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="27" t="str">
@@ -9864,31 +9864,31 @@
       </c>
       <c r="J181" s="3"/>
       <c r="K181" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M181" s="32" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="N181" s="2"/>
     </row>
-    <row r="182" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.69. - Respiratory failure</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C182" s="39"/>
       <c r="D182" s="39"/>
       <c r="E182" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="27" t="str">
@@ -9900,34 +9900,34 @@
         <v>D69</v>
       </c>
       <c r="J182" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="L182" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="K182" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>762</v>
-      </c>
       <c r="M182" s="32" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N182" s="2"/>
     </row>
-    <row r="183" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.70. - Interstitial lung disease</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C183" s="39"/>
       <c r="D183" s="39"/>
       <c r="E183" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="27" t="str">
@@ -9939,34 +9939,34 @@
         <v>D70</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="M183" s="32" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="N183" s="2"/>
     </row>
-    <row r="184" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.71. - Aspiration pneumonitis</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C184" s="39"/>
       <c r="D184" s="39"/>
       <c r="E184" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="27" t="str">
@@ -9978,34 +9978,34 @@
         <v>D71</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="M184" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N184" s="2"/>
     </row>
-    <row r="185" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.72. - ARDS</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C185" s="39"/>
       <c r="D185" s="39"/>
       <c r="E185" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F185" s="23" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="27" t="str">
@@ -10017,74 +10017,74 @@
         <v>D72</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M185" s="32" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N185" s="2"/>
     </row>
-    <row r="186" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.09. - Digestive diseases (excluding cirrhosis)</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C186" s="39" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D186" s="39"/>
       <c r="E186" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F186" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I186" s="27" t="str">
         <f t="shared" si="25"/>
         <v>D09</v>
       </c>
       <c r="J186" s="37" t="s">
+        <v>713</v>
+      </c>
+      <c r="K186" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="K186" s="3" t="s">
-        <v>717</v>
-      </c>
       <c r="L186" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M186" s="16" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N186" s="2"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B187" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C187" s="39"/>
       <c r="D187" s="39"/>
       <c r="E187" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F187" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="27" t="str">
@@ -10095,28 +10095,28 @@
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M187" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N187" s="2"/>
     </row>
-    <row r="188" spans="1:14" ht="65" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.11. - Liver cirrhosis (non-alcohol)</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C188" s="41"/>
       <c r="D188" s="41"/>
       <c r="E188" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F188" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="27" t="str">
@@ -10128,34 +10128,34 @@
         <v>D11</v>
       </c>
       <c r="J188" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="M188" s="32" t="s">
         <v>711</v>
       </c>
-      <c r="K188" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="L188" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="M188" s="32" t="s">
-        <v>713</v>
-      </c>
       <c r="N188" s="2"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B189" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C189" s="41"/>
       <c r="D189" s="41"/>
       <c r="E189" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F189" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="27" t="str">
@@ -10166,28 +10166,28 @@
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M189" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N189" s="2"/>
     </row>
-    <row r="190" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B190" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C190" s="41"/>
       <c r="D190" s="41"/>
       <c r="E190" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F190" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="27" t="str">
@@ -10196,34 +10196,34 @@
       </c>
       <c r="I190" s="27"/>
       <c r="J190" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L190" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="M190" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="M190" s="32" t="s">
-        <v>747</v>
-      </c>
       <c r="N190" s="2"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B191" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C191" s="41"/>
       <c r="D191" s="41"/>
       <c r="E191" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F191" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="27" t="str">
@@ -10234,28 +10234,28 @@
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M191" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N191" s="2"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B192" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C192" s="41"/>
       <c r="D192" s="41"/>
       <c r="E192" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F192" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="27" t="str">
@@ -10266,28 +10266,28 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M192" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N192" s="2"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B193" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C193" s="41"/>
       <c r="D193" s="41"/>
       <c r="E193" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F193" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="27" t="str">
@@ -10298,28 +10298,28 @@
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M193" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N193" s="2"/>
     </row>
-    <row r="194" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B194" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C194" s="41"/>
       <c r="D194" s="41"/>
       <c r="E194" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F194" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="27" t="str">
@@ -10328,34 +10328,34 @@
       </c>
       <c r="I194" s="27"/>
       <c r="J194" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L194" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="M194" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="M194" s="32" t="s">
-        <v>746</v>
-      </c>
       <c r="N194" s="2"/>
     </row>
-    <row r="195" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B195" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C195" s="41"/>
       <c r="D195" s="41"/>
       <c r="E195" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F195" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="27" t="str">
@@ -10364,31 +10364,31 @@
       </c>
       <c r="I195" s="27"/>
       <c r="J195" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="L195" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="K195" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="L195" s="3" t="s">
+      <c r="M195" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="M195" s="32" t="s">
-        <v>469</v>
-      </c>
       <c r="N195" s="2"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B196" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C196" s="39"/>
       <c r="D196" s="39"/>
       <c r="E196" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" s="4"/>
@@ -10397,32 +10397,32 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M196" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N196" s="2"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="str">
         <f t="shared" si="17"/>
         <v>...D.10. - Kidney diseases</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C197" s="41"/>
       <c r="D197" s="41"/>
       <c r="E197" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F197" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I197" s="27" t="str">
         <f>CONCATENATE(E197,F197,G197)</f>
@@ -10431,31 +10431,31 @@
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M197" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N197" s="2"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="str">
         <f t="shared" si="17"/>
         <v>....D.10.a. - Acute glomerulonephritis</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C198" s="39"/>
       <c r="D198" s="39"/>
       <c r="E198" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F198" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H198" s="27" t="str">
         <f t="shared" ref="H198:H206" si="27">CONCATENATE("c",E198,F198,G198)</f>
@@ -10468,31 +10468,31 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M198" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N198" s="2"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="str">
         <f t="shared" si="17"/>
         <v>....D.10.b. - Chronic kidney disease due to diabetes</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C199" s="39"/>
       <c r="D199" s="39"/>
       <c r="E199" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F199" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H199" s="27" t="str">
         <f t="shared" si="27"/>
@@ -10505,31 +10505,31 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M199" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N199" s="2"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="str">
         <f t="shared" si="17"/>
         <v>....D.10.c. - Other chronic kidney disease</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C200" s="39"/>
       <c r="D200" s="39"/>
       <c r="E200" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F200" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H200" s="27" t="str">
         <f t="shared" si="27"/>
@@ -10542,25 +10542,25 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="M200" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="M200" s="32" t="s">
-        <v>394</v>
-      </c>
       <c r="N200" s="2"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B201" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C201" s="41"/>
       <c r="D201" s="41"/>
       <c r="E201" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F201" s="23">
         <v>99</v>
@@ -10574,25 +10574,25 @@
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M201" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N201" s="2"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B202" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C202" s="41"/>
       <c r="D202" s="41"/>
       <c r="E202" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F202" s="23">
         <v>99</v>
@@ -10606,25 +10606,25 @@
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M202" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N202" s="2"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B203" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C203" s="41"/>
       <c r="D203" s="41"/>
       <c r="E203" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F203" s="23">
         <v>99</v>
@@ -10638,25 +10638,25 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M203" s="32" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="N203" s="2"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B204" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C204" s="41"/>
       <c r="D204" s="41"/>
       <c r="E204" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F204" s="23">
         <v>99</v>
@@ -10670,25 +10670,25 @@
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M204" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N204" s="2"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B205" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C205" s="41"/>
       <c r="D205" s="41"/>
       <c r="E205" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F205" s="23">
         <v>99</v>
@@ -10702,25 +10702,25 @@
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M205" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N205" s="2"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B206" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C206" s="39"/>
       <c r="D206" s="39"/>
       <c r="E206" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F206" s="23">
         <v>99</v>
@@ -10732,56 +10732,56 @@
       </c>
       <c r="I206" s="27"/>
       <c r="L206" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M206" s="32" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="N206" s="2"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B207" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C207" s="39"/>
       <c r="D207" s="39"/>
       <c r="E207" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I207" s="27"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M207" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N207" s="2"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B208" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C208" s="41"/>
       <c r="D208" s="41"/>
       <c r="E208" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F208" s="23">
         <v>99</v>
@@ -10795,25 +10795,25 @@
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M208" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N208" s="2"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B209" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C209" s="41"/>
       <c r="D209" s="41"/>
       <c r="E209" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F209" s="23">
         <v>99</v>
@@ -10827,25 +10827,25 @@
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M209" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N209" s="2"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B210" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C210" s="41"/>
       <c r="D210" s="41"/>
       <c r="E210" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F210" s="23">
         <v>99</v>
@@ -10859,25 +10859,25 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M210" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N210" s="2"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="str">
         <f t="shared" ref="A211:A259" si="28">IF(I211&lt;&gt;"",IF(G211&lt;&gt;"",CONCATENATE("....",E211,".",F211,".",G211,". - ",B211),IF(F211&lt;&gt;"",CONCATENATE("...",E211,".",F211,". - ",B211),CONCATENATE("..",E211,". - ",B211))),"")</f>
         <v/>
       </c>
       <c r="B211" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C211" s="41"/>
       <c r="D211" s="41"/>
       <c r="E211" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F211" s="23">
         <v>99</v>
@@ -10891,25 +10891,25 @@
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M211" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N211" s="2"/>
     </row>
-    <row r="212" spans="1:14" ht="65" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B212" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C212" s="41"/>
       <c r="D212" s="41"/>
       <c r="E212" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F212" s="23">
         <v>99</v>
@@ -10921,38 +10921,38 @@
       </c>
       <c r="I212" s="27"/>
       <c r="J212" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L212" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="M212" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="M212" s="32" t="s">
-        <v>466</v>
-      </c>
       <c r="N212" s="2"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...D.12. - Congenital anomalies</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C213" s="39"/>
       <c r="D213" s="39"/>
       <c r="E213" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F213" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G213" s="4"/>
       <c r="H213" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I213" s="27" t="str">
         <f>CONCATENATE(E213,F213,G213)</f>
@@ -10961,28 +10961,28 @@
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M213" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N213" s="2"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B214" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
       <c r="E214" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F214" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="27" t="str">
@@ -10993,28 +10993,28 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
       <c r="L214" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M214" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N214" s="2"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B215" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C215" s="41"/>
       <c r="D215" s="41"/>
       <c r="E215" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F215" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="27" t="str">
@@ -11025,28 +11025,28 @@
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M215" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N215" s="2"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B216" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C216" s="41"/>
       <c r="D216" s="41"/>
       <c r="E216" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F216" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="27" t="str">
@@ -11057,28 +11057,28 @@
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M216" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N216" s="2"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B217" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C217" s="41"/>
       <c r="D217" s="41"/>
       <c r="E217" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F217" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="27" t="str">
@@ -11089,28 +11089,28 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M217" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N217" s="2"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B218" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C218" s="41"/>
       <c r="D218" s="41"/>
       <c r="E218" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F218" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="27" t="str">
@@ -11121,28 +11121,28 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M218" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N218" s="2"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B219" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C219" s="41"/>
       <c r="D219" s="41"/>
       <c r="E219" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F219" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="27" t="str">
@@ -11153,28 +11153,28 @@
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M219" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N219" s="2"/>
     </row>
-    <row r="220" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...D.13. - Urinary tract infection</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C220" s="41"/>
       <c r="D220" s="41"/>
       <c r="E220" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F220" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="27" t="str">
@@ -11186,60 +11186,60 @@
         <v>D13</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M220" s="32" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N220" s="2"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B221" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C221" s="39"/>
       <c r="D221" s="39"/>
       <c r="E221" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F221" s="23"/>
       <c r="G221" s="4"/>
       <c r="H221" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I221" s="27"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M221" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N221" s="2"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B222" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C222" s="41"/>
       <c r="D222" s="41"/>
       <c r="E222" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F222" s="23">
         <v>99</v>
@@ -11253,25 +11253,25 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M222" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N222" s="2"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B223" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C223" s="41"/>
       <c r="D223" s="41"/>
       <c r="E223" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F223" s="23">
         <v>99</v>
@@ -11285,25 +11285,25 @@
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M223" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N223" s="2"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B224" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C224" s="41"/>
       <c r="D224" s="41"/>
       <c r="E224" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F224" s="23">
         <v>99</v>
@@ -11317,25 +11317,25 @@
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M224" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N224" s="2"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B225" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C225" s="41"/>
       <c r="D225" s="41"/>
       <c r="E225" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F225" s="23">
         <v>99</v>
@@ -11349,26 +11349,26 @@
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M225" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N225" s="2"/>
     </row>
-    <row r="226" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="str">
         <f>IF(I226&lt;&gt;"",IF(G226&lt;&gt;"",CONCATENATE("....",E226,".",F226,".",G226,". - ",B226),IF(F226&lt;&gt;"",CONCATENATE("...",E226,".",F226,". - ",B226),CONCATENATE("..",E226,". - ",B226))),"")</f>
         <v>...D.99. - Other Chronic Conditions</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E226" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F226" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H226" s="30"/>
       <c r="I226" s="27" t="str">
@@ -11376,21 +11376,21 @@
         <v>D99</v>
       </c>
       <c r="J226" s="44" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="str">
         <f t="shared" si="28"/>
         <v>..E. - Injuries</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C227" s="39"/>
       <c r="D227" s="39"/>
       <c r="E227" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F227" s="23"/>
       <c r="G227" s="4"/>
@@ -11402,28 +11402,28 @@
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M227" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N227" s="2"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B228" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C228" s="39"/>
       <c r="D228" s="39"/>
       <c r="E228" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F228" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="27"/>
@@ -11431,28 +11431,28 @@
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M228" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N228" s="2"/>
     </row>
-    <row r="229" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...E.01. - Road injury</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C229" s="39"/>
       <c r="D229" s="39"/>
       <c r="E229" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F229" s="23" t="s">
         <v>422</v>
-      </c>
-      <c r="F229" s="23" t="s">
-        <v>423</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="27" t="str">
@@ -11464,36 +11464,36 @@
         <v>E01</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L229" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="M229" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="M229" s="16" t="s">
-        <v>462</v>
-      </c>
       <c r="N229" s="2"/>
     </row>
-    <row r="230" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...E.02. - Drug overdose (poisoning/substance use disorders)</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C230" s="39" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D230" s="39"/>
       <c r="E230" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F230" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="27" t="str">
@@ -11505,24 +11505,24 @@
         <v>E02</v>
       </c>
       <c r="J230" s="42" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K230" s="3"/>
       <c r="L230" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M230" s="16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N230" s="2"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="str">
         <f t="shared" ref="A231:A239" si="32">IF(I231&lt;&gt;"",IF(G231&lt;&gt;"",CONCATENATE("....",E231,".",F231,".",G231,". - ",B231),IF(F231&lt;&gt;"",CONCATENATE("...",E231,".",F231,". - ",B231),CONCATENATE("..",E231,". - ",B231))),"")</f>
         <v/>
       </c>
       <c r="B231" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C231" s="41"/>
       <c r="D231" s="41"/>
@@ -11534,28 +11534,28 @@
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M231" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N231" s="2"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="B232" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C232" s="39"/>
       <c r="D232" s="39"/>
       <c r="E232" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F232" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="27" t="str">
@@ -11566,28 +11566,28 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M232" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N232" s="2"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="B233" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C233" s="39"/>
       <c r="D233" s="39"/>
       <c r="E233" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F233" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="27" t="str">
@@ -11598,28 +11598,28 @@
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M233" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N233" s="2"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="B234" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C234" s="39"/>
       <c r="D234" s="39"/>
       <c r="E234" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F234" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="27" t="str">
@@ -11629,28 +11629,28 @@
       <c r="I234" s="27"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M234" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N234" s="2"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="B235" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C235" s="39"/>
       <c r="D235" s="39"/>
       <c r="E235" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F235" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="27" t="str">
@@ -11661,28 +11661,28 @@
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M235" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N235" s="2"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="B236" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C236" s="39"/>
       <c r="D236" s="39"/>
       <c r="E236" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F236" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="27" t="str">
@@ -11691,38 +11691,38 @@
       </c>
       <c r="I236" s="27"/>
       <c r="J236" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M236" s="16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="str">
         <f t="shared" si="32"/>
         <v>...E.03. - Alcohol-related conditions</v>
       </c>
       <c r="B237" s="39" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D237" s="39"/>
       <c r="E237" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F237" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="27"/>
@@ -11736,24 +11736,24 @@
       <c r="M237" s="16"/>
       <c r="N237" s="2"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="str">
         <f t="shared" si="32"/>
         <v>....E.03.a. - Alcoholic liver disease</v>
       </c>
       <c r="B238" s="39" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C238" s="39"/>
       <c r="D238" s="39"/>
       <c r="E238" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F238" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H238" s="27" t="str">
         <f t="shared" si="33"/>
@@ -11764,37 +11764,37 @@
         <v>E03a</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M238" s="16" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="N238" s="2"/>
     </row>
-    <row r="239" spans="1:14" ht="104" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" ht="102" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="str">
         <f t="shared" si="32"/>
         <v>....E.03.b. - Other alcohol-related</v>
       </c>
       <c r="B239" s="39" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C239" s="39"/>
       <c r="D239" s="39"/>
       <c r="E239" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F239" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H239" s="27" t="str">
         <f t="shared" si="33"/>
@@ -11805,34 +11805,34 @@
         <v>E03b</v>
       </c>
       <c r="J239" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K239" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="L239" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="L239" s="3" t="s">
-        <v>725</v>
-      </c>
       <c r="M239" s="16" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N239" s="2"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...E.04. - Poisonings (non-drug)</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C240" s="39"/>
       <c r="D240" s="39"/>
       <c r="E240" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F240" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="27" t="str">
@@ -11845,31 +11845,31 @@
       </c>
       <c r="J240" s="3"/>
       <c r="K240" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L240" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L240" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="M240" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N240" s="2"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...E.05. - Falls</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C241" s="39"/>
       <c r="D241" s="39"/>
       <c r="E241" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F241" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G241" s="4"/>
       <c r="H241" s="27" t="str">
@@ -11881,32 +11881,32 @@
         <v>E05</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K241" s="3"/>
       <c r="L241" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M241" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N241" s="2"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B242" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C242" s="39"/>
       <c r="D242" s="39"/>
       <c r="E242" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F242" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="27" t="str">
@@ -11915,28 +11915,28 @@
       </c>
       <c r="I242" s="27"/>
       <c r="L242" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M242" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N242" s="2"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B243" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C243" s="39"/>
       <c r="D243" s="39"/>
       <c r="E243" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F243" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G243" s="4"/>
       <c r="H243" s="27" t="str">
@@ -11947,28 +11947,28 @@
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M243" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N243" s="2"/>
     </row>
-    <row r="244" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B244" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C244" s="39"/>
       <c r="D244" s="39"/>
       <c r="E244" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F244" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="27" t="str">
@@ -11979,28 +11979,28 @@
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M244" s="32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N244" s="2"/>
     </row>
-    <row r="245" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B245" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C245" s="39"/>
       <c r="D245" s="39"/>
       <c r="E245" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F245" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="27" t="str">
@@ -12009,34 +12009,34 @@
       </c>
       <c r="I245" s="27"/>
       <c r="J245" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M245" s="32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N245" s="2"/>
     </row>
-    <row r="246" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B246" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C246" s="39"/>
       <c r="D246" s="39"/>
       <c r="E246" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F246" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="27" t="str">
@@ -12045,36 +12045,36 @@
       </c>
       <c r="I246" s="27"/>
       <c r="J246" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L246" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="M246" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="M246" s="32" t="s">
-        <v>464</v>
-      </c>
       <c r="N246" s="2"/>
     </row>
-    <row r="247" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...E.06. - Other unintentional injuries</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C247" s="39"/>
       <c r="D247" s="39" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F247" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="27" t="str">
@@ -12086,28 +12086,28 @@
         <v>E06</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K247" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="L247" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="L247" s="3" t="s">
+      <c r="M247" s="32" t="s">
         <v>511</v>
       </c>
-      <c r="M247" s="32" t="s">
-        <v>512</v>
-      </c>
       <c r="N247" s="19" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B248" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C248" s="39"/>
       <c r="D248" s="39"/>
@@ -12119,30 +12119,30 @@
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
       <c r="L248" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M248" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N248" s="2"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...E.07. - Suicide/Self-harm</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D249" s="39"/>
       <c r="E249" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F249" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="27" t="str">
@@ -12154,40 +12154,40 @@
         <v>E07</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K249" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="L249" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="L249" s="3" t="s">
+      <c r="M249" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="M249" s="32" t="s">
-        <v>478</v>
-      </c>
       <c r="N249" s="2"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...E.08. - Homicide/Interpersonal violence</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D250" s="39"/>
       <c r="E250" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F250" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I250" s="27" t="str">
         <f>CONCATENATE(E250,F250,G250)</f>
@@ -12195,28 +12195,28 @@
       </c>
       <c r="J250" s="3"/>
       <c r="K250" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N250" s="2"/>
     </row>
-    <row r="251" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="str">
         <f t="shared" si="28"/>
         <v>....E.08.a. - Homicide excluding legal intervention</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C251" s="39"/>
       <c r="D251" s="39"/>
       <c r="E251" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F251" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H251" s="27" t="str">
         <f t="shared" si="34"/>
@@ -12227,35 +12227,35 @@
         <v>E08a</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K251" s="3"/>
       <c r="L251" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="M251" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="M251" s="16" t="s">
-        <v>581</v>
-      </c>
       <c r="N251" s="2"/>
     </row>
-    <row r="252" spans="1:14" ht="91" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="str">
         <f t="shared" si="28"/>
         <v>....E.08.b. - Legal intervention</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C252" s="39"/>
       <c r="D252" s="39"/>
       <c r="E252" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F252" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H252" s="27" t="str">
         <f t="shared" si="34"/>
@@ -12266,37 +12266,37 @@
         <v>E08b</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M252" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N252" s="2"/>
     </row>
-    <row r="253" spans="1:14" ht="104" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" ht="102" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="str">
         <f t="shared" si="28"/>
         <v>....E.08.c. - Execution, War, Terrorism</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C253" s="39"/>
       <c r="D253" s="39"/>
       <c r="E253" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H253" s="27" t="str">
         <f t="shared" si="34"/>
@@ -12307,37 +12307,37 @@
         <v>E08c</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K253" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="M253" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="N253" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="L253" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="M253" s="32" t="s">
-        <v>580</v>
-      </c>
-      <c r="N253" s="19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...E.99. - Injuries of unknown intent (e.g., unintentional or self-harm), including overdoses and deaths by firearm</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E254" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F254" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H254" s="27" t="str">
         <f t="shared" si="34"/>
@@ -12348,34 +12348,34 @@
         <v>E99</v>
       </c>
       <c r="J254" s="31" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K254" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="L254" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="M254" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="L254" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="M254" s="13" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E255" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F255" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H255" s="27" t="str">
         <f t="shared" si="34"/>
@@ -12386,31 +12386,31 @@
         <v>Z01</v>
       </c>
       <c r="J255" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="K255" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="K255" s="31" t="s">
+      <c r="L255" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="L255" s="13" t="s">
-        <v>485</v>
-      </c>
       <c r="M255" s="13" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" ht="65" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="B256" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E256" s="34" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F256" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H256" s="29" t="str">
         <f t="shared" si="34"/>
@@ -12418,31 +12418,31 @@
       </c>
       <c r="I256" s="27"/>
       <c r="J256" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K256" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L256" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M256" s="13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E257" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F257" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H257" s="30"/>
       <c r="I257" s="27" t="str">
@@ -12450,19 +12450,19 @@
         <v>Z02</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="str">
         <f t="shared" si="28"/>
         <v>...Z.03. - Code does not map</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E258" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F258" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H258" s="30"/>
       <c r="I258" s="27" t="str">
@@ -12470,19 +12470,19 @@
         <v>Z03</v>
       </c>
       <c r="J258" s="13" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="str">
         <f t="shared" si="28"/>
         <v>..Z. - Unknown/Missing Value</v>
       </c>
       <c r="B259" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E259" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H259" s="30"/>
       <c r="I259" s="27" t="str">
@@ -12490,9 +12490,9 @@
         <v>Z</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J261" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -12516,192 +12516,192 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="65.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="58.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="7"/>
+    <col min="1" max="1" width="26.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>375</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>387</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -12721,142 +12721,142 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="126.7265625" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="126.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G3" t="s">
+        <v>643</v>
+      </c>
+      <c r="H3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>641</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>638</v>
       </c>
-      <c r="E2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F2" t="s">
-        <v>590</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>644</v>
       </c>
-      <c r="H2" t="s">
-        <v>656</v>
-      </c>
-      <c r="J2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C3" t="s">
-        <v>639</v>
-      </c>
-      <c r="E3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E6" t="s">
+        <v>592</v>
+      </c>
+      <c r="G6" t="s">
         <v>645</v>
       </c>
-      <c r="H3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>646</v>
-      </c>
-      <c r="E6" t="s">
-        <v>594</v>
-      </c>
-      <c r="G6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>648</v>
       </c>
       <c r="D7">
         <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D8">
         <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D9">
         <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D10">
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G10" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="52" x14ac:dyDescent="0.35">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="51" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
         <f>IF([1]Sheet1!H1&lt;&gt;"",IF([1]Sheet1!F1&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D1,".",[1]Sheet1!E1,".",[1]Sheet1!F1,". - ",[1]Sheet1!B1),IF([1]Sheet1!E1&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D1,".",[1]Sheet1!E1,". - ",[1]Sheet1!B1),CONCATENATE("..",[1]Sheet1!D1,". - ",[1]Sheet1!B1))),"")</f>
         <v>...D.05. - Substance use disorders</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="39" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="str">
         <f>IF([1]Sheet1!H2&lt;&gt;"",IF([1]Sheet1!F2&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D2,".",[1]Sheet1!E2,".",[1]Sheet1!F2,". - ",[1]Sheet1!B2),IF([1]Sheet1!E2&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D2,".",[1]Sheet1!E2,". - ",[1]Sheet1!B2),CONCATENATE("..",[1]Sheet1!D2,". - ",[1]Sheet1!B2))),"")</f>
         <v>....D.05.a. - Alcohol use disorders</v>
@@ -12865,7 +12865,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="str">
         <f>IF([1]Sheet1!H3&lt;&gt;"",IF([1]Sheet1!F3&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D3,".",[1]Sheet1!E3,".",[1]Sheet1!F3,". - ",[1]Sheet1!B3),IF([1]Sheet1!E3&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D3,".",[1]Sheet1!E3,". - ",[1]Sheet1!B3),CONCATENATE("..",[1]Sheet1!D3,". - ",[1]Sheet1!B3))),"")</f>
         <v/>
@@ -12874,7 +12874,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="39" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="str">
         <f>IF([1]Sheet1!H4&lt;&gt;"",IF([1]Sheet1!F4&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D4,".",[1]Sheet1!E4,".",[1]Sheet1!F4,". - ",[1]Sheet1!B4),IF([1]Sheet1!E4&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D4,".",[1]Sheet1!E4,". - ",[1]Sheet1!B4),CONCATENATE("..",[1]Sheet1!D4,". - ",[1]Sheet1!B4))),"")</f>
         <v>....D.05.b. - Opioid use disorders</v>
@@ -12883,7 +12883,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="39" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="str">
         <f>IF([1]Sheet1!H5&lt;&gt;"",IF([1]Sheet1!F5&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D5,".",[1]Sheet1!E5,".",[1]Sheet1!F5,". - ",[1]Sheet1!B5),IF([1]Sheet1!E5&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D5,".",[1]Sheet1!E5,". - ",[1]Sheet1!B5),CONCATENATE("..",[1]Sheet1!D5,". - ",[1]Sheet1!B5))),"")</f>
         <v>....D.05.c. - Cocaine use disorders</v>
@@ -12892,7 +12892,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="52" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="51" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="str">
         <f>IF([1]Sheet1!H6&lt;&gt;"",IF([1]Sheet1!F6&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D6,".",[1]Sheet1!E6,".",[1]Sheet1!F6,". - ",[1]Sheet1!B6),IF([1]Sheet1!E6&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D6,".",[1]Sheet1!E6,". - ",[1]Sheet1!B6),CONCATENATE("..",[1]Sheet1!D6,". - ",[1]Sheet1!B6))),"")</f>
         <v>....D.05.d. - Amphetamine use disorders</v>
@@ -12901,7 +12901,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="str">
         <f>IF([1]Sheet1!H7&lt;&gt;"",IF([1]Sheet1!F7&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D7,".",[1]Sheet1!E7,".",[1]Sheet1!F7,". - ",[1]Sheet1!B7),IF([1]Sheet1!E7&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D7,".",[1]Sheet1!E7,". - ",[1]Sheet1!B7),CONCATENATE("..",[1]Sheet1!D7,". - ",[1]Sheet1!B7))),"")</f>
         <v/>
@@ -12910,7 +12910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="str">
         <f>IF([1]Sheet1!H8&lt;&gt;"",IF([1]Sheet1!F8&lt;&gt;"",CONCATENATE("....",[1]Sheet1!D8,".",[1]Sheet1!E8,".",[1]Sheet1!F8,". - ",[1]Sheet1!B8),IF([1]Sheet1!E8&lt;&gt;"",CONCATENATE("...",[1]Sheet1!D8,".",[1]Sheet1!E8,". - ",[1]Sheet1!B8),CONCATENATE("..",[1]Sheet1!D8,". - ",[1]Sheet1!B8))),"")</f>
         <v/>

--- a/myCCB/myInfo/icd10_to_CAUSE.xlsx
+++ b/myCCB/myInfo/icd10_to_CAUSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5C7A8-08C8-4BA2-8338-40E4116DD266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6ACB7-5C0B-4C2B-8C6F-34EAEDA114DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="883">
   <si>
     <t>Infectious and parasitic diseases</t>
   </si>
@@ -2860,6 +2860,9 @@
   </si>
   <si>
     <t>Cervical cancer</t>
+  </si>
+  <si>
+    <t>Congenital pneumonia</t>
   </si>
 </sst>
 </file>
@@ -3696,10 +3699,10 @@
   <dimension ref="A1:N261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5923,7 +5926,13 @@
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
+      <c r="A69" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>882</v>
+      </c>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="4" t="s">
